--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -1925,11 +1925,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1940,8 +1937,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8267,7 +8267,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomRight" activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8347,10 +8347,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="260" t="s">
+      <c r="I3" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="261"/>
+      <c r="J3" s="265"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="261" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -8456,7 +8456,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="263"/>
+      <c r="A6" s="262"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
+      <c r="A7" s="262"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="264"/>
+      <c r="A8" s="263"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="262" t="s">
+      <c r="A9" s="261" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -8676,7 +8676,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="263"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="263"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="264"/>
+      <c r="A12" s="263"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="263" t="s">
+      <c r="A13" s="262" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="130">
@@ -8902,7 +8902,7 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="263"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -8959,7 +8959,7 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
+      <c r="A15" s="262"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -9016,7 +9016,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="264"/>
+      <c r="A16" s="263"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="263" t="s">
+      <c r="A17" s="262" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="130">
@@ -9129,7 +9129,7 @@
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="263"/>
+      <c r="A18" s="262"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -9184,7 +9184,7 @@
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
+      <c r="A19" s="262"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -9239,7 +9239,7 @@
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="263"/>
+      <c r="A20" s="262"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="263"/>
+      <c r="A21" s="262"/>
       <c r="B21" s="124">
         <v>17</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="262" t="s">
+      <c r="A22" s="261" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -9407,7 +9407,7 @@
       <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="263"/>
+      <c r="A23" s="262"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="263"/>
+      <c r="A24" s="262"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="264"/>
+      <c r="A25" s="263"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="262" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="130">
@@ -9632,7 +9632,7 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="263"/>
+      <c r="A27" s="262"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -9687,7 +9687,7 @@
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="263"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
+      <c r="A29" s="262"/>
       <c r="B29" s="124">
         <v>25</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="262" t="s">
+      <c r="A30" s="261" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -9855,7 +9855,7 @@
       <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="263"/>
+      <c r="A31" s="262"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -9911,7 +9911,7 @@
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="263"/>
+      <c r="A32" s="262"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -9967,7 +9967,7 @@
       <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="263"/>
+      <c r="A33" s="262"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="264"/>
+      <c r="A34" s="263"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -10079,7 +10079,7 @@
       <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="262" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="130">
@@ -10138,7 +10138,7 @@
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="263"/>
+      <c r="A36" s="262"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -10193,7 +10193,7 @@
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="263"/>
+      <c r="A37" s="262"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="263"/>
+      <c r="A38" s="262"/>
       <c r="B38" s="124">
         <v>34</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="262" t="s">
+      <c r="A39" s="261" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -10361,7 +10361,7 @@
       <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="263"/>
+      <c r="A40" s="262"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" ref="R40:R47" si="13">SUM(M40:Q40)</f>
+        <f t="shared" ref="R40:R48" si="13">SUM(M40:Q40)</f>
         <v>6</v>
       </c>
       <c r="V40" s="36"/>
@@ -10417,7 +10417,7 @@
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="263"/>
+      <c r="A41" s="262"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="264"/>
+      <c r="A42" s="263"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="262" t="s">
+      <c r="A43" s="261" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -10593,7 +10593,7 @@
       <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="263"/>
+      <c r="A44" s="262"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -10652,7 +10652,7 @@
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="263"/>
+      <c r="A45" s="262"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -10718,7 +10718,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="263"/>
+      <c r="A46" s="262"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -10781,7 +10781,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="264"/>
+      <c r="A47" s="263"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -10839,7 +10839,7 @@
       <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="262" t="s">
+      <c r="A48" s="261" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -10874,18 +10874,31 @@
         <v>36</v>
       </c>
       <c r="L48" s="146"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="147"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="122"/>
+      <c r="M48" s="147">
+        <v>0</v>
+      </c>
+      <c r="N48" s="147">
+        <v>0</v>
+      </c>
+      <c r="O48" s="147">
+        <v>0</v>
+      </c>
+      <c r="P48" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="147">
+        <v>0</v>
+      </c>
+      <c r="R48" s="122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="V48" s="36"/>
       <c r="W48" s="21"/>
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="263"/>
+      <c r="A49" s="262"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -10930,7 +10943,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="263"/>
+      <c r="A50" s="262"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -10975,7 +10988,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="264"/>
+      <c r="A51" s="263"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -11019,7 +11032,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="262" t="s">
+      <c r="A52" s="261" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -11065,7 +11078,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="263"/>
+      <c r="A53" s="262"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -11108,7 +11121,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="263"/>
+      <c r="A54" s="262"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -11148,7 +11161,7 @@
       <c r="Q54" s="136"/>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="263"/>
+      <c r="A55" s="262"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -11186,18 +11199,18 @@
       <c r="O55" s="136"/>
       <c r="P55" s="136"/>
       <c r="Q55" s="136"/>
-      <c r="X55" s="265" t="s">
+      <c r="X55" s="260" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="265"/>
-      <c r="Z55" s="265"/>
-      <c r="AA55" s="265"/>
-      <c r="AB55" s="265"/>
-      <c r="AC55" s="265"/>
-      <c r="AD55" s="265"/>
+      <c r="Y55" s="260"/>
+      <c r="Z55" s="260"/>
+      <c r="AA55" s="260"/>
+      <c r="AB55" s="260"/>
+      <c r="AC55" s="260"/>
+      <c r="AD55" s="260"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="264"/>
+      <c r="A56" s="263"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -11236,13 +11249,13 @@
       <c r="P56" s="141"/>
       <c r="Q56" s="141"/>
       <c r="R56" s="145"/>
-      <c r="X56" s="265"/>
-      <c r="Y56" s="265"/>
-      <c r="Z56" s="265"/>
-      <c r="AA56" s="265"/>
-      <c r="AB56" s="265"/>
-      <c r="AC56" s="265"/>
-      <c r="AD56" s="265"/>
+      <c r="X56" s="260"/>
+      <c r="Y56" s="260"/>
+      <c r="Z56" s="260"/>
+      <c r="AA56" s="260"/>
+      <c r="AB56" s="260"/>
+      <c r="AC56" s="260"/>
+      <c r="AD56" s="260"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="257" t="s">
@@ -11283,13 +11296,13 @@
       <c r="P57" s="132"/>
       <c r="Q57" s="132"/>
       <c r="R57" s="122"/>
-      <c r="X57" s="265"/>
-      <c r="Y57" s="265"/>
-      <c r="Z57" s="265"/>
-      <c r="AA57" s="265"/>
-      <c r="AB57" s="265"/>
-      <c r="AC57" s="265"/>
-      <c r="AD57" s="265"/>
+      <c r="X57" s="260"/>
+      <c r="Y57" s="260"/>
+      <c r="Z57" s="260"/>
+      <c r="AA57" s="260"/>
+      <c r="AB57" s="260"/>
+      <c r="AC57" s="260"/>
+      <c r="AD57" s="260"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="258"/>
@@ -14819,6 +14832,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A47"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="X55:AD57"/>
     <mergeCell ref="A48:A51"/>
@@ -14829,22 +14858,6 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56">
     <cfRule type="expression" dxfId="2" priority="3">

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="1164" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2064" yWindow="1164" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="204">
   <si>
     <t>总额</t>
   </si>
@@ -625,6 +625,16 @@
   </si>
   <si>
     <t>交易是需要理由的</t>
+  </si>
+  <si>
+    <t>没拿住</t>
+  </si>
+  <si>
+    <t>没守规矩</t>
+  </si>
+  <si>
+    <t>过早进场
+不符合进场标准</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1961,15 +1971,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,6 +2015,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8263,11 +8267,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q50" sqref="Q50"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10864,18 +10868,20 @@
         <v>57.963703715000001</v>
       </c>
       <c r="H48" s="132"/>
-      <c r="I48" s="133"/>
+      <c r="I48" s="133">
+        <v>49.3</v>
+      </c>
       <c r="J48" s="134">
         <f t="shared" si="3"/>
-        <v>-1.008</v>
+        <v>-2.200000000000003E-2</v>
       </c>
       <c r="K48" s="217">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>48.325000000000003</v>
       </c>
       <c r="L48" s="146"/>
       <c r="M48" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="147">
         <v>0</v>
@@ -10887,11 +10893,11 @@
         <v>0</v>
       </c>
       <c r="Q48" s="147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R48" s="122">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V48" s="36"/>
       <c r="W48" s="21"/>
@@ -10924,11 +10930,11 @@
       <c r="I49" s="137"/>
       <c r="J49" s="138">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.98599999999999999</v>
       </c>
       <c r="K49" s="217">
         <f t="shared" si="9"/>
-        <v>23.65</v>
+        <v>35.974999999999994</v>
       </c>
       <c r="L49" s="139"/>
       <c r="M49" s="139"/>
@@ -10973,7 +10979,7 @@
       </c>
       <c r="K50" s="217">
         <f t="shared" si="9"/>
-        <v>12.6</v>
+        <v>24.924999999999997</v>
       </c>
       <c r="L50" s="139"/>
       <c r="M50" s="139"/>
@@ -11018,7 +11024,7 @@
       </c>
       <c r="K51" s="218">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12.324999999999999</v>
       </c>
       <c r="L51" s="141"/>
       <c r="M51" s="141"/>
@@ -14884,9 +14890,9 @@
   </sheetPr>
   <dimension ref="A1:BK58"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -14940,17 +14946,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="274"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="268"/>
       <c r="J1" s="196"/>
       <c r="K1" s="269" t="s">
         <v>176</v>
@@ -16574,8 +16580,8 @@
       <c r="D21" s="75">
         <v>43021</v>
       </c>
-      <c r="E21" s="52" t="s">
-        <v>156</v>
+      <c r="E21" s="287" t="s">
+        <v>203</v>
       </c>
       <c r="F21" s="52">
         <v>113.536</v>
@@ -17258,27 +17264,44 @@
       <c r="AS29" s="88">
         <v>0.99365000000000003</v>
       </c>
-      <c r="AT29" s="57">
+      <c r="AT29" s="113">
         <v>43034</v>
       </c>
-      <c r="AU29" s="67"/>
-      <c r="AV29" s="67"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="67">
+      <c r="AU29" s="112"/>
+      <c r="AV29" s="112">
+        <v>0.99824999999999997</v>
+      </c>
+      <c r="AW29" s="113">
+        <v>43042</v>
+      </c>
+      <c r="AX29" s="112">
         <f t="shared" si="22"/>
-        <v>-0.99365000000000003</v>
-      </c>
-      <c r="AY29" s="60" t="str">
+        <v>4.5999999999999375E-3</v>
+      </c>
+      <c r="AY29" s="117" t="str">
         <f t="shared" si="23"/>
-        <v>亏</v>
+        <v>盈</v>
       </c>
       <c r="AZ29" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="BA29" s="200" t="s">
+      <c r="BA29" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="BB29" s="201" t="s">
+      <c r="BB29" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC29" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD29" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE29" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF29" s="239"/>
+      <c r="BG29" s="239" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17471,19 +17494,31 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="W32" s="55"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="175">
+      <c r="W32" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="X32" s="53">
+        <v>0.76626000000000005</v>
+      </c>
+      <c r="Y32" s="75">
+        <v>43042</v>
+      </c>
+      <c r="Z32" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA32" s="53">
+        <v>0.76910999999999996</v>
+      </c>
+      <c r="AB32" s="75">
+        <v>43042</v>
+      </c>
+      <c r="AC32" s="240">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="59" t="str">
+        <v>-2.8499999999999082E-3</v>
+      </c>
+      <c r="AD32" s="49" t="str">
         <f t="shared" si="19"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="AE32" s="183" t="s">
         <v>107</v>
@@ -19331,8 +19366,8 @@
   <dimension ref="A1:AP66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL45" sqref="AL45"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -21070,6 +21105,21 @@
       <c r="AF31" s="200" t="s">
         <v>178</v>
       </c>
+      <c r="AG31" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH31" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI31" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ31" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL31" s="201" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="32" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="176">
@@ -21097,31 +21147,16 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="W32" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="X32" s="67">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="Y32" s="57">
-        <v>43036</v>
-      </c>
+      <c r="W32" s="55"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="57"/>
       <c r="Z32" s="104"/>
       <c r="AA32" s="67"/>
       <c r="AB32" s="57"/>
-      <c r="AC32" s="67">
-        <f t="shared" si="22"/>
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="AD32" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>盈</v>
-      </c>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="59"/>
       <c r="AE32" s="183" t="s">
         <v>107</v>
-      </c>
-      <c r="AF32" s="200" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -21150,21 +21185,48 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="W33" s="55"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="67">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>盈</v>
+      <c r="W33" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="X33" s="53">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="Y33" s="75">
+        <v>43036</v>
+      </c>
+      <c r="Z33" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA33" s="53">
+        <v>1.16845</v>
+      </c>
+      <c r="AB33" s="75">
+        <v>43042</v>
+      </c>
+      <c r="AC33" s="53">
+        <f t="shared" ref="AC33" si="29">IF(W33="卖",X33-AA33,AA33-X33)*AE33</f>
+        <v>-4.5000000000006146E-4</v>
+      </c>
+      <c r="AD33" s="49" t="str">
+        <f t="shared" ref="AD33" si="30">IF(AC33&gt;=0,"盈","亏")</f>
+        <v>亏</v>
       </c>
       <c r="AE33" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF33" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG33" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH33" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI33" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ33" s="239" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21180,11 +21242,11 @@
       <c r="F34" s="246"/>
       <c r="G34" s="241"/>
       <c r="H34" s="247">
-        <f t="shared" ref="H34:H39" si="29">IF(B34="卖",C34-F34,F34-C34)*J34</f>
+        <f t="shared" ref="H34:H39" si="31">IF(B34="卖",C34-F34,F34-C34)*J34</f>
         <v>0</v>
       </c>
       <c r="I34" s="248" t="str">
-        <f t="shared" ref="I34:I39" si="30">IF(H34&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="I34:I39" si="32">IF(H34&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="J34" s="249" t="s">
@@ -21212,11 +21274,11 @@
       <c r="AA34" s="242"/>
       <c r="AB34" s="241"/>
       <c r="AC34" s="242">
-        <f t="shared" ref="AC34:AC39" si="31">IF(W34="卖",X34-AA34,AA34-X34)*AE34</f>
+        <f t="shared" ref="AC34:AC39" si="33">IF(W34="卖",X34-AA34,AA34-X34)*AE34</f>
         <v>0</v>
       </c>
       <c r="AD34" s="248" t="str">
-        <f t="shared" ref="AD34:AD39" si="32">IF(AC34&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="AD34:AD39" si="34">IF(AC34&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="AE34" s="249" t="s">
@@ -21246,11 +21308,11 @@
       <c r="F35" s="56"/>
       <c r="G35" s="57"/>
       <c r="H35" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I35" s="59" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J35" s="183" t="s">
@@ -21260,21 +21322,42 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="W35" s="55"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="57"/>
+      <c r="W35" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="X35" s="67">
+        <v>1.1605000000000001</v>
+      </c>
+      <c r="Y35" s="57">
+        <v>43038</v>
+      </c>
       <c r="Z35" s="104"/>
       <c r="AA35" s="67"/>
       <c r="AB35" s="57"/>
       <c r="AC35" s="67">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1.1605000000000001</v>
       </c>
       <c r="AD35" s="59" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="AE35" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF35" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG35" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH35" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI35" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ35" s="201" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21290,11 +21373,11 @@
       <c r="F36" s="56"/>
       <c r="G36" s="57"/>
       <c r="H36" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I36" s="59" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J36" s="183" t="s">
@@ -21311,11 +21394,11 @@
       <c r="AA36" s="67"/>
       <c r="AB36" s="57"/>
       <c r="AC36" s="67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD36" s="59" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="AE36" s="183" t="s">
@@ -21334,11 +21417,11 @@
       <c r="F37" s="56"/>
       <c r="G37" s="57"/>
       <c r="H37" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I37" s="59" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J37" s="183" t="s">
@@ -21348,21 +21431,30 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="W37" s="55"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="57"/>
+      <c r="W37" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="X37" s="67">
+        <v>1.16018</v>
+      </c>
+      <c r="Y37" s="57">
+        <v>43042</v>
+      </c>
       <c r="Z37" s="104"/>
       <c r="AA37" s="67"/>
       <c r="AB37" s="57"/>
       <c r="AC37" s="67">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1.16018</v>
       </c>
       <c r="AD37" s="59" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="AE37" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF37" s="200" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21378,11 +21470,11 @@
       <c r="F38" s="56"/>
       <c r="G38" s="57"/>
       <c r="H38" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I38" s="59" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J38" s="183" t="s">
@@ -21399,11 +21491,11 @@
       <c r="AA38" s="67"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD38" s="59" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="AE38" s="183" t="s">
@@ -21422,11 +21514,11 @@
       <c r="F39" s="56"/>
       <c r="G39" s="57"/>
       <c r="H39" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I39" s="59" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J39" s="183" t="s">
@@ -21443,11 +21535,11 @@
       <c r="AA39" s="67"/>
       <c r="AB39" s="57"/>
       <c r="AC39" s="67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD39" s="59" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="AE39" s="183" t="s">
@@ -21466,11 +21558,11 @@
       <c r="F40" s="56"/>
       <c r="G40" s="57"/>
       <c r="H40" s="175">
-        <f t="shared" ref="H40:H41" si="33">IF(B40="卖",C40-F40,F40-C40)*J40</f>
+        <f t="shared" ref="H40:H41" si="35">IF(B40="卖",C40-F40,F40-C40)*J40</f>
         <v>0</v>
       </c>
       <c r="I40" s="59" t="str">
-        <f t="shared" ref="I40:I41" si="34">IF(H40&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="I40:I41" si="36">IF(H40&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="J40" s="183" t="s">
@@ -21487,11 +21579,11 @@
       <c r="AA40" s="67"/>
       <c r="AB40" s="57"/>
       <c r="AC40" s="67">
-        <f t="shared" ref="AC40:AC41" si="35">IF(W40="卖",X40-AA40,AA40-X40)*AE40</f>
+        <f t="shared" ref="AC40:AC41" si="37">IF(W40="卖",X40-AA40,AA40-X40)*AE40</f>
         <v>0</v>
       </c>
       <c r="AD40" s="59" t="str">
-        <f t="shared" ref="AD40:AD41" si="36">IF(AC40&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="AD40:AD41" si="38">IF(AC40&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="AE40" s="183" t="s">
@@ -21510,11 +21602,11 @@
       <c r="F41" s="56"/>
       <c r="G41" s="57"/>
       <c r="H41" s="175">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I41" s="59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>盈</v>
       </c>
       <c r="J41" s="183" t="s">
@@ -21531,11 +21623,11 @@
       <c r="AA41" s="67"/>
       <c r="AB41" s="57"/>
       <c r="AC41" s="67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD41" s="59" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>盈</v>
       </c>
       <c r="AE41" s="183" t="s">
@@ -22538,7 +22630,7 @@
           <x14:formula1>
             <xm:f>交易记录参数!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W1048576 B2:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576 W2:W1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22555,7 +22647,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
+      <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -25312,7 +25404,7 @@
   <dimension ref="G3:M13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G7" sqref="G7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25340,45 +25432,45 @@
       </c>
     </row>
     <row r="7" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G7" s="278" t="s">
+      <c r="G7" s="275" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="227" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="284"/>
-      <c r="J7" s="287" t="s">
+      <c r="I7" s="281"/>
+      <c r="J7" s="284" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="287" t="s">
+      <c r="K7" s="284" t="s">
         <v>187</v>
       </c>
-      <c r="L7" s="275" t="s">
+      <c r="L7" s="272" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="279"/>
+      <c r="G8" s="276"/>
       <c r="H8" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="285"/>
-      <c r="J8" s="288"/>
-      <c r="K8" s="288"/>
-      <c r="L8" s="276"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="273"/>
     </row>
     <row r="9" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="280"/>
+      <c r="G9" s="277"/>
       <c r="H9" s="229" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="286"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="277"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="274"/>
     </row>
     <row r="10" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="281" t="s">
+      <c r="G10" s="278" t="s">
         <v>184</v>
       </c>
       <c r="H10" s="230" t="s">
@@ -25397,7 +25489,7 @@
       </c>
     </row>
     <row r="11" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="282"/>
+      <c r="G11" s="279"/>
       <c r="H11" s="228" t="s">
         <v>183</v>
       </c>
@@ -25414,7 +25506,7 @@
       </c>
     </row>
     <row r="12" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="282"/>
+      <c r="G12" s="279"/>
       <c r="H12" s="228" t="s">
         <v>182</v>
       </c>
@@ -25431,7 +25523,7 @@
       </c>
     </row>
     <row r="13" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="283"/>
+      <c r="G13" s="280"/>
       <c r="H13" s="231" t="s">
         <v>185</v>
       </c>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="1164" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2064" yWindow="1164" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="211">
   <si>
     <t>总额</t>
   </si>
@@ -636,6 +636,27 @@
     <t>过早进场
 不符合进场标准</t>
   </si>
+  <si>
+    <t>总结：跟随MACD的趋势走</t>
+  </si>
+  <si>
+    <t>MACD为正只能买，MACD为负只能卖</t>
+  </si>
+  <si>
+    <t>日线的MACD波峰波谷和转折要注意</t>
+  </si>
+  <si>
+    <t>注意MACD峰谷峰顶</t>
+  </si>
+  <si>
+    <t>MACD波峰波谷交易</t>
+  </si>
+  <si>
+    <t>跟踪止损法</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
 </sst>
 </file>
 
@@ -649,7 +670,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +802,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -850,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1504,11 +1540,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1888,7 +1961,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1921,11 +1993,25 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1935,8 +2021,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1947,11 +2036,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="9" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="11" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2015,9 +2110,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8267,11 +8359,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8351,10 +8443,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="264" t="s">
+      <c r="I3" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="265"/>
+      <c r="J3" s="266"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -8411,7 +8503,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="267" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -8460,7 +8552,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="262"/>
+      <c r="A6" s="268"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -8513,7 +8605,7 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="262"/>
+      <c r="A7" s="268"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -8566,7 +8658,7 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="263"/>
+      <c r="A8" s="269"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -8622,7 +8714,7 @@
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="261" t="s">
+      <c r="A9" s="267" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -8680,7 +8772,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="262"/>
+      <c r="A10" s="268"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -8736,7 +8828,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="262"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -8792,7 +8884,7 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="263"/>
+      <c r="A12" s="269"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -8848,7 +8940,7 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="262" t="s">
+      <c r="A13" s="268" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="130">
@@ -8906,7 +8998,7 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
+      <c r="A14" s="268"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -8963,7 +9055,7 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="262"/>
+      <c r="A15" s="268"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -9020,7 +9112,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="263"/>
+      <c r="A16" s="269"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -9076,7 +9168,7 @@
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="262" t="s">
+      <c r="A17" s="268" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="130">
@@ -9133,7 +9225,7 @@
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="262"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -9188,7 +9280,7 @@
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="262"/>
+      <c r="A19" s="268"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -9243,7 +9335,7 @@
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="262"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -9298,7 +9390,7 @@
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="262"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="124">
         <v>17</v>
       </c>
@@ -9353,7 +9445,7 @@
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="261" t="s">
+      <c r="A22" s="267" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -9411,7 +9503,7 @@
       <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="262"/>
+      <c r="A23" s="268"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -9467,7 +9559,7 @@
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="262"/>
+      <c r="A24" s="268"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -9523,7 +9615,7 @@
       <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="263"/>
+      <c r="A25" s="269"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -9579,7 +9671,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="262" t="s">
+      <c r="A26" s="268" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="130">
@@ -9636,7 +9728,7 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="262"/>
+      <c r="A27" s="268"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -9691,7 +9783,7 @@
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
+      <c r="A28" s="268"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -9746,7 +9838,7 @@
       <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="262"/>
+      <c r="A29" s="268"/>
       <c r="B29" s="124">
         <v>25</v>
       </c>
@@ -9801,7 +9893,7 @@
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="261" t="s">
+      <c r="A30" s="267" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -9859,7 +9951,7 @@
       <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="262"/>
+      <c r="A31" s="268"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -9915,7 +10007,7 @@
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="262"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -9971,7 +10063,7 @@
       <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="262"/>
+      <c r="A33" s="268"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -10027,7 +10119,7 @@
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="263"/>
+      <c r="A34" s="269"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -10083,7 +10175,7 @@
       <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="262" t="s">
+      <c r="A35" s="268" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="130">
@@ -10142,7 +10234,7 @@
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="262"/>
+      <c r="A36" s="268"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -10197,7 +10289,7 @@
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="262"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -10252,7 +10344,7 @@
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="262"/>
+      <c r="A38" s="268"/>
       <c r="B38" s="124">
         <v>34</v>
       </c>
@@ -10307,7 +10399,7 @@
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="261" t="s">
+      <c r="A39" s="267" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -10365,7 +10457,7 @@
       <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="262"/>
+      <c r="A40" s="268"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -10413,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" ref="R40:R48" si="13">SUM(M40:Q40)</f>
+        <f t="shared" ref="R40:R50" si="13">SUM(M40:Q40)</f>
         <v>6</v>
       </c>
       <c r="V40" s="36"/>
@@ -10421,7 +10513,7 @@
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="262"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -10479,7 +10571,7 @@
       <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="263"/>
+      <c r="A42" s="269"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -10537,7 +10629,7 @@
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="261" t="s">
+      <c r="A43" s="267" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -10597,7 +10689,7 @@
       <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="262"/>
+      <c r="A44" s="268"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -10656,7 +10748,7 @@
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="262"/>
+      <c r="A45" s="268"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -10722,7 +10814,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="262"/>
+      <c r="A46" s="268"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -10785,7 +10877,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="263"/>
+      <c r="A47" s="269"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -10843,7 +10935,7 @@
       <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="261" t="s">
+      <c r="A48" s="267" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -10904,7 +10996,7 @@
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="262"/>
+      <c r="A49" s="268"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -10927,21 +11019,37 @@
         <v>59.702614826450002</v>
       </c>
       <c r="H49" s="136"/>
-      <c r="I49" s="137"/>
+      <c r="I49" s="137">
+        <v>46</v>
+      </c>
       <c r="J49" s="138">
         <f t="shared" si="3"/>
-        <v>-0.98599999999999999</v>
+        <v>-6.5999999999999948E-2</v>
       </c>
       <c r="K49" s="217">
         <f t="shared" si="9"/>
-        <v>35.974999999999994</v>
+        <v>47.474999999999994</v>
       </c>
       <c r="L49" s="139"/>
-      <c r="M49" s="139"/>
-      <c r="N49" s="139"/>
-      <c r="O49" s="139"/>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="139"/>
+      <c r="M49" s="217">
+        <v>0</v>
+      </c>
+      <c r="N49" s="217">
+        <v>2</v>
+      </c>
+      <c r="O49" s="217">
+        <v>2</v>
+      </c>
+      <c r="P49" s="217">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="217">
+        <v>0</v>
+      </c>
+      <c r="R49" s="123">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
       <c r="V49" s="36"/>
       <c r="W49" s="21"/>
       <c r="X49" s="36" t="s">
@@ -10949,7 +11057,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="262"/>
+      <c r="A50" s="268"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -10972,21 +11080,37 @@
         <v>61.493693271243501</v>
       </c>
       <c r="H50" s="136"/>
-      <c r="I50" s="137"/>
+      <c r="I50" s="137">
+        <v>43</v>
+      </c>
       <c r="J50" s="138">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="K50" s="217">
         <f t="shared" si="9"/>
-        <v>24.924999999999997</v>
+        <v>47.174999999999997</v>
       </c>
       <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="139"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="139"/>
+      <c r="M50" s="217">
+        <v>0</v>
+      </c>
+      <c r="N50" s="217">
+        <v>2</v>
+      </c>
+      <c r="O50" s="217">
+        <v>5</v>
+      </c>
+      <c r="P50" s="217">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="217">
+        <v>4</v>
+      </c>
+      <c r="R50" s="123">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
       <c r="V50" s="36"/>
       <c r="W50" s="21"/>
       <c r="X50" s="166" t="s">
@@ -10994,7 +11118,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="263"/>
+      <c r="A51" s="269"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -11020,25 +11144,25 @@
       <c r="I51" s="142"/>
       <c r="J51" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.86</v>
       </c>
       <c r="K51" s="218">
         <f t="shared" si="9"/>
-        <v>12.324999999999999</v>
+        <v>34.575000000000003</v>
       </c>
       <c r="L51" s="141"/>
-      <c r="M51" s="141"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="141"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="141"/>
+      <c r="M51" s="218"/>
+      <c r="N51" s="218"/>
+      <c r="O51" s="218"/>
+      <c r="P51" s="218"/>
+      <c r="Q51" s="218"/>
       <c r="R51" s="145"/>
       <c r="X51" s="166" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="261" t="s">
+      <c r="A52" s="267" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -11070,7 +11194,7 @@
       </c>
       <c r="K52" s="217">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22.25</v>
       </c>
       <c r="L52" s="132"/>
       <c r="M52" s="132"/>
@@ -11084,7 +11208,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="262"/>
+      <c r="A53" s="268"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -11114,7 +11238,7 @@
       </c>
       <c r="K53" s="217">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L53" s="136"/>
       <c r="M53" s="136"/>
@@ -11127,7 +11251,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="262"/>
+      <c r="A54" s="268"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -11167,7 +11291,7 @@
       <c r="Q54" s="136"/>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="262"/>
+      <c r="A55" s="268"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -11205,18 +11329,18 @@
       <c r="O55" s="136"/>
       <c r="P55" s="136"/>
       <c r="Q55" s="136"/>
-      <c r="X55" s="260" t="s">
+      <c r="X55" s="270" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="260"/>
-      <c r="Z55" s="260"/>
-      <c r="AA55" s="260"/>
-      <c r="AB55" s="260"/>
-      <c r="AC55" s="260"/>
-      <c r="AD55" s="260"/>
+      <c r="Y55" s="270"/>
+      <c r="Z55" s="270"/>
+      <c r="AA55" s="270"/>
+      <c r="AB55" s="270"/>
+      <c r="AC55" s="270"/>
+      <c r="AD55" s="270"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="263"/>
+      <c r="A56" s="269"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -11255,16 +11379,16 @@
       <c r="P56" s="141"/>
       <c r="Q56" s="141"/>
       <c r="R56" s="145"/>
-      <c r="X56" s="260"/>
-      <c r="Y56" s="260"/>
-      <c r="Z56" s="260"/>
-      <c r="AA56" s="260"/>
-      <c r="AB56" s="260"/>
-      <c r="AC56" s="260"/>
-      <c r="AD56" s="260"/>
+      <c r="X56" s="270"/>
+      <c r="Y56" s="270"/>
+      <c r="Z56" s="270"/>
+      <c r="AA56" s="270"/>
+      <c r="AB56" s="270"/>
+      <c r="AC56" s="270"/>
+      <c r="AD56" s="270"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="262" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="127">
@@ -11302,16 +11426,16 @@
       <c r="P57" s="132"/>
       <c r="Q57" s="132"/>
       <c r="R57" s="122"/>
-      <c r="X57" s="260"/>
-      <c r="Y57" s="260"/>
-      <c r="Z57" s="260"/>
-      <c r="AA57" s="260"/>
-      <c r="AB57" s="260"/>
-      <c r="AC57" s="260"/>
-      <c r="AD57" s="260"/>
+      <c r="X57" s="270"/>
+      <c r="Y57" s="270"/>
+      <c r="Z57" s="270"/>
+      <c r="AA57" s="270"/>
+      <c r="AB57" s="270"/>
+      <c r="AC57" s="270"/>
+      <c r="AD57" s="270"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="258"/>
+      <c r="A58" s="263"/>
       <c r="B58" s="125">
         <v>2</v>
       </c>
@@ -11351,7 +11475,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="258"/>
+      <c r="A59" s="263"/>
       <c r="B59" s="125">
         <v>3</v>
       </c>
@@ -11390,7 +11514,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="259"/>
+      <c r="A60" s="264"/>
       <c r="B60" s="128">
         <v>4</v>
       </c>
@@ -11428,7 +11552,7 @@
       <c r="R60" s="145"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="257" t="s">
+      <c r="A61" s="262" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="127">
@@ -11468,7 +11592,7 @@
       <c r="R61" s="122"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="258"/>
+      <c r="A62" s="263"/>
       <c r="B62" s="125">
         <v>6</v>
       </c>
@@ -11508,7 +11632,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="258"/>
+      <c r="A63" s="263"/>
       <c r="B63" s="125">
         <v>7</v>
       </c>
@@ -11548,7 +11672,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="259"/>
+      <c r="A64" s="264"/>
       <c r="B64" s="128">
         <v>8</v>
       </c>
@@ -11589,7 +11713,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="257" t="s">
+      <c r="A65" s="262" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="127">
@@ -11632,7 +11756,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="258"/>
+      <c r="A66" s="263"/>
       <c r="B66" s="125">
         <v>10</v>
       </c>
@@ -11672,7 +11796,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="258"/>
+      <c r="A67" s="263"/>
       <c r="B67" s="125">
         <v>11</v>
       </c>
@@ -11712,7 +11836,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="259"/>
+      <c r="A68" s="264"/>
       <c r="B68" s="128">
         <v>12</v>
       </c>
@@ -11753,7 +11877,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="258" t="s">
+      <c r="A69" s="263" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="126">
@@ -11786,7 +11910,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="258"/>
+      <c r="A70" s="263"/>
       <c r="B70" s="125">
         <v>14</v>
       </c>
@@ -11817,7 +11941,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="258"/>
+      <c r="A71" s="263"/>
       <c r="B71" s="125">
         <v>15</v>
       </c>
@@ -11845,7 +11969,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="258"/>
+      <c r="A72" s="263"/>
       <c r="B72" s="125">
         <v>16</v>
       </c>
@@ -11876,7 +12000,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="258"/>
+      <c r="A73" s="263"/>
       <c r="B73" s="129">
         <v>17</v>
       </c>
@@ -11907,7 +12031,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="257" t="s">
+      <c r="A74" s="262" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="127">
@@ -11947,7 +12071,7 @@
       <c r="R74" s="122"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="258"/>
+      <c r="A75" s="263"/>
       <c r="B75" s="125">
         <v>19</v>
       </c>
@@ -11987,7 +12111,7 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="258"/>
+      <c r="A76" s="263"/>
       <c r="B76" s="125">
         <v>20</v>
       </c>
@@ -12027,7 +12151,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="259"/>
+      <c r="A77" s="264"/>
       <c r="B77" s="128">
         <v>21</v>
       </c>
@@ -12068,7 +12192,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="258" t="s">
+      <c r="A78" s="263" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="126">
@@ -12098,7 +12222,7 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="258"/>
+      <c r="A79" s="263"/>
       <c r="B79" s="125">
         <v>23</v>
       </c>
@@ -12126,7 +12250,7 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="258"/>
+      <c r="A80" s="263"/>
       <c r="B80" s="125">
         <v>24</v>
       </c>
@@ -12154,7 +12278,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="258"/>
+      <c r="A81" s="263"/>
       <c r="B81" s="129">
         <v>25</v>
       </c>
@@ -12182,7 +12306,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="257" t="s">
+      <c r="A82" s="262" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="127">
@@ -12222,7 +12346,7 @@
       <c r="R82" s="122"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="258"/>
+      <c r="A83" s="263"/>
       <c r="B83" s="125">
         <v>27</v>
       </c>
@@ -12259,7 +12383,7 @@
       <c r="Q83" s="136"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="258"/>
+      <c r="A84" s="263"/>
       <c r="B84" s="125">
         <v>28</v>
       </c>
@@ -12296,7 +12420,7 @@
       <c r="Q84" s="136"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="258"/>
+      <c r="A85" s="263"/>
       <c r="B85" s="125">
         <v>29</v>
       </c>
@@ -12333,7 +12457,7 @@
       <c r="Q85" s="136"/>
     </row>
     <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="259"/>
+      <c r="A86" s="264"/>
       <c r="B86" s="128">
         <v>30</v>
       </c>
@@ -12371,7 +12495,7 @@
       <c r="R86" s="145"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="258" t="s">
+      <c r="A87" s="263" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="126">
@@ -12401,7 +12525,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="258"/>
+      <c r="A88" s="263"/>
       <c r="B88" s="125">
         <v>32</v>
       </c>
@@ -12429,7 +12553,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="258"/>
+      <c r="A89" s="263"/>
       <c r="B89" s="125">
         <v>33</v>
       </c>
@@ -12457,7 +12581,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="258"/>
+      <c r="A90" s="263"/>
       <c r="B90" s="129">
         <v>34</v>
       </c>
@@ -12485,7 +12609,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="257" t="s">
+      <c r="A91" s="262" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="127">
@@ -12525,7 +12649,7 @@
       <c r="R91" s="122"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="258"/>
+      <c r="A92" s="263"/>
       <c r="B92" s="125">
         <v>36</v>
       </c>
@@ -12562,7 +12686,7 @@
       <c r="Q92" s="136"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="258"/>
+      <c r="A93" s="263"/>
       <c r="B93" s="125">
         <v>37</v>
       </c>
@@ -12599,7 +12723,7 @@
       <c r="Q93" s="136"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="258"/>
+      <c r="A94" s="263"/>
       <c r="B94" s="125">
         <v>38</v>
       </c>
@@ -12636,7 +12760,7 @@
       <c r="Q94" s="136"/>
     </row>
     <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="259"/>
+      <c r="A95" s="264"/>
       <c r="B95" s="128">
         <v>39</v>
       </c>
@@ -12674,7 +12798,7 @@
       <c r="R95" s="145"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="258" t="s">
+      <c r="A96" s="263" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="126">
@@ -12704,7 +12828,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="258"/>
+      <c r="A97" s="263"/>
       <c r="B97" s="125">
         <v>41</v>
       </c>
@@ -12732,7 +12856,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="258"/>
+      <c r="A98" s="263"/>
       <c r="B98" s="125">
         <v>42</v>
       </c>
@@ -12760,7 +12884,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="258"/>
+      <c r="A99" s="263"/>
       <c r="B99" s="129">
         <v>43</v>
       </c>
@@ -12788,7 +12912,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="257" t="s">
+      <c r="A100" s="262" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="127">
@@ -12828,7 +12952,7 @@
       <c r="R100" s="122"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="258"/>
+      <c r="A101" s="263"/>
       <c r="B101" s="125">
         <v>45</v>
       </c>
@@ -12865,7 +12989,7 @@
       <c r="Q101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="258"/>
+      <c r="A102" s="263"/>
       <c r="B102" s="125">
         <v>46</v>
       </c>
@@ -12902,7 +13026,7 @@
       <c r="Q102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="259"/>
+      <c r="A103" s="264"/>
       <c r="B103" s="128">
         <v>47</v>
       </c>
@@ -12940,7 +13064,7 @@
       <c r="R103" s="145"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="257" t="s">
+      <c r="A104" s="262" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="127">
@@ -12980,7 +13104,7 @@
       <c r="R104" s="122"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="258"/>
+      <c r="A105" s="263"/>
       <c r="B105" s="125">
         <v>49</v>
       </c>
@@ -13017,7 +13141,7 @@
       <c r="Q105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="258"/>
+      <c r="A106" s="263"/>
       <c r="B106" s="125">
         <v>50</v>
       </c>
@@ -13054,7 +13178,7 @@
       <c r="Q106" s="136"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="258"/>
+      <c r="A107" s="263"/>
       <c r="B107" s="125">
         <v>51</v>
       </c>
@@ -13091,7 +13215,7 @@
       <c r="Q107" s="136"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="259"/>
+      <c r="A108" s="264"/>
       <c r="B108" s="128">
         <v>52</v>
       </c>
@@ -14838,22 +14962,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A47"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="X55:AD57"/>
     <mergeCell ref="A48:A51"/>
@@ -14864,6 +14972,22 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -14886,13 +15010,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:BK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -14946,81 +15070,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="276"/>
       <c r="J1" s="196"/>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="271"/>
-      <c r="V1" s="266" t="s">
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="279"/>
+      <c r="V1" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="267"/>
-      <c r="X1" s="267"/>
-      <c r="Y1" s="267"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="267"/>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="268"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="276"/>
       <c r="AE1" s="220"/>
-      <c r="AF1" s="269" t="s">
+      <c r="AF1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="270"/>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="270"/>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="270"/>
-      <c r="AO1" s="270"/>
-      <c r="AP1" s="271"/>
-      <c r="AQ1" s="266" t="s">
+      <c r="AG1" s="278"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="278"/>
+      <c r="AJ1" s="278"/>
+      <c r="AK1" s="278"/>
+      <c r="AL1" s="278"/>
+      <c r="AM1" s="278"/>
+      <c r="AN1" s="278"/>
+      <c r="AO1" s="278"/>
+      <c r="AP1" s="279"/>
+      <c r="AQ1" s="274" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" s="267"/>
-      <c r="AS1" s="267"/>
-      <c r="AT1" s="267"/>
-      <c r="AU1" s="267"/>
-      <c r="AV1" s="267"/>
-      <c r="AW1" s="267"/>
-      <c r="AX1" s="267"/>
-      <c r="AY1" s="268"/>
+      <c r="AR1" s="275"/>
+      <c r="AS1" s="275"/>
+      <c r="AT1" s="275"/>
+      <c r="AU1" s="275"/>
+      <c r="AV1" s="275"/>
+      <c r="AW1" s="275"/>
+      <c r="AX1" s="275"/>
+      <c r="AY1" s="276"/>
       <c r="AZ1" s="220"/>
-      <c r="BA1" s="269" t="s">
+      <c r="BA1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="BB1" s="270"/>
-      <c r="BC1" s="270"/>
-      <c r="BD1" s="270"/>
-      <c r="BE1" s="270"/>
-      <c r="BF1" s="270"/>
-      <c r="BG1" s="270"/>
-      <c r="BH1" s="270"/>
-      <c r="BI1" s="270"/>
-      <c r="BJ1" s="270"/>
-      <c r="BK1" s="271"/>
+      <c r="BB1" s="278"/>
+      <c r="BC1" s="278"/>
+      <c r="BD1" s="278"/>
+      <c r="BE1" s="278"/>
+      <c r="BF1" s="278"/>
+      <c r="BG1" s="278"/>
+      <c r="BH1" s="278"/>
+      <c r="BI1" s="278"/>
+      <c r="BJ1" s="278"/>
+      <c r="BK1" s="279"/>
     </row>
     <row r="2" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
@@ -16520,7 +16644,7 @@
       <c r="AB20" s="113">
         <v>43033</v>
       </c>
-      <c r="AC20" s="238">
+      <c r="AC20" s="237">
         <f t="shared" si="13"/>
         <v>1.0220000000000118E-2</v>
       </c>
@@ -16580,7 +16704,7 @@
       <c r="D21" s="75">
         <v>43021</v>
       </c>
-      <c r="E21" s="287" t="s">
+      <c r="E21" s="253" t="s">
         <v>203</v>
       </c>
       <c r="F21" s="52">
@@ -16620,7 +16744,7 @@
       <c r="AB21" s="75">
         <v>43034</v>
       </c>
-      <c r="AC21" s="240">
+      <c r="AC21" s="239">
         <f t="shared" si="13"/>
         <v>-1.0299999999999754E-3</v>
       </c>
@@ -16720,7 +16844,7 @@
       <c r="AB22" s="113">
         <v>43036</v>
       </c>
-      <c r="AC22" s="238">
+      <c r="AC22" s="237">
         <f t="shared" si="13"/>
         <v>7.0399999999999352E-3</v>
       </c>
@@ -16908,7 +17032,7 @@
       <c r="BA24" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="BB24" s="239" t="s">
+      <c r="BB24" s="238" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17207,7 +17331,7 @@
       <c r="BA28" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="BB28" s="239" t="s">
+      <c r="BB28" s="238" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17288,20 +17412,20 @@
       <c r="BA29" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="BB29" s="239" t="s">
+      <c r="BB29" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="BC29" s="239" t="s">
+      <c r="BC29" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="BD29" s="239" t="s">
+      <c r="BD29" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="BE29" s="239" t="s">
+      <c r="BE29" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="BF29" s="239"/>
-      <c r="BG29" s="239" t="s">
+      <c r="BF29" s="238"/>
+      <c r="BG29" s="238" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17371,117 +17495,113 @@
       </c>
     </row>
     <row r="31" spans="1:63" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="244">
+      <c r="A31" s="243">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="245"/>
-      <c r="C31" s="246"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="246">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="255" t="str">
-        <f t="shared" si="2"/>
-        <v>盈</v>
-      </c>
-      <c r="J31" s="256" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="250"/>
-      <c r="L31" s="251"/>
-      <c r="M31" s="251"/>
-      <c r="N31" s="251"/>
-      <c r="O31" s="251"/>
-      <c r="P31" s="251"/>
-      <c r="Q31" s="251"/>
-      <c r="R31" s="251"/>
-      <c r="S31" s="251"/>
-      <c r="T31" s="251"/>
-      <c r="U31" s="252"/>
-      <c r="V31" s="253">
+      <c r="B31" s="244"/>
+      <c r="C31" s="271" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="272"/>
+      <c r="I31" s="273"/>
+      <c r="J31" s="254"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="250"/>
+      <c r="M31" s="250"/>
+      <c r="N31" s="250"/>
+      <c r="O31" s="250"/>
+      <c r="P31" s="250"/>
+      <c r="Q31" s="250"/>
+      <c r="R31" s="250"/>
+      <c r="S31" s="250"/>
+      <c r="T31" s="250"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="252">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="W31" s="245"/>
-      <c r="X31" s="242"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="246"/>
-      <c r="AA31" s="242"/>
-      <c r="AB31" s="241"/>
-      <c r="AC31" s="247">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="248" t="str">
-        <f t="shared" si="19"/>
-        <v>盈</v>
-      </c>
-      <c r="AE31" s="249" t="s">
+      <c r="W31" s="244"/>
+      <c r="X31" s="271" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31" s="272"/>
+      <c r="Z31" s="272"/>
+      <c r="AA31" s="272"/>
+      <c r="AB31" s="272"/>
+      <c r="AC31" s="272"/>
+      <c r="AD31" s="273"/>
+      <c r="AE31" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="AF31" s="250"/>
-      <c r="AG31" s="251"/>
-      <c r="AH31" s="251"/>
-      <c r="AI31" s="251"/>
-      <c r="AJ31" s="251"/>
-      <c r="AK31" s="251"/>
-      <c r="AL31" s="251"/>
-      <c r="AM31" s="251"/>
-      <c r="AN31" s="251"/>
-      <c r="AO31" s="251"/>
-      <c r="AP31" s="252"/>
-      <c r="AQ31" s="244">
+      <c r="AF31" s="249"/>
+      <c r="AG31" s="250"/>
+      <c r="AH31" s="250"/>
+      <c r="AI31" s="250"/>
+      <c r="AJ31" s="250"/>
+      <c r="AK31" s="250"/>
+      <c r="AL31" s="250"/>
+      <c r="AM31" s="250"/>
+      <c r="AN31" s="250"/>
+      <c r="AO31" s="250"/>
+      <c r="AP31" s="251"/>
+      <c r="AQ31" s="243">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="AR31" s="245"/>
-      <c r="AS31" s="242"/>
-      <c r="AT31" s="241"/>
-      <c r="AU31" s="242"/>
-      <c r="AV31" s="242"/>
-      <c r="AW31" s="241"/>
-      <c r="AX31" s="242">
+      <c r="AR31" s="244"/>
+      <c r="AS31" s="241"/>
+      <c r="AT31" s="240"/>
+      <c r="AU31" s="241"/>
+      <c r="AV31" s="241"/>
+      <c r="AW31" s="240"/>
+      <c r="AX31" s="241">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AY31" s="243" t="str">
+      <c r="AY31" s="242" t="str">
         <f t="shared" si="23"/>
         <v>盈</v>
       </c>
-      <c r="AZ31" s="249" t="s">
+      <c r="AZ31" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="BA31" s="250"/>
-      <c r="BB31" s="251"/>
-      <c r="BC31" s="251"/>
-      <c r="BD31" s="251"/>
-      <c r="BE31" s="251"/>
-      <c r="BF31" s="251"/>
-      <c r="BG31" s="251"/>
-      <c r="BH31" s="251"/>
-      <c r="BI31" s="251"/>
-      <c r="BJ31" s="251"/>
-      <c r="BK31" s="252"/>
+      <c r="BA31" s="249"/>
+      <c r="BB31" s="250"/>
+      <c r="BC31" s="250"/>
+      <c r="BD31" s="250"/>
+      <c r="BE31" s="250"/>
+      <c r="BF31" s="250"/>
+      <c r="BG31" s="250"/>
+      <c r="BH31" s="250"/>
+      <c r="BI31" s="250"/>
+      <c r="BJ31" s="250"/>
+      <c r="BK31" s="251"/>
     </row>
     <row r="32" spans="1:63" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="176">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
+      <c r="B32" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="56">
+        <v>112.68</v>
+      </c>
+      <c r="D32" s="57">
+        <v>43054</v>
+      </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
       <c r="G32" s="57"/>
       <c r="H32" s="56">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>112.68</v>
       </c>
       <c r="I32" s="191" t="str">
         <f t="shared" si="2"/>
@@ -17490,6 +17610,15 @@
       <c r="J32" s="197" t="s">
         <v>107</v>
       </c>
+      <c r="K32" s="200" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="201" t="s">
+        <v>107</v>
+      </c>
       <c r="V32" s="211">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -17512,7 +17641,7 @@
       <c r="AB32" s="75">
         <v>43042</v>
       </c>
-      <c r="AC32" s="240">
+      <c r="AC32" s="239">
         <f t="shared" si="18"/>
         <v>-2.8499999999999082E-3</v>
       </c>
@@ -19333,13 +19462,15 @@
       <c r="BK58" s="210"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="X31:AD31"/>
     <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="BA1:BK1"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="V1:AD1"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="AF1:AP1"/>
+    <mergeCell ref="C31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19361,13 +19492,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF84169A"/>
+    <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AP66"/>
+  <dimension ref="A1:AV68"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA37" sqref="AA37"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -19375,10 +19506,10 @@
     <col min="1" max="1" width="4.6640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="6.109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="40" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="54" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="41" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" style="42" customWidth="1"/>
     <col min="10" max="10" width="5" style="183" customWidth="1"/>
@@ -19402,60 +19533,61 @@
     <col min="37" max="37" width="3.21875" style="202" bestFit="1" customWidth="1"/>
     <col min="38" max="41" width="3.21875" style="201" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3.21875" style="203" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.88671875" style="39"/>
+    <col min="43" max="43" width="12" style="54" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="274" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="276"/>
       <c r="J1" s="220"/>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="271"/>
-      <c r="V1" s="266" t="s">
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="279"/>
+      <c r="V1" s="274" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="267"/>
-      <c r="X1" s="267"/>
-      <c r="Y1" s="267"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="267"/>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="268"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="276"/>
       <c r="AE1" s="220"/>
-      <c r="AF1" s="269" t="s">
+      <c r="AF1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="270"/>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="270"/>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="270"/>
-      <c r="AO1" s="270"/>
-      <c r="AP1" s="271"/>
+      <c r="AG1" s="278"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="278"/>
+      <c r="AJ1" s="278"/>
+      <c r="AK1" s="278"/>
+      <c r="AL1" s="278"/>
+      <c r="AM1" s="278"/>
+      <c r="AN1" s="278"/>
+      <c r="AO1" s="278"/>
+      <c r="AP1" s="279"/>
     </row>
     <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
@@ -19639,7 +19771,7 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="176">
-        <f t="shared" ref="A4:A41" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A43" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -19667,7 +19799,7 @@
         <v>亏</v>
       </c>
       <c r="V4" s="211">
-        <f t="shared" ref="V4:V41" si="2">ROW()-2</f>
+        <f t="shared" ref="V4:V43" si="2">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="W4" s="51" t="s">
@@ -20821,10 +20953,10 @@
       <c r="AF26" s="221" t="s">
         <v>107</v>
       </c>
-      <c r="AG26" s="239" t="s">
+      <c r="AG26" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="AH26" s="239" t="s">
+      <c r="AH26" s="238" t="s">
         <v>108</v>
       </c>
     </row>
@@ -20871,7 +21003,7 @@
         <v>43025</v>
       </c>
       <c r="AC27" s="112">
-        <f t="shared" ref="AC27:AC33" si="22">IF(W27="卖",X27-AA27,AA27-X27)*AE27</f>
+        <f t="shared" ref="AC27:AC29" si="22">IF(W27="卖",X27-AA27,AA27-X27)*AE27</f>
         <v>1.9999999999997797E-4</v>
       </c>
       <c r="AD27" s="115" t="str">
@@ -20983,7 +21115,7 @@
         <v>2.8000000000005798E-4</v>
       </c>
       <c r="AD29" s="115" t="str">
-        <f t="shared" ref="AD29:AD33" si="24">IF(AC29&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="AD29" si="24">IF(AC29&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="AE29" s="183" t="s">
@@ -21049,7 +21181,7 @@
       <c r="AF30" s="221" t="s">
         <v>107</v>
       </c>
-      <c r="AG30" s="239" t="s">
+      <c r="AG30" s="238" t="s">
         <v>108</v>
       </c>
     </row>
@@ -21118,6 +21250,18 @@
         <v>107</v>
       </c>
       <c r="AL31" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM31" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN31" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO31" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP31" s="203" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21158,8 +21302,26 @@
       <c r="AE32" s="183" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF32" s="200" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG32" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH32" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI32" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ32" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL32" s="201" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="176">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -21217,99 +21379,101 @@
       <c r="AF33" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="AG33" s="239" t="s">
+      <c r="AG33" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="AH33" s="239" t="s">
+      <c r="AH33" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="AI33" s="239" t="s">
+      <c r="AI33" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="AJ33" s="239" t="s">
+      <c r="AJ33" s="238" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="244">
+    <row r="34" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="243">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="245"/>
-      <c r="C34" s="246"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="246"/>
-      <c r="F34" s="246"/>
-      <c r="G34" s="241"/>
-      <c r="H34" s="247">
+      <c r="B34" s="244"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="245"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="240"/>
+      <c r="H34" s="246">
         <f t="shared" ref="H34:H39" si="31">IF(B34="卖",C34-F34,F34-C34)*J34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="248" t="str">
+      <c r="I34" s="247" t="str">
         <f t="shared" ref="I34:I39" si="32">IF(H34&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
-      <c r="J34" s="249" t="s">
+      <c r="J34" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="250"/>
-      <c r="L34" s="251"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="251"/>
-      <c r="O34" s="251"/>
-      <c r="P34" s="251"/>
-      <c r="Q34" s="251"/>
-      <c r="R34" s="251"/>
-      <c r="S34" s="251"/>
-      <c r="T34" s="251"/>
-      <c r="U34" s="252"/>
-      <c r="V34" s="253">
+      <c r="K34" s="249"/>
+      <c r="L34" s="250"/>
+      <c r="M34" s="250"/>
+      <c r="N34" s="250"/>
+      <c r="O34" s="250"/>
+      <c r="P34" s="250"/>
+      <c r="Q34" s="250"/>
+      <c r="R34" s="250"/>
+      <c r="S34" s="250"/>
+      <c r="T34" s="250"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="252">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="W34" s="245"/>
-      <c r="X34" s="242"/>
-      <c r="Y34" s="241"/>
-      <c r="Z34" s="254"/>
-      <c r="AA34" s="242"/>
-      <c r="AB34" s="241"/>
-      <c r="AC34" s="242">
-        <f t="shared" ref="AC34:AC39" si="33">IF(W34="卖",X34-AA34,AA34-X34)*AE34</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="248" t="str">
-        <f t="shared" ref="AD34:AD39" si="34">IF(AC34&gt;=0,"盈","亏")</f>
-        <v>盈</v>
-      </c>
-      <c r="AE34" s="249" t="s">
+      <c r="W34" s="244"/>
+      <c r="X34" s="271" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y34" s="272"/>
+      <c r="Z34" s="272"/>
+      <c r="AA34" s="272"/>
+      <c r="AB34" s="272"/>
+      <c r="AC34" s="272"/>
+      <c r="AD34" s="273"/>
+      <c r="AE34" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="AF34" s="250"/>
-      <c r="AG34" s="251"/>
-      <c r="AH34" s="251"/>
-      <c r="AI34" s="251"/>
-      <c r="AJ34" s="251"/>
-      <c r="AK34" s="251"/>
-      <c r="AL34" s="251"/>
-      <c r="AM34" s="251"/>
-      <c r="AN34" s="251"/>
-      <c r="AO34" s="251"/>
-      <c r="AP34" s="252"/>
-    </row>
-    <row r="35" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF34" s="249"/>
+      <c r="AG34" s="250"/>
+      <c r="AH34" s="250"/>
+      <c r="AI34" s="250"/>
+      <c r="AJ34" s="250"/>
+      <c r="AK34" s="250"/>
+      <c r="AL34" s="250"/>
+      <c r="AM34" s="250"/>
+      <c r="AN34" s="250"/>
+      <c r="AO34" s="250"/>
+      <c r="AP34" s="251"/>
+    </row>
+    <row r="35" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="176">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
+      <c r="B35" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="56">
+        <v>131.619</v>
+      </c>
+      <c r="D35" s="57">
+        <v>43047</v>
+      </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
       <c r="G35" s="57"/>
       <c r="H35" s="175">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>131.619</v>
       </c>
       <c r="I35" s="59" t="str">
         <f t="shared" si="32"/>
@@ -21318,50 +21482,101 @@
       <c r="J35" s="183" t="s">
         <v>107</v>
       </c>
+      <c r="K35" s="200" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="N35" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="O35" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35" s="201" t="s">
+        <v>108</v>
+      </c>
       <c r="V35" s="211">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="W35" s="55" t="s">
+      <c r="W35" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="X35" s="67">
+      <c r="X35" s="53">
         <v>1.1605000000000001</v>
       </c>
-      <c r="Y35" s="57">
+      <c r="Y35" s="75">
         <v>43038</v>
       </c>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="67">
-        <f t="shared" si="33"/>
-        <v>1.1605000000000001</v>
-      </c>
-      <c r="AD35" s="59" t="str">
-        <f t="shared" si="34"/>
-        <v>盈</v>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="53">
+        <v>1.1736800000000001</v>
+      </c>
+      <c r="AB35" s="75">
+        <v>43053</v>
+      </c>
+      <c r="AC35" s="53">
+        <f t="shared" ref="AC35:AC39" si="33">IF(W35="卖",X35-AA35,AA35-X35)*AE35</f>
+        <v>-1.317999999999997E-2</v>
+      </c>
+      <c r="AD35" s="49" t="str">
+        <f t="shared" ref="AD35:AD39" si="34">IF(AC35&gt;=0,"盈","亏")</f>
+        <v>亏</v>
       </c>
       <c r="AE35" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="AF35" s="200" t="s">
+      <c r="AF35" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="AG35" s="201" t="s">
+      <c r="AG35" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="AH35" s="201" t="s">
+      <c r="AH35" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="AI35" s="201" t="s">
+      <c r="AI35" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="AJ35" s="201" t="s">
+      <c r="AJ35" s="238" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AK35" s="238"/>
+      <c r="AL35" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM35" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN35" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO35" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP35" s="258" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ35" s="257">
+        <v>43053</v>
+      </c>
+      <c r="AR35" s="255" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS35" s="255"/>
+      <c r="AT35" s="255"/>
+      <c r="AU35" s="255"/>
+      <c r="AV35" s="255"/>
+    </row>
+    <row r="36" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="176">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -21404,23 +21619,43 @@
       <c r="AE36" s="183" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="176">
+      <c r="AF36" s="221" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR36" s="255" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS36" s="255"/>
+      <c r="AT36" s="255"/>
+      <c r="AU36" s="255"/>
+      <c r="AV36" s="255"/>
+    </row>
+    <row r="37" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="261">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="175">
+      <c r="B37" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="116">
+        <v>133.18799999999999</v>
+      </c>
+      <c r="D37" s="113">
+        <v>43054</v>
+      </c>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116">
+        <v>133</v>
+      </c>
+      <c r="G37" s="113">
+        <v>43055</v>
+      </c>
+      <c r="H37" s="237">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="59" t="str">
+        <v>0.18799999999998818</v>
+      </c>
+      <c r="I37" s="115" t="str">
         <f t="shared" si="32"/>
         <v>盈</v>
       </c>
@@ -21431,47 +21666,83 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="W37" s="55" t="s">
+      <c r="W37" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="X37" s="67">
+      <c r="X37" s="53">
         <v>1.16018</v>
       </c>
-      <c r="Y37" s="57">
+      <c r="Y37" s="75">
         <v>43042</v>
       </c>
-      <c r="Z37" s="104"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="67">
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="53">
+        <v>1.1736500000000001</v>
+      </c>
+      <c r="AB37" s="75">
+        <v>43053</v>
+      </c>
+      <c r="AC37" s="53">
         <f t="shared" si="33"/>
-        <v>1.16018</v>
-      </c>
-      <c r="AD37" s="59" t="str">
+        <v>-1.3470000000000093E-2</v>
+      </c>
+      <c r="AD37" s="49" t="str">
         <f t="shared" si="34"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="AE37" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="AF37" s="200" t="s">
+      <c r="AF37" s="221" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG37" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH37" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI37" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ37" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK37" s="238"/>
+      <c r="AL37" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM37" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR37" s="255" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS37" s="255"/>
+      <c r="AT37" s="255"/>
+      <c r="AU37" s="255"/>
+      <c r="AV37" s="255"/>
+    </row>
+    <row r="38" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="176">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
+      <c r="B38" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="56">
+        <v>132.78800000000001</v>
+      </c>
+      <c r="D38" s="57">
+        <v>43056</v>
+      </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="57"/>
       <c r="H38" s="175">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>132.78800000000001</v>
       </c>
       <c r="I38" s="59" t="str">
         <f t="shared" si="32"/>
@@ -21480,29 +21751,48 @@
       <c r="J38" s="183" t="s">
         <v>107</v>
       </c>
+      <c r="K38" s="200" t="s">
+        <v>108</v>
+      </c>
       <c r="V38" s="211">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="W38" s="55"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="67">
+      <c r="W38" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="X38" s="112">
+        <v>1.1603399999999999</v>
+      </c>
+      <c r="Y38" s="113">
+        <v>43046</v>
+      </c>
+      <c r="Z38" s="114"/>
+      <c r="AA38" s="112">
+        <v>1.159</v>
+      </c>
+      <c r="AB38" s="113">
+        <v>43046</v>
+      </c>
+      <c r="AC38" s="112">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="59" t="str">
+        <v>1.3399999999998968E-3</v>
+      </c>
+      <c r="AD38" s="115" t="str">
         <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="AE38" s="183" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AR38" s="255" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS38" s="255"/>
+      <c r="AT38" s="255"/>
+      <c r="AU38" s="255"/>
+    </row>
+    <row r="39" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="176">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -21528,25 +21818,54 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="W39" s="55"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="67">
+      <c r="W39" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="X39" s="53">
+        <v>1.15937</v>
+      </c>
+      <c r="Y39" s="75">
+        <v>43047</v>
+      </c>
+      <c r="Z39" s="99"/>
+      <c r="AA39" s="53">
+        <v>1.1838299999999999</v>
+      </c>
+      <c r="AB39" s="75">
+        <v>43054</v>
+      </c>
+      <c r="AC39" s="53">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="59" t="str">
+        <v>-2.4459999999999926E-2</v>
+      </c>
+      <c r="AD39" s="49" t="str">
         <f t="shared" si="34"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="AE39" s="183" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF39" s="221" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG39" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH39" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI39" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ39" s="238" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK39" s="238"/>
+      <c r="AL39" s="238" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="176">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -21590,7 +21909,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="176">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -21634,76 +21953,101 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="K43" s="207"/>
-      <c r="L43" s="208"/>
-      <c r="M43" s="208"/>
-      <c r="N43" s="208"/>
-      <c r="O43" s="208"/>
-      <c r="P43" s="209"/>
-      <c r="Q43" s="208"/>
-      <c r="R43" s="208"/>
-      <c r="S43" s="208"/>
-      <c r="T43" s="208"/>
-      <c r="U43" s="210"/>
-      <c r="Y43" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF43" s="207"/>
-      <c r="AG43" s="208"/>
-      <c r="AH43" s="208"/>
-      <c r="AI43" s="208"/>
-      <c r="AJ43" s="208"/>
-      <c r="AK43" s="209"/>
-      <c r="AL43" s="208"/>
-      <c r="AM43" s="208"/>
-      <c r="AN43" s="208"/>
-      <c r="AO43" s="208"/>
-      <c r="AP43" s="210"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="176">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="175">
+        <f t="shared" ref="H42:H43" si="39">IF(B42="卖",C42-F42,F42-C42)*J42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="59" t="str">
+        <f t="shared" ref="I42:I43" si="40">IF(H42&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="J42" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="V42" s="211">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="W42" s="55"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="67">
+        <f t="shared" ref="AC42:AC43" si="41">IF(W42="卖",X42-AA42,AA42-X42)*AE42</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="59" t="str">
+        <f t="shared" ref="AD42:AD43" si="42">IF(AC42&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="AE42" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="176">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="175">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="59" t="str">
+        <f t="shared" si="40"/>
+        <v>盈</v>
+      </c>
+      <c r="J43" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="V43" s="211">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="W43" s="55"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="67">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="59" t="str">
+        <f t="shared" si="42"/>
+        <v>盈</v>
+      </c>
+      <c r="AE43" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
-      <c r="K44" s="207"/>
-      <c r="L44" s="208"/>
-      <c r="M44" s="208"/>
-      <c r="N44" s="208"/>
-      <c r="O44" s="208"/>
-      <c r="P44" s="209"/>
-      <c r="Q44" s="208"/>
-      <c r="R44" s="208"/>
-      <c r="S44" s="208"/>
-      <c r="T44" s="208"/>
-      <c r="U44" s="210"/>
-      <c r="Y44" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF44" s="207"/>
-      <c r="AG44" s="208"/>
-      <c r="AH44" s="208"/>
-      <c r="AI44" s="208"/>
-      <c r="AJ44" s="208"/>
-      <c r="AK44" s="209"/>
-      <c r="AL44" s="208"/>
-      <c r="AM44" s="208"/>
-      <c r="AN44" s="208"/>
-      <c r="AO44" s="208"/>
-      <c r="AP44" s="210"/>
-    </row>
-    <row r="45" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="39"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="41"/>
-      <c r="J45" s="184"/>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
       <c r="K45" s="207"/>
       <c r="L45" s="208"/>
       <c r="M45" s="208"/>
@@ -21715,17 +22059,9 @@
       <c r="S45" s="208"/>
       <c r="T45" s="208"/>
       <c r="U45" s="210"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="40"/>
       <c r="Y45" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="41"/>
-      <c r="AE45" s="184"/>
+        <v>119</v>
+      </c>
       <c r="AF45" s="207"/>
       <c r="AG45" s="208"/>
       <c r="AH45" s="208"/>
@@ -21738,14 +22074,9 @@
       <c r="AO45" s="208"/>
       <c r="AP45" s="210"/>
     </row>
-    <row r="46" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="39"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="41"/>
-      <c r="J46" s="184"/>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
       <c r="K46" s="207"/>
       <c r="L46" s="208"/>
       <c r="M46" s="208"/>
@@ -21757,15 +22088,9 @@
       <c r="S46" s="208"/>
       <c r="T46" s="208"/>
       <c r="U46" s="210"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="41"/>
-      <c r="AE46" s="184"/>
+      <c r="Y46" s="89" t="s">
+        <v>120</v>
+      </c>
       <c r="AF46" s="207"/>
       <c r="AG46" s="208"/>
       <c r="AH46" s="208"/>
@@ -21778,7 +22103,7 @@
       <c r="AO46" s="208"/>
       <c r="AP46" s="210"/>
     </row>
-    <row r="47" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:48" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="39"/>
       <c r="B47" s="43"/>
       <c r="C47" s="40"/>
@@ -21800,7 +22125,9 @@
       <c r="V47" s="39"/>
       <c r="W47" s="43"/>
       <c r="X47" s="40"/>
-      <c r="Y47" s="54"/>
+      <c r="Y47" s="89" t="s">
+        <v>121</v>
+      </c>
       <c r="Z47" s="40"/>
       <c r="AA47" s="40"/>
       <c r="AB47" s="54"/>
@@ -21817,8 +22144,9 @@
       <c r="AN47" s="208"/>
       <c r="AO47" s="208"/>
       <c r="AP47" s="210"/>
-    </row>
-    <row r="48" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ47" s="256"/>
+    </row>
+    <row r="48" spans="1:48" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="39"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
@@ -21840,9 +22168,7 @@
       <c r="V48" s="39"/>
       <c r="W48" s="43"/>
       <c r="X48" s="40"/>
-      <c r="Y48" s="73" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y48" s="54"/>
       <c r="Z48" s="40"/>
       <c r="AA48" s="40"/>
       <c r="AB48" s="54"/>
@@ -21859,8 +22185,9 @@
       <c r="AN48" s="208"/>
       <c r="AO48" s="208"/>
       <c r="AP48" s="210"/>
-    </row>
-    <row r="49" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ48" s="256"/>
+    </row>
+    <row r="49" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39"/>
       <c r="B49" s="43"/>
       <c r="C49" s="40"/>
@@ -21882,9 +22209,7 @@
       <c r="V49" s="39"/>
       <c r="W49" s="43"/>
       <c r="X49" s="40"/>
-      <c r="Y49" s="73" t="s">
-        <v>116</v>
-      </c>
+      <c r="Y49" s="54"/>
       <c r="Z49" s="40"/>
       <c r="AA49" s="40"/>
       <c r="AB49" s="54"/>
@@ -21901,8 +22226,9 @@
       <c r="AN49" s="208"/>
       <c r="AO49" s="208"/>
       <c r="AP49" s="210"/>
-    </row>
-    <row r="50" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ49" s="256"/>
+    </row>
+    <row r="50" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="39"/>
       <c r="B50" s="43"/>
       <c r="C50" s="40"/>
@@ -21924,7 +22250,9 @@
       <c r="V50" s="39"/>
       <c r="W50" s="43"/>
       <c r="X50" s="40"/>
-      <c r="Y50" s="54"/>
+      <c r="Y50" s="73" t="s">
+        <v>110</v>
+      </c>
       <c r="Z50" s="40"/>
       <c r="AA50" s="40"/>
       <c r="AB50" s="54"/>
@@ -21941,8 +22269,9 @@
       <c r="AN50" s="208"/>
       <c r="AO50" s="208"/>
       <c r="AP50" s="210"/>
-    </row>
-    <row r="51" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ50" s="256"/>
+    </row>
+    <row r="51" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="39"/>
       <c r="B51" s="43"/>
       <c r="C51" s="40"/>
@@ -21965,7 +22294,7 @@
       <c r="W51" s="43"/>
       <c r="X51" s="40"/>
       <c r="Y51" s="73" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Z51" s="40"/>
       <c r="AA51" s="40"/>
@@ -21983,8 +22312,9 @@
       <c r="AN51" s="208"/>
       <c r="AO51" s="208"/>
       <c r="AP51" s="210"/>
-    </row>
-    <row r="52" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ51" s="256"/>
+    </row>
+    <row r="52" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39"/>
       <c r="B52" s="43"/>
       <c r="C52" s="40"/>
@@ -22006,7 +22336,7 @@
       <c r="V52" s="39"/>
       <c r="W52" s="43"/>
       <c r="X52" s="40"/>
-      <c r="Y52" s="73"/>
+      <c r="Y52" s="54"/>
       <c r="Z52" s="40"/>
       <c r="AA52" s="40"/>
       <c r="AB52" s="54"/>
@@ -22023,8 +22353,9 @@
       <c r="AN52" s="208"/>
       <c r="AO52" s="208"/>
       <c r="AP52" s="210"/>
-    </row>
-    <row r="53" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ52" s="256"/>
+    </row>
+    <row r="53" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39"/>
       <c r="B53" s="43"/>
       <c r="C53" s="40"/>
@@ -22047,7 +22378,7 @@
       <c r="W53" s="43"/>
       <c r="X53" s="40"/>
       <c r="Y53" s="73" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z53" s="40"/>
       <c r="AA53" s="40"/>
@@ -22065,8 +22396,9 @@
       <c r="AN53" s="208"/>
       <c r="AO53" s="208"/>
       <c r="AP53" s="210"/>
-    </row>
-    <row r="54" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ53" s="256"/>
+    </row>
+    <row r="54" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="39"/>
       <c r="B54" s="43"/>
       <c r="C54" s="40"/>
@@ -22088,9 +22420,7 @@
       <c r="V54" s="39"/>
       <c r="W54" s="43"/>
       <c r="X54" s="40"/>
-      <c r="Y54" s="73" t="s">
-        <v>113</v>
-      </c>
+      <c r="Y54" s="73"/>
       <c r="Z54" s="40"/>
       <c r="AA54" s="40"/>
       <c r="AB54" s="54"/>
@@ -22107,8 +22437,9 @@
       <c r="AN54" s="208"/>
       <c r="AO54" s="208"/>
       <c r="AP54" s="210"/>
-    </row>
-    <row r="55" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ54" s="256"/>
+    </row>
+    <row r="55" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="39"/>
       <c r="B55" s="43"/>
       <c r="C55" s="40"/>
@@ -22131,7 +22462,7 @@
       <c r="W55" s="43"/>
       <c r="X55" s="40"/>
       <c r="Y55" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z55" s="40"/>
       <c r="AA55" s="40"/>
@@ -22149,13 +22480,12 @@
       <c r="AN55" s="208"/>
       <c r="AO55" s="208"/>
       <c r="AP55" s="210"/>
-    </row>
-    <row r="56" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ55" s="256"/>
+    </row>
+    <row r="56" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="39"/>
       <c r="B56" s="43"/>
       <c r="C56" s="40"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="40"/>
       <c r="F56" s="40"/>
       <c r="G56" s="54"/>
       <c r="H56" s="41"/>
@@ -22175,7 +22505,7 @@
       <c r="W56" s="43"/>
       <c r="X56" s="40"/>
       <c r="Y56" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z56" s="40"/>
       <c r="AA56" s="40"/>
@@ -22193,13 +22523,12 @@
       <c r="AN56" s="208"/>
       <c r="AO56" s="208"/>
       <c r="AP56" s="210"/>
-    </row>
-    <row r="57" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ56" s="256"/>
+    </row>
+    <row r="57" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39"/>
       <c r="B57" s="43"/>
       <c r="C57" s="40"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="40"/>
       <c r="F57" s="40"/>
       <c r="G57" s="54"/>
       <c r="H57" s="41"/>
@@ -22218,7 +22547,9 @@
       <c r="V57" s="39"/>
       <c r="W57" s="43"/>
       <c r="X57" s="40"/>
-      <c r="Y57" s="54"/>
+      <c r="Y57" s="73" t="s">
+        <v>118</v>
+      </c>
       <c r="Z57" s="40"/>
       <c r="AA57" s="40"/>
       <c r="AB57" s="54"/>
@@ -22235,8 +22566,9 @@
       <c r="AN57" s="208"/>
       <c r="AO57" s="208"/>
       <c r="AP57" s="210"/>
-    </row>
-    <row r="58" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ57" s="256"/>
+    </row>
+    <row r="58" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39"/>
       <c r="B58" s="43"/>
       <c r="C58" s="40"/>
@@ -22260,7 +22592,9 @@
       <c r="V58" s="39"/>
       <c r="W58" s="43"/>
       <c r="X58" s="40"/>
-      <c r="Y58" s="54"/>
+      <c r="Y58" s="73" t="s">
+        <v>114</v>
+      </c>
       <c r="Z58" s="40"/>
       <c r="AA58" s="40"/>
       <c r="AB58" s="54"/>
@@ -22277,8 +22611,9 @@
       <c r="AN58" s="208"/>
       <c r="AO58" s="208"/>
       <c r="AP58" s="210"/>
-    </row>
-    <row r="59" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ58" s="256"/>
+    </row>
+    <row r="59" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="39"/>
       <c r="B59" s="43"/>
       <c r="C59" s="40"/>
@@ -22319,8 +22654,9 @@
       <c r="AN59" s="208"/>
       <c r="AO59" s="208"/>
       <c r="AP59" s="210"/>
-    </row>
-    <row r="60" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ59" s="256"/>
+    </row>
+    <row r="60" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="39"/>
       <c r="B60" s="43"/>
       <c r="C60" s="40"/>
@@ -22361,8 +22697,9 @@
       <c r="AN60" s="208"/>
       <c r="AO60" s="208"/>
       <c r="AP60" s="210"/>
-    </row>
-    <row r="61" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ60" s="256"/>
+    </row>
+    <row r="61" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39"/>
       <c r="B61" s="43"/>
       <c r="C61" s="40"/>
@@ -22403,8 +22740,9 @@
       <c r="AN61" s="208"/>
       <c r="AO61" s="208"/>
       <c r="AP61" s="210"/>
-    </row>
-    <row r="62" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ61" s="256"/>
+    </row>
+    <row r="62" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39"/>
       <c r="B62" s="43"/>
       <c r="C62" s="40"/>
@@ -22445,8 +22783,9 @@
       <c r="AN62" s="208"/>
       <c r="AO62" s="208"/>
       <c r="AP62" s="210"/>
-    </row>
-    <row r="63" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ62" s="256"/>
+    </row>
+    <row r="63" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="39"/>
       <c r="B63" s="43"/>
       <c r="C63" s="40"/>
@@ -22487,8 +22826,9 @@
       <c r="AN63" s="208"/>
       <c r="AO63" s="208"/>
       <c r="AP63" s="210"/>
-    </row>
-    <row r="64" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ63" s="256"/>
+    </row>
+    <row r="64" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="39"/>
       <c r="B64" s="43"/>
       <c r="C64" s="40"/>
@@ -22529,8 +22869,9 @@
       <c r="AN64" s="208"/>
       <c r="AO64" s="208"/>
       <c r="AP64" s="210"/>
-    </row>
-    <row r="65" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AQ64" s="256"/>
+    </row>
+    <row r="65" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="39"/>
       <c r="B65" s="43"/>
       <c r="C65" s="40"/>
@@ -22540,17 +22881,17 @@
       <c r="G65" s="54"/>
       <c r="H65" s="41"/>
       <c r="J65" s="184"/>
-      <c r="K65" s="200"/>
-      <c r="L65" s="201"/>
-      <c r="M65" s="201"/>
-      <c r="N65" s="201"/>
-      <c r="O65" s="201"/>
-      <c r="P65" s="202"/>
-      <c r="Q65" s="201"/>
-      <c r="R65" s="201"/>
-      <c r="S65" s="201"/>
-      <c r="T65" s="201"/>
-      <c r="U65" s="203"/>
+      <c r="K65" s="207"/>
+      <c r="L65" s="208"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="208"/>
+      <c r="O65" s="208"/>
+      <c r="P65" s="209"/>
+      <c r="Q65" s="208"/>
+      <c r="R65" s="208"/>
+      <c r="S65" s="208"/>
+      <c r="T65" s="208"/>
+      <c r="U65" s="210"/>
       <c r="V65" s="39"/>
       <c r="W65" s="43"/>
       <c r="X65" s="40"/>
@@ -22560,19 +22901,20 @@
       <c r="AB65" s="54"/>
       <c r="AC65" s="41"/>
       <c r="AE65" s="184"/>
-      <c r="AF65" s="200"/>
-      <c r="AG65" s="201"/>
-      <c r="AH65" s="201"/>
-      <c r="AI65" s="201"/>
-      <c r="AJ65" s="201"/>
-      <c r="AK65" s="202"/>
-      <c r="AL65" s="201"/>
-      <c r="AM65" s="201"/>
-      <c r="AN65" s="201"/>
-      <c r="AO65" s="201"/>
-      <c r="AP65" s="203"/>
-    </row>
-    <row r="66" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AF65" s="207"/>
+      <c r="AG65" s="208"/>
+      <c r="AH65" s="208"/>
+      <c r="AI65" s="208"/>
+      <c r="AJ65" s="208"/>
+      <c r="AK65" s="209"/>
+      <c r="AL65" s="208"/>
+      <c r="AM65" s="208"/>
+      <c r="AN65" s="208"/>
+      <c r="AO65" s="208"/>
+      <c r="AP65" s="210"/>
+      <c r="AQ65" s="256"/>
+    </row>
+    <row r="66" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="39"/>
       <c r="B66" s="43"/>
       <c r="C66" s="40"/>
@@ -22582,17 +22924,17 @@
       <c r="G66" s="54"/>
       <c r="H66" s="41"/>
       <c r="J66" s="184"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="201"/>
-      <c r="M66" s="201"/>
-      <c r="N66" s="201"/>
-      <c r="O66" s="201"/>
-      <c r="P66" s="202"/>
-      <c r="Q66" s="201"/>
-      <c r="R66" s="201"/>
-      <c r="S66" s="201"/>
-      <c r="T66" s="201"/>
-      <c r="U66" s="203"/>
+      <c r="K66" s="207"/>
+      <c r="L66" s="208"/>
+      <c r="M66" s="208"/>
+      <c r="N66" s="208"/>
+      <c r="O66" s="208"/>
+      <c r="P66" s="209"/>
+      <c r="Q66" s="208"/>
+      <c r="R66" s="208"/>
+      <c r="S66" s="208"/>
+      <c r="T66" s="208"/>
+      <c r="U66" s="210"/>
       <c r="V66" s="39"/>
       <c r="W66" s="43"/>
       <c r="X66" s="40"/>
@@ -22602,24 +22944,112 @@
       <c r="AB66" s="54"/>
       <c r="AC66" s="41"/>
       <c r="AE66" s="184"/>
-      <c r="AF66" s="200"/>
-      <c r="AG66" s="201"/>
-      <c r="AH66" s="201"/>
-      <c r="AI66" s="201"/>
-      <c r="AJ66" s="201"/>
-      <c r="AK66" s="202"/>
-      <c r="AL66" s="201"/>
-      <c r="AM66" s="201"/>
-      <c r="AN66" s="201"/>
-      <c r="AO66" s="201"/>
-      <c r="AP66" s="203"/>
+      <c r="AF66" s="207"/>
+      <c r="AG66" s="208"/>
+      <c r="AH66" s="208"/>
+      <c r="AI66" s="208"/>
+      <c r="AJ66" s="208"/>
+      <c r="AK66" s="209"/>
+      <c r="AL66" s="208"/>
+      <c r="AM66" s="208"/>
+      <c r="AN66" s="208"/>
+      <c r="AO66" s="208"/>
+      <c r="AP66" s="210"/>
+      <c r="AQ66" s="256"/>
+    </row>
+    <row r="67" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="39"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="41"/>
+      <c r="J67" s="184"/>
+      <c r="K67" s="200"/>
+      <c r="L67" s="201"/>
+      <c r="M67" s="201"/>
+      <c r="N67" s="201"/>
+      <c r="O67" s="201"/>
+      <c r="P67" s="202"/>
+      <c r="Q67" s="201"/>
+      <c r="R67" s="201"/>
+      <c r="S67" s="201"/>
+      <c r="T67" s="201"/>
+      <c r="U67" s="203"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="41"/>
+      <c r="AE67" s="184"/>
+      <c r="AF67" s="200"/>
+      <c r="AG67" s="201"/>
+      <c r="AH67" s="201"/>
+      <c r="AI67" s="201"/>
+      <c r="AJ67" s="201"/>
+      <c r="AK67" s="202"/>
+      <c r="AL67" s="201"/>
+      <c r="AM67" s="201"/>
+      <c r="AN67" s="201"/>
+      <c r="AO67" s="201"/>
+      <c r="AP67" s="203"/>
+      <c r="AQ67" s="256"/>
+    </row>
+    <row r="68" spans="1:43" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="39"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="41"/>
+      <c r="J68" s="184"/>
+      <c r="K68" s="200"/>
+      <c r="L68" s="201"/>
+      <c r="M68" s="201"/>
+      <c r="N68" s="201"/>
+      <c r="O68" s="201"/>
+      <c r="P68" s="202"/>
+      <c r="Q68" s="201"/>
+      <c r="R68" s="201"/>
+      <c r="S68" s="201"/>
+      <c r="T68" s="201"/>
+      <c r="U68" s="203"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="41"/>
+      <c r="AE68" s="184"/>
+      <c r="AF68" s="200"/>
+      <c r="AG68" s="201"/>
+      <c r="AH68" s="201"/>
+      <c r="AI68" s="201"/>
+      <c r="AJ68" s="201"/>
+      <c r="AK68" s="202"/>
+      <c r="AL68" s="201"/>
+      <c r="AM68" s="201"/>
+      <c r="AN68" s="201"/>
+      <c r="AO68" s="201"/>
+      <c r="AP68" s="203"/>
+      <c r="AQ68" s="256"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="V1:AD1"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="AF1:AP1"/>
+    <mergeCell ref="X34:AD34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22630,7 +23060,7 @@
           <x14:formula1>
             <xm:f>交易记录参数!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576 W2:W1048576</xm:sqref>
+          <xm:sqref>W2:W1048576 B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22641,13 +23071,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AP58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -22686,56 +23116,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="276"/>
       <c r="J1" s="220"/>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="271"/>
-      <c r="V1" s="266" t="s">
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="279"/>
+      <c r="V1" s="274" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="267"/>
-      <c r="X1" s="267"/>
-      <c r="Y1" s="267"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="267"/>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="268"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="276"/>
       <c r="AE1" s="220"/>
-      <c r="AF1" s="269" t="s">
+      <c r="AF1" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="270"/>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="270"/>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="270"/>
-      <c r="AO1" s="270"/>
-      <c r="AP1" s="271"/>
+      <c r="AG1" s="278"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="278"/>
+      <c r="AJ1" s="278"/>
+      <c r="AK1" s="278"/>
+      <c r="AL1" s="278"/>
+      <c r="AM1" s="278"/>
+      <c r="AN1" s="278"/>
+      <c r="AO1" s="278"/>
+      <c r="AP1" s="279"/>
     </row>
     <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
@@ -23904,70 +24334,70 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A23" s="244">
+      <c r="A23" s="243">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="245"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="242">
+      <c r="B23" s="244"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="240"/>
+      <c r="H23" s="241">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I23" s="243" t="str">
+      <c r="I23" s="242" t="str">
         <f t="shared" si="24"/>
         <v>盈</v>
       </c>
-      <c r="J23" s="249" t="s">
+      <c r="J23" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="250"/>
-      <c r="L23" s="251"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="251"/>
-      <c r="O23" s="251"/>
-      <c r="P23" s="251"/>
-      <c r="Q23" s="251"/>
-      <c r="R23" s="251"/>
-      <c r="S23" s="251"/>
-      <c r="T23" s="251"/>
-      <c r="U23" s="252"/>
-      <c r="V23" s="244">
+      <c r="K23" s="249"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
+      <c r="N23" s="250"/>
+      <c r="O23" s="250"/>
+      <c r="P23" s="250"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="250"/>
+      <c r="S23" s="250"/>
+      <c r="T23" s="250"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="243">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="W23" s="245"/>
-      <c r="X23" s="246"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="246"/>
-      <c r="AA23" s="246"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="246">
+      <c r="W23" s="244"/>
+      <c r="X23" s="245"/>
+      <c r="Y23" s="240"/>
+      <c r="Z23" s="245"/>
+      <c r="AA23" s="245"/>
+      <c r="AB23" s="240"/>
+      <c r="AC23" s="245">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="243" t="str">
+      <c r="AD23" s="242" t="str">
         <f t="shared" si="27"/>
         <v>盈</v>
       </c>
-      <c r="AE23" s="249" t="s">
+      <c r="AE23" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" s="250"/>
-      <c r="AG23" s="251"/>
-      <c r="AH23" s="251"/>
-      <c r="AI23" s="251"/>
-      <c r="AJ23" s="251"/>
-      <c r="AK23" s="251"/>
-      <c r="AL23" s="251"/>
-      <c r="AM23" s="251"/>
-      <c r="AN23" s="251"/>
-      <c r="AO23" s="251"/>
-      <c r="AP23" s="252"/>
+      <c r="AF23" s="249"/>
+      <c r="AG23" s="250"/>
+      <c r="AH23" s="250"/>
+      <c r="AI23" s="250"/>
+      <c r="AJ23" s="250"/>
+      <c r="AK23" s="250"/>
+      <c r="AL23" s="250"/>
+      <c r="AM23" s="250"/>
+      <c r="AN23" s="250"/>
+      <c r="AO23" s="250"/>
+      <c r="AP23" s="251"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A24" s="176">
@@ -25401,152 +25831,170 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:M13"/>
+  <dimension ref="D3:K17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="G3" s="237" t="s">
+    <row r="3" spans="4:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="D3" s="260" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="259" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>195</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" t="s">
+    <row r="6" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G7" s="275" t="s">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="283" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="227" t="s">
+      <c r="F7" s="227" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="284" t="s">
+      <c r="G7" s="289"/>
+      <c r="H7" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="284" t="s">
+      <c r="I7" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="L7" s="272" t="s">
+      <c r="J7" s="280" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="276"/>
-      <c r="H8" s="228" t="s">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="284"/>
+      <c r="F8" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="282"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="273"/>
-    </row>
-    <row r="9" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="277"/>
-      <c r="H9" s="229" t="s">
+      <c r="G8" s="290"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="281"/>
+    </row>
+    <row r="9" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="285"/>
+      <c r="F9" s="229" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="283"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="274"/>
-    </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="278" t="s">
+      <c r="G9" s="291"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="282"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="230" t="s">
+      <c r="F10" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="225"/>
-      <c r="J10" s="232" t="s">
+      <c r="G10" s="225"/>
+      <c r="H10" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="232"/>
-      <c r="L10" s="233" t="s">
+      <c r="I10" s="232"/>
+      <c r="J10" s="233" t="s">
         <v>190</v>
       </c>
-      <c r="M10" s="224" t="s">
+      <c r="K10" s="224" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="279"/>
-      <c r="H11" s="228" t="s">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="287"/>
+      <c r="F11" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="222"/>
-      <c r="J11" s="223" t="s">
+      <c r="G11" s="222"/>
+      <c r="H11" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="223"/>
-      <c r="L11" s="234" t="s">
+      <c r="I11" s="223"/>
+      <c r="J11" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="M11" s="224" t="s">
+      <c r="K11" s="224" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="279"/>
-      <c r="H12" s="228" t="s">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="287"/>
+      <c r="F12" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="222"/>
-      <c r="J12" s="223" t="s">
+      <c r="G12" s="222"/>
+      <c r="H12" s="223" t="s">
         <v>191</v>
       </c>
-      <c r="K12" s="223"/>
-      <c r="L12" s="234" t="s">
+      <c r="I12" s="223"/>
+      <c r="J12" s="234" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="224" t="s">
+      <c r="K12" s="224" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="280"/>
-      <c r="H13" s="231" t="s">
+    <row r="13" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="288"/>
+      <c r="F13" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="226"/>
-      <c r="J13" s="235" t="s">
+      <c r="G13" s="226"/>
+      <c r="H13" s="235" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="235"/>
-      <c r="L13" s="236" t="s">
+      <c r="I13" s="235"/>
+      <c r="J13" s="236" t="s">
         <v>193</v>
       </c>
-      <c r="M13" s="224" t="s">
+      <c r="K13" s="224" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="D16" s="260" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="259" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="D17" s="260"/>
+      <c r="E17" s="259" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="1164" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="2064" yWindow="1164" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="216">
   <si>
     <t>总额</t>
   </si>
@@ -1580,7 +1580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2009,6 +2009,19 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8391,11 +8404,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8475,10 +8488,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="267" t="s">
+      <c r="I3" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="268"/>
+      <c r="J3" s="277"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -8535,7 +8548,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="278" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -8584,7 +8597,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="270"/>
+      <c r="A6" s="279"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -8637,7 +8650,7 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="270"/>
+      <c r="A7" s="279"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -8690,7 +8703,7 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="271"/>
+      <c r="A8" s="280"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -8746,7 +8759,7 @@
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="269" t="s">
+      <c r="A9" s="278" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -8804,7 +8817,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="270"/>
+      <c r="A10" s="279"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -8860,7 +8873,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="270"/>
+      <c r="A11" s="279"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -8916,7 +8929,7 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="271"/>
+      <c r="A12" s="280"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -8972,7 +8985,7 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="270" t="s">
+      <c r="A13" s="279" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="130">
@@ -9030,7 +9043,7 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="270"/>
+      <c r="A14" s="279"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -9087,7 +9100,7 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="270"/>
+      <c r="A15" s="279"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -9144,7 +9157,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="271"/>
+      <c r="A16" s="280"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -9200,7 +9213,7 @@
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="270" t="s">
+      <c r="A17" s="279" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="130">
@@ -9257,7 +9270,7 @@
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="270"/>
+      <c r="A18" s="279"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -9312,7 +9325,7 @@
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
+      <c r="A19" s="279"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -9339,7 +9352,7 @@
         <v>-7.2000000000000022E-2</v>
       </c>
       <c r="K19" s="217">
-        <f t="shared" ref="K19:K56" si="9">SUM(I16:I19)/4</f>
+        <f t="shared" ref="K19:K70" si="9">SUM(I16:I19)/4</f>
         <v>32.725000000000001</v>
       </c>
       <c r="L19" s="118"/>
@@ -9367,7 +9380,7 @@
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="270"/>
+      <c r="A20" s="279"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -9422,7 +9435,7 @@
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="270"/>
+      <c r="A21" s="279"/>
       <c r="B21" s="124">
         <v>17</v>
       </c>
@@ -9477,7 +9490,7 @@
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="269" t="s">
+      <c r="A22" s="278" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -9535,7 +9548,7 @@
       <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="270"/>
+      <c r="A23" s="279"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -9591,7 +9604,7 @@
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="270"/>
+      <c r="A24" s="279"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -9647,7 +9660,7 @@
       <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="271"/>
+      <c r="A25" s="280"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -9703,7 +9716,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="270" t="s">
+      <c r="A26" s="279" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="130">
@@ -9760,7 +9773,7 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="270"/>
+      <c r="A27" s="279"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -9815,7 +9828,7 @@
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="270"/>
+      <c r="A28" s="279"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -9870,7 +9883,7 @@
       <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="270"/>
+      <c r="A29" s="279"/>
       <c r="B29" s="124">
         <v>25</v>
       </c>
@@ -9925,7 +9938,7 @@
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="269" t="s">
+      <c r="A30" s="278" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -9983,7 +9996,7 @@
       <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="270"/>
+      <c r="A31" s="279"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -10039,7 +10052,7 @@
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="270"/>
+      <c r="A32" s="279"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -10095,7 +10108,7 @@
       <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="270"/>
+      <c r="A33" s="279"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -10151,7 +10164,7 @@
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="271"/>
+      <c r="A34" s="280"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -10207,7 +10220,7 @@
       <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="270" t="s">
+      <c r="A35" s="279" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="130">
@@ -10266,7 +10279,7 @@
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="270"/>
+      <c r="A36" s="279"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -10321,7 +10334,7 @@
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="270"/>
+      <c r="A37" s="279"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -10376,7 +10389,7 @@
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="270"/>
+      <c r="A38" s="279"/>
       <c r="B38" s="124">
         <v>34</v>
       </c>
@@ -10431,7 +10444,7 @@
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="269" t="s">
+      <c r="A39" s="278" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -10489,7 +10502,7 @@
       <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="270"/>
+      <c r="A40" s="279"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -10537,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" ref="R40:R53" si="13">SUM(M40:Q40)</f>
+        <f t="shared" ref="R40:R64" si="13">SUM(M40:Q40)</f>
         <v>6</v>
       </c>
       <c r="V40" s="36"/>
@@ -10545,7 +10558,7 @@
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="270"/>
+      <c r="A41" s="279"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -10603,7 +10616,7 @@
       <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="271"/>
+      <c r="A42" s="280"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -10661,7 +10674,7 @@
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="269" t="s">
+      <c r="A43" s="278" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -10721,7 +10734,7 @@
       <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="270"/>
+      <c r="A44" s="279"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -10780,7 +10793,7 @@
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="270"/>
+      <c r="A45" s="279"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -10846,7 +10859,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="270"/>
+      <c r="A46" s="279"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -10909,7 +10922,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="271"/>
+      <c r="A47" s="280"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -10967,7 +10980,7 @@
       <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="269" t="s">
+      <c r="A48" s="278" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -11028,7 +11041,7 @@
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="270"/>
+      <c r="A49" s="279"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -11089,7 +11102,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="270"/>
+      <c r="A50" s="279"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -11150,7 +11163,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="271"/>
+      <c r="A51" s="280"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -11209,7 +11222,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="269" t="s">
+      <c r="A52" s="278" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -11221,7 +11234,7 @@
       <c r="D52" s="2">
         <v>43072</v>
       </c>
-      <c r="E52" s="131">
+      <c r="E52" s="266">
         <f t="shared" si="4"/>
         <v>328.52641208757024</v>
       </c>
@@ -11241,7 +11254,7 @@
         <f t="shared" si="3"/>
         <v>-9.5999999999999946E-2</v>
       </c>
-      <c r="K52" s="217">
+      <c r="K52" s="216">
         <f t="shared" si="9"/>
         <v>40.950000000000003</v>
       </c>
@@ -11258,7 +11271,7 @@
       <c r="P52" s="132">
         <v>3</v>
       </c>
-      <c r="Q52" s="132">
+      <c r="Q52" s="267">
         <v>0</v>
       </c>
       <c r="R52" s="122">
@@ -11270,7 +11283,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="270"/>
+      <c r="A53" s="279"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -11280,7 +11293,7 @@
       <c r="D53" s="3">
         <v>43079</v>
       </c>
-      <c r="E53" s="135">
+      <c r="E53" s="268">
         <f t="shared" si="4"/>
         <v>341.66746857107307</v>
       </c>
@@ -11317,19 +11330,19 @@
       <c r="P53" s="263">
         <v>0</v>
       </c>
-      <c r="Q53" s="263">
-        <v>0</v>
+      <c r="Q53" s="269">
+        <v>1</v>
       </c>
       <c r="R53" s="123">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="270"/>
+      <c r="A54" s="279"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -11339,7 +11352,7 @@
       <c r="D54" s="3">
         <v>43086</v>
       </c>
-      <c r="E54" s="135">
+      <c r="E54" s="268">
         <f t="shared" si="4"/>
         <v>355.334167313916</v>
       </c>
@@ -11352,24 +11365,40 @@
         <v>69.211693536222299</v>
       </c>
       <c r="H54" s="136"/>
-      <c r="I54" s="137"/>
+      <c r="I54" s="137">
+        <v>34.4</v>
+      </c>
       <c r="J54" s="138">
         <f t="shared" si="3"/>
-        <v>-0.69599999999999995</v>
+        <v>-7.9999999999999724E-3</v>
       </c>
       <c r="K54" s="217">
         <f t="shared" si="9"/>
-        <v>27.4</v>
+        <v>36</v>
       </c>
       <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="136"/>
-      <c r="O54" s="136"/>
-      <c r="P54" s="136"/>
-      <c r="Q54" s="136"/>
+      <c r="M54" s="263">
+        <v>0</v>
+      </c>
+      <c r="N54" s="263">
+        <v>0</v>
+      </c>
+      <c r="O54" s="263">
+        <v>0</v>
+      </c>
+      <c r="P54" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="269">
+        <v>0</v>
+      </c>
+      <c r="R54" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="270"/>
+      <c r="A55" s="279"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -11379,7 +11408,7 @@
       <c r="D55" s="3">
         <v>43093</v>
       </c>
-      <c r="E55" s="135">
+      <c r="E55" s="268">
         <f t="shared" si="4"/>
         <v>369.54753400647263</v>
       </c>
@@ -11392,33 +11421,49 @@
         <v>71.288044342308964</v>
       </c>
       <c r="H55" s="136"/>
-      <c r="I55" s="137"/>
+      <c r="I55" s="137">
+        <v>31.7</v>
+      </c>
       <c r="J55" s="138">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5.3999999999999986E-2</v>
       </c>
       <c r="K55" s="217">
         <f t="shared" si="9"/>
-        <v>17.45</v>
+        <v>33.974999999999994</v>
       </c>
       <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="136"/>
-      <c r="Q55" s="136"/>
-      <c r="X55" s="272" t="s">
+      <c r="M55" s="263">
+        <v>0</v>
+      </c>
+      <c r="N55" s="263">
+        <v>0</v>
+      </c>
+      <c r="O55" s="263">
+        <v>0</v>
+      </c>
+      <c r="P55" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="269">
+        <v>0</v>
+      </c>
+      <c r="R55" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="281" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="272"/>
-      <c r="Z55" s="272"/>
-      <c r="AA55" s="272"/>
-      <c r="AB55" s="272"/>
-      <c r="AC55" s="272"/>
-      <c r="AD55" s="272"/>
+      <c r="Y55" s="281"/>
+      <c r="Z55" s="281"/>
+      <c r="AA55" s="281"/>
+      <c r="AB55" s="281"/>
+      <c r="AC55" s="281"/>
+      <c r="AD55" s="281"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="271"/>
+      <c r="A56" s="280"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -11428,45 +11473,60 @@
       <c r="D56" s="4">
         <v>43100</v>
       </c>
-      <c r="E56" s="135">
+      <c r="E56" s="270">
         <f t="shared" si="4"/>
         <v>384.32943536673156</v>
       </c>
-      <c r="F56" s="135">
+      <c r="F56" s="140">
         <f t="shared" si="5"/>
         <v>232.5442947623178</v>
       </c>
-      <c r="G56" s="135">
+      <c r="G56" s="140">
         <f t="shared" si="14"/>
         <v>73.42668567257823</v>
       </c>
       <c r="H56" s="141"/>
-      <c r="I56" s="142"/>
+      <c r="I56" s="142">
+        <v>27</v>
+      </c>
       <c r="J56" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-9.3999999999999986E-2</v>
       </c>
       <c r="K56" s="218">
         <f t="shared" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>31.974999999999998</v>
       </c>
       <c r="L56" s="141"/>
-      <c r="M56" s="141"/>
-      <c r="N56" s="141"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="141"/>
-      <c r="R56" s="145"/>
-      <c r="X56" s="272"/>
-      <c r="Y56" s="272"/>
-      <c r="Z56" s="272"/>
-      <c r="AA56" s="272"/>
-      <c r="AB56" s="272"/>
-      <c r="AC56" s="272"/>
-      <c r="AD56" s="272"/>
+      <c r="M56" s="141">
+        <v>0</v>
+      </c>
+      <c r="N56" s="141">
+        <v>0</v>
+      </c>
+      <c r="O56" s="141">
+        <v>0</v>
+      </c>
+      <c r="P56" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="271">
+        <v>0</v>
+      </c>
+      <c r="R56" s="145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="281"/>
+      <c r="Y56" s="281"/>
+      <c r="Z56" s="281"/>
+      <c r="AA56" s="281"/>
+      <c r="AB56" s="281"/>
+      <c r="AC56" s="281"/>
+      <c r="AD56" s="281"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="264" t="s">
+      <c r="A57" s="273" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="127">
@@ -11478,7 +11538,7 @@
       <c r="D57" s="2">
         <v>43107</v>
       </c>
-      <c r="E57" s="131">
+      <c r="E57" s="266">
         <f t="shared" si="4"/>
         <v>399.70261278140083</v>
       </c>
@@ -11491,29 +11551,47 @@
         <v>75.629486242755576</v>
       </c>
       <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
+      <c r="I57" s="132">
+        <v>27</v>
+      </c>
       <c r="J57" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K57" s="216"/>
+      <c r="K57" s="216">
+        <f t="shared" si="9"/>
+        <v>30.024999999999999</v>
+      </c>
       <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="122"/>
-      <c r="X57" s="272"/>
-      <c r="Y57" s="272"/>
-      <c r="Z57" s="272"/>
-      <c r="AA57" s="272"/>
-      <c r="AB57" s="272"/>
-      <c r="AC57" s="272"/>
-      <c r="AD57" s="272"/>
+      <c r="M57" s="132">
+        <v>0</v>
+      </c>
+      <c r="N57" s="132">
+        <v>0</v>
+      </c>
+      <c r="O57" s="132">
+        <v>0</v>
+      </c>
+      <c r="P57" s="132">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="132">
+        <v>0</v>
+      </c>
+      <c r="R57" s="122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="281"/>
+      <c r="Y57" s="281"/>
+      <c r="Z57" s="281"/>
+      <c r="AA57" s="281"/>
+      <c r="AB57" s="281"/>
+      <c r="AC57" s="281"/>
+      <c r="AD57" s="281"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="265"/>
+      <c r="A58" s="274"/>
       <c r="B58" s="125">
         <v>2</v>
       </c>
@@ -11523,7 +11601,7 @@
       <c r="D58" s="3">
         <v>43114</v>
       </c>
-      <c r="E58" s="135">
+      <c r="E58" s="268">
         <f t="shared" si="4"/>
         <v>415.69071729265687</v>
       </c>
@@ -11536,24 +11614,43 @@
         <v>77.898370830038246</v>
       </c>
       <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
+      <c r="I58" s="137">
+        <v>27</v>
+      </c>
       <c r="J58" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K58" s="217"/>
+      <c r="K58" s="217">
+        <f t="shared" si="9"/>
+        <v>28.175000000000001</v>
+      </c>
       <c r="L58" s="136"/>
-      <c r="M58" s="136"/>
-      <c r="N58" s="136"/>
-      <c r="O58" s="136"/>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="136"/>
+      <c r="M58" s="263">
+        <v>0</v>
+      </c>
+      <c r="N58" s="263">
+        <v>0</v>
+      </c>
+      <c r="O58" s="263">
+        <v>0</v>
+      </c>
+      <c r="P58" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="263">
+        <v>0</v>
+      </c>
+      <c r="R58" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W58" s="36" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="265"/>
+      <c r="A59" s="274"/>
       <c r="B59" s="125">
         <v>3</v>
       </c>
@@ -11563,7 +11660,7 @@
       <c r="D59" s="3">
         <v>43121</v>
       </c>
-      <c r="E59" s="135">
+      <c r="E59" s="268">
         <f t="shared" si="4"/>
         <v>432.31834598436313</v>
       </c>
@@ -11576,23 +11673,43 @@
         <v>80.235321954939394</v>
       </c>
       <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
+      <c r="I59" s="137">
+        <v>27</v>
+      </c>
       <c r="J59" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K59" s="217"/>
+      <c r="K59" s="217">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
       <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="136"/>
+      <c r="M59" s="263">
+        <v>0</v>
+      </c>
+      <c r="N59" s="263">
+        <v>1</v>
+      </c>
+      <c r="O59" s="263">
+        <v>1</v>
+      </c>
+      <c r="P59" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="263">
+        <v>0</v>
+      </c>
+      <c r="R59" s="123">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
       <c r="W59" s="36" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="266"/>
+      <c r="A60" s="275"/>
       <c r="B60" s="128">
         <v>4</v>
       </c>
@@ -11602,7 +11719,7 @@
       <c r="D60" s="4">
         <v>43128</v>
       </c>
-      <c r="E60" s="140">
+      <c r="E60" s="270">
         <f t="shared" si="4"/>
         <v>449.61107982373767</v>
       </c>
@@ -11615,22 +11732,40 @@
         <v>82.642381613587574</v>
       </c>
       <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
+      <c r="I60" s="141">
+        <v>30</v>
+      </c>
       <c r="J60" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="218"/>
+        <v>0.06</v>
+      </c>
+      <c r="K60" s="218">
+        <f t="shared" si="9"/>
+        <v>27.75</v>
+      </c>
       <c r="L60" s="141"/>
-      <c r="M60" s="141"/>
-      <c r="N60" s="141"/>
-      <c r="O60" s="141"/>
-      <c r="P60" s="141"/>
-      <c r="Q60" s="141"/>
-      <c r="R60" s="145"/>
+      <c r="M60" s="141">
+        <v>0</v>
+      </c>
+      <c r="N60" s="141">
+        <v>1</v>
+      </c>
+      <c r="O60" s="141">
+        <v>1</v>
+      </c>
+      <c r="P60" s="141">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="141">
+        <v>1</v>
+      </c>
+      <c r="R60" s="145">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="264" t="s">
+      <c r="A61" s="273" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="127">
@@ -11642,7 +11777,7 @@
       <c r="D61" s="2">
         <v>43135</v>
       </c>
-      <c r="E61" s="131">
+      <c r="E61" s="266">
         <f t="shared" si="4"/>
         <v>467.5955230166872</v>
       </c>
@@ -11655,22 +11790,40 @@
         <v>85.121653061995204</v>
       </c>
       <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
+      <c r="I61" s="132">
+        <v>28</v>
+      </c>
       <c r="J61" s="134">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="216"/>
+        <v>-0.04</v>
+      </c>
+      <c r="K61" s="216">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
       <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="132"/>
-      <c r="Q61" s="132"/>
-      <c r="R61" s="122"/>
+      <c r="M61" s="132">
+        <v>0</v>
+      </c>
+      <c r="N61" s="132">
+        <v>0</v>
+      </c>
+      <c r="O61" s="132">
+        <v>0</v>
+      </c>
+      <c r="P61" s="132">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="267">
+        <v>0</v>
+      </c>
+      <c r="R61" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
+      <c r="A62" s="274"/>
       <c r="B62" s="125">
         <v>6</v>
       </c>
@@ -11680,7 +11833,7 @@
       <c r="D62" s="3">
         <v>43142</v>
       </c>
-      <c r="E62" s="135">
+      <c r="E62" s="268">
         <f t="shared" si="4"/>
         <v>486.29934393735471</v>
       </c>
@@ -11693,24 +11846,43 @@
         <v>87.675302653855056</v>
       </c>
       <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
+      <c r="I62" s="137">
+        <v>28</v>
+      </c>
       <c r="J62" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K62" s="217"/>
+      <c r="K62" s="217">
+        <f t="shared" si="9"/>
+        <v>28.25</v>
+      </c>
       <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="136"/>
-      <c r="P62" s="136"/>
-      <c r="Q62" s="136"/>
+      <c r="M62" s="137">
+        <v>0</v>
+      </c>
+      <c r="N62" s="137">
+        <v>0</v>
+      </c>
+      <c r="O62" s="137">
+        <v>0</v>
+      </c>
+      <c r="P62" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="272">
+        <v>0</v>
+      </c>
+      <c r="R62" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W62" s="36" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
+      <c r="A63" s="274"/>
       <c r="B63" s="125">
         <v>7</v>
       </c>
@@ -11720,7 +11892,7 @@
       <c r="D63" s="3">
         <v>43149</v>
       </c>
-      <c r="E63" s="135">
+      <c r="E63" s="268">
         <f t="shared" si="4"/>
         <v>505.75131769484892</v>
       </c>
@@ -11733,24 +11905,43 @@
         <v>90.305561733470711</v>
       </c>
       <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
+      <c r="I63" s="137">
+        <v>31</v>
+      </c>
       <c r="J63" s="138">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="217"/>
+        <v>0.06</v>
+      </c>
+      <c r="K63" s="217">
+        <f t="shared" si="9"/>
+        <v>29.25</v>
+      </c>
       <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="136"/>
-      <c r="Q63" s="136"/>
+      <c r="M63" s="137">
+        <v>0</v>
+      </c>
+      <c r="N63" s="137">
+        <v>0</v>
+      </c>
+      <c r="O63" s="137">
+        <v>0</v>
+      </c>
+      <c r="P63" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="272">
+        <v>0</v>
+      </c>
+      <c r="R63" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W63" s="36" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="266"/>
+      <c r="A64" s="275"/>
       <c r="B64" s="128">
         <v>8</v>
       </c>
@@ -11760,7 +11951,7 @@
       <c r="D64" s="4">
         <v>43156</v>
       </c>
-      <c r="E64" s="140">
+      <c r="E64" s="270">
         <f t="shared" si="4"/>
         <v>525.98137040264294</v>
       </c>
@@ -11773,25 +11964,43 @@
         <v>93.014728585474828</v>
       </c>
       <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
+      <c r="I64" s="141">
+        <v>31.5</v>
+      </c>
       <c r="J64" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="218"/>
+        <v>0.01</v>
+      </c>
+      <c r="K64" s="218">
+        <f t="shared" si="9"/>
+        <v>29.625</v>
+      </c>
       <c r="L64" s="141"/>
-      <c r="M64" s="141"/>
-      <c r="N64" s="141"/>
-      <c r="O64" s="141"/>
-      <c r="P64" s="141"/>
-      <c r="Q64" s="141"/>
-      <c r="R64" s="145"/>
+      <c r="M64" s="141">
+        <v>0</v>
+      </c>
+      <c r="N64" s="141">
+        <v>0</v>
+      </c>
+      <c r="O64" s="141">
+        <v>0</v>
+      </c>
+      <c r="P64" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="271">
+        <v>0</v>
+      </c>
+      <c r="R64" s="145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W64" s="119" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="264" t="s">
+      <c r="A65" s="273" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="127">
@@ -11803,7 +12012,7 @@
       <c r="D65" s="2">
         <v>43163</v>
       </c>
-      <c r="E65" s="131">
+      <c r="E65" s="266">
         <f t="shared" si="4"/>
         <v>547.02062521874871</v>
       </c>
@@ -11816,25 +12025,30 @@
         <v>95.805170443039074</v>
       </c>
       <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
+      <c r="I65" s="132">
+        <v>31.7</v>
+      </c>
       <c r="J65" s="134">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="216"/>
+        <v>3.9999999999999862E-3</v>
+      </c>
+      <c r="K65" s="216">
+        <f t="shared" si="9"/>
+        <v>30.55</v>
+      </c>
       <c r="L65" s="132"/>
       <c r="M65" s="132"/>
       <c r="N65" s="132"/>
       <c r="O65" s="132"/>
       <c r="P65" s="132"/>
-      <c r="Q65" s="132"/>
+      <c r="Q65" s="267"/>
       <c r="R65" s="122"/>
       <c r="W65" s="119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
+      <c r="A66" s="274"/>
       <c r="B66" s="125">
         <v>10</v>
       </c>
@@ -11844,7 +12058,7 @@
       <c r="D66" s="3">
         <v>43170</v>
       </c>
-      <c r="E66" s="135">
+      <c r="E66" s="268">
         <f t="shared" si="4"/>
         <v>568.90145022749869</v>
       </c>
@@ -11860,21 +12074,24 @@
       <c r="I66" s="136"/>
       <c r="J66" s="138">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="217"/>
+        <v>-0.63400000000000001</v>
+      </c>
+      <c r="K66" s="217">
+        <f t="shared" si="9"/>
+        <v>23.55</v>
+      </c>
       <c r="L66" s="136"/>
       <c r="M66" s="136"/>
       <c r="N66" s="136"/>
       <c r="O66" s="136"/>
       <c r="P66" s="136"/>
-      <c r="Q66" s="136"/>
+      <c r="Q66" s="171"/>
       <c r="W66" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
+      <c r="A67" s="274"/>
       <c r="B67" s="125">
         <v>11</v>
       </c>
@@ -11884,7 +12101,7 @@
       <c r="D67" s="3">
         <v>43177</v>
       </c>
-      <c r="E67" s="135">
+      <c r="E67" s="268">
         <f t="shared" si="4"/>
         <v>591.65750823659869</v>
       </c>
@@ -11902,19 +12119,22 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K67" s="217"/>
+      <c r="K67" s="217">
+        <f t="shared" si="9"/>
+        <v>15.8</v>
+      </c>
       <c r="L67" s="136"/>
       <c r="M67" s="136"/>
       <c r="N67" s="136"/>
       <c r="O67" s="136"/>
       <c r="P67" s="136"/>
-      <c r="Q67" s="136"/>
+      <c r="Q67" s="171"/>
       <c r="W67" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="266"/>
+      <c r="A68" s="275"/>
       <c r="B68" s="128">
         <v>12</v>
       </c>
@@ -11924,7 +12144,7 @@
       <c r="D68" s="4">
         <v>43184</v>
       </c>
-      <c r="E68" s="140">
+      <c r="E68" s="270">
         <f t="shared" si="4"/>
         <v>615.32380856606267</v>
       </c>
@@ -11942,20 +12162,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K68" s="218"/>
+      <c r="K68" s="218">
+        <f t="shared" si="9"/>
+        <v>7.9249999999999998</v>
+      </c>
       <c r="L68" s="141"/>
       <c r="M68" s="141"/>
       <c r="N68" s="141"/>
       <c r="O68" s="141"/>
       <c r="P68" s="141"/>
-      <c r="Q68" s="141"/>
+      <c r="Q68" s="271"/>
       <c r="R68" s="145"/>
       <c r="W68" s="36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="265" t="s">
+      <c r="A69" s="274" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="126">
@@ -11983,12 +12206,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K69" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="W69" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
+      <c r="A70" s="274"/>
       <c r="B70" s="125">
         <v>14</v>
       </c>
@@ -12014,12 +12241,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K70" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="W70" s="119" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
+      <c r="A71" s="274"/>
       <c r="B71" s="125">
         <v>15</v>
       </c>
@@ -12047,7 +12278,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
+      <c r="A72" s="274"/>
       <c r="B72" s="125">
         <v>16</v>
       </c>
@@ -12078,7 +12309,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="265"/>
+      <c r="A73" s="274"/>
       <c r="B73" s="129">
         <v>17</v>
       </c>
@@ -12109,7 +12340,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="264" t="s">
+      <c r="A74" s="273" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="127">
@@ -12149,7 +12380,7 @@
       <c r="R74" s="122"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
+      <c r="A75" s="274"/>
       <c r="B75" s="125">
         <v>19</v>
       </c>
@@ -12189,7 +12420,7 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
+      <c r="A76" s="274"/>
       <c r="B76" s="125">
         <v>20</v>
       </c>
@@ -12229,7 +12460,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="266"/>
+      <c r="A77" s="275"/>
       <c r="B77" s="128">
         <v>21</v>
       </c>
@@ -12270,7 +12501,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="265" t="s">
+      <c r="A78" s="274" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="126">
@@ -12300,7 +12531,7 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
+      <c r="A79" s="274"/>
       <c r="B79" s="125">
         <v>23</v>
       </c>
@@ -12328,7 +12559,7 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
+      <c r="A80" s="274"/>
       <c r="B80" s="125">
         <v>24</v>
       </c>
@@ -12356,7 +12587,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="265"/>
+      <c r="A81" s="274"/>
       <c r="B81" s="129">
         <v>25</v>
       </c>
@@ -12384,7 +12615,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="264" t="s">
+      <c r="A82" s="273" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="127">
@@ -12424,7 +12655,7 @@
       <c r="R82" s="122"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
+      <c r="A83" s="274"/>
       <c r="B83" s="125">
         <v>27</v>
       </c>
@@ -12461,7 +12692,7 @@
       <c r="Q83" s="136"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
+      <c r="A84" s="274"/>
       <c r="B84" s="125">
         <v>28</v>
       </c>
@@ -12498,7 +12729,7 @@
       <c r="Q84" s="136"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="265"/>
+      <c r="A85" s="274"/>
       <c r="B85" s="125">
         <v>29</v>
       </c>
@@ -12535,7 +12766,7 @@
       <c r="Q85" s="136"/>
     </row>
     <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="266"/>
+      <c r="A86" s="275"/>
       <c r="B86" s="128">
         <v>30</v>
       </c>
@@ -12573,7 +12804,7 @@
       <c r="R86" s="145"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="265" t="s">
+      <c r="A87" s="274" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="126">
@@ -12603,7 +12834,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="265"/>
+      <c r="A88" s="274"/>
       <c r="B88" s="125">
         <v>32</v>
       </c>
@@ -12631,7 +12862,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="265"/>
+      <c r="A89" s="274"/>
       <c r="B89" s="125">
         <v>33</v>
       </c>
@@ -12659,7 +12890,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="265"/>
+      <c r="A90" s="274"/>
       <c r="B90" s="129">
         <v>34</v>
       </c>
@@ -12687,7 +12918,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="264" t="s">
+      <c r="A91" s="273" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="127">
@@ -12727,7 +12958,7 @@
       <c r="R91" s="122"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="265"/>
+      <c r="A92" s="274"/>
       <c r="B92" s="125">
         <v>36</v>
       </c>
@@ -12764,7 +12995,7 @@
       <c r="Q92" s="136"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="265"/>
+      <c r="A93" s="274"/>
       <c r="B93" s="125">
         <v>37</v>
       </c>
@@ -12801,7 +13032,7 @@
       <c r="Q93" s="136"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="265"/>
+      <c r="A94" s="274"/>
       <c r="B94" s="125">
         <v>38</v>
       </c>
@@ -12838,7 +13069,7 @@
       <c r="Q94" s="136"/>
     </row>
     <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="266"/>
+      <c r="A95" s="275"/>
       <c r="B95" s="128">
         <v>39</v>
       </c>
@@ -12876,7 +13107,7 @@
       <c r="R95" s="145"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="265" t="s">
+      <c r="A96" s="274" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="126">
@@ -12906,7 +13137,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="265"/>
+      <c r="A97" s="274"/>
       <c r="B97" s="125">
         <v>41</v>
       </c>
@@ -12934,7 +13165,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="265"/>
+      <c r="A98" s="274"/>
       <c r="B98" s="125">
         <v>42</v>
       </c>
@@ -12962,7 +13193,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="265"/>
+      <c r="A99" s="274"/>
       <c r="B99" s="129">
         <v>43</v>
       </c>
@@ -12990,7 +13221,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="264" t="s">
+      <c r="A100" s="273" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="127">
@@ -13030,7 +13261,7 @@
       <c r="R100" s="122"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="265"/>
+      <c r="A101" s="274"/>
       <c r="B101" s="125">
         <v>45</v>
       </c>
@@ -13067,7 +13298,7 @@
       <c r="Q101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="265"/>
+      <c r="A102" s="274"/>
       <c r="B102" s="125">
         <v>46</v>
       </c>
@@ -13104,7 +13335,7 @@
       <c r="Q102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="266"/>
+      <c r="A103" s="275"/>
       <c r="B103" s="128">
         <v>47</v>
       </c>
@@ -13142,7 +13373,7 @@
       <c r="R103" s="145"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="264" t="s">
+      <c r="A104" s="273" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="127">
@@ -13182,7 +13413,7 @@
       <c r="R104" s="122"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="265"/>
+      <c r="A105" s="274"/>
       <c r="B105" s="125">
         <v>49</v>
       </c>
@@ -13219,7 +13450,7 @@
       <c r="Q105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="265"/>
+      <c r="A106" s="274"/>
       <c r="B106" s="125">
         <v>50</v>
       </c>
@@ -13256,7 +13487,7 @@
       <c r="Q106" s="136"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="265"/>
+      <c r="A107" s="274"/>
       <c r="B107" s="125">
         <v>51</v>
       </c>
@@ -13293,7 +13524,7 @@
       <c r="Q107" s="136"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="266"/>
+      <c r="A108" s="275"/>
       <c r="B108" s="128">
         <v>52</v>
       </c>
@@ -15067,7 +15298,7 @@
     <mergeCell ref="A91:A95"/>
     <mergeCell ref="A96:A99"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I56">
+  <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>$I5&gt;$F5</formula>
     </cfRule>
@@ -15094,7 +15325,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -15118,31 +15349,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="278"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="287"/>
       <c r="J1" s="196"/>
-      <c r="K1" s="279" t="s">
+      <c r="K1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
-      <c r="R1" s="280"/>
-      <c r="S1" s="280"/>
-      <c r="T1" s="280"/>
-      <c r="U1" s="281"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
+      <c r="T1" s="289"/>
+      <c r="U1" s="290"/>
     </row>
     <row r="2" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
@@ -16167,13 +16398,13 @@
       <c r="A35" s="39"/>
       <c r="B35" s="43"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="273" t="str">
+      <c r="D35" s="282" t="str">
         <f>E38</f>
         <v>波动</v>
       </c>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
+      <c r="E35" s="282"/>
+      <c r="F35" s="282"/>
+      <c r="G35" s="282"/>
       <c r="H35" s="41"/>
       <c r="J35" s="199"/>
       <c r="K35" s="207"/>
@@ -16214,10 +16445,10 @@
       <c r="A37" s="39"/>
       <c r="B37" s="43"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="274" t="s">
+      <c r="D37" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="E37" s="275"/>
+      <c r="E37" s="284"/>
       <c r="F37" s="252"/>
       <c r="G37" s="253"/>
       <c r="H37" s="41"/>
@@ -16594,7 +16825,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -16633,56 +16864,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="278"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="287"/>
       <c r="J1" s="220"/>
-      <c r="K1" s="279" t="s">
+      <c r="K1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
-      <c r="R1" s="280"/>
-      <c r="S1" s="280"/>
-      <c r="T1" s="280"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="276" t="s">
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
+      <c r="T1" s="289"/>
+      <c r="U1" s="290"/>
+      <c r="V1" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
-      <c r="Y1" s="277"/>
-      <c r="Z1" s="277"/>
-      <c r="AA1" s="277"/>
-      <c r="AB1" s="277"/>
-      <c r="AC1" s="277"/>
-      <c r="AD1" s="278"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
+      <c r="Z1" s="286"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="287"/>
       <c r="AE1" s="220"/>
-      <c r="AF1" s="279" t="s">
+      <c r="AF1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="280"/>
-      <c r="AH1" s="280"/>
-      <c r="AI1" s="280"/>
-      <c r="AJ1" s="280"/>
-      <c r="AK1" s="280"/>
-      <c r="AL1" s="280"/>
-      <c r="AM1" s="280"/>
-      <c r="AN1" s="280"/>
-      <c r="AO1" s="280"/>
-      <c r="AP1" s="281"/>
+      <c r="AG1" s="289"/>
+      <c r="AH1" s="289"/>
+      <c r="AI1" s="289"/>
+      <c r="AJ1" s="289"/>
+      <c r="AK1" s="289"/>
+      <c r="AL1" s="289"/>
+      <c r="AM1" s="289"/>
+      <c r="AN1" s="289"/>
+      <c r="AO1" s="289"/>
+      <c r="AP1" s="290"/>
     </row>
     <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="182" t="s">
@@ -18834,13 +19065,13 @@
       <c r="A40" s="39"/>
       <c r="B40" s="43"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="273" t="str">
+      <c r="D40" s="282" t="str">
         <f>E43</f>
         <v>下</v>
       </c>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="273"/>
+      <c r="E40" s="282"/>
+      <c r="F40" s="282"/>
+      <c r="G40" s="282"/>
       <c r="H40" s="41"/>
       <c r="J40" s="184"/>
       <c r="K40" s="207"/>
@@ -18857,13 +19088,13 @@
       <c r="V40" s="39"/>
       <c r="W40" s="43"/>
       <c r="X40" s="40"/>
-      <c r="Y40" s="273" t="str">
+      <c r="Y40" s="282" t="str">
         <f>Z43</f>
         <v>波动</v>
       </c>
-      <c r="Z40" s="273"/>
-      <c r="AA40" s="273"/>
-      <c r="AB40" s="273"/>
+      <c r="Z40" s="282"/>
+      <c r="AA40" s="282"/>
+      <c r="AB40" s="282"/>
       <c r="AC40" s="41"/>
       <c r="AE40" s="184"/>
       <c r="AF40" s="207"/>
@@ -18924,10 +19155,10 @@
       <c r="A42" s="39"/>
       <c r="B42" s="43"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="E42" s="275"/>
+      <c r="E42" s="284"/>
       <c r="F42" s="252"/>
       <c r="G42" s="253"/>
       <c r="H42" s="41"/>
@@ -18946,10 +19177,10 @@
       <c r="V42" s="39"/>
       <c r="W42" s="43"/>
       <c r="X42" s="40"/>
-      <c r="Y42" s="274" t="s">
+      <c r="Y42" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="Z42" s="275"/>
+      <c r="Z42" s="284"/>
       <c r="AA42" s="252"/>
       <c r="AB42" s="253"/>
       <c r="AC42" s="41"/>
@@ -19676,9 +19907,9 @@
   </sheetPr>
   <dimension ref="A1:AV69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R44" sqref="R44"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -19718,56 +19949,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="278"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="287"/>
       <c r="J1" s="220"/>
-      <c r="K1" s="279" t="s">
+      <c r="K1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
-      <c r="R1" s="280"/>
-      <c r="S1" s="280"/>
-      <c r="T1" s="280"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="276" t="s">
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
+      <c r="T1" s="289"/>
+      <c r="U1" s="290"/>
+      <c r="V1" s="285" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
-      <c r="Y1" s="277"/>
-      <c r="Z1" s="277"/>
-      <c r="AA1" s="277"/>
-      <c r="AB1" s="277"/>
-      <c r="AC1" s="277"/>
-      <c r="AD1" s="278"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
+      <c r="Z1" s="286"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="287"/>
       <c r="AE1" s="220"/>
-      <c r="AF1" s="279" t="s">
+      <c r="AF1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="280"/>
-      <c r="AH1" s="280"/>
-      <c r="AI1" s="280"/>
-      <c r="AJ1" s="280"/>
-      <c r="AK1" s="280"/>
-      <c r="AL1" s="280"/>
-      <c r="AM1" s="280"/>
-      <c r="AN1" s="280"/>
-      <c r="AO1" s="280"/>
-      <c r="AP1" s="281"/>
+      <c r="AG1" s="289"/>
+      <c r="AH1" s="289"/>
+      <c r="AI1" s="289"/>
+      <c r="AJ1" s="289"/>
+      <c r="AK1" s="289"/>
+      <c r="AL1" s="289"/>
+      <c r="AM1" s="289"/>
+      <c r="AN1" s="289"/>
+      <c r="AO1" s="289"/>
+      <c r="AP1" s="290"/>
     </row>
     <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
@@ -22056,27 +22287,31 @@
       </c>
     </row>
     <row r="39" spans="1:48" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="176">
+      <c r="A39" s="264">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="45">
         <v>132.46199999999999</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="94">
         <v>43077</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="175">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45">
+        <v>132.36500000000001</v>
+      </c>
+      <c r="G39" s="94">
+        <v>43086</v>
+      </c>
+      <c r="H39" s="265">
         <f t="shared" ref="H39" si="35">IF(B39="卖",C39-F39,F39-C39)*J39</f>
-        <v>132.46199999999999</v>
-      </c>
-      <c r="I39" s="59" t="str">
+        <v>9.6999999999979991E-2</v>
+      </c>
+      <c r="I39" s="47" t="str">
         <f t="shared" ref="I39" si="36">IF(H39&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
@@ -22093,23 +22328,27 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="W39" s="55" t="s">
+      <c r="W39" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="X39" s="67">
+      <c r="X39" s="48">
         <v>1.17797</v>
       </c>
-      <c r="Y39" s="57">
+      <c r="Y39" s="94">
         <v>43077</v>
       </c>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="67">
+      <c r="Z39" s="101"/>
+      <c r="AA39" s="48">
+        <v>1.177</v>
+      </c>
+      <c r="AB39" s="94">
+        <v>43076</v>
+      </c>
+      <c r="AC39" s="48">
         <f t="shared" ref="AC39" si="37">IF(W39="卖",X39-AA39,AA39-X39)*AE39</f>
-        <v>1.17797</v>
-      </c>
-      <c r="AD39" s="59" t="str">
+        <v>9.6999999999991537E-4</v>
+      </c>
+      <c r="AD39" s="47" t="str">
         <f t="shared" ref="AD39" si="38">IF(AC39&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
@@ -22146,23 +22385,27 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="W40" s="55" t="s">
+      <c r="W40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="X40" s="67">
+      <c r="X40" s="48">
         <v>1.17893</v>
       </c>
-      <c r="Y40" s="57">
+      <c r="Y40" s="94">
         <v>43077</v>
       </c>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="67">
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="48">
+        <v>1.177</v>
+      </c>
+      <c r="AB40" s="94">
+        <v>43076</v>
+      </c>
+      <c r="AC40" s="48">
         <f t="shared" ref="AC40:AC43" si="41">IF(W40="卖",X40-AA40,AA40-X40)*AE40</f>
-        <v>1.17893</v>
-      </c>
-      <c r="AD40" s="59" t="str">
+        <v>1.9299999999999873E-3</v>
+      </c>
+      <c r="AD40" s="47" t="str">
         <f t="shared" ref="AD40:AD43" si="42">IF(AC40&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
@@ -22196,15 +22439,21 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="W41" s="55"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="57"/>
+      <c r="W41" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="X41" s="67">
+        <v>1.17367</v>
+      </c>
+      <c r="Y41" s="57">
+        <v>43082</v>
+      </c>
       <c r="Z41" s="104"/>
       <c r="AA41" s="67"/>
       <c r="AB41" s="57"/>
       <c r="AC41" s="67">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.17367</v>
       </c>
       <c r="AD41" s="59" t="str">
         <f t="shared" si="42"/>
@@ -22352,13 +22601,13 @@
       <c r="Y45" s="73"/>
     </row>
     <row r="46" spans="1:48" ht="39.6" x14ac:dyDescent="0.8">
-      <c r="D46" s="273" t="str">
+      <c r="D46" s="282" t="str">
         <f>E49</f>
         <v>波动</v>
       </c>
-      <c r="E46" s="273"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="273"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="282"/>
+      <c r="G46" s="282"/>
       <c r="K46" s="207"/>
       <c r="L46" s="208"/>
       <c r="M46" s="208"/>
@@ -22370,13 +22619,13 @@
       <c r="S46" s="208"/>
       <c r="T46" s="208"/>
       <c r="U46" s="210"/>
-      <c r="Y46" s="273" t="str">
+      <c r="Y46" s="282" t="str">
         <f>Z49</f>
         <v>波动</v>
       </c>
-      <c r="Z46" s="273"/>
-      <c r="AA46" s="273"/>
-      <c r="AB46" s="273"/>
+      <c r="Z46" s="282"/>
+      <c r="AA46" s="282"/>
+      <c r="AB46" s="282"/>
       <c r="AF46" s="207"/>
       <c r="AG46" s="208"/>
       <c r="AH46" s="208"/>
@@ -22417,10 +22666,10 @@
       <c r="A48" s="39"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="274" t="s">
+      <c r="D48" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="E48" s="275"/>
+      <c r="E48" s="284"/>
       <c r="F48" s="252"/>
       <c r="G48" s="253"/>
       <c r="H48" s="41"/>
@@ -22439,10 +22688,10 @@
       <c r="V48" s="39"/>
       <c r="W48" s="43"/>
       <c r="X48" s="40"/>
-      <c r="Y48" s="274" t="s">
+      <c r="Y48" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="Z48" s="275"/>
+      <c r="Z48" s="284"/>
       <c r="AA48" s="252"/>
       <c r="AB48" s="253"/>
       <c r="AC48" s="41"/>
@@ -23416,8 +23665,8 @@
   <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -23456,56 +23705,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="278"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="287"/>
       <c r="J1" s="220"/>
-      <c r="K1" s="279" t="s">
+      <c r="K1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
-      <c r="R1" s="280"/>
-      <c r="S1" s="280"/>
-      <c r="T1" s="280"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="276" t="s">
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
+      <c r="T1" s="289"/>
+      <c r="U1" s="290"/>
+      <c r="V1" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
-      <c r="Y1" s="277"/>
-      <c r="Z1" s="277"/>
-      <c r="AA1" s="277"/>
-      <c r="AB1" s="277"/>
-      <c r="AC1" s="277"/>
-      <c r="AD1" s="278"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
+      <c r="Z1" s="286"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="287"/>
       <c r="AE1" s="220"/>
-      <c r="AF1" s="279" t="s">
+      <c r="AF1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="280"/>
-      <c r="AH1" s="280"/>
-      <c r="AI1" s="280"/>
-      <c r="AJ1" s="280"/>
-      <c r="AK1" s="280"/>
-      <c r="AL1" s="280"/>
-      <c r="AM1" s="280"/>
-      <c r="AN1" s="280"/>
-      <c r="AO1" s="280"/>
-      <c r="AP1" s="281"/>
+      <c r="AG1" s="289"/>
+      <c r="AH1" s="289"/>
+      <c r="AI1" s="289"/>
+      <c r="AJ1" s="289"/>
+      <c r="AK1" s="289"/>
+      <c r="AL1" s="289"/>
+      <c r="AM1" s="289"/>
+      <c r="AN1" s="289"/>
+      <c r="AO1" s="289"/>
+      <c r="AP1" s="290"/>
     </row>
     <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
@@ -25188,13 +25437,13 @@
       <c r="A33" s="39"/>
       <c r="B33" s="43"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="273" t="str">
+      <c r="D33" s="282" t="str">
         <f>E36</f>
         <v>上</v>
       </c>
-      <c r="E33" s="273"/>
-      <c r="F33" s="273"/>
-      <c r="G33" s="273"/>
+      <c r="E33" s="282"/>
+      <c r="F33" s="282"/>
+      <c r="G33" s="282"/>
       <c r="H33" s="260" t="b">
         <f>G37</f>
         <v>1</v>
@@ -25214,13 +25463,13 @@
       <c r="V33" s="39"/>
       <c r="W33" s="43"/>
       <c r="X33" s="40"/>
-      <c r="Y33" s="273" t="str">
+      <c r="Y33" s="282" t="str">
         <f>Z36</f>
         <v>波动</v>
       </c>
-      <c r="Z33" s="273"/>
-      <c r="AA33" s="273"/>
-      <c r="AB33" s="273"/>
+      <c r="Z33" s="282"/>
+      <c r="AA33" s="282"/>
+      <c r="AB33" s="282"/>
       <c r="AC33" s="41"/>
       <c r="AE33" s="184"/>
       <c r="AF33" s="200"/>
@@ -25281,10 +25530,10 @@
       <c r="A35" s="39"/>
       <c r="B35" s="43"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="274" t="s">
+      <c r="D35" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="275"/>
+      <c r="E35" s="284"/>
       <c r="F35" s="252"/>
       <c r="G35" s="253"/>
       <c r="H35" s="41"/>
@@ -25303,10 +25552,10 @@
       <c r="V35" s="39"/>
       <c r="W35" s="43"/>
       <c r="X35" s="40"/>
-      <c r="Y35" s="274" t="s">
+      <c r="Y35" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="Z35" s="275"/>
+      <c r="Z35" s="284"/>
       <c r="AA35" s="252"/>
       <c r="AB35" s="253"/>
       <c r="AC35" s="41"/>
@@ -26211,45 +26460,45 @@
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E7" s="285" t="s">
+      <c r="E7" s="294" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="227" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="291"/>
-      <c r="H7" s="294" t="s">
+      <c r="G7" s="300"/>
+      <c r="H7" s="303" t="s">
         <v>186</v>
       </c>
-      <c r="I7" s="294" t="s">
+      <c r="I7" s="303" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="282" t="s">
+      <c r="J7" s="291" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="286"/>
+      <c r="E8" s="295"/>
       <c r="F8" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="292"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="283"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="292"/>
     </row>
     <row r="9" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="287"/>
+      <c r="E9" s="296"/>
       <c r="F9" s="229" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="293"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="284"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="293"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="288" t="s">
+      <c r="E10" s="297" t="s">
         <v>184</v>
       </c>
       <c r="F10" s="230" t="s">
@@ -26268,7 +26517,7 @@
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="289"/>
+      <c r="E11" s="298"/>
       <c r="F11" s="228" t="s">
         <v>183</v>
       </c>
@@ -26285,7 +26534,7 @@
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="289"/>
+      <c r="E12" s="298"/>
       <c r="F12" s="228" t="s">
         <v>182</v>
       </c>
@@ -26302,7 +26551,7 @@
       </c>
     </row>
     <row r="13" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="290"/>
+      <c r="E13" s="299"/>
       <c r="F13" s="231" t="s">
         <v>185</v>
       </c>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -8405,7 +8405,7 @@
   <dimension ref="A1:AD212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" ref="R40:R64" si="13">SUM(M40:Q40)</f>
+        <f t="shared" ref="R40:R67" si="13">SUM(M40:Q40)</f>
         <v>6</v>
       </c>
       <c r="V40" s="36"/>
@@ -12037,12 +12037,25 @@
         <v>30.55</v>
       </c>
       <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="132"/>
-      <c r="Q65" s="267"/>
-      <c r="R65" s="122"/>
+      <c r="M65" s="132">
+        <v>0</v>
+      </c>
+      <c r="N65" s="132">
+        <v>0</v>
+      </c>
+      <c r="O65" s="132">
+        <v>0</v>
+      </c>
+      <c r="P65" s="132">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="267">
+        <v>0</v>
+      </c>
+      <c r="R65" s="122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W65" s="119" t="s">
         <v>158</v>
       </c>
@@ -12071,21 +12084,37 @@
         <v>98.679325556330255</v>
       </c>
       <c r="H66" s="136"/>
-      <c r="I66" s="136"/>
+      <c r="I66" s="137">
+        <v>31.4</v>
+      </c>
       <c r="J66" s="138">
         <f t="shared" si="3"/>
-        <v>-0.63400000000000001</v>
+        <v>-6.000000000000014E-3</v>
       </c>
       <c r="K66" s="217">
         <f t="shared" si="9"/>
-        <v>23.55</v>
+        <v>31.4</v>
       </c>
       <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-      <c r="N66" s="136"/>
-      <c r="O66" s="136"/>
-      <c r="P66" s="136"/>
-      <c r="Q66" s="171"/>
+      <c r="M66" s="137">
+        <v>0</v>
+      </c>
+      <c r="N66" s="137">
+        <v>0</v>
+      </c>
+      <c r="O66" s="137">
+        <v>0</v>
+      </c>
+      <c r="P66" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="171">
+        <v>0</v>
+      </c>
+      <c r="R66" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W66" s="119" t="s">
         <v>165</v>
       </c>
@@ -12114,21 +12143,37 @@
         <v>101.63970532302017</v>
       </c>
       <c r="H67" s="136"/>
-      <c r="I67" s="136"/>
+      <c r="I67" s="137">
+        <v>31</v>
+      </c>
       <c r="J67" s="138">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.9999999999999724E-3</v>
       </c>
       <c r="K67" s="217">
         <f t="shared" si="9"/>
-        <v>15.8</v>
+        <v>31.4</v>
       </c>
       <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="136"/>
-      <c r="O67" s="136"/>
-      <c r="P67" s="136"/>
-      <c r="Q67" s="171"/>
+      <c r="M67" s="137">
+        <v>0</v>
+      </c>
+      <c r="N67" s="137">
+        <v>0</v>
+      </c>
+      <c r="O67" s="137">
+        <v>0</v>
+      </c>
+      <c r="P67" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="171">
+        <v>0</v>
+      </c>
+      <c r="R67" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W67" s="119" t="s">
         <v>159</v>
       </c>
@@ -12160,11 +12205,11 @@
       <c r="I68" s="141"/>
       <c r="J68" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.62</v>
       </c>
       <c r="K68" s="218">
         <f t="shared" si="9"/>
-        <v>7.9249999999999998</v>
+        <v>23.524999999999999</v>
       </c>
       <c r="L68" s="141"/>
       <c r="M68" s="141"/>
@@ -12208,7 +12253,7 @@
       </c>
       <c r="K69" s="217">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="W69" s="36" t="s">
         <v>160</v>
@@ -12243,7 +12288,7 @@
       </c>
       <c r="K70" s="217">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="W70" s="119" t="s">
         <v>177</v>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -8408,7 +8408,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomRight" activeCell="T71" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9352,7 +9352,7 @@
         <v>-7.2000000000000022E-2</v>
       </c>
       <c r="K19" s="217">
-        <f t="shared" ref="K19:K70" si="9">SUM(I16:I19)/4</f>
+        <f t="shared" ref="K19:K82" si="9">SUM(I16:I19)/4</f>
         <v>32.725000000000001</v>
       </c>
       <c r="L19" s="118"/>
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" ref="R40:R67" si="13">SUM(M40:Q40)</f>
+        <f t="shared" ref="R40:R71" si="13">SUM(M40:Q40)</f>
         <v>6</v>
       </c>
       <c r="V40" s="36"/>
@@ -12202,22 +12202,37 @@
         <v>104.68889648271077</v>
       </c>
       <c r="H68" s="141"/>
-      <c r="I68" s="141"/>
+      <c r="I68" s="141">
+        <v>31</v>
+      </c>
       <c r="J68" s="143">
         <f t="shared" si="3"/>
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="K68" s="218">
         <f t="shared" si="9"/>
-        <v>23.524999999999999</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="L68" s="141"/>
-      <c r="M68" s="141"/>
-      <c r="N68" s="141"/>
-      <c r="O68" s="141"/>
-      <c r="P68" s="141"/>
-      <c r="Q68" s="271"/>
-      <c r="R68" s="145"/>
+      <c r="M68" s="141">
+        <v>0</v>
+      </c>
+      <c r="N68" s="141">
+        <v>0</v>
+      </c>
+      <c r="O68" s="141">
+        <v>0</v>
+      </c>
+      <c r="P68" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="271">
+        <v>0</v>
+      </c>
+      <c r="R68" s="145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W68" s="36" t="s">
         <v>164</v>
       </c>
@@ -12247,13 +12262,35 @@
         <f t="shared" si="14"/>
         <v>107.8295633771921</v>
       </c>
+      <c r="I69" s="137">
+        <v>30.6</v>
+      </c>
       <c r="J69" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.9999999999999724E-3</v>
       </c>
       <c r="K69" s="217">
         <f t="shared" si="9"/>
-        <v>15.6</v>
+        <v>31</v>
+      </c>
+      <c r="M69" s="137">
+        <v>0</v>
+      </c>
+      <c r="N69" s="137">
+        <v>0</v>
+      </c>
+      <c r="O69" s="137">
+        <v>0</v>
+      </c>
+      <c r="P69" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="272">
+        <v>0</v>
+      </c>
+      <c r="R69" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="W69" s="36" t="s">
         <v>160</v>
@@ -12282,13 +12319,35 @@
         <f t="shared" si="14"/>
         <v>111.06445027850786</v>
       </c>
+      <c r="I70" s="137">
+        <v>30</v>
+      </c>
       <c r="J70" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.2000000000000028E-2</v>
       </c>
       <c r="K70" s="217">
         <f t="shared" si="9"/>
-        <v>7.75</v>
+        <v>30.65</v>
+      </c>
+      <c r="M70" s="137">
+        <v>0</v>
+      </c>
+      <c r="N70" s="137">
+        <v>0</v>
+      </c>
+      <c r="O70" s="137">
+        <v>0</v>
+      </c>
+      <c r="P70" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="272">
+        <v>0</v>
+      </c>
+      <c r="R70" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="W70" s="119" t="s">
         <v>177</v>
@@ -12317,8 +12376,34 @@
         <f t="shared" si="14"/>
         <v>114.3963837868631</v>
       </c>
+      <c r="I71" s="137">
+        <v>31.2</v>
+      </c>
       <c r="J71" s="15">
         <f t="shared" ref="J71:J108" si="15">(I71-I70)/G$1</f>
+        <v>2.3999999999999987E-2</v>
+      </c>
+      <c r="K71" s="217">
+        <f t="shared" si="9"/>
+        <v>30.7</v>
+      </c>
+      <c r="M71" s="137">
+        <v>0</v>
+      </c>
+      <c r="N71" s="137">
+        <v>0</v>
+      </c>
+      <c r="O71" s="137">
+        <v>0</v>
+      </c>
+      <c r="P71" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="272">
+        <v>0</v>
+      </c>
+      <c r="R71" s="123">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12347,7 +12432,11 @@
       </c>
       <c r="J72" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-0.624</v>
+      </c>
+      <c r="K72" s="217">
+        <f t="shared" si="9"/>
+        <v>22.95</v>
       </c>
       <c r="W72" s="119" t="s">
         <v>161</v>
@@ -12380,6 +12469,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K73" s="218">
+        <f t="shared" si="9"/>
+        <v>15.3</v>
+      </c>
       <c r="W73" s="119" t="s">
         <v>162</v>
       </c>
@@ -12415,7 +12508,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K74" s="216"/>
+      <c r="K74" s="217">
+        <f t="shared" si="9"/>
+        <v>7.8</v>
+      </c>
       <c r="L74" s="132"/>
       <c r="M74" s="132"/>
       <c r="N74" s="132"/>
@@ -12453,7 +12549,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K75" s="217"/>
+      <c r="K75" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="L75" s="136"/>
       <c r="M75" s="136"/>
       <c r="N75" s="136"/>
@@ -12493,7 +12592,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K76" s="217"/>
+      <c r="K76" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="L76" s="136"/>
       <c r="M76" s="136"/>
       <c r="N76" s="136"/>
@@ -12533,7 +12635,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K77" s="218"/>
+      <c r="K77" s="218">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="L77" s="141"/>
       <c r="M77" s="141"/>
       <c r="N77" s="141"/>
@@ -12574,6 +12679,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K78" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="274"/>
@@ -12602,6 +12711,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K79" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="274"/>
@@ -12630,6 +12743,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K80" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="274"/>
@@ -12658,6 +12775,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K81" s="218">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="273" t="s">
@@ -12690,7 +12811,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K82" s="216"/>
+      <c r="K82" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="L82" s="132"/>
       <c r="M82" s="132"/>
       <c r="N82" s="132"/>
@@ -12728,7 +12852,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K83" s="217"/>
+      <c r="K83" s="217">
+        <f t="shared" ref="K83:K108" si="19">SUM(I80:I83)/4</f>
+        <v>0</v>
+      </c>
       <c r="L83" s="136"/>
       <c r="M83" s="136"/>
       <c r="N83" s="136"/>
@@ -12765,7 +12892,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K84" s="217"/>
+      <c r="K84" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L84" s="136"/>
       <c r="M84" s="136"/>
       <c r="N84" s="136"/>
@@ -12802,7 +12932,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K85" s="217"/>
+      <c r="K85" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L85" s="136"/>
       <c r="M85" s="136"/>
       <c r="N85" s="136"/>
@@ -12839,7 +12972,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K86" s="218"/>
+      <c r="K86" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L86" s="141"/>
       <c r="M86" s="141"/>
       <c r="N86" s="141"/>
@@ -12877,6 +13013,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K87" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="274"/>
@@ -12905,6 +13045,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K88" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="274"/>
@@ -12933,6 +13077,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K89" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="274"/>
@@ -12961,6 +13109,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K90" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="273" t="s">
@@ -12993,7 +13145,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K91" s="216"/>
+      <c r="K91" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L91" s="132"/>
       <c r="M91" s="132"/>
       <c r="N91" s="132"/>
@@ -13031,7 +13186,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K92" s="217"/>
+      <c r="K92" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L92" s="136"/>
       <c r="M92" s="136"/>
       <c r="N92" s="136"/>
@@ -13068,7 +13226,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K93" s="217"/>
+      <c r="K93" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L93" s="136"/>
       <c r="M93" s="136"/>
       <c r="N93" s="136"/>
@@ -13105,7 +13266,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K94" s="217"/>
+      <c r="K94" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L94" s="136"/>
       <c r="M94" s="136"/>
       <c r="N94" s="136"/>
@@ -13142,7 +13306,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K95" s="218"/>
+      <c r="K95" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L95" s="141"/>
       <c r="M95" s="141"/>
       <c r="N95" s="141"/>
@@ -13180,6 +13347,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K96" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="274"/>
@@ -13208,6 +13379,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K97" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="274"/>
@@ -13236,6 +13411,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K98" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="274"/>
@@ -13264,6 +13443,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="K99" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="273" t="s">
@@ -13296,7 +13479,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K100" s="216"/>
+      <c r="K100" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L100" s="132"/>
       <c r="M100" s="132"/>
       <c r="N100" s="132"/>
@@ -13305,7 +13491,7 @@
       <c r="Q100" s="132"/>
       <c r="R100" s="122"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="274"/>
       <c r="B101" s="125">
         <v>45</v>
@@ -13334,7 +13520,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K101" s="217"/>
+      <c r="K101" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L101" s="136"/>
       <c r="M101" s="136"/>
       <c r="N101" s="136"/>
@@ -13371,7 +13560,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K102" s="217"/>
+      <c r="K102" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L102" s="136"/>
       <c r="M102" s="136"/>
       <c r="N102" s="136"/>
@@ -13408,7 +13600,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K103" s="218"/>
+      <c r="K103" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L103" s="141"/>
       <c r="M103" s="141"/>
       <c r="N103" s="141"/>
@@ -13448,7 +13643,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K104" s="216"/>
+      <c r="K104" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L104" s="132"/>
       <c r="M104" s="132"/>
       <c r="N104" s="132"/>
@@ -13486,7 +13684,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K105" s="217"/>
+      <c r="K105" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L105" s="136"/>
       <c r="M105" s="136"/>
       <c r="N105" s="136"/>
@@ -13523,7 +13724,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K106" s="217"/>
+      <c r="K106" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L106" s="136"/>
       <c r="M106" s="136"/>
       <c r="N106" s="136"/>
@@ -13560,7 +13764,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K107" s="217"/>
+      <c r="K107" s="217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L107" s="136"/>
       <c r="M107" s="136"/>
       <c r="N107" s="136"/>
@@ -13597,7 +13804,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K108" s="218"/>
+      <c r="K108" s="218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L108" s="141"/>
       <c r="M108" s="141"/>
       <c r="N108" s="141"/>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="246">
   <si>
     <t>总额</t>
   </si>
@@ -752,6 +752,18 @@
   <si>
     <t>3、不定期会踢出付费额后10%的成员，维持群人数100人左右</t>
   </si>
+  <si>
+    <t>每月都有一对货币有行情</t>
+  </si>
+  <si>
+    <t>波动的话心慌，怎么解决</t>
+  </si>
+  <si>
+    <t>2 怎么面对波动</t>
+  </si>
+  <si>
+    <t>每月发现一个趋势</t>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +777,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +971,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1628,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2049,6 +2069,7 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,6 +2159,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8537,11 +8561,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S74" sqref="S74"/>
+      <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8621,10 +8645,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="267" t="s">
+      <c r="I3" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="268"/>
+      <c r="J3" s="269"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -8681,7 +8705,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="265" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -8730,7 +8754,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="265"/>
+      <c r="A6" s="266"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -8783,7 +8807,7 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="265"/>
+      <c r="A7" s="266"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -8836,7 +8860,7 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="266"/>
+      <c r="A8" s="267"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -8892,7 +8916,7 @@
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="264" t="s">
+      <c r="A9" s="265" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -8950,7 +8974,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="265"/>
+      <c r="A10" s="266"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -9006,7 +9030,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="265"/>
+      <c r="A11" s="266"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -9062,7 +9086,7 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="266"/>
+      <c r="A12" s="267"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -9118,7 +9142,7 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="265" t="s">
+      <c r="A13" s="266" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="130">
@@ -9176,7 +9200,7 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="265"/>
+      <c r="A14" s="266"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -9233,7 +9257,7 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="265"/>
+      <c r="A15" s="266"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -9290,7 +9314,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="266"/>
+      <c r="A16" s="267"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -9346,7 +9370,7 @@
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="265" t="s">
+      <c r="A17" s="266" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="130">
@@ -9403,7 +9427,7 @@
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="265"/>
+      <c r="A18" s="266"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -9458,7 +9482,7 @@
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="265"/>
+      <c r="A19" s="266"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -9513,7 +9537,7 @@
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="265"/>
+      <c r="A20" s="266"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -9568,7 +9592,7 @@
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="265"/>
+      <c r="A21" s="266"/>
       <c r="B21" s="124">
         <v>17</v>
       </c>
@@ -9623,7 +9647,7 @@
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="264" t="s">
+      <c r="A22" s="265" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -9681,7 +9705,7 @@
       <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="265"/>
+      <c r="A23" s="266"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -9737,7 +9761,7 @@
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="265"/>
+      <c r="A24" s="266"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -9793,7 +9817,7 @@
       <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="266"/>
+      <c r="A25" s="267"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -9849,7 +9873,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="266" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="130">
@@ -9906,7 +9930,7 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="265"/>
+      <c r="A27" s="266"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -9961,7 +9985,7 @@
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="265"/>
+      <c r="A28" s="266"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -10016,7 +10040,7 @@
       <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="265"/>
+      <c r="A29" s="266"/>
       <c r="B29" s="124">
         <v>25</v>
       </c>
@@ -10071,7 +10095,7 @@
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="264" t="s">
+      <c r="A30" s="265" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -10129,7 +10153,7 @@
       <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="265"/>
+      <c r="A31" s="266"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -10185,7 +10209,7 @@
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="265"/>
+      <c r="A32" s="266"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -10241,7 +10265,7 @@
       <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="265"/>
+      <c r="A33" s="266"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -10297,7 +10321,7 @@
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="266"/>
+      <c r="A34" s="267"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -10353,7 +10377,7 @@
       <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="265" t="s">
+      <c r="A35" s="266" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="130">
@@ -10412,7 +10436,7 @@
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="265"/>
+      <c r="A36" s="266"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -10467,7 +10491,7 @@
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="265"/>
+      <c r="A37" s="266"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -10522,7 +10546,7 @@
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="265"/>
+      <c r="A38" s="266"/>
       <c r="B38" s="124">
         <v>34</v>
       </c>
@@ -10577,7 +10601,7 @@
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="264" t="s">
+      <c r="A39" s="265" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -10635,7 +10659,7 @@
       <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="265"/>
+      <c r="A40" s="266"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -10683,7 +10707,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" ref="R40:R74" si="13">SUM(M40:Q40)</f>
+        <f t="shared" ref="R40:R75" si="13">SUM(M40:Q40)</f>
         <v>6</v>
       </c>
       <c r="V40" s="36"/>
@@ -10691,7 +10715,7 @@
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="265"/>
+      <c r="A41" s="266"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -10749,7 +10773,7 @@
       <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="266"/>
+      <c r="A42" s="267"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -10807,7 +10831,7 @@
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="264" t="s">
+      <c r="A43" s="265" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -10867,7 +10891,7 @@
       <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="265"/>
+      <c r="A44" s="266"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -10926,7 +10950,7 @@
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="265"/>
+      <c r="A45" s="266"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -10992,7 +11016,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="265"/>
+      <c r="A46" s="266"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -11055,7 +11079,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="266"/>
+      <c r="A47" s="267"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -11113,7 +11137,7 @@
       <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="264" t="s">
+      <c r="A48" s="265" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -11174,7 +11198,7 @@
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="265"/>
+      <c r="A49" s="266"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -11235,7 +11259,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="265"/>
+      <c r="A50" s="266"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -11296,7 +11320,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="266"/>
+      <c r="A51" s="267"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -11355,7 +11379,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="264" t="s">
+      <c r="A52" s="265" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -11416,7 +11440,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="265"/>
+      <c r="A53" s="266"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -11475,7 +11499,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="265"/>
+      <c r="A54" s="266"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -11531,7 +11555,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="265"/>
+      <c r="A55" s="266"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -11585,18 +11609,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="263" t="s">
+      <c r="X55" s="264" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="263"/>
-      <c r="Z55" s="263"/>
-      <c r="AA55" s="263"/>
-      <c r="AB55" s="263"/>
-      <c r="AC55" s="263"/>
-      <c r="AD55" s="263"/>
+      <c r="Y55" s="264"/>
+      <c r="Z55" s="264"/>
+      <c r="AA55" s="264"/>
+      <c r="AB55" s="264"/>
+      <c r="AC55" s="264"/>
+      <c r="AD55" s="264"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="266"/>
+      <c r="A56" s="267"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -11650,16 +11674,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="263"/>
-      <c r="Y56" s="263"/>
-      <c r="Z56" s="263"/>
-      <c r="AA56" s="263"/>
-      <c r="AB56" s="263"/>
-      <c r="AC56" s="263"/>
-      <c r="AD56" s="263"/>
+      <c r="X56" s="264"/>
+      <c r="Y56" s="264"/>
+      <c r="Z56" s="264"/>
+      <c r="AA56" s="264"/>
+      <c r="AB56" s="264"/>
+      <c r="AC56" s="264"/>
+      <c r="AD56" s="264"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="260" t="s">
+      <c r="A57" s="261" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="127">
@@ -11715,16 +11739,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="263"/>
-      <c r="Y57" s="263"/>
-      <c r="Z57" s="263"/>
-      <c r="AA57" s="263"/>
-      <c r="AB57" s="263"/>
-      <c r="AC57" s="263"/>
-      <c r="AD57" s="263"/>
+      <c r="X57" s="264"/>
+      <c r="Y57" s="264"/>
+      <c r="Z57" s="264"/>
+      <c r="AA57" s="264"/>
+      <c r="AB57" s="264"/>
+      <c r="AC57" s="264"/>
+      <c r="AD57" s="264"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="261"/>
+      <c r="A58" s="262"/>
       <c r="B58" s="125">
         <v>2</v>
       </c>
@@ -11783,7 +11807,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="261"/>
+      <c r="A59" s="262"/>
       <c r="B59" s="125">
         <v>3</v>
       </c>
@@ -11842,7 +11866,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="262"/>
+      <c r="A60" s="263"/>
       <c r="B60" s="128">
         <v>4</v>
       </c>
@@ -11898,7 +11922,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="260" t="s">
+      <c r="A61" s="261" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="127">
@@ -11956,7 +11980,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="261"/>
+      <c r="A62" s="262"/>
       <c r="B62" s="125">
         <v>6</v>
       </c>
@@ -12015,7 +12039,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="261"/>
+      <c r="A63" s="262"/>
       <c r="B63" s="125">
         <v>7</v>
       </c>
@@ -12074,7 +12098,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="262"/>
+      <c r="A64" s="263"/>
       <c r="B64" s="128">
         <v>8</v>
       </c>
@@ -12133,7 +12157,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="260" t="s">
+      <c r="A65" s="261" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="127">
@@ -12194,7 +12218,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="261"/>
+      <c r="A66" s="262"/>
       <c r="B66" s="125">
         <v>10</v>
       </c>
@@ -12253,7 +12277,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="261"/>
+      <c r="A67" s="262"/>
       <c r="B67" s="125">
         <v>11</v>
       </c>
@@ -12312,7 +12336,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="262"/>
+      <c r="A68" s="263"/>
       <c r="B68" s="128">
         <v>12</v>
       </c>
@@ -12371,7 +12395,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="261" t="s">
+      <c r="A69" s="262" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="126">
@@ -12430,7 +12454,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="261"/>
+      <c r="A70" s="262"/>
       <c r="B70" s="125">
         <v>14</v>
       </c>
@@ -12487,7 +12511,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="261"/>
+      <c r="A71" s="262"/>
       <c r="B71" s="125">
         <v>15</v>
       </c>
@@ -12541,7 +12565,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="261"/>
+      <c r="A72" s="262"/>
       <c r="B72" s="125">
         <v>16</v>
       </c>
@@ -12598,7 +12622,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="261"/>
+      <c r="A73" s="262"/>
       <c r="B73" s="129">
         <v>17</v>
       </c>
@@ -12655,7 +12679,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="260" t="s">
+      <c r="A74" s="261" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="127">
@@ -12713,7 +12737,7 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="261"/>
+      <c r="A75" s="262"/>
       <c r="B75" s="125">
         <v>19</v>
       </c>
@@ -12736,27 +12760,43 @@
         <v>128.75413778425559</v>
       </c>
       <c r="H75" s="136"/>
-      <c r="I75" s="136"/>
+      <c r="I75" s="137">
+        <v>35.6</v>
+      </c>
       <c r="J75" s="138">
         <f t="shared" si="15"/>
-        <v>-0.72</v>
+        <v>-7.9999999999999724E-3</v>
       </c>
       <c r="K75" s="202">
         <f t="shared" si="9"/>
-        <v>23.85</v>
+        <v>32.75</v>
       </c>
       <c r="L75" s="136"/>
-      <c r="M75" s="136"/>
-      <c r="N75" s="136"/>
-      <c r="O75" s="136"/>
-      <c r="P75" s="136"/>
-      <c r="Q75" s="136"/>
+      <c r="M75" s="137">
+        <v>0</v>
+      </c>
+      <c r="N75" s="137">
+        <v>0</v>
+      </c>
+      <c r="O75" s="137">
+        <v>0</v>
+      </c>
+      <c r="P75" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="137">
+        <v>0</v>
+      </c>
+      <c r="R75" s="123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="W75" s="119" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="261"/>
+      <c r="A76" s="262"/>
       <c r="B76" s="125">
         <v>20</v>
       </c>
@@ -12782,11 +12822,11 @@
       <c r="I76" s="136"/>
       <c r="J76" s="138">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-0.71200000000000008</v>
       </c>
       <c r="K76" s="202">
         <f t="shared" si="9"/>
-        <v>16.95</v>
+        <v>25.85</v>
       </c>
       <c r="L76" s="136"/>
       <c r="M76" s="136"/>
@@ -12799,7 +12839,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="262"/>
+      <c r="A77" s="263"/>
       <c r="B77" s="128">
         <v>21</v>
       </c>
@@ -12829,7 +12869,7 @@
       </c>
       <c r="K77" s="203">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L77" s="141"/>
       <c r="M77" s="141"/>
@@ -12843,7 +12883,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="261" t="s">
+      <c r="A78" s="262" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="126">
@@ -12873,11 +12913,11 @@
       </c>
       <c r="K78" s="202">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="261"/>
+      <c r="A79" s="262"/>
       <c r="B79" s="125">
         <v>23</v>
       </c>
@@ -12909,7 +12949,7 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="261"/>
+      <c r="A80" s="262"/>
       <c r="B80" s="125">
         <v>24</v>
       </c>
@@ -12941,7 +12981,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="261"/>
+      <c r="A81" s="262"/>
       <c r="B81" s="129">
         <v>25</v>
       </c>
@@ -12973,7 +13013,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="260" t="s">
+      <c r="A82" s="261" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="127">
@@ -13016,7 +13056,7 @@
       <c r="R82" s="122"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="261"/>
+      <c r="A83" s="262"/>
       <c r="B83" s="125">
         <v>27</v>
       </c>
@@ -13056,7 +13096,7 @@
       <c r="Q83" s="136"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="261"/>
+      <c r="A84" s="262"/>
       <c r="B84" s="125">
         <v>28</v>
       </c>
@@ -13096,7 +13136,7 @@
       <c r="Q84" s="136"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="261"/>
+      <c r="A85" s="262"/>
       <c r="B85" s="125">
         <v>29</v>
       </c>
@@ -13136,7 +13176,7 @@
       <c r="Q85" s="136"/>
     </row>
     <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="262"/>
+      <c r="A86" s="263"/>
       <c r="B86" s="128">
         <v>30</v>
       </c>
@@ -13177,7 +13217,7 @@
       <c r="R86" s="145"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="261" t="s">
+      <c r="A87" s="262" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="126">
@@ -13211,7 +13251,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="261"/>
+      <c r="A88" s="262"/>
       <c r="B88" s="125">
         <v>32</v>
       </c>
@@ -13243,7 +13283,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="261"/>
+      <c r="A89" s="262"/>
       <c r="B89" s="125">
         <v>33</v>
       </c>
@@ -13275,7 +13315,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="261"/>
+      <c r="A90" s="262"/>
       <c r="B90" s="129">
         <v>34</v>
       </c>
@@ -13307,7 +13347,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="260" t="s">
+      <c r="A91" s="261" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="127">
@@ -13350,7 +13390,7 @@
       <c r="R91" s="122"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="261"/>
+      <c r="A92" s="262"/>
       <c r="B92" s="125">
         <v>36</v>
       </c>
@@ -13390,7 +13430,7 @@
       <c r="Q92" s="136"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="261"/>
+      <c r="A93" s="262"/>
       <c r="B93" s="125">
         <v>37</v>
       </c>
@@ -13430,7 +13470,7 @@
       <c r="Q93" s="136"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="261"/>
+      <c r="A94" s="262"/>
       <c r="B94" s="125">
         <v>38</v>
       </c>
@@ -13470,7 +13510,7 @@
       <c r="Q94" s="136"/>
     </row>
     <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="262"/>
+      <c r="A95" s="263"/>
       <c r="B95" s="128">
         <v>39</v>
       </c>
@@ -13511,7 +13551,7 @@
       <c r="R95" s="145"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="261" t="s">
+      <c r="A96" s="262" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="126">
@@ -13545,7 +13585,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="261"/>
+      <c r="A97" s="262"/>
       <c r="B97" s="125">
         <v>41</v>
       </c>
@@ -13577,7 +13617,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="261"/>
+      <c r="A98" s="262"/>
       <c r="B98" s="125">
         <v>42</v>
       </c>
@@ -13609,7 +13649,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="261"/>
+      <c r="A99" s="262"/>
       <c r="B99" s="129">
         <v>43</v>
       </c>
@@ -13641,7 +13681,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="260" t="s">
+      <c r="A100" s="261" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="127">
@@ -13684,7 +13724,7 @@
       <c r="R100" s="122"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="261"/>
+      <c r="A101" s="262"/>
       <c r="B101" s="125">
         <v>45</v>
       </c>
@@ -13724,7 +13764,7 @@
       <c r="Q101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="261"/>
+      <c r="A102" s="262"/>
       <c r="B102" s="125">
         <v>46</v>
       </c>
@@ -13764,7 +13804,7 @@
       <c r="Q102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="262"/>
+      <c r="A103" s="263"/>
       <c r="B103" s="128">
         <v>47</v>
       </c>
@@ -13805,7 +13845,7 @@
       <c r="R103" s="145"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="260" t="s">
+      <c r="A104" s="261" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="127">
@@ -13848,7 +13888,7 @@
       <c r="R104" s="122"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="261"/>
+      <c r="A105" s="262"/>
       <c r="B105" s="125">
         <v>49</v>
       </c>
@@ -13888,7 +13928,7 @@
       <c r="Q105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="261"/>
+      <c r="A106" s="262"/>
       <c r="B106" s="125">
         <v>50</v>
       </c>
@@ -13928,7 +13968,7 @@
       <c r="Q106" s="136"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="261"/>
+      <c r="A107" s="262"/>
       <c r="B107" s="125">
         <v>51</v>
       </c>
@@ -13968,7 +14008,7 @@
       <c r="Q107" s="136"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="262"/>
+      <c r="A108" s="263"/>
       <c r="B108" s="128">
         <v>52</v>
       </c>
@@ -15776,8 +15816,8 @@
   <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F37:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -15816,41 +15856,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="271"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="272"/>
       <c r="J1" s="192"/>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="270" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="272"/>
       <c r="T1" s="205"/>
-      <c r="U1" s="269" t="s">
+      <c r="U1" s="270" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="271"/>
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="272"/>
       <c r="AD1" s="205"/>
     </row>
     <row r="2" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -18244,21 +18284,15 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="L33" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M33" s="67">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="N33" s="57">
-        <v>43069</v>
-      </c>
+      <c r="L33" s="55"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="57"/>
       <c r="O33" s="56"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="57"/>
       <c r="R33" s="237">
         <f t="shared" si="11"/>
-        <v>0.75560000000000005</v>
+        <v>0</v>
       </c>
       <c r="S33" s="59" t="str">
         <f t="shared" si="8"/>
@@ -18993,25 +19027,25 @@
       <c r="K45" s="39"/>
       <c r="L45" s="43"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="272" t="str">
+      <c r="N45" s="273" t="str">
         <f>O48</f>
         <v>下</v>
       </c>
-      <c r="O45" s="272"/>
-      <c r="P45" s="272"/>
-      <c r="Q45" s="272"/>
+      <c r="O45" s="273"/>
+      <c r="P45" s="273"/>
+      <c r="Q45" s="273"/>
       <c r="R45" s="41"/>
       <c r="T45" s="184"/>
       <c r="U45" s="39"/>
       <c r="V45" s="43"/>
       <c r="W45" s="40"/>
-      <c r="X45" s="272" t="str">
+      <c r="X45" s="273" t="str">
         <f>Y48</f>
         <v>波动</v>
       </c>
-      <c r="Y45" s="272"/>
-      <c r="Z45" s="272"/>
-      <c r="AA45" s="272"/>
+      <c r="Y45" s="273"/>
+      <c r="Z45" s="273"/>
+      <c r="AA45" s="273"/>
       <c r="AB45" s="41"/>
       <c r="AD45" s="184"/>
     </row>
@@ -19019,13 +19053,13 @@
       <c r="A46" s="39"/>
       <c r="B46" s="43"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="272" t="str">
+      <c r="D46" s="273" t="str">
         <f>E49</f>
         <v>波动</v>
       </c>
-      <c r="E46" s="272"/>
-      <c r="F46" s="272"/>
-      <c r="G46" s="272"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="273"/>
+      <c r="G46" s="273"/>
       <c r="H46" s="41"/>
       <c r="J46" s="195"/>
       <c r="K46" s="39"/>
@@ -19060,10 +19094,10 @@
       <c r="K47" s="39"/>
       <c r="L47" s="43"/>
       <c r="M47" s="40"/>
-      <c r="N47" s="273" t="s">
+      <c r="N47" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="O47" s="274"/>
+      <c r="O47" s="275"/>
       <c r="P47" s="231"/>
       <c r="Q47" s="232"/>
       <c r="R47" s="41"/>
@@ -19071,10 +19105,10 @@
       <c r="U47" s="39"/>
       <c r="V47" s="43"/>
       <c r="W47" s="40"/>
-      <c r="X47" s="273" t="s">
+      <c r="X47" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="Y47" s="274"/>
+      <c r="Y47" s="275"/>
       <c r="Z47" s="231"/>
       <c r="AA47" s="232"/>
       <c r="AB47" s="41"/>
@@ -19084,10 +19118,10 @@
       <c r="A48" s="39"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="273" t="s">
+      <c r="D48" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="274"/>
+      <c r="E48" s="275"/>
       <c r="F48" s="231"/>
       <c r="G48" s="232"/>
       <c r="H48" s="41"/>
@@ -19624,11 +19658,11 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45:N46"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -19658,29 +19692,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="271"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="272"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="272"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -19799,7 +19833,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="176">
-        <f t="shared" ref="A4:A50" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -19827,7 +19861,7 @@
         <v>亏</v>
       </c>
       <c r="K4" s="196">
-        <f t="shared" ref="K4:K50" si="2">ROW()-2</f>
+        <f t="shared" ref="K4:K52" si="2">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="L4" s="51" t="s">
@@ -21588,7 +21622,7 @@
       <c r="Y37" s="224"/>
     </row>
     <row r="38" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="176">
+      <c r="A38" s="180">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -21983,23 +22017,27 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="L45" s="55" t="s">
+      <c r="L45" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="M45" s="67">
+      <c r="M45" s="112">
         <v>1.20814</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N45" s="113">
         <v>43220</v>
       </c>
-      <c r="O45" s="104"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="67">
+      <c r="O45" s="114"/>
+      <c r="P45" s="112">
+        <v>1.19316</v>
+      </c>
+      <c r="Q45" s="113">
+        <v>43230</v>
+      </c>
+      <c r="R45" s="112">
         <f t="shared" si="27"/>
-        <v>1.20814</v>
-      </c>
-      <c r="S45" s="59" t="str">
+        <v>1.4979999999999993E-2</v>
+      </c>
+      <c r="S45" s="115" t="str">
         <f t="shared" si="40"/>
         <v>盈</v>
       </c>
@@ -22033,23 +22071,27 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="L46" s="55" t="s">
+      <c r="L46" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="M46" s="67">
+      <c r="M46" s="112">
         <v>1.19058</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="113">
         <v>43227</v>
       </c>
-      <c r="O46" s="104"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="67">
+      <c r="O46" s="114"/>
+      <c r="P46" s="112">
+        <v>1.18788</v>
+      </c>
+      <c r="Q46" s="113">
+        <v>43229</v>
+      </c>
+      <c r="R46" s="112">
         <f t="shared" si="27"/>
-        <v>1.19058</v>
-      </c>
-      <c r="S46" s="59" t="str">
+        <v>2.6999999999999247E-3</v>
+      </c>
+      <c r="S46" s="115" t="str">
         <f t="shared" si="40"/>
         <v>盈</v>
       </c>
@@ -22233,147 +22275,197 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="N51" s="73"/>
-    </row>
-    <row r="52" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
-      <c r="D52" s="272" t="str">
-        <f>E55</f>
+    <row r="51" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="176">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="175">
+        <f t="shared" ref="H51:H52" si="44">IF(B51="卖",C51-F51,F51-C51)*J51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="59" t="str">
+        <f t="shared" ref="I51:I52" si="45">IF(H51&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="J51" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51" s="196">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="L51" s="55"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="67">
+        <f t="shared" ref="R51:R52" si="46">IF(L51="卖",M51-P51,P51-M51)*T51</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="59" t="str">
+        <f t="shared" ref="S51:S52" si="47">IF(R51&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="T51" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="176">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="175">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="59" t="str">
+        <f t="shared" si="45"/>
+        <v>盈</v>
+      </c>
+      <c r="J52" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K52" s="196">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L52" s="55"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="67">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="59" t="str">
+        <f t="shared" si="47"/>
+        <v>盈</v>
+      </c>
+      <c r="T52" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="N53" s="73"/>
+    </row>
+    <row r="54" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
+      <c r="D54" s="273" t="str">
+        <f>E57</f>
         <v>波动</v>
       </c>
-      <c r="E52" s="272"/>
-      <c r="F52" s="272"/>
-      <c r="G52" s="272"/>
-      <c r="N52" s="272" t="str">
-        <f>O55</f>
+      <c r="E54" s="273"/>
+      <c r="F54" s="273"/>
+      <c r="G54" s="273"/>
+      <c r="N54" s="273" t="str">
+        <f>O57</f>
         <v>波动</v>
       </c>
-      <c r="O52" s="272"/>
-      <c r="P52" s="272"/>
-      <c r="Q52" s="272"/>
-    </row>
-    <row r="53" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="39"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="273" t="s">
-        <v>206</v>
-      </c>
-      <c r="E54" s="274"/>
-      <c r="F54" s="231"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="41"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="273" t="s">
-        <v>206</v>
-      </c>
-      <c r="O54" s="274"/>
-      <c r="P54" s="231"/>
-      <c r="Q54" s="232"/>
-      <c r="R54" s="41"/>
-      <c r="T54" s="184"/>
-      <c r="U54" s="225"/>
-    </row>
-    <row r="55" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="39"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="233" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="231"/>
-      <c r="G55" s="232"/>
-      <c r="H55" s="41"/>
-      <c r="J55" s="184"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="233" t="s">
-        <v>205</v>
-      </c>
-      <c r="O55" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="P55" s="231"/>
-      <c r="Q55" s="232"/>
-      <c r="R55" s="41"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="225"/>
-    </row>
-    <row r="56" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O54" s="273"/>
+      <c r="P54" s="273"/>
+      <c r="Q54" s="273"/>
+    </row>
+    <row r="55" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="39"/>
       <c r="B56" s="43"/>
       <c r="C56" s="40"/>
-      <c r="D56" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="236"/>
+      <c r="D56" s="274" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="275"/>
       <c r="F56" s="231"/>
-      <c r="G56" s="230" t="b">
-        <f>E55=E56</f>
-        <v>0</v>
-      </c>
+      <c r="G56" s="232"/>
       <c r="H56" s="41"/>
       <c r="J56" s="184"/>
       <c r="K56" s="39"/>
       <c r="L56" s="43"/>
       <c r="M56" s="40"/>
-      <c r="N56" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="O56" s="236"/>
+      <c r="N56" s="274" t="s">
+        <v>206</v>
+      </c>
+      <c r="O56" s="275"/>
       <c r="P56" s="231"/>
-      <c r="Q56" s="230" t="b">
-        <f>O55=O56</f>
-        <v>0</v>
-      </c>
+      <c r="Q56" s="232"/>
       <c r="R56" s="41"/>
       <c r="T56" s="184"/>
       <c r="U56" s="225"/>
     </row>
-    <row r="57" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="39"/>
       <c r="B57" s="43"/>
       <c r="C57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="54"/>
+      <c r="D57" s="233" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="234" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="231"/>
+      <c r="G57" s="232"/>
       <c r="H57" s="41"/>
       <c r="J57" s="184"/>
       <c r="K57" s="39"/>
       <c r="L57" s="43"/>
       <c r="M57" s="40"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="54"/>
+      <c r="N57" s="233" t="s">
+        <v>205</v>
+      </c>
+      <c r="O57" s="234" t="s">
+        <v>155</v>
+      </c>
+      <c r="P57" s="231"/>
+      <c r="Q57" s="232"/>
       <c r="R57" s="41"/>
       <c r="T57" s="184"/>
       <c r="U57" s="225"/>
     </row>
-    <row r="58" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="39"/>
       <c r="B58" s="43"/>
       <c r="C58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="54"/>
+      <c r="D58" s="235" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="236"/>
+      <c r="F58" s="231"/>
+      <c r="G58" s="230" t="b">
+        <f>E57=E58</f>
+        <v>0</v>
+      </c>
       <c r="H58" s="41"/>
       <c r="J58" s="184"/>
       <c r="K58" s="39"/>
       <c r="L58" s="43"/>
       <c r="M58" s="40"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="54"/>
+      <c r="N58" s="235" t="s">
+        <v>204</v>
+      </c>
+      <c r="O58" s="236"/>
+      <c r="P58" s="231"/>
+      <c r="Q58" s="230" t="b">
+        <f>O57=O58</f>
+        <v>0</v>
+      </c>
       <c r="R58" s="41"/>
       <c r="T58" s="184"/>
       <c r="U58" s="225"/>
@@ -22496,8 +22588,6 @@
       <c r="A65" s="39"/>
       <c r="B65" s="43"/>
       <c r="C65" s="40"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="40"/>
       <c r="F65" s="40"/>
       <c r="G65" s="54"/>
       <c r="H65" s="41"/>
@@ -22517,8 +22607,6 @@
       <c r="A66" s="39"/>
       <c r="B66" s="43"/>
       <c r="C66" s="40"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="40"/>
       <c r="F66" s="40"/>
       <c r="G66" s="54"/>
       <c r="H66" s="41"/>
@@ -22526,7 +22614,7 @@
       <c r="K66" s="39"/>
       <c r="L66" s="43"/>
       <c r="M66" s="40"/>
-      <c r="N66" s="54"/>
+      <c r="N66" s="73"/>
       <c r="O66" s="40"/>
       <c r="P66" s="40"/>
       <c r="Q66" s="54"/>
@@ -22547,7 +22635,7 @@
       <c r="K67" s="39"/>
       <c r="L67" s="43"/>
       <c r="M67" s="40"/>
-      <c r="N67" s="54"/>
+      <c r="N67" s="73"/>
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
       <c r="Q67" s="54"/>
@@ -22723,27 +22811,69 @@
       <c r="T75" s="184"/>
       <c r="U75" s="225"/>
     </row>
+    <row r="76" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="39"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="41"/>
+      <c r="J76" s="184"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="41"/>
+      <c r="T76" s="184"/>
+      <c r="U76" s="225"/>
+    </row>
+    <row r="77" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="39"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="41"/>
+      <c r="J77" s="184"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="41"/>
+      <c r="T77" s="184"/>
+      <c r="U77" s="225"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N56:O56"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G56">
+  <conditionalFormatting sqref="G58">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q56">
+  <conditionalFormatting sqref="Q58">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55:E56 O55:O56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57:E58 O57:O58">
       <formula1>"上,下,波动"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22772,8 +22902,8 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -22802,29 +22932,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="271"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="272"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="270" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="272"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -23581,7 +23711,7 @@
       <c r="J17" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="176">
+      <c r="K17" s="229">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -23645,7 +23775,7 @@
       <c r="J18" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="176">
+      <c r="K18" s="229">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -23709,7 +23839,7 @@
       <c r="J19" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="176">
+      <c r="K19" s="229">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -23773,7 +23903,7 @@
       <c r="J20" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="176">
+      <c r="K20" s="229">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -23827,7 +23957,7 @@
       <c r="J21" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="176">
+      <c r="K21" s="180">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -23862,28 +23992,38 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" s="176">
+      <c r="A22" s="229">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="67">
-        <f t="shared" ref="H22:H26" si="25">IF(B22="卖",C22-F22,F22-C22)*J22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="60" t="str">
+      <c r="B22" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="112">
+        <v>1.3440099999999999</v>
+      </c>
+      <c r="D22" s="113">
+        <v>43069</v>
+      </c>
+      <c r="E22" s="116"/>
+      <c r="F22" s="112">
+        <v>1.3487800000000001</v>
+      </c>
+      <c r="G22" s="113">
+        <v>43069</v>
+      </c>
+      <c r="H22" s="112">
+        <f t="shared" ref="H22" si="25">IF(B22="卖",C22-F22,F22-C22)*J22</f>
+        <v>4.770000000000163E-3</v>
+      </c>
+      <c r="I22" s="117" t="str">
         <f t="shared" si="24"/>
         <v>盈</v>
       </c>
       <c r="J22" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="176">
+      <c r="K22" s="180">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -23927,7 +24067,7 @@
       <c r="F23" s="67"/>
       <c r="G23" s="57"/>
       <c r="H23" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H23:H26" si="27">IF(B23="卖",C23-F23,F23-C23)*J23</f>
         <v>0</v>
       </c>
       <c r="I23" s="60" t="str">
@@ -23971,11 +24111,11 @@
       <c r="F24" s="67"/>
       <c r="G24" s="57"/>
       <c r="H24" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I24" s="60" t="str">
-        <f t="shared" ref="I24:I26" si="27">IF(H24&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="I24:I26" si="28">IF(H24&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="J24" s="183" t="s">
@@ -24009,27 +24149,27 @@
         <v>23</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="112">
-        <v>1.3440099999999999</v>
+        <v>1.3659699999999999</v>
       </c>
       <c r="D25" s="113">
-        <v>43069</v>
+        <v>43221</v>
       </c>
       <c r="E25" s="116"/>
       <c r="F25" s="112">
-        <v>1.3487800000000001</v>
+        <v>1.35493</v>
       </c>
       <c r="G25" s="113">
-        <v>43069</v>
+        <v>43227</v>
       </c>
       <c r="H25" s="112">
-        <f t="shared" si="25"/>
-        <v>4.770000000000163E-3</v>
+        <f t="shared" si="27"/>
+        <v>1.1039999999999939E-2</v>
       </c>
       <c r="I25" s="117" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>盈</v>
       </c>
       <c r="J25" s="183" t="s">
@@ -24046,11 +24186,11 @@
       <c r="P25" s="56"/>
       <c r="Q25" s="57"/>
       <c r="R25" s="56">
-        <f t="shared" ref="R25:R26" si="28">IF(L25="卖",M25-P25,P25-M25)*T25</f>
+        <f t="shared" ref="R25:R26" si="29">IF(L25="卖",M25-P25,P25-M25)*T25</f>
         <v>0</v>
       </c>
       <c r="S25" s="60" t="str">
-        <f t="shared" ref="S25:S26" si="29">IF(R25&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="S25:S26" si="30">IF(R25&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="T25" s="183" t="s">
@@ -24069,11 +24209,11 @@
       <c r="F26" s="67"/>
       <c r="G26" s="57"/>
       <c r="H26" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I26" s="60" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>盈</v>
       </c>
       <c r="J26" s="183" t="s">
@@ -24090,11 +24230,11 @@
       <c r="P26" s="56"/>
       <c r="Q26" s="57"/>
       <c r="R26" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S26" s="60" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>盈</v>
       </c>
       <c r="T26" s="183" t="s">
@@ -24113,11 +24253,11 @@
       <c r="F27" s="67"/>
       <c r="G27" s="57"/>
       <c r="H27" s="67">
-        <f t="shared" ref="H27:H31" si="30">IF(B27="卖",C27-F27,F27-C27)*J27</f>
+        <f t="shared" ref="H27:H31" si="31">IF(B27="卖",C27-F27,F27-C27)*J27</f>
         <v>0</v>
       </c>
       <c r="I27" s="60" t="str">
-        <f t="shared" ref="I27:I31" si="31">IF(H27&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="I27:I31" si="32">IF(H27&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="J27" s="183" t="s">
@@ -24134,11 +24274,11 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="57"/>
       <c r="R27" s="56">
-        <f t="shared" ref="R27:R31" si="32">IF(L27="卖",M27-P27,P27-M27)*T27</f>
+        <f t="shared" ref="R27:R31" si="33">IF(L27="卖",M27-P27,P27-M27)*T27</f>
         <v>0</v>
       </c>
       <c r="S27" s="60" t="str">
-        <f t="shared" ref="S27:S31" si="33">IF(R27&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="S27:S31" si="34">IF(R27&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="T27" s="183" t="s">
@@ -24157,11 +24297,11 @@
       <c r="F28" s="67"/>
       <c r="G28" s="57"/>
       <c r="H28" s="67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I28" s="60" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J28" s="183" t="s">
@@ -24178,11 +24318,11 @@
       <c r="P28" s="56"/>
       <c r="Q28" s="57"/>
       <c r="R28" s="56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S28" s="60" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T28" s="183" t="s">
@@ -24190,32 +24330,22 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="229">
+      <c r="A29" s="176">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="112">
-        <v>1.3659699999999999</v>
-      </c>
-      <c r="D29" s="113">
-        <v>43221</v>
-      </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="112">
-        <v>1.35493</v>
-      </c>
-      <c r="G29" s="113">
-        <v>43227</v>
-      </c>
-      <c r="H29" s="112">
-        <f t="shared" si="30"/>
-        <v>1.1039999999999939E-2</v>
-      </c>
-      <c r="I29" s="117" t="str">
+      <c r="B29" s="55"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="67">
         <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="60" t="str">
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J29" s="183" t="s">
@@ -24232,11 +24362,11 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="57"/>
       <c r="R29" s="56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S29" s="60" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T29" s="183" t="s">
@@ -24255,11 +24385,11 @@
       <c r="F30" s="67"/>
       <c r="G30" s="57"/>
       <c r="H30" s="67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I30" s="60" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J30" s="183" t="s">
@@ -24276,11 +24406,11 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
       <c r="R30" s="56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S30" s="60" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T30" s="183" t="s">
@@ -24299,11 +24429,11 @@
       <c r="F31" s="67"/>
       <c r="G31" s="57"/>
       <c r="H31" s="67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I31" s="60" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>盈</v>
       </c>
       <c r="J31" s="183" t="s">
@@ -24320,11 +24450,11 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="57"/>
       <c r="R31" s="56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S31" s="60" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T31" s="183" t="s">
@@ -24343,11 +24473,11 @@
       <c r="F32" s="67"/>
       <c r="G32" s="57"/>
       <c r="H32" s="67">
-        <f t="shared" ref="H32:H33" si="34">IF(B32="卖",C32-F32,F32-C32)*J32</f>
+        <f t="shared" ref="H32:H33" si="35">IF(B32="卖",C32-F32,F32-C32)*J32</f>
         <v>0</v>
       </c>
       <c r="I32" s="60" t="str">
-        <f t="shared" ref="I32:I33" si="35">IF(H32&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="I32:I33" si="36">IF(H32&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="J32" s="183" t="s">
@@ -24364,11 +24494,11 @@
       <c r="P32" s="56"/>
       <c r="Q32" s="57"/>
       <c r="R32" s="56">
-        <f t="shared" ref="R32:R33" si="36">IF(L32="卖",M32-P32,P32-M32)*T32</f>
+        <f t="shared" ref="R32:R33" si="37">IF(L32="卖",M32-P32,P32-M32)*T32</f>
         <v>0</v>
       </c>
       <c r="S32" s="60" t="str">
-        <f t="shared" ref="S32:S33" si="37">IF(R32&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="S32:S33" si="38">IF(R32&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="T32" s="183" t="s">
@@ -24387,11 +24517,11 @@
       <c r="F33" s="67"/>
       <c r="G33" s="57"/>
       <c r="H33" s="67">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I33" s="60" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>盈</v>
       </c>
       <c r="J33" s="183" t="s">
@@ -24408,11 +24538,11 @@
       <c r="P33" s="56"/>
       <c r="Q33" s="57"/>
       <c r="R33" s="56">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S33" s="60" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>盈</v>
       </c>
       <c r="T33" s="183" t="s">
@@ -24443,13 +24573,13 @@
       <c r="A35" s="39"/>
       <c r="B35" s="43"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="272" t="str">
+      <c r="D35" s="273" t="str">
         <f>E38</f>
         <v>上</v>
       </c>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="272"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="273"/>
       <c r="H35" s="239" t="b">
         <f>G39</f>
         <v>1</v>
@@ -24458,13 +24588,13 @@
       <c r="K35" s="39"/>
       <c r="L35" s="43"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="272" t="str">
+      <c r="N35" s="273" t="str">
         <f>O38</f>
         <v>波动</v>
       </c>
-      <c r="O35" s="272"/>
-      <c r="P35" s="272"/>
-      <c r="Q35" s="272"/>
+      <c r="O35" s="273"/>
+      <c r="P35" s="273"/>
+      <c r="Q35" s="273"/>
       <c r="R35" s="41"/>
       <c r="T35" s="184"/>
     </row>
@@ -24492,10 +24622,10 @@
       <c r="A37" s="39"/>
       <c r="B37" s="43"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="273" t="s">
+      <c r="D37" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="274"/>
+      <c r="E37" s="275"/>
       <c r="F37" s="231"/>
       <c r="G37" s="232"/>
       <c r="H37" s="41"/>
@@ -24503,10 +24633,10 @@
       <c r="K37" s="39"/>
       <c r="L37" s="43"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="273" t="s">
+      <c r="N37" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="274"/>
+      <c r="O37" s="275"/>
       <c r="P37" s="231"/>
       <c r="Q37" s="232"/>
       <c r="R37" s="41"/>
@@ -24900,45 +25030,45 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="278" t="s">
+      <c r="D7" s="279" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="284"/>
-      <c r="G7" s="287" t="s">
+      <c r="F7" s="285"/>
+      <c r="G7" s="288" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="287" t="s">
+      <c r="H7" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="275" t="s">
+      <c r="I7" s="276" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="279"/>
+      <c r="D8" s="280"/>
       <c r="E8" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="285"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="276"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="277"/>
     </row>
     <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="280"/>
+      <c r="D9" s="281"/>
       <c r="E9" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="286"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="277"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="278"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="281" t="s">
+      <c r="D10" s="282" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="214" t="s">
@@ -24957,7 +25087,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="282"/>
+      <c r="D11" s="283"/>
       <c r="E11" s="212" t="s">
         <v>177</v>
       </c>
@@ -24974,7 +25104,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="282"/>
+      <c r="D12" s="283"/>
       <c r="E12" s="212" t="s">
         <v>176</v>
       </c>
@@ -24991,7 +25121,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="283"/>
+      <c r="D13" s="284"/>
       <c r="E13" s="215" t="s">
         <v>179</v>
       </c>
@@ -25040,10 +25170,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25106,20 +25236,30 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D12" s="20"/>
       <c r="E12" s="251" t="s">
         <v>218</v>
       </c>
+      <c r="K12" s="257" t="s">
+        <v>243</v>
+      </c>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
+      <c r="P12" s="257"/>
     </row>
     <row r="13" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D13" s="20"/>
       <c r="E13" s="251"/>
     </row>
     <row r="14" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="D14" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="D14" s="260" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
       <c r="K14" s="257" t="s">
         <v>222</v>
       </c>
@@ -25129,7 +25269,11 @@
       <c r="O14" s="258"/>
       <c r="P14" s="258"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="D15" s="20"/>
+      <c r="E15" s="251" t="s">
+        <v>218</v>
+      </c>
       <c r="K15" s="259"/>
       <c r="L15" s="259"/>
       <c r="M15" s="259"/>
@@ -25138,9 +25282,8 @@
       <c r="P15" s="259"/>
     </row>
     <row r="16" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="E16" s="251" t="s">
-        <v>219</v>
-      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="251"/>
       <c r="K16" s="257" t="s">
         <v>223</v>
       </c>
@@ -25150,20 +25293,55 @@
       <c r="O16" s="259"/>
       <c r="P16" s="259"/>
     </row>
-    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="E17" s="251"/>
-    </row>
-    <row r="19" spans="4:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="D19" s="20" t="s">
+    <row r="17" spans="4:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="K18" s="291" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="291"/>
+      <c r="M18" s="291"/>
+      <c r="N18" s="291"/>
+      <c r="O18" s="291"/>
+      <c r="P18" s="291"/>
+    </row>
+    <row r="19" spans="4:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="E19" s="251" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="291"/>
+      <c r="L19" s="291"/>
+      <c r="M19" s="291"/>
+      <c r="N19" s="291"/>
+      <c r="O19" s="291"/>
+      <c r="P19" s="291"/>
+    </row>
+    <row r="20" spans="4:16" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="D20" s="20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="251" t="s">
+      <c r="K20" s="291" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="291"/>
+      <c r="M20" s="291"/>
+      <c r="N20" s="291"/>
+      <c r="O20" s="291"/>
+      <c r="P20" s="291"/>
+    </row>
+    <row r="22" spans="4:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="E22" s="251" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K18:P19"/>
+    <mergeCell ref="K20:P20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="246">
   <si>
     <t>总额</t>
   </si>
@@ -1648,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2070,6 +2070,9 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,8 +2082,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2091,11 +2097,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2162,6 +2165,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8561,11 +8567,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomRight" activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8645,10 +8651,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="268" t="s">
+      <c r="I3" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="269"/>
+      <c r="J3" s="266"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -8705,7 +8711,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="267" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -8754,7 +8760,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="266"/>
+      <c r="A6" s="268"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -8807,7 +8813,7 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="266"/>
+      <c r="A7" s="268"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -8860,7 +8866,7 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="267"/>
+      <c r="A8" s="269"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -8916,7 +8922,7 @@
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="267" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -8974,7 +8980,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="266"/>
+      <c r="A10" s="268"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -9030,7 +9036,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="266"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -9086,7 +9092,7 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="267"/>
+      <c r="A12" s="269"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -9142,7 +9148,7 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="266" t="s">
+      <c r="A13" s="268" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="130">
@@ -9200,7 +9206,7 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="266"/>
+      <c r="A14" s="268"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -9257,7 +9263,7 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="266"/>
+      <c r="A15" s="268"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -9314,7 +9320,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="267"/>
+      <c r="A16" s="269"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -9370,7 +9376,7 @@
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="266" t="s">
+      <c r="A17" s="268" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="130">
@@ -9427,7 +9433,7 @@
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="266"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -9482,7 +9488,7 @@
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
+      <c r="A19" s="268"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -9537,7 +9543,7 @@
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="266"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -9592,7 +9598,7 @@
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="266"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="124">
         <v>17</v>
       </c>
@@ -9647,7 +9653,7 @@
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="267" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -9705,7 +9711,7 @@
       <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="266"/>
+      <c r="A23" s="268"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -9761,7 +9767,7 @@
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="266"/>
+      <c r="A24" s="268"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -9817,7 +9823,7 @@
       <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="267"/>
+      <c r="A25" s="269"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -9873,7 +9879,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="266" t="s">
+      <c r="A26" s="268" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="130">
@@ -9930,7 +9936,7 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="266"/>
+      <c r="A27" s="268"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -9985,7 +9991,7 @@
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="266"/>
+      <c r="A28" s="268"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -10040,7 +10046,7 @@
       <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="266"/>
+      <c r="A29" s="268"/>
       <c r="B29" s="124">
         <v>25</v>
       </c>
@@ -10095,7 +10101,7 @@
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="265" t="s">
+      <c r="A30" s="267" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -10153,7 +10159,7 @@
       <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="266"/>
+      <c r="A31" s="268"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -10209,7 +10215,7 @@
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="266"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -10265,7 +10271,7 @@
       <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="266"/>
+      <c r="A33" s="268"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -10321,7 +10327,7 @@
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="267"/>
+      <c r="A34" s="269"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -10377,7 +10383,7 @@
       <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="266" t="s">
+      <c r="A35" s="268" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="130">
@@ -10436,7 +10442,7 @@
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="266"/>
+      <c r="A36" s="268"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -10491,7 +10497,7 @@
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="266"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -10546,7 +10552,7 @@
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="266"/>
+      <c r="A38" s="268"/>
       <c r="B38" s="124">
         <v>34</v>
       </c>
@@ -10601,7 +10607,7 @@
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="267" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -10659,7 +10665,7 @@
       <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="266"/>
+      <c r="A40" s="268"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -10715,7 +10721,7 @@
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="266"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -10773,7 +10779,7 @@
       <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="267"/>
+      <c r="A42" s="269"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -10831,7 +10837,7 @@
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="265" t="s">
+      <c r="A43" s="267" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -10891,7 +10897,7 @@
       <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="266"/>
+      <c r="A44" s="268"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -10950,7 +10956,7 @@
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="266"/>
+      <c r="A45" s="268"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -11016,7 +11022,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="266"/>
+      <c r="A46" s="268"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -11079,7 +11085,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="267"/>
+      <c r="A47" s="269"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -11137,7 +11143,7 @@
       <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="265" t="s">
+      <c r="A48" s="267" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -11198,7 +11204,7 @@
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="266"/>
+      <c r="A49" s="268"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -11259,7 +11265,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="266"/>
+      <c r="A50" s="268"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -11320,7 +11326,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="267"/>
+      <c r="A51" s="269"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -11379,7 +11385,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="265" t="s">
+      <c r="A52" s="267" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -11440,7 +11446,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="266"/>
+      <c r="A53" s="268"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -11499,7 +11505,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="266"/>
+      <c r="A54" s="268"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -11555,7 +11561,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="266"/>
+      <c r="A55" s="268"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -11609,18 +11615,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="264" t="s">
+      <c r="X55" s="270" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="264"/>
-      <c r="Z55" s="264"/>
-      <c r="AA55" s="264"/>
-      <c r="AB55" s="264"/>
-      <c r="AC55" s="264"/>
-      <c r="AD55" s="264"/>
+      <c r="Y55" s="270"/>
+      <c r="Z55" s="270"/>
+      <c r="AA55" s="270"/>
+      <c r="AB55" s="270"/>
+      <c r="AC55" s="270"/>
+      <c r="AD55" s="270"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="267"/>
+      <c r="A56" s="269"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -11674,16 +11680,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="264"/>
-      <c r="Y56" s="264"/>
-      <c r="Z56" s="264"/>
-      <c r="AA56" s="264"/>
-      <c r="AB56" s="264"/>
-      <c r="AC56" s="264"/>
-      <c r="AD56" s="264"/>
+      <c r="X56" s="270"/>
+      <c r="Y56" s="270"/>
+      <c r="Z56" s="270"/>
+      <c r="AA56" s="270"/>
+      <c r="AB56" s="270"/>
+      <c r="AC56" s="270"/>
+      <c r="AD56" s="270"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="261" t="s">
+      <c r="A57" s="262" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="127">
@@ -11739,16 +11745,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="264"/>
-      <c r="Y57" s="264"/>
-      <c r="Z57" s="264"/>
-      <c r="AA57" s="264"/>
-      <c r="AB57" s="264"/>
-      <c r="AC57" s="264"/>
-      <c r="AD57" s="264"/>
+      <c r="X57" s="270"/>
+      <c r="Y57" s="270"/>
+      <c r="Z57" s="270"/>
+      <c r="AA57" s="270"/>
+      <c r="AB57" s="270"/>
+      <c r="AC57" s="270"/>
+      <c r="AD57" s="270"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="262"/>
+      <c r="A58" s="263"/>
       <c r="B58" s="125">
         <v>2</v>
       </c>
@@ -11807,7 +11813,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="262"/>
+      <c r="A59" s="263"/>
       <c r="B59" s="125">
         <v>3</v>
       </c>
@@ -11866,7 +11872,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="263"/>
+      <c r="A60" s="264"/>
       <c r="B60" s="128">
         <v>4</v>
       </c>
@@ -11922,7 +11928,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="261" t="s">
+      <c r="A61" s="262" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="127">
@@ -11980,7 +11986,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="262"/>
+      <c r="A62" s="263"/>
       <c r="B62" s="125">
         <v>6</v>
       </c>
@@ -12039,7 +12045,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="262"/>
+      <c r="A63" s="263"/>
       <c r="B63" s="125">
         <v>7</v>
       </c>
@@ -12098,7 +12104,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="263"/>
+      <c r="A64" s="264"/>
       <c r="B64" s="128">
         <v>8</v>
       </c>
@@ -12157,7 +12163,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="261" t="s">
+      <c r="A65" s="262" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="127">
@@ -12218,7 +12224,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="262"/>
+      <c r="A66" s="263"/>
       <c r="B66" s="125">
         <v>10</v>
       </c>
@@ -12277,7 +12283,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="262"/>
+      <c r="A67" s="263"/>
       <c r="B67" s="125">
         <v>11</v>
       </c>
@@ -12336,7 +12342,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="263"/>
+      <c r="A68" s="264"/>
       <c r="B68" s="128">
         <v>12</v>
       </c>
@@ -12395,7 +12401,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="262" t="s">
+      <c r="A69" s="263" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="126">
@@ -12454,7 +12460,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="262"/>
+      <c r="A70" s="263"/>
       <c r="B70" s="125">
         <v>14</v>
       </c>
@@ -12511,7 +12517,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="262"/>
+      <c r="A71" s="263"/>
       <c r="B71" s="125">
         <v>15</v>
       </c>
@@ -12565,7 +12571,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="262"/>
+      <c r="A72" s="263"/>
       <c r="B72" s="125">
         <v>16</v>
       </c>
@@ -12622,7 +12628,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="262"/>
+      <c r="A73" s="263"/>
       <c r="B73" s="129">
         <v>17</v>
       </c>
@@ -12679,7 +12685,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="261" t="s">
+      <c r="A74" s="262" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="127">
@@ -12737,7 +12743,7 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="262"/>
+      <c r="A75" s="263"/>
       <c r="B75" s="125">
         <v>19</v>
       </c>
@@ -12796,7 +12802,7 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="262"/>
+      <c r="A76" s="263"/>
       <c r="B76" s="125">
         <v>20</v>
       </c>
@@ -12819,14 +12825,16 @@
         <v>132.61676191778326</v>
       </c>
       <c r="H76" s="136"/>
-      <c r="I76" s="136"/>
+      <c r="I76" s="137">
+        <v>36</v>
+      </c>
       <c r="J76" s="138">
         <f t="shared" si="15"/>
-        <v>-0.71200000000000008</v>
+        <v>7.9999999999999724E-3</v>
       </c>
       <c r="K76" s="202">
         <f t="shared" si="9"/>
-        <v>25.85</v>
+        <v>34.85</v>
       </c>
       <c r="L76" s="136"/>
       <c r="M76" s="136"/>
@@ -12839,7 +12847,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="263"/>
+      <c r="A77" s="264"/>
       <c r="B77" s="128">
         <v>21</v>
       </c>
@@ -12865,11 +12873,11 @@
       <c r="I77" s="141"/>
       <c r="J77" s="143">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="K77" s="203">
         <f t="shared" si="9"/>
-        <v>17.899999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="L77" s="141"/>
       <c r="M77" s="141"/>
@@ -12883,7 +12891,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="262" t="s">
+      <c r="A78" s="263" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="126">
@@ -12913,11 +12921,11 @@
       </c>
       <c r="K78" s="202">
         <f t="shared" si="9"/>
-        <v>8.9</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="262"/>
+      <c r="A79" s="263"/>
       <c r="B79" s="125">
         <v>23</v>
       </c>
@@ -12945,11 +12953,11 @@
       </c>
       <c r="K79" s="202">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="262"/>
+      <c r="A80" s="263"/>
       <c r="B80" s="125">
         <v>24</v>
       </c>
@@ -12981,7 +12989,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="262"/>
+      <c r="A81" s="263"/>
       <c r="B81" s="129">
         <v>25</v>
       </c>
@@ -13013,7 +13021,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="261" t="s">
+      <c r="A82" s="262" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="127">
@@ -13056,7 +13064,7 @@
       <c r="R82" s="122"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="262"/>
+      <c r="A83" s="263"/>
       <c r="B83" s="125">
         <v>27</v>
       </c>
@@ -13096,7 +13104,7 @@
       <c r="Q83" s="136"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="262"/>
+      <c r="A84" s="263"/>
       <c r="B84" s="125">
         <v>28</v>
       </c>
@@ -13136,7 +13144,7 @@
       <c r="Q84" s="136"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="262"/>
+      <c r="A85" s="263"/>
       <c r="B85" s="125">
         <v>29</v>
       </c>
@@ -13176,7 +13184,7 @@
       <c r="Q85" s="136"/>
     </row>
     <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="263"/>
+      <c r="A86" s="264"/>
       <c r="B86" s="128">
         <v>30</v>
       </c>
@@ -13217,7 +13225,7 @@
       <c r="R86" s="145"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="262" t="s">
+      <c r="A87" s="263" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="126">
@@ -13251,7 +13259,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="262"/>
+      <c r="A88" s="263"/>
       <c r="B88" s="125">
         <v>32</v>
       </c>
@@ -13283,7 +13291,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="262"/>
+      <c r="A89" s="263"/>
       <c r="B89" s="125">
         <v>33</v>
       </c>
@@ -13315,7 +13323,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="262"/>
+      <c r="A90" s="263"/>
       <c r="B90" s="129">
         <v>34</v>
       </c>
@@ -13347,7 +13355,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="261" t="s">
+      <c r="A91" s="262" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="127">
@@ -13390,7 +13398,7 @@
       <c r="R91" s="122"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="262"/>
+      <c r="A92" s="263"/>
       <c r="B92" s="125">
         <v>36</v>
       </c>
@@ -13430,7 +13438,7 @@
       <c r="Q92" s="136"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="262"/>
+      <c r="A93" s="263"/>
       <c r="B93" s="125">
         <v>37</v>
       </c>
@@ -13470,7 +13478,7 @@
       <c r="Q93" s="136"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="262"/>
+      <c r="A94" s="263"/>
       <c r="B94" s="125">
         <v>38</v>
       </c>
@@ -13510,7 +13518,7 @@
       <c r="Q94" s="136"/>
     </row>
     <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="263"/>
+      <c r="A95" s="264"/>
       <c r="B95" s="128">
         <v>39</v>
       </c>
@@ -13551,7 +13559,7 @@
       <c r="R95" s="145"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="262" t="s">
+      <c r="A96" s="263" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="126">
@@ -13585,7 +13593,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="262"/>
+      <c r="A97" s="263"/>
       <c r="B97" s="125">
         <v>41</v>
       </c>
@@ -13617,7 +13625,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="262"/>
+      <c r="A98" s="263"/>
       <c r="B98" s="125">
         <v>42</v>
       </c>
@@ -13649,7 +13657,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="262"/>
+      <c r="A99" s="263"/>
       <c r="B99" s="129">
         <v>43</v>
       </c>
@@ -13681,7 +13689,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="261" t="s">
+      <c r="A100" s="262" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="127">
@@ -13724,7 +13732,7 @@
       <c r="R100" s="122"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="262"/>
+      <c r="A101" s="263"/>
       <c r="B101" s="125">
         <v>45</v>
       </c>
@@ -13764,7 +13772,7 @@
       <c r="Q101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="262"/>
+      <c r="A102" s="263"/>
       <c r="B102" s="125">
         <v>46</v>
       </c>
@@ -13804,7 +13812,7 @@
       <c r="Q102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="263"/>
+      <c r="A103" s="264"/>
       <c r="B103" s="128">
         <v>47</v>
       </c>
@@ -13845,7 +13853,7 @@
       <c r="R103" s="145"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="261" t="s">
+      <c r="A104" s="262" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="127">
@@ -13888,7 +13896,7 @@
       <c r="R104" s="122"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="262"/>
+      <c r="A105" s="263"/>
       <c r="B105" s="125">
         <v>49</v>
       </c>
@@ -13928,7 +13936,7 @@
       <c r="Q105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="262"/>
+      <c r="A106" s="263"/>
       <c r="B106" s="125">
         <v>50</v>
       </c>
@@ -13968,7 +13976,7 @@
       <c r="Q106" s="136"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="262"/>
+      <c r="A107" s="263"/>
       <c r="B107" s="125">
         <v>51</v>
       </c>
@@ -14008,7 +14016,7 @@
       <c r="Q107" s="136"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="263"/>
+      <c r="A108" s="264"/>
       <c r="B108" s="128">
         <v>52</v>
       </c>
@@ -15758,22 +15766,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A47"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="X55:AD57"/>
     <mergeCell ref="A48:A51"/>
@@ -15784,6 +15776,22 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="8" priority="4">
@@ -15817,7 +15825,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F37:O38"/>
+      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -15856,41 +15864,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="272"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
       <c r="J1" s="192"/>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="273"/>
       <c r="T1" s="205"/>
-      <c r="U1" s="270" t="s">
+      <c r="U1" s="271" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="271"/>
-      <c r="W1" s="271"/>
-      <c r="X1" s="271"/>
-      <c r="Y1" s="271"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="271"/>
-      <c r="AB1" s="271"/>
-      <c r="AC1" s="272"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="273"/>
       <c r="AD1" s="205"/>
     </row>
     <row r="2" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -19027,25 +19035,25 @@
       <c r="K45" s="39"/>
       <c r="L45" s="43"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="273" t="str">
+      <c r="N45" s="274" t="str">
         <f>O48</f>
         <v>下</v>
       </c>
-      <c r="O45" s="273"/>
-      <c r="P45" s="273"/>
-      <c r="Q45" s="273"/>
+      <c r="O45" s="274"/>
+      <c r="P45" s="274"/>
+      <c r="Q45" s="274"/>
       <c r="R45" s="41"/>
       <c r="T45" s="184"/>
       <c r="U45" s="39"/>
       <c r="V45" s="43"/>
       <c r="W45" s="40"/>
-      <c r="X45" s="273" t="str">
+      <c r="X45" s="274" t="str">
         <f>Y48</f>
         <v>波动</v>
       </c>
-      <c r="Y45" s="273"/>
-      <c r="Z45" s="273"/>
-      <c r="AA45" s="273"/>
+      <c r="Y45" s="274"/>
+      <c r="Z45" s="274"/>
+      <c r="AA45" s="274"/>
       <c r="AB45" s="41"/>
       <c r="AD45" s="184"/>
     </row>
@@ -19053,13 +19061,13 @@
       <c r="A46" s="39"/>
       <c r="B46" s="43"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="273" t="str">
+      <c r="D46" s="274" t="str">
         <f>E49</f>
         <v>波动</v>
       </c>
-      <c r="E46" s="273"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="273"/>
+      <c r="E46" s="274"/>
+      <c r="F46" s="274"/>
+      <c r="G46" s="274"/>
       <c r="H46" s="41"/>
       <c r="J46" s="195"/>
       <c r="K46" s="39"/>
@@ -19094,10 +19102,10 @@
       <c r="K47" s="39"/>
       <c r="L47" s="43"/>
       <c r="M47" s="40"/>
-      <c r="N47" s="274" t="s">
+      <c r="N47" s="275" t="s">
         <v>206</v>
       </c>
-      <c r="O47" s="275"/>
+      <c r="O47" s="276"/>
       <c r="P47" s="231"/>
       <c r="Q47" s="232"/>
       <c r="R47" s="41"/>
@@ -19105,10 +19113,10 @@
       <c r="U47" s="39"/>
       <c r="V47" s="43"/>
       <c r="W47" s="40"/>
-      <c r="X47" s="274" t="s">
+      <c r="X47" s="275" t="s">
         <v>206</v>
       </c>
-      <c r="Y47" s="275"/>
+      <c r="Y47" s="276"/>
       <c r="Z47" s="231"/>
       <c r="AA47" s="232"/>
       <c r="AB47" s="41"/>
@@ -19118,10 +19126,10 @@
       <c r="A48" s="39"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="274" t="s">
+      <c r="D48" s="275" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="275"/>
+      <c r="E48" s="276"/>
       <c r="F48" s="231"/>
       <c r="G48" s="232"/>
       <c r="H48" s="41"/>
@@ -19658,11 +19666,11 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -19692,29 +19700,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="272"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="271" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="273"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -19833,7 +19841,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="176">
-        <f t="shared" ref="A4:A52" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A54" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -19861,7 +19869,7 @@
         <v>亏</v>
       </c>
       <c r="K4" s="196">
-        <f t="shared" ref="K4:K52" si="2">ROW()-2</f>
+        <f t="shared" ref="K4:K54" si="2">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="L4" s="51" t="s">
@@ -21344,7 +21352,7 @@
         <v>43042</v>
       </c>
       <c r="R33" s="53">
-        <f t="shared" ref="R33:R50" si="27">IF(L33="卖",M33-P33,P33-M33)*T33</f>
+        <f t="shared" ref="R33:R52" si="27">IF(L33="卖",M33-P33,P33-M33)*T33</f>
         <v>-4.5000000000006146E-4</v>
       </c>
       <c r="S33" s="49" t="str">
@@ -21717,7 +21725,7 @@
       <c r="J39" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K39" s="196">
+      <c r="K39" s="261">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -21771,7 +21779,7 @@
       <c r="J40" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="196">
+      <c r="K40" s="261">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -21825,27 +21833,27 @@
       <c r="J41" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="196">
+      <c r="K41" s="261">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="L41" s="55" t="s">
+      <c r="L41" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="M41" s="67">
+      <c r="M41" s="112">
         <v>1.17367</v>
       </c>
-      <c r="N41" s="57">
+      <c r="N41" s="113">
         <v>43082</v>
       </c>
-      <c r="O41" s="104"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="67">
+      <c r="O41" s="114"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="112">
         <f t="shared" si="27"/>
         <v>1.17367</v>
       </c>
-      <c r="S41" s="59" t="str">
+      <c r="S41" s="115" t="str">
         <f t="shared" si="37"/>
         <v>盈</v>
       </c>
@@ -22013,7 +22021,7 @@
       <c r="J45" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="196">
+      <c r="K45" s="261">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -22067,7 +22075,7 @@
       <c r="J46" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="196">
+      <c r="K46" s="261">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -22121,21 +22129,31 @@
       <c r="J47" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="196">
+      <c r="K47" s="261">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="L47" s="55"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="67">
+      <c r="L47" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" s="112">
+        <v>1.19167</v>
+      </c>
+      <c r="N47" s="113">
+        <v>43235</v>
+      </c>
+      <c r="O47" s="114"/>
+      <c r="P47" s="92">
+        <v>1.1821699999999999</v>
+      </c>
+      <c r="Q47" s="105">
+        <v>43238</v>
+      </c>
+      <c r="R47" s="112">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="59" t="str">
+        <v>9.5000000000000639E-3</v>
+      </c>
+      <c r="S47" s="115" t="str">
         <f t="shared" si="40"/>
         <v>盈</v>
       </c>
@@ -22155,32 +22173,42 @@
       <c r="F48" s="56"/>
       <c r="G48" s="57"/>
       <c r="H48" s="175">
-        <f t="shared" ref="H48:H50" si="41">IF(B48="卖",C48-F48,F48-C48)*J48</f>
+        <f t="shared" ref="H48:H52" si="41">IF(B48="卖",C48-F48,F48-C48)*J48</f>
         <v>0</v>
       </c>
       <c r="I48" s="59" t="str">
-        <f t="shared" ref="I48:I50" si="42">IF(H48&gt;=0,"盈","亏")</f>
+        <f t="shared" ref="I48:I52" si="42">IF(H48&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="J48" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K48" s="196">
+      <c r="K48" s="261">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="L48" s="55"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="67">
+      <c r="L48" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="M48" s="112">
+        <v>1.17743</v>
+      </c>
+      <c r="N48" s="113">
+        <v>43238</v>
+      </c>
+      <c r="O48" s="114"/>
+      <c r="P48" s="112">
+        <v>1.1735</v>
+      </c>
+      <c r="Q48" s="113">
+        <v>43241</v>
+      </c>
+      <c r="R48" s="112">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="59" t="str">
-        <f t="shared" ref="S48:S50" si="43">IF(R48&gt;=0,"盈","亏")</f>
+        <v>3.9299999999999891E-3</v>
+      </c>
+      <c r="S48" s="115" t="str">
+        <f t="shared" ref="S48:S52" si="43">IF(R48&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
       <c r="T48" s="183" t="s">
@@ -22213,15 +22241,21 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L49" s="55"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="57"/>
+      <c r="L49" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="67">
+        <v>1.1732800000000001</v>
+      </c>
+      <c r="N49" s="57">
+        <v>43241</v>
+      </c>
       <c r="O49" s="104"/>
       <c r="P49" s="67"/>
       <c r="Q49" s="57"/>
       <c r="R49" s="67">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.1732800000000001</v>
       </c>
       <c r="S49" s="59" t="str">
         <f t="shared" si="43"/>
@@ -22253,23 +22287,33 @@
       <c r="J50" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="196">
+      <c r="K50" s="293">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="L50" s="55"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="67">
+      <c r="L50" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="M50" s="53">
+        <v>1.17316</v>
+      </c>
+      <c r="N50" s="75">
+        <v>43241</v>
+      </c>
+      <c r="O50" s="99"/>
+      <c r="P50" s="53">
+        <v>1.18252</v>
+      </c>
+      <c r="Q50" s="75">
+        <v>43242</v>
+      </c>
+      <c r="R50" s="53">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="59" t="str">
+        <v>-9.360000000000035E-3</v>
+      </c>
+      <c r="S50" s="49" t="str">
         <f t="shared" si="43"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="T50" s="183" t="s">
         <v>107</v>
@@ -22287,11 +22331,11 @@
       <c r="F51" s="56"/>
       <c r="G51" s="57"/>
       <c r="H51" s="175">
-        <f t="shared" ref="H51:H52" si="44">IF(B51="卖",C51-F51,F51-C51)*J51</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I51" s="59" t="str">
-        <f t="shared" ref="I51:I52" si="45">IF(H51&gt;=0,"盈","亏")</f>
+        <f t="shared" si="42"/>
         <v>盈</v>
       </c>
       <c r="J51" s="183" t="s">
@@ -22308,11 +22352,11 @@
       <c r="P51" s="67"/>
       <c r="Q51" s="57"/>
       <c r="R51" s="67">
-        <f t="shared" ref="R51:R52" si="46">IF(L51="卖",M51-P51,P51-M51)*T51</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S51" s="59" t="str">
-        <f t="shared" ref="S51:S52" si="47">IF(R51&gt;=0,"盈","亏")</f>
+        <f t="shared" si="43"/>
         <v>盈</v>
       </c>
       <c r="T51" s="183" t="s">
@@ -22331,11 +22375,11 @@
       <c r="F52" s="56"/>
       <c r="G52" s="57"/>
       <c r="H52" s="175">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I52" s="59" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>盈</v>
       </c>
       <c r="J52" s="183" t="s">
@@ -22352,158 +22396,208 @@
       <c r="P52" s="67"/>
       <c r="Q52" s="57"/>
       <c r="R52" s="67">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="59" t="str">
+        <f t="shared" si="43"/>
+        <v>盈</v>
+      </c>
+      <c r="T52" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="176">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="175">
+        <f t="shared" ref="H53:H54" si="44">IF(B53="卖",C53-F53,F53-C53)*J53</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="59" t="str">
+        <f t="shared" ref="I53:I54" si="45">IF(H53&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="J53" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53" s="196">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="L53" s="55"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="67">
+        <f t="shared" ref="R53:R54" si="46">IF(L53="卖",M53-P53,P53-M53)*T53</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="59" t="str">
+        <f t="shared" ref="S53:S54" si="47">IF(R53&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="T53" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="176">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="175">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="59" t="str">
+        <f t="shared" si="45"/>
+        <v>盈</v>
+      </c>
+      <c r="J54" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K54" s="196">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="L54" s="55"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="67">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="S52" s="59" t="str">
+      <c r="S54" s="59" t="str">
         <f t="shared" si="47"/>
         <v>盈</v>
       </c>
-      <c r="T52" s="183" t="s">
+      <c r="T54" s="183" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="N53" s="73"/>
-    </row>
-    <row r="54" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
-      <c r="D54" s="273" t="str">
-        <f>E57</f>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="N55" s="73"/>
+    </row>
+    <row r="56" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
+      <c r="D56" s="274" t="str">
+        <f>E59</f>
         <v>波动</v>
       </c>
-      <c r="E54" s="273"/>
-      <c r="F54" s="273"/>
-      <c r="G54" s="273"/>
-      <c r="N54" s="273" t="str">
-        <f>O57</f>
+      <c r="E56" s="274"/>
+      <c r="F56" s="274"/>
+      <c r="G56" s="274"/>
+      <c r="N56" s="274" t="str">
+        <f>O59</f>
         <v>波动</v>
       </c>
-      <c r="O54" s="273"/>
-      <c r="P54" s="273"/>
-      <c r="Q54" s="273"/>
-    </row>
-    <row r="55" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="39"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="274" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="275"/>
-      <c r="F56" s="231"/>
-      <c r="G56" s="232"/>
-      <c r="H56" s="41"/>
-      <c r="J56" s="184"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="274" t="s">
-        <v>206</v>
-      </c>
-      <c r="O56" s="275"/>
-      <c r="P56" s="231"/>
-      <c r="Q56" s="232"/>
-      <c r="R56" s="41"/>
-      <c r="T56" s="184"/>
-      <c r="U56" s="225"/>
-    </row>
-    <row r="57" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="39"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="233" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="231"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="41"/>
-      <c r="J57" s="184"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="233" t="s">
-        <v>205</v>
-      </c>
-      <c r="O57" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="P57" s="231"/>
-      <c r="Q57" s="232"/>
-      <c r="R57" s="41"/>
-      <c r="T57" s="184"/>
-      <c r="U57" s="225"/>
-    </row>
-    <row r="58" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O56" s="274"/>
+      <c r="P56" s="274"/>
+      <c r="Q56" s="274"/>
+    </row>
+    <row r="57" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="39"/>
       <c r="B58" s="43"/>
       <c r="C58" s="40"/>
-      <c r="D58" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="236"/>
+      <c r="D58" s="275" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="276"/>
       <c r="F58" s="231"/>
-      <c r="G58" s="230" t="b">
-        <f>E57=E58</f>
-        <v>0</v>
-      </c>
+      <c r="G58" s="232"/>
       <c r="H58" s="41"/>
       <c r="J58" s="184"/>
       <c r="K58" s="39"/>
       <c r="L58" s="43"/>
       <c r="M58" s="40"/>
-      <c r="N58" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="O58" s="236"/>
+      <c r="N58" s="275" t="s">
+        <v>206</v>
+      </c>
+      <c r="O58" s="276"/>
       <c r="P58" s="231"/>
-      <c r="Q58" s="230" t="b">
-        <f>O57=O58</f>
-        <v>0</v>
-      </c>
+      <c r="Q58" s="232"/>
       <c r="R58" s="41"/>
       <c r="T58" s="184"/>
       <c r="U58" s="225"/>
     </row>
-    <row r="59" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="39"/>
       <c r="B59" s="43"/>
       <c r="C59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="54"/>
+      <c r="D59" s="233" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="234" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="231"/>
+      <c r="G59" s="232"/>
       <c r="H59" s="41"/>
       <c r="J59" s="184"/>
       <c r="K59" s="39"/>
       <c r="L59" s="43"/>
       <c r="M59" s="40"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="54"/>
+      <c r="N59" s="233" t="s">
+        <v>205</v>
+      </c>
+      <c r="O59" s="234" t="s">
+        <v>155</v>
+      </c>
+      <c r="P59" s="231"/>
+      <c r="Q59" s="232"/>
       <c r="R59" s="41"/>
       <c r="T59" s="184"/>
       <c r="U59" s="225"/>
     </row>
-    <row r="60" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="39"/>
       <c r="B60" s="43"/>
       <c r="C60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="54"/>
+      <c r="D60" s="235" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="236"/>
+      <c r="F60" s="231"/>
+      <c r="G60" s="230" t="b">
+        <f>E59=E60</f>
+        <v>0</v>
+      </c>
       <c r="H60" s="41"/>
       <c r="J60" s="184"/>
       <c r="K60" s="39"/>
       <c r="L60" s="43"/>
       <c r="M60" s="40"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="54"/>
+      <c r="N60" s="235" t="s">
+        <v>204</v>
+      </c>
+      <c r="O60" s="236"/>
+      <c r="P60" s="231"/>
+      <c r="Q60" s="230" t="b">
+        <f>O59=O60</f>
+        <v>0</v>
+      </c>
       <c r="R60" s="41"/>
       <c r="T60" s="184"/>
       <c r="U60" s="225"/>
@@ -22626,8 +22720,6 @@
       <c r="A67" s="39"/>
       <c r="B67" s="43"/>
       <c r="C67" s="40"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="40"/>
       <c r="F67" s="40"/>
       <c r="G67" s="54"/>
       <c r="H67" s="41"/>
@@ -22647,8 +22739,6 @@
       <c r="A68" s="39"/>
       <c r="B68" s="43"/>
       <c r="C68" s="40"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="40"/>
       <c r="F68" s="40"/>
       <c r="G68" s="54"/>
       <c r="H68" s="41"/>
@@ -22656,7 +22746,7 @@
       <c r="K68" s="39"/>
       <c r="L68" s="43"/>
       <c r="M68" s="40"/>
-      <c r="N68" s="54"/>
+      <c r="N68" s="73"/>
       <c r="O68" s="40"/>
       <c r="P68" s="40"/>
       <c r="Q68" s="54"/>
@@ -22677,7 +22767,7 @@
       <c r="K69" s="39"/>
       <c r="L69" s="43"/>
       <c r="M69" s="40"/>
-      <c r="N69" s="54"/>
+      <c r="N69" s="73"/>
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
       <c r="Q69" s="54"/>
@@ -22853,27 +22943,69 @@
       <c r="T77" s="184"/>
       <c r="U77" s="225"/>
     </row>
+    <row r="78" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="39"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="41"/>
+      <c r="J78" s="184"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="41"/>
+      <c r="T78" s="184"/>
+      <c r="U78" s="225"/>
+    </row>
+    <row r="79" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="39"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="41"/>
+      <c r="J79" s="184"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="41"/>
+      <c r="T79" s="184"/>
+      <c r="U79" s="225"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N58:O58"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="G60">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q60">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57:E58 O57:O58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59:E60 O59:O60">
       <formula1>"上,下,波动"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22932,29 +23064,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="272"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="271" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="273"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -24573,13 +24705,13 @@
       <c r="A35" s="39"/>
       <c r="B35" s="43"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="273" t="str">
+      <c r="D35" s="274" t="str">
         <f>E38</f>
         <v>上</v>
       </c>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
+      <c r="E35" s="274"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="274"/>
       <c r="H35" s="239" t="b">
         <f>G39</f>
         <v>1</v>
@@ -24588,13 +24720,13 @@
       <c r="K35" s="39"/>
       <c r="L35" s="43"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="273" t="str">
+      <c r="N35" s="274" t="str">
         <f>O38</f>
         <v>波动</v>
       </c>
-      <c r="O35" s="273"/>
-      <c r="P35" s="273"/>
-      <c r="Q35" s="273"/>
+      <c r="O35" s="274"/>
+      <c r="P35" s="274"/>
+      <c r="Q35" s="274"/>
       <c r="R35" s="41"/>
       <c r="T35" s="184"/>
     </row>
@@ -24622,10 +24754,10 @@
       <c r="A37" s="39"/>
       <c r="B37" s="43"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="274" t="s">
+      <c r="D37" s="275" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="275"/>
+      <c r="E37" s="276"/>
       <c r="F37" s="231"/>
       <c r="G37" s="232"/>
       <c r="H37" s="41"/>
@@ -24633,10 +24765,10 @@
       <c r="K37" s="39"/>
       <c r="L37" s="43"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="274" t="s">
+      <c r="N37" s="275" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="275"/>
+      <c r="O37" s="276"/>
       <c r="P37" s="231"/>
       <c r="Q37" s="232"/>
       <c r="R37" s="41"/>
@@ -25030,45 +25162,45 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="279" t="s">
+      <c r="D7" s="280" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="285"/>
-      <c r="G7" s="288" t="s">
+      <c r="F7" s="286"/>
+      <c r="G7" s="289" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="288" t="s">
+      <c r="H7" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="276" t="s">
+      <c r="I7" s="277" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="280"/>
+      <c r="D8" s="281"/>
       <c r="E8" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="286"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="277"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="278"/>
     </row>
     <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="281"/>
+      <c r="D9" s="282"/>
       <c r="E9" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="287"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="278"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="279"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="282" t="s">
+      <c r="D10" s="283" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="214" t="s">
@@ -25087,7 +25219,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="283"/>
+      <c r="D11" s="284"/>
       <c r="E11" s="212" t="s">
         <v>177</v>
       </c>
@@ -25104,7 +25236,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="283"/>
+      <c r="D12" s="284"/>
       <c r="E12" s="212" t="s">
         <v>176</v>
       </c>
@@ -25121,7 +25253,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="284"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="215" t="s">
         <v>179</v>
       </c>
@@ -25299,38 +25431,38 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K18" s="291" t="s">
+      <c r="K18" s="292" t="s">
         <v>242</v>
       </c>
-      <c r="L18" s="291"/>
-      <c r="M18" s="291"/>
-      <c r="N18" s="291"/>
-      <c r="O18" s="291"/>
-      <c r="P18" s="291"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="292"/>
+      <c r="O18" s="292"/>
+      <c r="P18" s="292"/>
     </row>
     <row r="19" spans="4:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="291"/>
-      <c r="L19" s="291"/>
-      <c r="M19" s="291"/>
-      <c r="N19" s="291"/>
-      <c r="O19" s="291"/>
-      <c r="P19" s="291"/>
+      <c r="K19" s="292"/>
+      <c r="L19" s="292"/>
+      <c r="M19" s="292"/>
+      <c r="N19" s="292"/>
+      <c r="O19" s="292"/>
+      <c r="P19" s="292"/>
     </row>
     <row r="20" spans="4:16" ht="31.2" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="291" t="s">
+      <c r="K20" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="L20" s="291"/>
-      <c r="M20" s="291"/>
-      <c r="N20" s="291"/>
-      <c r="O20" s="291"/>
-      <c r="P20" s="291"/>
+      <c r="L20" s="292"/>
+      <c r="M20" s="292"/>
+      <c r="N20" s="292"/>
+      <c r="O20" s="292"/>
+      <c r="P20" s="292"/>
     </row>
     <row r="22" spans="4:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E22" s="251" t="s">

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="251">
   <si>
     <t>总额</t>
   </si>
@@ -763,6 +763,21 @@
   </si>
   <si>
     <t>每月发现一个趋势</t>
+  </si>
+  <si>
+    <t>仓多了没拿住</t>
+  </si>
+  <si>
+    <t>仓多了没拿住 方向对</t>
+  </si>
+  <si>
+    <t>出手早了</t>
+  </si>
+  <si>
+    <t>风险大</t>
+  </si>
+  <si>
+    <t>MACD RSI 先一步</t>
   </si>
 </sst>
 </file>
@@ -2010,9 +2025,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,6 +2085,15 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,12 +2101,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2097,8 +2112,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2165,9 +2183,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8568,10 +8583,10 @@
   <dimension ref="A1:AD212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M77" sqref="M77"/>
+      <selection pane="bottomRight" activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8651,10 +8666,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="265" t="s">
+      <c r="I3" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="266"/>
+      <c r="J3" s="271"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -11397,7 +11412,7 @@
       <c r="D52" s="2">
         <v>43072</v>
       </c>
-      <c r="E52" s="243">
+      <c r="E52" s="242">
         <f t="shared" si="4"/>
         <v>328.52641208757024</v>
       </c>
@@ -11434,7 +11449,7 @@
       <c r="P52" s="132">
         <v>3</v>
       </c>
-      <c r="Q52" s="244">
+      <c r="Q52" s="243">
         <v>0</v>
       </c>
       <c r="R52" s="122">
@@ -11456,7 +11471,7 @@
       <c r="D53" s="3">
         <v>43079</v>
       </c>
-      <c r="E53" s="245">
+      <c r="E53" s="244">
         <f t="shared" si="4"/>
         <v>341.66746857107307</v>
       </c>
@@ -11481,19 +11496,19 @@
         <v>38.15</v>
       </c>
       <c r="L53" s="136"/>
-      <c r="M53" s="240">
+      <c r="M53" s="239">
         <v>1</v>
       </c>
-      <c r="N53" s="240">
+      <c r="N53" s="239">
         <v>1</v>
       </c>
-      <c r="O53" s="240">
-        <v>0</v>
-      </c>
-      <c r="P53" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="246">
+      <c r="O53" s="239">
+        <v>0</v>
+      </c>
+      <c r="P53" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="245">
         <v>1</v>
       </c>
       <c r="R53" s="123">
@@ -11515,7 +11530,7 @@
       <c r="D54" s="3">
         <v>43086</v>
       </c>
-      <c r="E54" s="245">
+      <c r="E54" s="244">
         <f t="shared" si="4"/>
         <v>355.334167313916</v>
       </c>
@@ -11540,19 +11555,19 @@
         <v>36</v>
       </c>
       <c r="L54" s="136"/>
-      <c r="M54" s="240">
-        <v>0</v>
-      </c>
-      <c r="N54" s="240">
-        <v>0</v>
-      </c>
-      <c r="O54" s="240">
-        <v>0</v>
-      </c>
-      <c r="P54" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="246">
+      <c r="M54" s="239">
+        <v>0</v>
+      </c>
+      <c r="N54" s="239">
+        <v>0</v>
+      </c>
+      <c r="O54" s="239">
+        <v>0</v>
+      </c>
+      <c r="P54" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="245">
         <v>0</v>
       </c>
       <c r="R54" s="123">
@@ -11571,7 +11586,7 @@
       <c r="D55" s="3">
         <v>43093</v>
       </c>
-      <c r="E55" s="245">
+      <c r="E55" s="244">
         <f t="shared" si="4"/>
         <v>369.54753400647263</v>
       </c>
@@ -11596,34 +11611,34 @@
         <v>33.974999999999994</v>
       </c>
       <c r="L55" s="136"/>
-      <c r="M55" s="240">
-        <v>0</v>
-      </c>
-      <c r="N55" s="240">
-        <v>0</v>
-      </c>
-      <c r="O55" s="240">
-        <v>0</v>
-      </c>
-      <c r="P55" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="246">
+      <c r="M55" s="239">
+        <v>0</v>
+      </c>
+      <c r="N55" s="239">
+        <v>0</v>
+      </c>
+      <c r="O55" s="239">
+        <v>0</v>
+      </c>
+      <c r="P55" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="245">
         <v>0</v>
       </c>
       <c r="R55" s="123">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="270" t="s">
+      <c r="X55" s="263" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="270"/>
-      <c r="Z55" s="270"/>
-      <c r="AA55" s="270"/>
-      <c r="AB55" s="270"/>
-      <c r="AC55" s="270"/>
-      <c r="AD55" s="270"/>
+      <c r="Y55" s="263"/>
+      <c r="Z55" s="263"/>
+      <c r="AA55" s="263"/>
+      <c r="AB55" s="263"/>
+      <c r="AC55" s="263"/>
+      <c r="AD55" s="263"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="269"/>
@@ -11636,7 +11651,7 @@
       <c r="D56" s="4">
         <v>43100</v>
       </c>
-      <c r="E56" s="247">
+      <c r="E56" s="246">
         <f t="shared" si="4"/>
         <v>384.32943536673156</v>
       </c>
@@ -11649,7 +11664,7 @@
         <v>73.42668567257823</v>
       </c>
       <c r="H56" s="141"/>
-      <c r="I56" s="254">
+      <c r="I56" s="253">
         <v>27</v>
       </c>
       <c r="J56" s="143">
@@ -11673,23 +11688,23 @@
       <c r="P56" s="141">
         <v>0</v>
       </c>
-      <c r="Q56" s="248">
+      <c r="Q56" s="247">
         <v>0</v>
       </c>
       <c r="R56" s="145">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="270"/>
-      <c r="Y56" s="270"/>
-      <c r="Z56" s="270"/>
-      <c r="AA56" s="270"/>
-      <c r="AB56" s="270"/>
-      <c r="AC56" s="270"/>
-      <c r="AD56" s="270"/>
+      <c r="X56" s="263"/>
+      <c r="Y56" s="263"/>
+      <c r="Z56" s="263"/>
+      <c r="AA56" s="263"/>
+      <c r="AB56" s="263"/>
+      <c r="AC56" s="263"/>
+      <c r="AD56" s="263"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="262" t="s">
+      <c r="A57" s="264" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="127">
@@ -11701,7 +11716,7 @@
       <c r="D57" s="2">
         <v>43107</v>
       </c>
-      <c r="E57" s="243">
+      <c r="E57" s="242">
         <f t="shared" si="4"/>
         <v>399.70261278140083</v>
       </c>
@@ -11714,7 +11729,7 @@
         <v>75.629486242755576</v>
       </c>
       <c r="H57" s="132"/>
-      <c r="I57" s="253">
+      <c r="I57" s="252">
         <v>27</v>
       </c>
       <c r="J57" s="134">
@@ -11745,16 +11760,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="270"/>
-      <c r="Y57" s="270"/>
-      <c r="Z57" s="270"/>
-      <c r="AA57" s="270"/>
-      <c r="AB57" s="270"/>
-      <c r="AC57" s="270"/>
-      <c r="AD57" s="270"/>
+      <c r="X57" s="263"/>
+      <c r="Y57" s="263"/>
+      <c r="Z57" s="263"/>
+      <c r="AA57" s="263"/>
+      <c r="AB57" s="263"/>
+      <c r="AC57" s="263"/>
+      <c r="AD57" s="263"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="263"/>
+      <c r="A58" s="265"/>
       <c r="B58" s="125">
         <v>2</v>
       </c>
@@ -11764,7 +11779,7 @@
       <c r="D58" s="3">
         <v>43114</v>
       </c>
-      <c r="E58" s="245">
+      <c r="E58" s="244">
         <f t="shared" si="4"/>
         <v>415.69071729265687</v>
       </c>
@@ -11789,19 +11804,19 @@
         <v>28.175000000000001</v>
       </c>
       <c r="L58" s="136"/>
-      <c r="M58" s="240">
-        <v>0</v>
-      </c>
-      <c r="N58" s="240">
-        <v>0</v>
-      </c>
-      <c r="O58" s="240">
-        <v>0</v>
-      </c>
-      <c r="P58" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="240">
+      <c r="M58" s="239">
+        <v>0</v>
+      </c>
+      <c r="N58" s="239">
+        <v>0</v>
+      </c>
+      <c r="O58" s="239">
+        <v>0</v>
+      </c>
+      <c r="P58" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="239">
         <v>0</v>
       </c>
       <c r="R58" s="123">
@@ -11813,7 +11828,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="263"/>
+      <c r="A59" s="265"/>
       <c r="B59" s="125">
         <v>3</v>
       </c>
@@ -11823,7 +11838,7 @@
       <c r="D59" s="3">
         <v>43121</v>
       </c>
-      <c r="E59" s="245">
+      <c r="E59" s="244">
         <f t="shared" si="4"/>
         <v>432.31834598436313</v>
       </c>
@@ -11848,19 +11863,19 @@
         <v>27</v>
       </c>
       <c r="L59" s="136"/>
-      <c r="M59" s="240">
-        <v>0</v>
-      </c>
-      <c r="N59" s="240">
+      <c r="M59" s="239">
+        <v>0</v>
+      </c>
+      <c r="N59" s="239">
         <v>1</v>
       </c>
-      <c r="O59" s="240">
+      <c r="O59" s="239">
         <v>1</v>
       </c>
-      <c r="P59" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="240">
+      <c r="P59" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="239">
         <v>0</v>
       </c>
       <c r="R59" s="123">
@@ -11872,7 +11887,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="264"/>
+      <c r="A60" s="266"/>
       <c r="B60" s="128">
         <v>4</v>
       </c>
@@ -11882,7 +11897,7 @@
       <c r="D60" s="4">
         <v>43128</v>
       </c>
-      <c r="E60" s="247">
+      <c r="E60" s="246">
         <f t="shared" si="4"/>
         <v>449.61107982373767</v>
       </c>
@@ -11928,7 +11943,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="262" t="s">
+      <c r="A61" s="264" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="127">
@@ -11940,7 +11955,7 @@
       <c r="D61" s="2">
         <v>43135</v>
       </c>
-      <c r="E61" s="243">
+      <c r="E61" s="242">
         <f t="shared" si="4"/>
         <v>467.5955230166872</v>
       </c>
@@ -11977,7 +11992,7 @@
       <c r="P61" s="132">
         <v>0</v>
       </c>
-      <c r="Q61" s="244">
+      <c r="Q61" s="243">
         <v>0</v>
       </c>
       <c r="R61" s="123">
@@ -11986,7 +12001,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="263"/>
+      <c r="A62" s="265"/>
       <c r="B62" s="125">
         <v>6</v>
       </c>
@@ -11996,7 +12011,7 @@
       <c r="D62" s="3">
         <v>43142</v>
       </c>
-      <c r="E62" s="245">
+      <c r="E62" s="244">
         <f t="shared" si="4"/>
         <v>486.29934393735471</v>
       </c>
@@ -12033,7 +12048,7 @@
       <c r="P62" s="137">
         <v>0</v>
       </c>
-      <c r="Q62" s="249">
+      <c r="Q62" s="248">
         <v>0</v>
       </c>
       <c r="R62" s="123">
@@ -12045,7 +12060,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="263"/>
+      <c r="A63" s="265"/>
       <c r="B63" s="125">
         <v>7</v>
       </c>
@@ -12055,7 +12070,7 @@
       <c r="D63" s="3">
         <v>43149</v>
       </c>
-      <c r="E63" s="245">
+      <c r="E63" s="244">
         <f t="shared" si="4"/>
         <v>505.75131769484892</v>
       </c>
@@ -12092,7 +12107,7 @@
       <c r="P63" s="137">
         <v>0</v>
       </c>
-      <c r="Q63" s="249">
+      <c r="Q63" s="248">
         <v>0</v>
       </c>
       <c r="R63" s="123">
@@ -12104,7 +12119,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="264"/>
+      <c r="A64" s="266"/>
       <c r="B64" s="128">
         <v>8</v>
       </c>
@@ -12114,7 +12129,7 @@
       <c r="D64" s="4">
         <v>43156</v>
       </c>
-      <c r="E64" s="247">
+      <c r="E64" s="246">
         <f t="shared" si="4"/>
         <v>525.98137040264294</v>
       </c>
@@ -12151,7 +12166,7 @@
       <c r="P64" s="141">
         <v>0</v>
       </c>
-      <c r="Q64" s="248">
+      <c r="Q64" s="247">
         <v>0</v>
       </c>
       <c r="R64" s="145">
@@ -12162,8 +12177,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="262" t="s">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="264" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="127">
@@ -12175,7 +12190,7 @@
       <c r="D65" s="2">
         <v>43163</v>
       </c>
-      <c r="E65" s="243">
+      <c r="E65" s="242">
         <f t="shared" si="4"/>
         <v>547.02062521874871</v>
       </c>
@@ -12212,7 +12227,7 @@
       <c r="P65" s="132">
         <v>0</v>
       </c>
-      <c r="Q65" s="244">
+      <c r="Q65" s="243">
         <v>0</v>
       </c>
       <c r="R65" s="122">
@@ -12223,8 +12238,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="263"/>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="265"/>
       <c r="B66" s="125">
         <v>10</v>
       </c>
@@ -12234,7 +12249,7 @@
       <c r="D66" s="3">
         <v>43170</v>
       </c>
-      <c r="E66" s="245">
+      <c r="E66" s="244">
         <f t="shared" si="4"/>
         <v>568.90145022749869</v>
       </c>
@@ -12282,8 +12297,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="263"/>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="265"/>
       <c r="B67" s="125">
         <v>11</v>
       </c>
@@ -12293,7 +12308,7 @@
       <c r="D67" s="3">
         <v>43177</v>
       </c>
-      <c r="E67" s="245">
+      <c r="E67" s="244">
         <f t="shared" si="4"/>
         <v>591.65750823659869</v>
       </c>
@@ -12341,8 +12356,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="264"/>
+    <row r="68" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="266"/>
       <c r="B68" s="128">
         <v>12</v>
       </c>
@@ -12352,7 +12367,7 @@
       <c r="D68" s="4">
         <v>43184</v>
       </c>
-      <c r="E68" s="247">
+      <c r="E68" s="246">
         <f t="shared" si="4"/>
         <v>615.32380856606267</v>
       </c>
@@ -12389,7 +12404,7 @@
       <c r="P68" s="141">
         <v>0</v>
       </c>
-      <c r="Q68" s="248">
+      <c r="Q68" s="247">
         <v>0</v>
       </c>
       <c r="R68" s="145">
@@ -12400,8 +12415,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="263" t="s">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A69" s="265" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="126">
@@ -12448,7 +12463,7 @@
       <c r="P69" s="137">
         <v>0</v>
       </c>
-      <c r="Q69" s="249">
+      <c r="Q69" s="248">
         <v>0</v>
       </c>
       <c r="R69" s="123">
@@ -12459,8 +12474,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="263"/>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="265"/>
       <c r="B70" s="125">
         <v>14</v>
       </c>
@@ -12505,7 +12520,7 @@
       <c r="P70" s="137">
         <v>0</v>
       </c>
-      <c r="Q70" s="249">
+      <c r="Q70" s="248">
         <v>0</v>
       </c>
       <c r="R70" s="123">
@@ -12516,8 +12531,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="263"/>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="265"/>
       <c r="B71" s="125">
         <v>15</v>
       </c>
@@ -12562,7 +12577,7 @@
       <c r="P71" s="137">
         <v>0</v>
       </c>
-      <c r="Q71" s="249">
+      <c r="Q71" s="248">
         <v>0</v>
       </c>
       <c r="R71" s="123">
@@ -12570,8 +12585,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="263"/>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A72" s="265"/>
       <c r="B72" s="125">
         <v>16</v>
       </c>
@@ -12616,7 +12631,7 @@
       <c r="P72" s="137">
         <v>0</v>
       </c>
-      <c r="Q72" s="249">
+      <c r="Q72" s="248">
         <v>0</v>
       </c>
       <c r="R72" s="123">
@@ -12627,8 +12642,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="263"/>
+    <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="265"/>
       <c r="B73" s="129">
         <v>17</v>
       </c>
@@ -12673,7 +12688,7 @@
       <c r="P73" s="137">
         <v>0</v>
       </c>
-      <c r="Q73" s="249">
+      <c r="Q73" s="248">
         <v>0</v>
       </c>
       <c r="R73" s="123">
@@ -12684,8 +12699,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="262" t="s">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A74" s="264" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="127">
@@ -12742,8 +12757,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="263"/>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A75" s="265"/>
       <c r="B75" s="125">
         <v>19</v>
       </c>
@@ -12801,8 +12816,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="263"/>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A76" s="265"/>
       <c r="B76" s="125">
         <v>20</v>
       </c>
@@ -12837,17 +12852,27 @@
         <v>34.85</v>
       </c>
       <c r="L76" s="136"/>
-      <c r="M76" s="136"/>
-      <c r="N76" s="136"/>
-      <c r="O76" s="136"/>
-      <c r="P76" s="136"/>
-      <c r="Q76" s="136"/>
+      <c r="M76" s="137">
+        <v>0</v>
+      </c>
+      <c r="N76" s="137">
+        <v>0</v>
+      </c>
+      <c r="O76" s="137">
+        <v>0</v>
+      </c>
+      <c r="P76" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="137">
+        <v>0</v>
+      </c>
       <c r="W76" s="119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="264"/>
+    <row r="77" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="266"/>
       <c r="B77" s="128">
         <v>21</v>
       </c>
@@ -12870,28 +12895,40 @@
         <v>136.59526477531676</v>
       </c>
       <c r="H77" s="141"/>
-      <c r="I77" s="141"/>
+      <c r="I77" s="141">
+        <v>39.9</v>
+      </c>
       <c r="J77" s="143">
         <f t="shared" si="15"/>
-        <v>-0.72</v>
+        <v>7.7999999999999972E-2</v>
       </c>
       <c r="K77" s="203">
         <f t="shared" si="9"/>
-        <v>26.9</v>
+        <v>36.875</v>
       </c>
       <c r="L77" s="141"/>
-      <c r="M77" s="141"/>
-      <c r="N77" s="141"/>
-      <c r="O77" s="141"/>
-      <c r="P77" s="141"/>
-      <c r="Q77" s="141"/>
+      <c r="M77" s="141">
+        <v>0</v>
+      </c>
+      <c r="N77" s="141">
+        <v>0</v>
+      </c>
+      <c r="O77" s="141">
+        <v>0</v>
+      </c>
+      <c r="P77" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="141">
+        <v>0</v>
+      </c>
       <c r="R77" s="145"/>
       <c r="W77" s="119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="263" t="s">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A78" s="265" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="126">
@@ -12915,17 +12952,35 @@
         <f t="shared" si="18"/>
         <v>140.69312271857626</v>
       </c>
+      <c r="I78" s="161">
+        <v>40.9</v>
+      </c>
       <c r="J78" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K78" s="202">
         <f t="shared" si="9"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="263"/>
+        <v>38.1</v>
+      </c>
+      <c r="M78" s="137">
+        <v>0</v>
+      </c>
+      <c r="N78" s="137">
+        <v>0</v>
+      </c>
+      <c r="O78" s="137">
+        <v>0</v>
+      </c>
+      <c r="P78" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A79" s="265"/>
       <c r="B79" s="125">
         <v>23</v>
       </c>
@@ -12949,15 +13004,15 @@
       </c>
       <c r="J79" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-0.81799999999999995</v>
       </c>
       <c r="K79" s="202">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="263"/>
+        <v>29.200000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A80" s="265"/>
       <c r="B80" s="125">
         <v>24</v>
       </c>
@@ -12985,11 +13040,20 @@
       </c>
       <c r="K80" s="202">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="263"/>
+        <v>20.2</v>
+      </c>
+      <c r="W80" s="263" t="s">
+        <v>250</v>
+      </c>
+      <c r="X80" s="263"/>
+      <c r="Y80" s="263"/>
+      <c r="Z80" s="263"/>
+      <c r="AA80" s="263"/>
+      <c r="AB80" s="263"/>
+      <c r="AC80" s="263"/>
+    </row>
+    <row r="81" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="265"/>
       <c r="B81" s="129">
         <v>25</v>
       </c>
@@ -13017,11 +13081,18 @@
       </c>
       <c r="K81" s="203">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="262" t="s">
+        <v>10.225</v>
+      </c>
+      <c r="W81" s="263"/>
+      <c r="X81" s="263"/>
+      <c r="Y81" s="263"/>
+      <c r="Z81" s="263"/>
+      <c r="AA81" s="263"/>
+      <c r="AB81" s="263"/>
+      <c r="AC81" s="263"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A82" s="264" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="127">
@@ -13062,9 +13133,16 @@
       <c r="P82" s="132"/>
       <c r="Q82" s="132"/>
       <c r="R82" s="122"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="263"/>
+      <c r="W82" s="263"/>
+      <c r="X82" s="263"/>
+      <c r="Y82" s="263"/>
+      <c r="Z82" s="263"/>
+      <c r="AA82" s="263"/>
+      <c r="AB82" s="263"/>
+      <c r="AC82" s="263"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A83" s="265"/>
       <c r="B83" s="125">
         <v>27</v>
       </c>
@@ -13103,8 +13181,8 @@
       <c r="P83" s="136"/>
       <c r="Q83" s="136"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="263"/>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A84" s="265"/>
       <c r="B84" s="125">
         <v>28</v>
       </c>
@@ -13143,8 +13221,8 @@
       <c r="P84" s="136"/>
       <c r="Q84" s="136"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="263"/>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A85" s="265"/>
       <c r="B85" s="125">
         <v>29</v>
       </c>
@@ -13183,8 +13261,8 @@
       <c r="P85" s="136"/>
       <c r="Q85" s="136"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="264"/>
+    <row r="86" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="266"/>
       <c r="B86" s="128">
         <v>30</v>
       </c>
@@ -13224,8 +13302,8 @@
       <c r="Q86" s="141"/>
       <c r="R86" s="145"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="263" t="s">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A87" s="265" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="126">
@@ -13258,8 +13336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="263"/>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A88" s="265"/>
       <c r="B88" s="125">
         <v>32</v>
       </c>
@@ -13290,8 +13368,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="263"/>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A89" s="265"/>
       <c r="B89" s="125">
         <v>33</v>
       </c>
@@ -13322,8 +13400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="263"/>
+    <row r="90" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="265"/>
       <c r="B90" s="129">
         <v>34</v>
       </c>
@@ -13354,8 +13432,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="262" t="s">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A91" s="264" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="127">
@@ -13397,8 +13475,8 @@
       <c r="Q91" s="132"/>
       <c r="R91" s="122"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="263"/>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A92" s="265"/>
       <c r="B92" s="125">
         <v>36</v>
       </c>
@@ -13437,8 +13515,8 @@
       <c r="P92" s="136"/>
       <c r="Q92" s="136"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="263"/>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A93" s="265"/>
       <c r="B93" s="125">
         <v>37</v>
       </c>
@@ -13477,8 +13555,8 @@
       <c r="P93" s="136"/>
       <c r="Q93" s="136"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="263"/>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A94" s="265"/>
       <c r="B94" s="125">
         <v>38</v>
       </c>
@@ -13517,8 +13595,8 @@
       <c r="P94" s="136"/>
       <c r="Q94" s="136"/>
     </row>
-    <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="264"/>
+    <row r="95" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="266"/>
       <c r="B95" s="128">
         <v>39</v>
       </c>
@@ -13558,8 +13636,8 @@
       <c r="Q95" s="141"/>
       <c r="R95" s="145"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="263" t="s">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A96" s="265" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="126">
@@ -13593,7 +13671,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="263"/>
+      <c r="A97" s="265"/>
       <c r="B97" s="125">
         <v>41</v>
       </c>
@@ -13625,7 +13703,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="263"/>
+      <c r="A98" s="265"/>
       <c r="B98" s="125">
         <v>42</v>
       </c>
@@ -13657,7 +13735,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="263"/>
+      <c r="A99" s="265"/>
       <c r="B99" s="129">
         <v>43</v>
       </c>
@@ -13689,7 +13767,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="262" t="s">
+      <c r="A100" s="264" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="127">
@@ -13732,7 +13810,7 @@
       <c r="R100" s="122"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="263"/>
+      <c r="A101" s="265"/>
       <c r="B101" s="125">
         <v>45</v>
       </c>
@@ -13772,7 +13850,7 @@
       <c r="Q101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="263"/>
+      <c r="A102" s="265"/>
       <c r="B102" s="125">
         <v>46</v>
       </c>
@@ -13812,7 +13890,7 @@
       <c r="Q102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="264"/>
+      <c r="A103" s="266"/>
       <c r="B103" s="128">
         <v>47</v>
       </c>
@@ -13853,7 +13931,7 @@
       <c r="R103" s="145"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="262" t="s">
+      <c r="A104" s="264" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="127">
@@ -13896,7 +13974,7 @@
       <c r="R104" s="122"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="263"/>
+      <c r="A105" s="265"/>
       <c r="B105" s="125">
         <v>49</v>
       </c>
@@ -13936,7 +14014,7 @@
       <c r="Q105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="263"/>
+      <c r="A106" s="265"/>
       <c r="B106" s="125">
         <v>50</v>
       </c>
@@ -13976,7 +14054,7 @@
       <c r="Q106" s="136"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="263"/>
+      <c r="A107" s="265"/>
       <c r="B107" s="125">
         <v>51</v>
       </c>
@@ -14016,7 +14094,7 @@
       <c r="Q107" s="136"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="264"/>
+      <c r="A108" s="266"/>
       <c r="B108" s="128">
         <v>52</v>
       </c>
@@ -15765,26 +15843,7 @@
       <c r="R212" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="X55:AD57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
+  <mergeCells count="27">
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="A104:A108"/>
     <mergeCell ref="A78:A81"/>
@@ -15792,6 +15851,26 @@
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A95"/>
     <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="W80:AC82"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="X55:AD57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="8" priority="4">
@@ -15823,9 +15902,9 @@
   </sheetPr>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -15864,41 +15943,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="273"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="274"/>
       <c r="J1" s="192"/>
-      <c r="K1" s="271" t="s">
+      <c r="K1" s="272" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="274"/>
       <c r="T1" s="205"/>
-      <c r="U1" s="271" t="s">
+      <c r="U1" s="272" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="274"/>
       <c r="AD1" s="205"/>
     </row>
     <row r="2" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -17227,7 +17306,7 @@
       <c r="D20" s="113">
         <v>43018</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="107" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="116">
@@ -17324,7 +17403,7 @@
       <c r="D21" s="75">
         <v>43021</v>
       </c>
-      <c r="E21" s="223" t="s">
+      <c r="E21" s="262" t="s">
         <v>197</v>
       </c>
       <c r="F21" s="52">
@@ -17421,7 +17500,7 @@
       <c r="D22" s="113">
         <v>43027</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="107" t="s">
         <v>171</v>
       </c>
       <c r="F22" s="116">
@@ -17601,7 +17680,7 @@
       <c r="O24" s="56"/>
       <c r="P24" s="67"/>
       <c r="Q24" s="57"/>
-      <c r="R24" s="237">
+      <c r="R24" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -17676,7 +17755,7 @@
       <c r="O25" s="56"/>
       <c r="P25" s="67"/>
       <c r="Q25" s="57"/>
-      <c r="R25" s="237">
+      <c r="R25" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -17761,7 +17840,7 @@
       <c r="O26" s="56"/>
       <c r="P26" s="67"/>
       <c r="Q26" s="57"/>
-      <c r="R26" s="237">
+      <c r="R26" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -17818,7 +17897,9 @@
       <c r="D27" s="75">
         <v>43066</v>
       </c>
-      <c r="E27" s="52"/>
+      <c r="E27" s="107" t="s">
+        <v>248</v>
+      </c>
       <c r="F27" s="52">
         <v>111.938</v>
       </c>
@@ -17846,7 +17927,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="67"/>
       <c r="Q27" s="57"/>
-      <c r="R27" s="237">
+      <c r="R27" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -17893,7 +17974,9 @@
       <c r="D28" s="75">
         <v>43070</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="107" t="s">
+        <v>248</v>
+      </c>
       <c r="F28" s="52">
         <v>112.764</v>
       </c>
@@ -17921,7 +18004,7 @@
       <c r="O28" s="56"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="57"/>
-      <c r="R28" s="237">
+      <c r="R28" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -17996,7 +18079,7 @@
       <c r="O29" s="56"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="57"/>
-      <c r="R29" s="237">
+      <c r="R29" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18071,7 +18154,7 @@
       <c r="O30" s="56"/>
       <c r="P30" s="67"/>
       <c r="Q30" s="57"/>
-      <c r="R30" s="237">
+      <c r="R30" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18148,7 +18231,7 @@
       <c r="Q31" s="75">
         <v>43042</v>
       </c>
-      <c r="R31" s="238">
+      <c r="R31" s="237">
         <f t="shared" si="11"/>
         <v>-2.8499999999999082E-3</v>
       </c>
@@ -18226,14 +18309,16 @@
       <c r="N32" s="75">
         <v>43059</v>
       </c>
-      <c r="O32" s="52"/>
+      <c r="O32" s="107" t="s">
+        <v>249</v>
+      </c>
       <c r="P32" s="53">
         <v>0.76236999999999999</v>
       </c>
       <c r="Q32" s="75">
         <v>43064</v>
       </c>
-      <c r="R32" s="238">
+      <c r="R32" s="237">
         <f t="shared" si="11"/>
         <v>-7.3999999999999622E-3</v>
       </c>
@@ -18298,7 +18383,7 @@
       <c r="O33" s="56"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="57"/>
-      <c r="R33" s="237">
+      <c r="R33" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18363,7 +18448,7 @@
       <c r="O34" s="56"/>
       <c r="P34" s="67"/>
       <c r="Q34" s="57"/>
-      <c r="R34" s="237">
+      <c r="R34" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18428,7 +18513,7 @@
       <c r="O35" s="56"/>
       <c r="P35" s="67"/>
       <c r="Q35" s="57"/>
-      <c r="R35" s="237">
+      <c r="R35" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18493,7 +18578,7 @@
       <c r="O36" s="56"/>
       <c r="P36" s="67"/>
       <c r="Q36" s="57"/>
-      <c r="R36" s="237">
+      <c r="R36" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18558,7 +18643,7 @@
       <c r="O37" s="56"/>
       <c r="P37" s="67"/>
       <c r="Q37" s="57"/>
-      <c r="R37" s="237">
+      <c r="R37" s="236">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18623,7 +18708,7 @@
       <c r="O38" s="56"/>
       <c r="P38" s="67"/>
       <c r="Q38" s="57"/>
-      <c r="R38" s="237">
+      <c r="R38" s="236">
         <f t="shared" ref="R38:R43" si="17">IF(L38="卖",M38-P38,P38-M38)*T38</f>
         <v>0</v>
       </c>
@@ -18688,7 +18773,7 @@
       <c r="O39" s="56"/>
       <c r="P39" s="67"/>
       <c r="Q39" s="57"/>
-      <c r="R39" s="237">
+      <c r="R39" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -18753,7 +18838,7 @@
       <c r="O40" s="56"/>
       <c r="P40" s="67"/>
       <c r="Q40" s="57"/>
-      <c r="R40" s="237">
+      <c r="R40" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -18818,7 +18903,7 @@
       <c r="O41" s="56"/>
       <c r="P41" s="67"/>
       <c r="Q41" s="57"/>
-      <c r="R41" s="237">
+      <c r="R41" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -18883,7 +18968,7 @@
       <c r="O42" s="56"/>
       <c r="P42" s="67"/>
       <c r="Q42" s="57"/>
-      <c r="R42" s="237">
+      <c r="R42" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -18948,7 +19033,7 @@
       <c r="O43" s="56"/>
       <c r="P43" s="67"/>
       <c r="Q43" s="57"/>
-      <c r="R43" s="237">
+      <c r="R43" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -19035,25 +19120,25 @@
       <c r="K45" s="39"/>
       <c r="L45" s="43"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="274" t="str">
+      <c r="N45" s="275" t="str">
         <f>O48</f>
         <v>下</v>
       </c>
-      <c r="O45" s="274"/>
-      <c r="P45" s="274"/>
-      <c r="Q45" s="274"/>
+      <c r="O45" s="275"/>
+      <c r="P45" s="275"/>
+      <c r="Q45" s="275"/>
       <c r="R45" s="41"/>
       <c r="T45" s="184"/>
       <c r="U45" s="39"/>
       <c r="V45" s="43"/>
       <c r="W45" s="40"/>
-      <c r="X45" s="274" t="str">
+      <c r="X45" s="275" t="str">
         <f>Y48</f>
         <v>波动</v>
       </c>
-      <c r="Y45" s="274"/>
-      <c r="Z45" s="274"/>
-      <c r="AA45" s="274"/>
+      <c r="Y45" s="275"/>
+      <c r="Z45" s="275"/>
+      <c r="AA45" s="275"/>
       <c r="AB45" s="41"/>
       <c r="AD45" s="184"/>
     </row>
@@ -19061,13 +19146,13 @@
       <c r="A46" s="39"/>
       <c r="B46" s="43"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="274" t="str">
+      <c r="D46" s="275" t="str">
         <f>E49</f>
         <v>波动</v>
       </c>
-      <c r="E46" s="274"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="274"/>
+      <c r="E46" s="275"/>
+      <c r="F46" s="275"/>
+      <c r="G46" s="275"/>
       <c r="H46" s="41"/>
       <c r="J46" s="195"/>
       <c r="K46" s="39"/>
@@ -19102,23 +19187,23 @@
       <c r="K47" s="39"/>
       <c r="L47" s="43"/>
       <c r="M47" s="40"/>
-      <c r="N47" s="275" t="s">
+      <c r="N47" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="O47" s="276"/>
-      <c r="P47" s="231"/>
-      <c r="Q47" s="232"/>
+      <c r="O47" s="277"/>
+      <c r="P47" s="230"/>
+      <c r="Q47" s="231"/>
       <c r="R47" s="41"/>
       <c r="T47" s="184"/>
       <c r="U47" s="39"/>
       <c r="V47" s="43"/>
       <c r="W47" s="40"/>
-      <c r="X47" s="275" t="s">
+      <c r="X47" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="Y47" s="276"/>
-      <c r="Z47" s="231"/>
-      <c r="AA47" s="232"/>
+      <c r="Y47" s="277"/>
+      <c r="Z47" s="230"/>
+      <c r="AA47" s="231"/>
       <c r="AB47" s="41"/>
       <c r="AD47" s="184"/>
     </row>
@@ -19126,38 +19211,38 @@
       <c r="A48" s="39"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="275" t="s">
+      <c r="D48" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="276"/>
-      <c r="F48" s="231"/>
-      <c r="G48" s="232"/>
+      <c r="E48" s="277"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="231"/>
       <c r="H48" s="41"/>
       <c r="J48" s="195"/>
       <c r="K48" s="39"/>
       <c r="L48" s="43"/>
       <c r="M48" s="40"/>
-      <c r="N48" s="233" t="s">
+      <c r="N48" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="234" t="s">
+      <c r="O48" s="233" t="s">
         <v>207</v>
       </c>
-      <c r="P48" s="231"/>
-      <c r="Q48" s="232"/>
+      <c r="P48" s="230"/>
+      <c r="Q48" s="231"/>
       <c r="R48" s="41"/>
       <c r="T48" s="184"/>
       <c r="U48" s="39"/>
       <c r="V48" s="43"/>
       <c r="W48" s="40"/>
-      <c r="X48" s="233" t="s">
+      <c r="X48" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="Y48" s="234" t="s">
+      <c r="Y48" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="Z48" s="231"/>
-      <c r="AA48" s="232"/>
+      <c r="Z48" s="230"/>
+      <c r="AA48" s="231"/>
       <c r="AB48" s="41"/>
       <c r="AD48" s="184"/>
     </row>
@@ -19165,27 +19250,27 @@
       <c r="A49" s="39"/>
       <c r="B49" s="43"/>
       <c r="C49" s="40"/>
-      <c r="D49" s="233" t="s">
+      <c r="D49" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="234" t="s">
+      <c r="E49" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="231"/>
-      <c r="G49" s="232"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="231"/>
       <c r="H49" s="41"/>
       <c r="J49" s="195"/>
       <c r="K49" s="39"/>
       <c r="L49" s="43"/>
       <c r="M49" s="40"/>
-      <c r="N49" s="235" t="s">
+      <c r="N49" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="O49" s="236" t="s">
+      <c r="O49" s="235" t="s">
         <v>207</v>
       </c>
-      <c r="P49" s="231"/>
-      <c r="Q49" s="230" t="b">
+      <c r="P49" s="230"/>
+      <c r="Q49" s="229" t="b">
         <f>O48=O49</f>
         <v>1</v>
       </c>
@@ -19194,12 +19279,12 @@
       <c r="U49" s="39"/>
       <c r="V49" s="43"/>
       <c r="W49" s="40"/>
-      <c r="X49" s="235" t="s">
+      <c r="X49" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="Y49" s="236"/>
-      <c r="Z49" s="231"/>
-      <c r="AA49" s="230" t="b">
+      <c r="Y49" s="235"/>
+      <c r="Z49" s="230"/>
+      <c r="AA49" s="229" t="b">
         <f>Y48=Y49</f>
         <v>0</v>
       </c>
@@ -19210,12 +19295,12 @@
       <c r="A50" s="39"/>
       <c r="B50" s="43"/>
       <c r="C50" s="40"/>
-      <c r="D50" s="235" t="s">
+      <c r="D50" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="236"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="230" t="b">
+      <c r="E50" s="235"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="229" t="b">
         <f>E49=E50</f>
         <v>0</v>
       </c>
@@ -19666,11 +19751,11 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -19680,7 +19765,7 @@
     <col min="3" max="3" width="8.33203125" style="40" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="40" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9" style="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="41" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" style="42" customWidth="1"/>
@@ -19700,29 +19785,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="272" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="273"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="274"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="271" t="s">
+      <c r="K1" s="272" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="274"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -19841,7 +19926,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="176">
-        <f t="shared" ref="A4:A54" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A56" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -19869,7 +19954,7 @@
         <v>亏</v>
       </c>
       <c r="K4" s="196">
-        <f t="shared" ref="K4:K54" si="2">ROW()-2</f>
+        <f t="shared" ref="K4:K56" si="2">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="L4" s="51" t="s">
@@ -21237,31 +21322,31 @@
       <c r="J31" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="196">
+      <c r="K31" s="261">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="L31" s="111" t="s">
+      <c r="L31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="M31" s="112">
+      <c r="M31" s="53">
         <v>1.15872</v>
       </c>
-      <c r="N31" s="113">
+      <c r="N31" s="75">
         <v>43036</v>
       </c>
-      <c r="O31" s="114"/>
-      <c r="P31" s="112">
+      <c r="O31" s="99"/>
+      <c r="P31" s="53">
         <v>1.1843600000000001</v>
       </c>
-      <c r="Q31" s="113">
+      <c r="Q31" s="75">
         <v>43063</v>
       </c>
-      <c r="R31" s="112">
+      <c r="R31" s="53">
         <f t="shared" si="17"/>
         <v>-2.5640000000000107E-2</v>
       </c>
-      <c r="S31" s="115" t="str">
+      <c r="S31" s="49" t="str">
         <f t="shared" si="26"/>
         <v>亏</v>
       </c>
@@ -21329,7 +21414,7 @@
       <c r="J33" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="196">
+      <c r="K33" s="261">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -21364,7 +21449,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="176">
+      <c r="A34" s="180">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -21395,7 +21480,7 @@
       <c r="J34" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="196">
+      <c r="K34" s="261">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -21426,16 +21511,16 @@
       <c r="T34" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="U34" s="226">
+      <c r="U34" s="225">
         <v>43053</v>
       </c>
-      <c r="V34" s="224" t="s">
+      <c r="V34" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="W34" s="224"/>
-      <c r="X34" s="224"/>
-      <c r="Y34" s="224"/>
-      <c r="Z34" s="224"/>
+      <c r="W34" s="223"/>
+      <c r="X34" s="223"/>
+      <c r="Y34" s="223"/>
+      <c r="Z34" s="223"/>
     </row>
     <row r="35" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="176">
@@ -21480,16 +21565,16 @@
       <c r="T35" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="V35" s="224" t="s">
+      <c r="V35" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="W35" s="224"/>
-      <c r="X35" s="224"/>
-      <c r="Y35" s="224"/>
-      <c r="Z35" s="224"/>
+      <c r="W35" s="223"/>
+      <c r="X35" s="223"/>
+      <c r="Y35" s="223"/>
+      <c r="Z35" s="223"/>
     </row>
     <row r="36" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="229">
+      <c r="A36" s="228">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -21520,7 +21605,7 @@
       <c r="J36" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="196">
+      <c r="K36" s="261">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -21551,16 +21636,16 @@
       <c r="T36" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="V36" s="224" t="s">
+      <c r="V36" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="W36" s="224"/>
-      <c r="X36" s="224"/>
-      <c r="Y36" s="224"/>
-      <c r="Z36" s="224"/>
+      <c r="W36" s="223"/>
+      <c r="X36" s="223"/>
+      <c r="Y36" s="223"/>
+      <c r="Z36" s="223"/>
     </row>
     <row r="37" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="229">
+      <c r="A37" s="228">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -21622,12 +21707,12 @@
       <c r="T37" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="V37" s="224" t="s">
+      <c r="V37" s="223" t="s">
         <v>201</v>
       </c>
-      <c r="W37" s="224"/>
-      <c r="X37" s="224"/>
-      <c r="Y37" s="224"/>
+      <c r="W37" s="223"/>
+      <c r="X37" s="223"/>
+      <c r="Y37" s="223"/>
     </row>
     <row r="38" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="180">
@@ -21661,7 +21746,7 @@
       <c r="J38" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="196">
+      <c r="K38" s="261">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -21694,7 +21779,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="241">
+      <c r="A39" s="240">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -21714,7 +21799,7 @@
       <c r="G39" s="94">
         <v>43086</v>
       </c>
-      <c r="H39" s="242">
+      <c r="H39" s="241">
         <f t="shared" ref="H39" si="32">IF(B39="卖",C39-F39,F39-C39)*J39</f>
         <v>9.6999999999979991E-2</v>
       </c>
@@ -21725,7 +21810,7 @@
       <c r="J39" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K39" s="261">
+      <c r="K39" s="260">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -21779,7 +21864,7 @@
       <c r="J40" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="261">
+      <c r="K40" s="260">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -21833,7 +21918,7 @@
       <c r="J41" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="261">
+      <c r="K41" s="260">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -21994,34 +22079,38 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="176">
+      <c r="A45" s="228">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="116">
         <v>130.36199999999999</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="113">
         <v>43223</v>
       </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="175">
+      <c r="E45" s="116"/>
+      <c r="F45" s="116">
+        <v>126.285</v>
+      </c>
+      <c r="G45" s="113">
+        <v>43250</v>
+      </c>
+      <c r="H45" s="221">
         <f t="shared" si="38"/>
-        <v>130.36199999999999</v>
-      </c>
-      <c r="I45" s="59" t="str">
+        <v>4.0769999999999982</v>
+      </c>
+      <c r="I45" s="115" t="str">
         <f t="shared" si="39"/>
         <v>盈</v>
       </c>
       <c r="J45" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="261">
+      <c r="K45" s="260">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -22054,28 +22143,38 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="176">
+      <c r="A46" s="228">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="175">
+      <c r="B46" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="116">
+        <v>128.09700000000001</v>
+      </c>
+      <c r="D46" s="113">
+        <v>43244</v>
+      </c>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116">
+        <v>127.286</v>
+      </c>
+      <c r="G46" s="113">
+        <v>43245</v>
+      </c>
+      <c r="H46" s="221">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="59" t="str">
+        <v>0.81100000000000705</v>
+      </c>
+      <c r="I46" s="115" t="str">
         <f t="shared" si="39"/>
         <v>盈</v>
       </c>
       <c r="J46" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="261">
+      <c r="K46" s="260">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -22129,7 +22228,7 @@
       <c r="J47" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="261">
+      <c r="K47" s="260">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -22183,7 +22282,7 @@
       <c r="J48" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K48" s="261">
+      <c r="K48" s="260">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -22237,27 +22336,31 @@
       <c r="J49" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="196">
+      <c r="K49" s="260">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L49" s="55" t="s">
+      <c r="L49" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="M49" s="67">
+      <c r="M49" s="112">
         <v>1.1732800000000001</v>
       </c>
-      <c r="N49" s="57">
+      <c r="N49" s="113">
         <v>43241</v>
       </c>
-      <c r="O49" s="104"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="67">
+      <c r="O49" s="114"/>
+      <c r="P49" s="112">
+        <v>1.1609700000000001</v>
+      </c>
+      <c r="Q49" s="113">
+        <v>43250</v>
+      </c>
+      <c r="R49" s="112">
         <f t="shared" si="27"/>
-        <v>1.1732800000000001</v>
-      </c>
-      <c r="S49" s="59" t="str">
+        <v>1.2310000000000043E-2</v>
+      </c>
+      <c r="S49" s="115" t="str">
         <f t="shared" si="43"/>
         <v>盈</v>
       </c>
@@ -22287,7 +22390,7 @@
       <c r="J50" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="293">
+      <c r="K50" s="261">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -22300,7 +22403,9 @@
       <c r="N50" s="75">
         <v>43241</v>
       </c>
-      <c r="O50" s="99"/>
+      <c r="O50" s="102" t="s">
+        <v>246</v>
+      </c>
       <c r="P50" s="53">
         <v>1.18252</v>
       </c>
@@ -22317,6 +22422,9 @@
       </c>
       <c r="T50" s="183" t="s">
         <v>107</v>
+      </c>
+      <c r="U50" s="54" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -22495,150 +22603,200 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="N55" s="73"/>
-    </row>
-    <row r="56" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
-      <c r="D56" s="274" t="str">
-        <f>E59</f>
+    <row r="55" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="176">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="175">
+        <f t="shared" ref="H55:H56" si="48">IF(B55="卖",C55-F55,F55-C55)*J55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="59" t="str">
+        <f t="shared" ref="I55:I56" si="49">IF(H55&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="J55" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="196">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L55" s="55"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="67">
+        <f t="shared" ref="R55:R56" si="50">IF(L55="卖",M55-P55,P55-M55)*T55</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="59" t="str">
+        <f t="shared" ref="S55:S56" si="51">IF(R55&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="T55" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="176">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="175">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>盈</v>
+      </c>
+      <c r="J56" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K56" s="196">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="L56" s="55"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="67">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>盈</v>
+      </c>
+      <c r="T56" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="N57" s="73"/>
+    </row>
+    <row r="58" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
+      <c r="D58" s="275" t="str">
+        <f>E61</f>
         <v>波动</v>
       </c>
-      <c r="E56" s="274"/>
-      <c r="F56" s="274"/>
-      <c r="G56" s="274"/>
-      <c r="N56" s="274" t="str">
-        <f>O59</f>
+      <c r="E58" s="275"/>
+      <c r="F58" s="275"/>
+      <c r="G58" s="275"/>
+      <c r="N58" s="275" t="str">
+        <f>O61</f>
         <v>波动</v>
       </c>
-      <c r="O56" s="274"/>
-      <c r="P56" s="274"/>
-      <c r="Q56" s="274"/>
-    </row>
-    <row r="57" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="58" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="39"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="275" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" s="276"/>
-      <c r="F58" s="231"/>
-      <c r="G58" s="232"/>
-      <c r="H58" s="41"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="275" t="s">
-        <v>206</v>
-      </c>
-      <c r="O58" s="276"/>
-      <c r="P58" s="231"/>
-      <c r="Q58" s="232"/>
-      <c r="R58" s="41"/>
-      <c r="T58" s="184"/>
-      <c r="U58" s="225"/>
-    </row>
-    <row r="59" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="39"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="233" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" s="231"/>
-      <c r="G59" s="232"/>
-      <c r="H59" s="41"/>
-      <c r="J59" s="184"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="233" t="s">
-        <v>205</v>
-      </c>
-      <c r="O59" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="P59" s="231"/>
-      <c r="Q59" s="232"/>
-      <c r="R59" s="41"/>
-      <c r="T59" s="184"/>
-      <c r="U59" s="225"/>
-    </row>
-    <row r="60" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O58" s="275"/>
+      <c r="P58" s="275"/>
+      <c r="Q58" s="275"/>
+    </row>
+    <row r="59" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="39"/>
       <c r="B60" s="43"/>
       <c r="C60" s="40"/>
-      <c r="D60" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="236"/>
-      <c r="F60" s="231"/>
-      <c r="G60" s="230" t="b">
-        <f>E59=E60</f>
-        <v>0</v>
-      </c>
+      <c r="D60" s="276" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="277"/>
+      <c r="F60" s="230"/>
+      <c r="G60" s="231"/>
       <c r="H60" s="41"/>
       <c r="J60" s="184"/>
       <c r="K60" s="39"/>
       <c r="L60" s="43"/>
       <c r="M60" s="40"/>
-      <c r="N60" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="O60" s="236"/>
-      <c r="P60" s="231"/>
-      <c r="Q60" s="230" t="b">
-        <f>O59=O60</f>
-        <v>0</v>
-      </c>
+      <c r="N60" s="276" t="s">
+        <v>206</v>
+      </c>
+      <c r="O60" s="277"/>
+      <c r="P60" s="230"/>
+      <c r="Q60" s="231"/>
       <c r="R60" s="41"/>
       <c r="T60" s="184"/>
-      <c r="U60" s="225"/>
-    </row>
-    <row r="61" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U60" s="224"/>
+    </row>
+    <row r="61" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="39"/>
       <c r="B61" s="43"/>
       <c r="C61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="54"/>
+      <c r="D61" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="230"/>
+      <c r="G61" s="231"/>
       <c r="H61" s="41"/>
       <c r="J61" s="184"/>
       <c r="K61" s="39"/>
       <c r="L61" s="43"/>
       <c r="M61" s="40"/>
-      <c r="N61" s="73"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="54"/>
+      <c r="N61" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="O61" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="P61" s="230"/>
+      <c r="Q61" s="231"/>
       <c r="R61" s="41"/>
       <c r="T61" s="184"/>
-      <c r="U61" s="225"/>
-    </row>
-    <row r="62" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U61" s="224"/>
+    </row>
+    <row r="62" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="39"/>
       <c r="B62" s="43"/>
       <c r="C62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="54"/>
+      <c r="D62" s="234" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="235"/>
+      <c r="F62" s="230"/>
+      <c r="G62" s="229" t="b">
+        <f>E61=E62</f>
+        <v>0</v>
+      </c>
       <c r="H62" s="41"/>
       <c r="J62" s="184"/>
       <c r="K62" s="39"/>
       <c r="L62" s="43"/>
       <c r="M62" s="40"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="54"/>
+      <c r="N62" s="234" t="s">
+        <v>204</v>
+      </c>
+      <c r="O62" s="235"/>
+      <c r="P62" s="230"/>
+      <c r="Q62" s="229" t="b">
+        <f>O61=O62</f>
+        <v>0</v>
+      </c>
       <c r="R62" s="41"/>
       <c r="T62" s="184"/>
-      <c r="U62" s="225"/>
+      <c r="U62" s="224"/>
     </row>
     <row r="63" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="39"/>
@@ -22657,7 +22815,7 @@
       <c r="Q63" s="54"/>
       <c r="R63" s="41"/>
       <c r="T63" s="184"/>
-      <c r="U63" s="225"/>
+      <c r="U63" s="224"/>
     </row>
     <row r="64" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="39"/>
@@ -22676,7 +22834,7 @@
       <c r="Q64" s="54"/>
       <c r="R64" s="41"/>
       <c r="T64" s="184"/>
-      <c r="U64" s="225"/>
+      <c r="U64" s="224"/>
     </row>
     <row r="65" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="39"/>
@@ -22695,7 +22853,7 @@
       <c r="Q65" s="54"/>
       <c r="R65" s="41"/>
       <c r="T65" s="184"/>
-      <c r="U65" s="225"/>
+      <c r="U65" s="224"/>
     </row>
     <row r="66" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="39"/>
@@ -22714,7 +22872,7 @@
       <c r="Q66" s="54"/>
       <c r="R66" s="41"/>
       <c r="T66" s="184"/>
-      <c r="U66" s="225"/>
+      <c r="U66" s="224"/>
     </row>
     <row r="67" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="39"/>
@@ -22733,7 +22891,7 @@
       <c r="Q67" s="54"/>
       <c r="R67" s="41"/>
       <c r="T67" s="184"/>
-      <c r="U67" s="225"/>
+      <c r="U67" s="224"/>
     </row>
     <row r="68" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="39"/>
@@ -22752,14 +22910,12 @@
       <c r="Q68" s="54"/>
       <c r="R68" s="41"/>
       <c r="T68" s="184"/>
-      <c r="U68" s="225"/>
+      <c r="U68" s="224"/>
     </row>
     <row r="69" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="39"/>
       <c r="B69" s="43"/>
       <c r="C69" s="40"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="40"/>
       <c r="F69" s="40"/>
       <c r="G69" s="54"/>
       <c r="H69" s="41"/>
@@ -22773,14 +22929,12 @@
       <c r="Q69" s="54"/>
       <c r="R69" s="41"/>
       <c r="T69" s="184"/>
-      <c r="U69" s="225"/>
+      <c r="U69" s="224"/>
     </row>
     <row r="70" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="39"/>
       <c r="B70" s="43"/>
       <c r="C70" s="40"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="40"/>
       <c r="F70" s="40"/>
       <c r="G70" s="54"/>
       <c r="H70" s="41"/>
@@ -22788,13 +22942,13 @@
       <c r="K70" s="39"/>
       <c r="L70" s="43"/>
       <c r="M70" s="40"/>
-      <c r="N70" s="54"/>
+      <c r="N70" s="73"/>
       <c r="O70" s="40"/>
       <c r="P70" s="40"/>
       <c r="Q70" s="54"/>
       <c r="R70" s="41"/>
       <c r="T70" s="184"/>
-      <c r="U70" s="225"/>
+      <c r="U70" s="224"/>
     </row>
     <row r="71" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="39"/>
@@ -22809,13 +22963,13 @@
       <c r="K71" s="39"/>
       <c r="L71" s="43"/>
       <c r="M71" s="40"/>
-      <c r="N71" s="54"/>
+      <c r="N71" s="73"/>
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
       <c r="Q71" s="54"/>
       <c r="R71" s="41"/>
       <c r="T71" s="184"/>
-      <c r="U71" s="225"/>
+      <c r="U71" s="224"/>
     </row>
     <row r="72" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="39"/>
@@ -22836,7 +22990,7 @@
       <c r="Q72" s="54"/>
       <c r="R72" s="41"/>
       <c r="T72" s="184"/>
-      <c r="U72" s="225"/>
+      <c r="U72" s="224"/>
     </row>
     <row r="73" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="39"/>
@@ -22857,7 +23011,7 @@
       <c r="Q73" s="54"/>
       <c r="R73" s="41"/>
       <c r="T73" s="184"/>
-      <c r="U73" s="225"/>
+      <c r="U73" s="224"/>
     </row>
     <row r="74" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="39"/>
@@ -22878,7 +23032,7 @@
       <c r="Q74" s="54"/>
       <c r="R74" s="41"/>
       <c r="T74" s="184"/>
-      <c r="U74" s="225"/>
+      <c r="U74" s="224"/>
     </row>
     <row r="75" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="39"/>
@@ -22899,7 +23053,7 @@
       <c r="Q75" s="54"/>
       <c r="R75" s="41"/>
       <c r="T75" s="184"/>
-      <c r="U75" s="225"/>
+      <c r="U75" s="224"/>
     </row>
     <row r="76" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="39"/>
@@ -22920,7 +23074,7 @@
       <c r="Q76" s="54"/>
       <c r="R76" s="41"/>
       <c r="T76" s="184"/>
-      <c r="U76" s="225"/>
+      <c r="U76" s="224"/>
     </row>
     <row r="77" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="39"/>
@@ -22941,7 +23095,7 @@
       <c r="Q77" s="54"/>
       <c r="R77" s="41"/>
       <c r="T77" s="184"/>
-      <c r="U77" s="225"/>
+      <c r="U77" s="224"/>
     </row>
     <row r="78" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="39"/>
@@ -22962,7 +23116,7 @@
       <c r="Q78" s="54"/>
       <c r="R78" s="41"/>
       <c r="T78" s="184"/>
-      <c r="U78" s="225"/>
+      <c r="U78" s="224"/>
     </row>
     <row r="79" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="39"/>
@@ -22983,29 +23137,71 @@
       <c r="Q79" s="54"/>
       <c r="R79" s="41"/>
       <c r="T79" s="184"/>
-      <c r="U79" s="225"/>
+      <c r="U79" s="224"/>
+    </row>
+    <row r="80" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="39"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="41"/>
+      <c r="J80" s="184"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="41"/>
+      <c r="T80" s="184"/>
+      <c r="U80" s="224"/>
+    </row>
+    <row r="81" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="39"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="41"/>
+      <c r="J81" s="184"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="41"/>
+      <c r="T81" s="184"/>
+      <c r="U81" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N60:O60"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G60">
+  <conditionalFormatting sqref="G62">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
+  <conditionalFormatting sqref="Q62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59:E60 O59:O60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61:E62 O61:O62">
       <formula1>"上,下,波动"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23018,7 +23214,7 @@
           <x14:formula1>
             <xm:f>交易记录参数!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576 B2:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576 L2:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23033,9 +23229,9 @@
   </sheetPr>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -23064,29 +23260,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="272" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="273"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="274"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="271" t="s">
+      <c r="K1" s="272" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="274"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -23812,7 +24008,7 @@
       <c r="T16" s="110"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A17" s="229">
+      <c r="A17" s="228">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -23843,7 +24039,7 @@
       <c r="J17" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="229">
+      <c r="K17" s="228">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -23876,7 +24072,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A18" s="229">
+      <c r="A18" s="228">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -23907,7 +24103,7 @@
       <c r="J18" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="229">
+      <c r="K18" s="228">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -23940,7 +24136,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19" s="229">
+      <c r="A19" s="228">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -23971,7 +24167,7 @@
       <c r="J19" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="229">
+      <c r="K19" s="228">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -24004,7 +24200,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20" s="229">
+      <c r="A20" s="228">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -24035,7 +24231,7 @@
       <c r="J20" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="229">
+      <c r="K20" s="228">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -24124,7 +24320,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" s="229">
+      <c r="A22" s="228">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -24276,7 +24472,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A25" s="229">
+      <c r="A25" s="228">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -24403,15 +24599,15 @@
       <c r="M27" s="56"/>
       <c r="N27" s="57"/>
       <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="Q27" s="57"/>
-      <c r="R27" s="56">
-        <f t="shared" ref="R27:R31" si="33">IF(L27="卖",M27-P27,P27-M27)*T27</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="60" t="str">
-        <f t="shared" ref="S27:S31" si="34">IF(R27&gt;=0,"盈","亏")</f>
-        <v>盈</v>
+      <c r="R27" s="56" t="e">
+        <f>IF(L27="卖",M27-#REF!,#REF!-M27)*T27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S27" s="60" t="e">
+        <f t="shared" ref="S27:S31" si="33">IF(R27&gt;=0,"盈","亏")</f>
+        <v>#REF!</v>
       </c>
       <c r="T27" s="183" t="s">
         <v>107</v>
@@ -24445,16 +24641,15 @@
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="57"/>
       <c r="R28" s="56">
+        <f t="shared" ref="R28:R31" si="34">IF(L28="卖",M28-P28,P28-M28)*T28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="60" t="str">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="60" t="str">
-        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T28" s="183" t="s">
@@ -24494,11 +24689,11 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="57"/>
       <c r="R29" s="56">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="60" t="str">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="60" t="str">
-        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T29" s="183" t="s">
@@ -24538,11 +24733,11 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
       <c r="R30" s="56">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="60" t="str">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="60" t="str">
-        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T30" s="183" t="s">
@@ -24582,11 +24777,11 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="57"/>
       <c r="R31" s="56">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="60" t="str">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="60" t="str">
-        <f t="shared" si="34"/>
         <v>盈</v>
       </c>
       <c r="T31" s="183" t="s">
@@ -24705,14 +24900,14 @@
       <c r="A35" s="39"/>
       <c r="B35" s="43"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="274" t="str">
+      <c r="D35" s="275" t="str">
         <f>E38</f>
         <v>上</v>
       </c>
-      <c r="E35" s="274"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="274"/>
-      <c r="H35" s="239" t="b">
+      <c r="E35" s="275"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="275"/>
+      <c r="H35" s="238" t="b">
         <f>G39</f>
         <v>1</v>
       </c>
@@ -24720,13 +24915,13 @@
       <c r="K35" s="39"/>
       <c r="L35" s="43"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="274" t="str">
+      <c r="N35" s="275" t="str">
         <f>O38</f>
         <v>波动</v>
       </c>
-      <c r="O35" s="274"/>
-      <c r="P35" s="274"/>
-      <c r="Q35" s="274"/>
+      <c r="O35" s="275"/>
+      <c r="P35" s="275"/>
+      <c r="Q35" s="275"/>
       <c r="R35" s="41"/>
       <c r="T35" s="184"/>
     </row>
@@ -24754,23 +24949,23 @@
       <c r="A37" s="39"/>
       <c r="B37" s="43"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="275" t="s">
+      <c r="D37" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="276"/>
-      <c r="F37" s="231"/>
-      <c r="G37" s="232"/>
+      <c r="E37" s="277"/>
+      <c r="F37" s="230"/>
+      <c r="G37" s="231"/>
       <c r="H37" s="41"/>
       <c r="J37" s="184"/>
       <c r="K37" s="39"/>
       <c r="L37" s="43"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="275" t="s">
+      <c r="N37" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="276"/>
-      <c r="P37" s="231"/>
-      <c r="Q37" s="232"/>
+      <c r="O37" s="277"/>
+      <c r="P37" s="230"/>
+      <c r="Q37" s="231"/>
       <c r="R37" s="41"/>
       <c r="T37" s="184"/>
     </row>
@@ -24778,27 +24973,27 @@
       <c r="A38" s="39"/>
       <c r="B38" s="43"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="233" t="s">
+      <c r="D38" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="234" t="s">
+      <c r="E38" s="233" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="232"/>
+      <c r="F38" s="230"/>
+      <c r="G38" s="231"/>
       <c r="H38" s="41"/>
       <c r="J38" s="184"/>
       <c r="K38" s="39"/>
       <c r="L38" s="43"/>
       <c r="M38" s="40"/>
-      <c r="N38" s="233" t="s">
+      <c r="N38" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="O38" s="234" t="s">
+      <c r="O38" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="P38" s="231"/>
-      <c r="Q38" s="232"/>
+      <c r="P38" s="230"/>
+      <c r="Q38" s="231"/>
       <c r="R38" s="41"/>
       <c r="T38" s="184"/>
     </row>
@@ -24806,14 +25001,14 @@
       <c r="A39" s="39"/>
       <c r="B39" s="43"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="235" t="s">
+      <c r="D39" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="236" t="s">
+      <c r="E39" s="235" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="231"/>
-      <c r="G39" s="230" t="b">
+      <c r="F39" s="230"/>
+      <c r="G39" s="229" t="b">
         <f>E38=E39</f>
         <v>1</v>
       </c>
@@ -24822,12 +25017,12 @@
       <c r="K39" s="39"/>
       <c r="L39" s="43"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="235" t="s">
+      <c r="N39" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="O39" s="236"/>
-      <c r="P39" s="231"/>
-      <c r="Q39" s="230" t="b">
+      <c r="O39" s="235"/>
+      <c r="P39" s="230"/>
+      <c r="Q39" s="229" t="b">
         <f>O38=O39</f>
         <v>0</v>
       </c>
@@ -25141,10 +25336,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="227" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="227" t="s">
+      <c r="D3" s="226" t="s">
         <v>188</v>
       </c>
     </row>
@@ -25162,45 +25357,45 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="280" t="s">
+      <c r="D7" s="281" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="286"/>
-      <c r="G7" s="289" t="s">
+      <c r="F7" s="287"/>
+      <c r="G7" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="289" t="s">
+      <c r="H7" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="277" t="s">
+      <c r="I7" s="278" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="281"/>
+      <c r="D8" s="282"/>
       <c r="E8" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="287"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="278"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="279"/>
     </row>
     <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="282"/>
+      <c r="D9" s="283"/>
       <c r="E9" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="288"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="279"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="280"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="283" t="s">
+      <c r="D10" s="284" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="214" t="s">
@@ -25219,7 +25414,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="284"/>
+      <c r="D11" s="285"/>
       <c r="E11" s="212" t="s">
         <v>177</v>
       </c>
@@ -25236,7 +25431,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="284"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="212" t="s">
         <v>176</v>
       </c>
@@ -25253,7 +25448,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="285"/>
+      <c r="D13" s="286"/>
       <c r="E13" s="215" t="s">
         <v>179</v>
       </c>
@@ -25270,16 +25465,16 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C16" s="228" t="s">
+      <c r="C16" s="227" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="227" t="s">
+      <c r="D16" s="226" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C17" s="228"/>
-      <c r="D17" s="227" t="s">
+      <c r="C17" s="227"/>
+      <c r="D17" s="226" t="s">
         <v>203</v>
       </c>
     </row>
@@ -25310,11 +25505,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="250"/>
+    <col min="1" max="16384" width="8.88671875" style="249"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="251" t="s">
         <v>215</v>
       </c>
     </row>
@@ -25328,37 +25523,37 @@
     </row>
     <row r="5" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D5" s="20"/>
-      <c r="E5" s="251" t="s">
+      <c r="E5" s="250" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D6" s="20"/>
-      <c r="E6" s="251" t="s">
+      <c r="E6" s="250" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D7" s="20"/>
-      <c r="E7" s="251" t="s">
+      <c r="E7" s="250" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D8" s="20"/>
-      <c r="E8" s="251" t="s">
+      <c r="E8" s="250" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D9" s="20"/>
-      <c r="E9" s="255" t="s">
+      <c r="E9" s="254" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="255"/>
     </row>
     <row r="10" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D10" s="20"/>
@@ -25370,60 +25565,60 @@
     </row>
     <row r="12" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D12" s="20"/>
-      <c r="E12" s="251" t="s">
+      <c r="E12" s="250" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="257" t="s">
+      <c r="K12" s="256" t="s">
         <v>243</v>
       </c>
-      <c r="L12" s="257"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="257"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="256"/>
     </row>
     <row r="13" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D13" s="20"/>
-      <c r="E13" s="251"/>
+      <c r="E13" s="250"/>
     </row>
     <row r="14" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="D14" s="260" t="s">
+      <c r="D14" s="259" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="K14" s="257" t="s">
+      <c r="E14" s="258"/>
+      <c r="F14" s="258"/>
+      <c r="K14" s="256" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="258"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="257"/>
+      <c r="O14" s="257"/>
+      <c r="P14" s="257"/>
     </row>
     <row r="15" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D15" s="20"/>
-      <c r="E15" s="251" t="s">
+      <c r="E15" s="250" t="s">
         <v>218</v>
       </c>
-      <c r="K15" s="259"/>
-      <c r="L15" s="259"/>
-      <c r="M15" s="259"/>
-      <c r="N15" s="259"/>
-      <c r="O15" s="259"/>
-      <c r="P15" s="259"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="258"/>
     </row>
     <row r="16" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D16" s="20"/>
-      <c r="E16" s="251"/>
-      <c r="K16" s="257" t="s">
+      <c r="E16" s="250"/>
+      <c r="K16" s="256" t="s">
         <v>223</v>
       </c>
-      <c r="L16" s="259"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
+      <c r="L16" s="258"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="258"/>
+      <c r="P16" s="258"/>
     </row>
     <row r="17" spans="4:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
@@ -25431,41 +25626,41 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K18" s="292" t="s">
+      <c r="K18" s="293" t="s">
         <v>242</v>
       </c>
-      <c r="L18" s="292"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="292"/>
-      <c r="O18" s="292"/>
-      <c r="P18" s="292"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="293"/>
+      <c r="N18" s="293"/>
+      <c r="O18" s="293"/>
+      <c r="P18" s="293"/>
     </row>
     <row r="19" spans="4:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="E19" s="251" t="s">
+      <c r="E19" s="250" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="292"/>
-      <c r="L19" s="292"/>
-      <c r="M19" s="292"/>
-      <c r="N19" s="292"/>
-      <c r="O19" s="292"/>
-      <c r="P19" s="292"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="293"/>
+      <c r="N19" s="293"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="293"/>
     </row>
     <row r="20" spans="4:16" ht="31.2" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="292" t="s">
+      <c r="K20" s="293" t="s">
         <v>245</v>
       </c>
-      <c r="L20" s="292"/>
-      <c r="M20" s="292"/>
-      <c r="N20" s="292"/>
-      <c r="O20" s="292"/>
-      <c r="P20" s="292"/>
+      <c r="L20" s="293"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
+      <c r="P20" s="293"/>
     </row>
     <row r="22" spans="4:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="E22" s="251" t="s">
+      <c r="E22" s="250" t="s">
         <v>162</v>
       </c>
     </row>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="251">
   <si>
     <t>总额</t>
   </si>
@@ -1663,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2091,8 +2091,14 @@
     <xf numFmtId="167" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2117,6 +2123,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8582,11 +8591,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T78" sqref="T78"/>
+      <selection pane="bottomRight" activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8666,10 +8675,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="270" t="s">
+      <c r="I3" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="271"/>
+      <c r="J3" s="275"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -8726,7 +8735,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="267" t="s">
+      <c r="A5" s="271" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -8775,7 +8784,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="268"/>
+      <c r="A6" s="272"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -8828,7 +8837,7 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="268"/>
+      <c r="A7" s="272"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -8881,7 +8890,7 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="269"/>
+      <c r="A8" s="273"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -8937,7 +8946,7 @@
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="271" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -8995,7 +9004,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="268"/>
+      <c r="A10" s="272"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -9051,7 +9060,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="268"/>
+      <c r="A11" s="272"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -9107,7 +9116,7 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="269"/>
+      <c r="A12" s="273"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -9163,7 +9172,7 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="268" t="s">
+      <c r="A13" s="272" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="130">
@@ -9221,7 +9230,7 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="268"/>
+      <c r="A14" s="272"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -9278,7 +9287,7 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="268"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -9335,7 +9344,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="269"/>
+      <c r="A16" s="273"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -9391,7 +9400,7 @@
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="268" t="s">
+      <c r="A17" s="272" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="130">
@@ -9448,7 +9457,7 @@
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="268"/>
+      <c r="A18" s="272"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -9503,7 +9512,7 @@
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="268"/>
+      <c r="A19" s="272"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -9558,7 +9567,7 @@
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="268"/>
+      <c r="A20" s="272"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -9613,7 +9622,7 @@
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="268"/>
+      <c r="A21" s="272"/>
       <c r="B21" s="124">
         <v>17</v>
       </c>
@@ -9668,7 +9677,7 @@
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="267" t="s">
+      <c r="A22" s="271" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -9726,7 +9735,7 @@
       <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="268"/>
+      <c r="A23" s="272"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -9782,7 +9791,7 @@
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="268"/>
+      <c r="A24" s="272"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -9838,7 +9847,7 @@
       <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="269"/>
+      <c r="A25" s="273"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -9894,7 +9903,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="268" t="s">
+      <c r="A26" s="272" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="130">
@@ -9951,7 +9960,7 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="268"/>
+      <c r="A27" s="272"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -10006,7 +10015,7 @@
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="268"/>
+      <c r="A28" s="272"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -10061,7 +10070,7 @@
       <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="268"/>
+      <c r="A29" s="272"/>
       <c r="B29" s="124">
         <v>25</v>
       </c>
@@ -10116,7 +10125,7 @@
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="267" t="s">
+      <c r="A30" s="271" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -10174,7 +10183,7 @@
       <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="268"/>
+      <c r="A31" s="272"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -10230,7 +10239,7 @@
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="268"/>
+      <c r="A32" s="272"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -10286,7 +10295,7 @@
       <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="268"/>
+      <c r="A33" s="272"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -10342,7 +10351,7 @@
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="269"/>
+      <c r="A34" s="273"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -10398,7 +10407,7 @@
       <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="268" t="s">
+      <c r="A35" s="272" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="130">
@@ -10457,7 +10466,7 @@
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="268"/>
+      <c r="A36" s="272"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -10512,7 +10521,7 @@
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="268"/>
+      <c r="A37" s="272"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -10567,7 +10576,7 @@
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="268"/>
+      <c r="A38" s="272"/>
       <c r="B38" s="124">
         <v>34</v>
       </c>
@@ -10622,7 +10631,7 @@
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="267" t="s">
+      <c r="A39" s="271" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -10680,7 +10689,7 @@
       <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="268"/>
+      <c r="A40" s="272"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -10736,7 +10745,7 @@
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="268"/>
+      <c r="A41" s="272"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -10794,7 +10803,7 @@
       <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="269"/>
+      <c r="A42" s="273"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -10852,7 +10861,7 @@
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="267" t="s">
+      <c r="A43" s="271" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -10912,7 +10921,7 @@
       <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="268"/>
+      <c r="A44" s="272"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -10971,7 +10980,7 @@
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="268"/>
+      <c r="A45" s="272"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -11037,7 +11046,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="268"/>
+      <c r="A46" s="272"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -11100,7 +11109,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="269"/>
+      <c r="A47" s="273"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -11158,7 +11167,7 @@
       <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="267" t="s">
+      <c r="A48" s="271" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -11219,7 +11228,7 @@
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="268"/>
+      <c r="A49" s="272"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -11280,7 +11289,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="268"/>
+      <c r="A50" s="272"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -11341,7 +11350,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="269"/>
+      <c r="A51" s="273"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -11400,7 +11409,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="267" t="s">
+      <c r="A52" s="271" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -11461,7 +11470,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="268"/>
+      <c r="A53" s="272"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -11520,7 +11529,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="268"/>
+      <c r="A54" s="272"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -11576,7 +11585,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="268"/>
+      <c r="A55" s="272"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -11630,18 +11639,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="263" t="s">
+      <c r="X55" s="276" t="s">
         <v>163</v>
       </c>
-      <c r="Y55" s="263"/>
-      <c r="Z55" s="263"/>
-      <c r="AA55" s="263"/>
-      <c r="AB55" s="263"/>
-      <c r="AC55" s="263"/>
-      <c r="AD55" s="263"/>
+      <c r="Y55" s="276"/>
+      <c r="Z55" s="276"/>
+      <c r="AA55" s="276"/>
+      <c r="AB55" s="276"/>
+      <c r="AC55" s="276"/>
+      <c r="AD55" s="276"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="269"/>
+      <c r="A56" s="273"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -11695,16 +11704,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="263"/>
-      <c r="Y56" s="263"/>
-      <c r="Z56" s="263"/>
-      <c r="AA56" s="263"/>
-      <c r="AB56" s="263"/>
-      <c r="AC56" s="263"/>
-      <c r="AD56" s="263"/>
+      <c r="X56" s="276"/>
+      <c r="Y56" s="276"/>
+      <c r="Z56" s="276"/>
+      <c r="AA56" s="276"/>
+      <c r="AB56" s="276"/>
+      <c r="AC56" s="276"/>
+      <c r="AD56" s="276"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="264" t="s">
+      <c r="A57" s="268" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="127">
@@ -11760,16 +11769,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="263"/>
-      <c r="Y57" s="263"/>
-      <c r="Z57" s="263"/>
-      <c r="AA57" s="263"/>
-      <c r="AB57" s="263"/>
-      <c r="AC57" s="263"/>
-      <c r="AD57" s="263"/>
+      <c r="X57" s="276"/>
+      <c r="Y57" s="276"/>
+      <c r="Z57" s="276"/>
+      <c r="AA57" s="276"/>
+      <c r="AB57" s="276"/>
+      <c r="AC57" s="276"/>
+      <c r="AD57" s="276"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="265"/>
+      <c r="A58" s="269"/>
       <c r="B58" s="125">
         <v>2</v>
       </c>
@@ -11828,7 +11837,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="265"/>
+      <c r="A59" s="269"/>
       <c r="B59" s="125">
         <v>3</v>
       </c>
@@ -11887,7 +11896,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="266"/>
+      <c r="A60" s="270"/>
       <c r="B60" s="128">
         <v>4</v>
       </c>
@@ -11943,7 +11952,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="264" t="s">
+      <c r="A61" s="268" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="127">
@@ -12001,7 +12010,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="265"/>
+      <c r="A62" s="269"/>
       <c r="B62" s="125">
         <v>6</v>
       </c>
@@ -12060,7 +12069,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="265"/>
+      <c r="A63" s="269"/>
       <c r="B63" s="125">
         <v>7</v>
       </c>
@@ -12119,7 +12128,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="266"/>
+      <c r="A64" s="270"/>
       <c r="B64" s="128">
         <v>8</v>
       </c>
@@ -12178,7 +12187,7 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="264" t="s">
+      <c r="A65" s="268" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="127">
@@ -12239,7 +12248,7 @@
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="265"/>
+      <c r="A66" s="269"/>
       <c r="B66" s="125">
         <v>10</v>
       </c>
@@ -12298,7 +12307,7 @@
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A67" s="265"/>
+      <c r="A67" s="269"/>
       <c r="B67" s="125">
         <v>11</v>
       </c>
@@ -12357,7 +12366,7 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="266"/>
+      <c r="A68" s="270"/>
       <c r="B68" s="128">
         <v>12</v>
       </c>
@@ -12416,7 +12425,7 @@
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A69" s="265" t="s">
+      <c r="A69" s="269" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="126">
@@ -12475,7 +12484,7 @@
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A70" s="265"/>
+      <c r="A70" s="269"/>
       <c r="B70" s="125">
         <v>14</v>
       </c>
@@ -12532,7 +12541,7 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A71" s="265"/>
+      <c r="A71" s="269"/>
       <c r="B71" s="125">
         <v>15</v>
       </c>
@@ -12586,7 +12595,7 @@
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A72" s="265"/>
+      <c r="A72" s="269"/>
       <c r="B72" s="125">
         <v>16</v>
       </c>
@@ -12643,7 +12652,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="265"/>
+      <c r="A73" s="269"/>
       <c r="B73" s="129">
         <v>17</v>
       </c>
@@ -12700,7 +12709,7 @@
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A74" s="264" t="s">
+      <c r="A74" s="268" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="127">
@@ -12758,7 +12767,7 @@
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A75" s="265"/>
+      <c r="A75" s="269"/>
       <c r="B75" s="125">
         <v>19</v>
       </c>
@@ -12817,7 +12826,7 @@
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A76" s="265"/>
+      <c r="A76" s="269"/>
       <c r="B76" s="125">
         <v>20</v>
       </c>
@@ -12872,7 +12881,7 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="266"/>
+      <c r="A77" s="270"/>
       <c r="B77" s="128">
         <v>21</v>
       </c>
@@ -12928,7 +12937,7 @@
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A78" s="265" t="s">
+      <c r="A78" s="269" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="126">
@@ -12980,7 +12989,7 @@
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A79" s="265"/>
+      <c r="A79" s="269"/>
       <c r="B79" s="125">
         <v>23</v>
       </c>
@@ -13002,17 +13011,35 @@
         <f t="shared" si="18"/>
         <v>144.91391640013356</v>
       </c>
+      <c r="I79" s="137">
+        <v>40.1</v>
+      </c>
       <c r="J79" s="15">
         <f t="shared" si="15"/>
-        <v>-0.81799999999999995</v>
+        <v>-1.5999999999999945E-2</v>
       </c>
       <c r="K79" s="202">
         <f t="shared" si="9"/>
-        <v>29.200000000000003</v>
+        <v>39.225000000000001</v>
+      </c>
+      <c r="M79" s="137">
+        <v>0</v>
+      </c>
+      <c r="N79" s="137">
+        <v>0</v>
+      </c>
+      <c r="O79" s="137">
+        <v>0</v>
+      </c>
+      <c r="P79" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="137">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A80" s="265"/>
+      <c r="A80" s="269"/>
       <c r="B80" s="125">
         <v>24</v>
       </c>
@@ -13034,26 +13061,44 @@
         <f t="shared" si="18"/>
         <v>149.26133389213757</v>
       </c>
+      <c r="I80" s="137">
+        <v>39.9</v>
+      </c>
       <c r="J80" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-4.0000000000000565E-3</v>
       </c>
       <c r="K80" s="202">
         <f t="shared" si="9"/>
-        <v>20.2</v>
-      </c>
-      <c r="W80" s="263" t="s">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M80" s="137">
+        <v>0</v>
+      </c>
+      <c r="N80" s="137">
+        <v>0</v>
+      </c>
+      <c r="O80" s="137">
+        <v>0</v>
+      </c>
+      <c r="P80" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="137">
+        <v>0</v>
+      </c>
+      <c r="W80" s="276" t="s">
         <v>250</v>
       </c>
-      <c r="X80" s="263"/>
-      <c r="Y80" s="263"/>
-      <c r="Z80" s="263"/>
-      <c r="AA80" s="263"/>
-      <c r="AB80" s="263"/>
-      <c r="AC80" s="263"/>
+      <c r="X80" s="276"/>
+      <c r="Y80" s="276"/>
+      <c r="Z80" s="276"/>
+      <c r="AA80" s="276"/>
+      <c r="AB80" s="276"/>
+      <c r="AC80" s="276"/>
     </row>
     <row r="81" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="265"/>
+      <c r="A81" s="269"/>
       <c r="B81" s="129">
         <v>25</v>
       </c>
@@ -13075,24 +13120,42 @@
         <f t="shared" si="18"/>
         <v>153.73917390890171</v>
       </c>
+      <c r="I81" s="161">
+        <v>41.2</v>
+      </c>
       <c r="J81" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.6000000000000086E-2</v>
       </c>
       <c r="K81" s="203">
         <f t="shared" si="9"/>
-        <v>10.225</v>
-      </c>
-      <c r="W81" s="263"/>
-      <c r="X81" s="263"/>
-      <c r="Y81" s="263"/>
-      <c r="Z81" s="263"/>
-      <c r="AA81" s="263"/>
-      <c r="AB81" s="263"/>
-      <c r="AC81" s="263"/>
+        <v>40.525000000000006</v>
+      </c>
+      <c r="M81" s="137">
+        <v>0</v>
+      </c>
+      <c r="N81" s="137">
+        <v>0</v>
+      </c>
+      <c r="O81" s="137">
+        <v>0</v>
+      </c>
+      <c r="P81" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="137">
+        <v>0</v>
+      </c>
+      <c r="W81" s="276"/>
+      <c r="X81" s="276"/>
+      <c r="Y81" s="276"/>
+      <c r="Z81" s="276"/>
+      <c r="AA81" s="276"/>
+      <c r="AB81" s="276"/>
+      <c r="AC81" s="276"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A82" s="264" t="s">
+      <c r="A82" s="268" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="127">
@@ -13117,32 +13180,44 @@
         <v>158.35134912616877</v>
       </c>
       <c r="H82" s="132"/>
-      <c r="I82" s="132"/>
+      <c r="I82" s="263">
+        <v>42.9</v>
+      </c>
       <c r="J82" s="134">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.3999999999999912E-2</v>
       </c>
       <c r="K82" s="202">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>41.024999999999999</v>
       </c>
       <c r="L82" s="132"/>
-      <c r="M82" s="132"/>
-      <c r="N82" s="132"/>
-      <c r="O82" s="132"/>
-      <c r="P82" s="132"/>
-      <c r="Q82" s="132"/>
+      <c r="M82" s="132">
+        <v>0</v>
+      </c>
+      <c r="N82" s="132">
+        <v>0</v>
+      </c>
+      <c r="O82" s="132">
+        <v>0</v>
+      </c>
+      <c r="P82" s="132">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="132">
+        <v>0</v>
+      </c>
       <c r="R82" s="122"/>
-      <c r="W82" s="263"/>
-      <c r="X82" s="263"/>
-      <c r="Y82" s="263"/>
-      <c r="Z82" s="263"/>
-      <c r="AA82" s="263"/>
-      <c r="AB82" s="263"/>
-      <c r="AC82" s="263"/>
+      <c r="W82" s="276"/>
+      <c r="X82" s="276"/>
+      <c r="Y82" s="276"/>
+      <c r="Z82" s="276"/>
+      <c r="AA82" s="276"/>
+      <c r="AB82" s="276"/>
+      <c r="AC82" s="276"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A83" s="265"/>
+      <c r="A83" s="269"/>
       <c r="B83" s="125">
         <v>27</v>
       </c>
@@ -13165,24 +13240,36 @@
         <v>163.10188959995384</v>
       </c>
       <c r="H83" s="136"/>
-      <c r="I83" s="136"/>
+      <c r="I83" s="161">
+        <v>43.4</v>
+      </c>
       <c r="J83" s="138">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K83" s="202">
         <f t="shared" ref="K83:K108" si="19">SUM(I80:I83)/4</f>
-        <v>0</v>
+        <v>41.85</v>
       </c>
       <c r="L83" s="136"/>
-      <c r="M83" s="136"/>
-      <c r="N83" s="136"/>
-      <c r="O83" s="136"/>
-      <c r="P83" s="136"/>
-      <c r="Q83" s="136"/>
+      <c r="M83" s="137">
+        <v>0</v>
+      </c>
+      <c r="N83" s="137">
+        <v>0</v>
+      </c>
+      <c r="O83" s="137">
+        <v>0</v>
+      </c>
+      <c r="P83" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="137">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A84" s="265"/>
+      <c r="A84" s="269"/>
       <c r="B84" s="125">
         <v>28</v>
       </c>
@@ -13205,24 +13292,36 @@
         <v>167.99494628795244</v>
       </c>
       <c r="H84" s="136"/>
-      <c r="I84" s="136"/>
+      <c r="I84">
+        <v>43.4</v>
+      </c>
       <c r="J84" s="138">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K84" s="202">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>42.725000000000001</v>
       </c>
       <c r="L84" s="136"/>
-      <c r="M84" s="136"/>
-      <c r="N84" s="136"/>
-      <c r="O84" s="136"/>
-      <c r="P84" s="136"/>
-      <c r="Q84" s="136"/>
+      <c r="M84" s="137">
+        <v>0</v>
+      </c>
+      <c r="N84" s="137">
+        <v>0</v>
+      </c>
+      <c r="O84" s="137">
+        <v>0</v>
+      </c>
+      <c r="P84" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="137">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A85" s="265"/>
+      <c r="A85" s="269"/>
       <c r="B85" s="125">
         <v>29</v>
       </c>
@@ -13245,24 +13344,36 @@
         <v>173.03479467659102</v>
       </c>
       <c r="H85" s="136"/>
-      <c r="I85" s="136"/>
+      <c r="I85">
+        <v>43.4</v>
+      </c>
       <c r="J85" s="138">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K85" s="202">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>43.274999999999999</v>
       </c>
       <c r="L85" s="136"/>
-      <c r="M85" s="136"/>
-      <c r="N85" s="136"/>
-      <c r="O85" s="136"/>
-      <c r="P85" s="136"/>
-      <c r="Q85" s="136"/>
+      <c r="M85" s="137">
+        <v>0</v>
+      </c>
+      <c r="N85" s="137">
+        <v>0</v>
+      </c>
+      <c r="O85" s="137">
+        <v>0</v>
+      </c>
+      <c r="P85" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="137">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="266"/>
+      <c r="A86" s="270"/>
       <c r="B86" s="128">
         <v>30</v>
       </c>
@@ -13285,25 +13396,37 @@
         <v>178.22583851688876</v>
       </c>
       <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
+      <c r="I86" s="141">
+        <v>43.7</v>
+      </c>
       <c r="J86" s="143">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6.0000000000000851E-3</v>
       </c>
       <c r="K86" s="203">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>43.474999999999994</v>
       </c>
       <c r="L86" s="141"/>
-      <c r="M86" s="141"/>
-      <c r="N86" s="141"/>
-      <c r="O86" s="141"/>
-      <c r="P86" s="141"/>
-      <c r="Q86" s="141"/>
+      <c r="M86" s="141">
+        <v>0</v>
+      </c>
+      <c r="N86" s="141">
+        <v>0</v>
+      </c>
+      <c r="O86" s="141">
+        <v>0</v>
+      </c>
+      <c r="P86" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="141">
+        <v>0</v>
+      </c>
       <c r="R86" s="145"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A87" s="265" t="s">
+      <c r="A87" s="269" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="126">
@@ -13327,17 +13450,35 @@
         <f t="shared" si="18"/>
         <v>183.57261367239542</v>
       </c>
+      <c r="I87">
+        <v>43.6</v>
+      </c>
       <c r="J87" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-2.0000000000000282E-3</v>
       </c>
       <c r="K87" s="202">
         <f t="shared" si="19"/>
+        <v>43.524999999999999</v>
+      </c>
+      <c r="M87" s="137">
+        <v>0</v>
+      </c>
+      <c r="N87" s="137">
+        <v>0</v>
+      </c>
+      <c r="O87" s="137">
+        <v>0</v>
+      </c>
+      <c r="P87" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="137">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A88" s="265"/>
+      <c r="A88" s="269"/>
       <c r="B88" s="125">
         <v>32</v>
       </c>
@@ -13359,17 +13500,35 @@
         <f t="shared" si="18"/>
         <v>189.07979208256728</v>
       </c>
+      <c r="I88" s="161">
+        <v>45.1</v>
+      </c>
       <c r="J88" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K88" s="202">
         <f t="shared" si="19"/>
+        <v>43.949999999999996</v>
+      </c>
+      <c r="M88" s="137">
+        <v>0</v>
+      </c>
+      <c r="N88" s="137">
+        <v>0</v>
+      </c>
+      <c r="O88" s="137">
+        <v>0</v>
+      </c>
+      <c r="P88" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="137">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A89" s="265"/>
+      <c r="A89" s="269"/>
       <c r="B89" s="125">
         <v>33</v>
       </c>
@@ -13393,15 +13552,15 @@
       </c>
       <c r="J89" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-0.90200000000000002</v>
       </c>
       <c r="K89" s="202">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="265"/>
+      <c r="A90" s="269"/>
       <c r="B90" s="129">
         <v>34</v>
       </c>
@@ -13429,11 +13588,11 @@
       </c>
       <c r="K90" s="203">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>22.175000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A91" s="264" t="s">
+      <c r="A91" s="268" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="127">
@@ -13465,7 +13624,7 @@
       </c>
       <c r="K91" s="202">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>11.275</v>
       </c>
       <c r="L91" s="132"/>
       <c r="M91" s="132"/>
@@ -13476,7 +13635,7 @@
       <c r="R91" s="122"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A92" s="265"/>
+      <c r="A92" s="269"/>
       <c r="B92" s="125">
         <v>36</v>
       </c>
@@ -13516,7 +13675,7 @@
       <c r="Q92" s="136"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A93" s="265"/>
+      <c r="A93" s="269"/>
       <c r="B93" s="125">
         <v>37</v>
       </c>
@@ -13556,7 +13715,7 @@
       <c r="Q93" s="136"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A94" s="265"/>
+      <c r="A94" s="269"/>
       <c r="B94" s="125">
         <v>38</v>
       </c>
@@ -13596,7 +13755,7 @@
       <c r="Q94" s="136"/>
     </row>
     <row r="95" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="266"/>
+      <c r="A95" s="270"/>
       <c r="B95" s="128">
         <v>39</v>
       </c>
@@ -13637,7 +13796,7 @@
       <c r="R95" s="145"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A96" s="265" t="s">
+      <c r="A96" s="269" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="126">
@@ -13671,7 +13830,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="265"/>
+      <c r="A97" s="269"/>
       <c r="B97" s="125">
         <v>41</v>
       </c>
@@ -13703,7 +13862,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="265"/>
+      <c r="A98" s="269"/>
       <c r="B98" s="125">
         <v>42</v>
       </c>
@@ -13735,7 +13894,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="265"/>
+      <c r="A99" s="269"/>
       <c r="B99" s="129">
         <v>43</v>
       </c>
@@ -13767,7 +13926,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="264" t="s">
+      <c r="A100" s="268" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="127">
@@ -13810,7 +13969,7 @@
       <c r="R100" s="122"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="265"/>
+      <c r="A101" s="269"/>
       <c r="B101" s="125">
         <v>45</v>
       </c>
@@ -13850,7 +14009,7 @@
       <c r="Q101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="265"/>
+      <c r="A102" s="269"/>
       <c r="B102" s="125">
         <v>46</v>
       </c>
@@ -13890,7 +14049,7 @@
       <c r="Q102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="266"/>
+      <c r="A103" s="270"/>
       <c r="B103" s="128">
         <v>47</v>
       </c>
@@ -13931,7 +14090,7 @@
       <c r="R103" s="145"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="264" t="s">
+      <c r="A104" s="268" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="127">
@@ -13974,7 +14133,7 @@
       <c r="R104" s="122"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="265"/>
+      <c r="A105" s="269"/>
       <c r="B105" s="125">
         <v>49</v>
       </c>
@@ -14014,7 +14173,7 @@
       <c r="Q105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="265"/>
+      <c r="A106" s="269"/>
       <c r="B106" s="125">
         <v>50</v>
       </c>
@@ -14054,7 +14213,7 @@
       <c r="Q106" s="136"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="265"/>
+      <c r="A107" s="269"/>
       <c r="B107" s="125">
         <v>51</v>
       </c>
@@ -14094,7 +14253,7 @@
       <c r="Q107" s="136"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="266"/>
+      <c r="A108" s="270"/>
       <c r="B108" s="128">
         <v>52</v>
       </c>
@@ -15844,18 +16003,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="W80:AC82"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="X55:AD57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A30:A34"/>
@@ -15866,11 +16018,18 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="W80:AC82"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="X55:AD57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="8" priority="4">
@@ -15902,9 +16061,9 @@
   </sheetPr>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -15943,41 +16102,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="274"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="279"/>
       <c r="J1" s="192"/>
-      <c r="K1" s="272" t="s">
+      <c r="K1" s="277" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="274"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="279"/>
       <c r="T1" s="205"/>
-      <c r="U1" s="272" t="s">
+      <c r="U1" s="277" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="274"/>
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="278"/>
+      <c r="Z1" s="278"/>
+      <c r="AA1" s="278"/>
+      <c r="AB1" s="278"/>
+      <c r="AC1" s="279"/>
       <c r="AD1" s="205"/>
     </row>
     <row r="2" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -19120,25 +19279,25 @@
       <c r="K45" s="39"/>
       <c r="L45" s="43"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="275" t="str">
+      <c r="N45" s="280" t="str">
         <f>O48</f>
         <v>下</v>
       </c>
-      <c r="O45" s="275"/>
-      <c r="P45" s="275"/>
-      <c r="Q45" s="275"/>
+      <c r="O45" s="280"/>
+      <c r="P45" s="280"/>
+      <c r="Q45" s="280"/>
       <c r="R45" s="41"/>
       <c r="T45" s="184"/>
       <c r="U45" s="39"/>
       <c r="V45" s="43"/>
       <c r="W45" s="40"/>
-      <c r="X45" s="275" t="str">
+      <c r="X45" s="280" t="str">
         <f>Y48</f>
         <v>波动</v>
       </c>
-      <c r="Y45" s="275"/>
-      <c r="Z45" s="275"/>
-      <c r="AA45" s="275"/>
+      <c r="Y45" s="280"/>
+      <c r="Z45" s="280"/>
+      <c r="AA45" s="280"/>
       <c r="AB45" s="41"/>
       <c r="AD45" s="184"/>
     </row>
@@ -19146,13 +19305,13 @@
       <c r="A46" s="39"/>
       <c r="B46" s="43"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="275" t="str">
+      <c r="D46" s="280" t="str">
         <f>E49</f>
         <v>波动</v>
       </c>
-      <c r="E46" s="275"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="275"/>
+      <c r="E46" s="280"/>
+      <c r="F46" s="280"/>
+      <c r="G46" s="280"/>
       <c r="H46" s="41"/>
       <c r="J46" s="195"/>
       <c r="K46" s="39"/>
@@ -19187,10 +19346,10 @@
       <c r="K47" s="39"/>
       <c r="L47" s="43"/>
       <c r="M47" s="40"/>
-      <c r="N47" s="276" t="s">
+      <c r="N47" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="O47" s="277"/>
+      <c r="O47" s="282"/>
       <c r="P47" s="230"/>
       <c r="Q47" s="231"/>
       <c r="R47" s="41"/>
@@ -19198,10 +19357,10 @@
       <c r="U47" s="39"/>
       <c r="V47" s="43"/>
       <c r="W47" s="40"/>
-      <c r="X47" s="276" t="s">
+      <c r="X47" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="Y47" s="277"/>
+      <c r="Y47" s="282"/>
       <c r="Z47" s="230"/>
       <c r="AA47" s="231"/>
       <c r="AB47" s="41"/>
@@ -19211,10 +19370,10 @@
       <c r="A48" s="39"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="276" t="s">
+      <c r="D48" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="277"/>
+      <c r="E48" s="282"/>
       <c r="F48" s="230"/>
       <c r="G48" s="231"/>
       <c r="H48" s="41"/>
@@ -19751,11 +19910,11 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44:D46"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -19785,29 +19944,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="274"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="279"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="272" t="s">
+      <c r="K1" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="274"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="279"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -19926,7 +20085,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="176">
-        <f t="shared" ref="A4:A56" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A60" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -19954,7 +20113,7 @@
         <v>亏</v>
       </c>
       <c r="K4" s="196">
-        <f t="shared" ref="K4:K56" si="2">ROW()-2</f>
+        <f t="shared" ref="K4:K60" si="2">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="L4" s="51" t="s">
@@ -22428,21 +22587,31 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="176">
+      <c r="A51" s="228">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="175">
+      <c r="B51" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="116">
+        <v>128.43199999999999</v>
+      </c>
+      <c r="D51" s="113">
+        <v>43259</v>
+      </c>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116">
+        <v>127.747</v>
+      </c>
+      <c r="G51" s="113">
+        <v>43278</v>
+      </c>
+      <c r="H51" s="221">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="59" t="str">
+        <v>0.68499999999998806</v>
+      </c>
+      <c r="I51" s="115" t="str">
         <f t="shared" si="42"/>
         <v>盈</v>
       </c>
@@ -22537,21 +22706,31 @@
       <c r="J53" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K53" s="196">
+      <c r="K53" s="264">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="67">
+      <c r="L53" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" s="88">
+        <v>1.1650100000000001</v>
+      </c>
+      <c r="N53" s="265">
+        <v>43308</v>
+      </c>
+      <c r="O53" s="266"/>
+      <c r="P53" s="88">
+        <v>1.16997</v>
+      </c>
+      <c r="Q53" s="265">
+        <v>43311</v>
+      </c>
+      <c r="R53" s="88">
         <f t="shared" ref="R53:R54" si="46">IF(L53="卖",M53-P53,P53-M53)*T53</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="59" t="str">
+        <v>4.9599999999998534E-3</v>
+      </c>
+      <c r="S53" s="267" t="str">
         <f t="shared" ref="S53:S54" si="47">IF(R53&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
@@ -22560,44 +22739,64 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="176">
+      <c r="A54" s="228">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="175">
+      <c r="B54" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="116">
+        <v>129.071</v>
+      </c>
+      <c r="D54" s="113">
+        <v>43320</v>
+      </c>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116">
+        <v>128.57400000000001</v>
+      </c>
+      <c r="G54" s="113">
+        <v>43320</v>
+      </c>
+      <c r="H54" s="221">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="59" t="str">
+        <v>0.49699999999998568</v>
+      </c>
+      <c r="I54" s="115" t="str">
         <f t="shared" si="45"/>
         <v>盈</v>
       </c>
       <c r="J54" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K54" s="196">
+      <c r="K54" s="261">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="L54" s="55"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="67">
+      <c r="L54" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" s="53">
+        <v>1.16168</v>
+      </c>
+      <c r="N54" s="75">
+        <v>43315</v>
+      </c>
+      <c r="O54" s="99"/>
+      <c r="P54" s="53">
+        <v>1.14375</v>
+      </c>
+      <c r="Q54" s="75">
+        <v>43322</v>
+      </c>
+      <c r="R54" s="53">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="59" t="str">
+        <v>-1.7930000000000001E-2</v>
+      </c>
+      <c r="S54" s="49" t="str">
         <f t="shared" si="47"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="T54" s="183" t="s">
         <v>107</v>
@@ -22608,15 +22807,21 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57"/>
+      <c r="B55" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="40">
+        <v>128.33099999999999</v>
+      </c>
+      <c r="D55" s="57">
+        <v>43322</v>
+      </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
       <c r="G55" s="57"/>
       <c r="H55" s="175">
         <f t="shared" ref="H55:H56" si="48">IF(B55="卖",C55-F55,F55-C55)*J55</f>
-        <v>0</v>
+        <v>128.33099999999999</v>
       </c>
       <c r="I55" s="59" t="str">
         <f t="shared" ref="I55:I56" si="49">IF(H55&gt;=0,"盈","亏")</f>
@@ -22691,185 +22896,283 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="N57" s="73"/>
-    </row>
-    <row r="58" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
-      <c r="D58" s="275" t="str">
-        <f>E61</f>
+    <row r="57" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="176">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="175">
+        <f t="shared" ref="H57:H58" si="52">IF(B57="卖",C57-F57,F57-C57)*J57</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="59" t="str">
+        <f t="shared" ref="I57:I58" si="53">IF(H57&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="J57" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K57" s="196">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="L57" s="55"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="67">
+        <f t="shared" ref="R57:R58" si="54">IF(L57="卖",M57-P57,P57-M57)*T57</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="59" t="str">
+        <f t="shared" ref="S57:S58" si="55">IF(R57&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="T57" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="176">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="175">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="59" t="str">
+        <f t="shared" si="53"/>
+        <v>盈</v>
+      </c>
+      <c r="J58" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="196">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="L58" s="55"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="67">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="59" t="str">
+        <f t="shared" si="55"/>
+        <v>盈</v>
+      </c>
+      <c r="T58" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="176">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="175">
+        <f t="shared" ref="H59:H60" si="56">IF(B59="卖",C59-F59,F59-C59)*J59</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="59" t="str">
+        <f t="shared" ref="I59:I60" si="57">IF(H59&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="J59" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K59" s="196">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="L59" s="55"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="67">
+        <f t="shared" ref="R59:R60" si="58">IF(L59="卖",M59-P59,P59-M59)*T59</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="59" t="str">
+        <f t="shared" ref="S59:S60" si="59">IF(R59&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="T59" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="176">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="59" t="str">
+        <f t="shared" si="57"/>
+        <v>盈</v>
+      </c>
+      <c r="J60" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="K60" s="196">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="L60" s="55"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="67">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="59" t="str">
+        <f t="shared" si="59"/>
+        <v>盈</v>
+      </c>
+      <c r="T60" s="183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="N61" s="73"/>
+    </row>
+    <row r="62" spans="1:21" ht="39.6" x14ac:dyDescent="0.8">
+      <c r="D62" s="280" t="str">
+        <f>E65</f>
         <v>波动</v>
       </c>
-      <c r="E58" s="275"/>
-      <c r="F58" s="275"/>
-      <c r="G58" s="275"/>
-      <c r="N58" s="275" t="str">
-        <f>O61</f>
+      <c r="E62" s="280"/>
+      <c r="F62" s="280"/>
+      <c r="G62" s="280"/>
+      <c r="N62" s="280" t="str">
+        <f>O65</f>
         <v>波动</v>
       </c>
-      <c r="O58" s="275"/>
-      <c r="P58" s="275"/>
-      <c r="Q58" s="275"/>
-    </row>
-    <row r="59" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="60" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="39"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="276" t="s">
-        <v>206</v>
-      </c>
-      <c r="E60" s="277"/>
-      <c r="F60" s="230"/>
-      <c r="G60" s="231"/>
-      <c r="H60" s="41"/>
-      <c r="J60" s="184"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="276" t="s">
-        <v>206</v>
-      </c>
-      <c r="O60" s="277"/>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="231"/>
-      <c r="R60" s="41"/>
-      <c r="T60" s="184"/>
-      <c r="U60" s="224"/>
-    </row>
-    <row r="61" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="39"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="232" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="233" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" s="230"/>
-      <c r="G61" s="231"/>
-      <c r="H61" s="41"/>
-      <c r="J61" s="184"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="232" t="s">
-        <v>205</v>
-      </c>
-      <c r="O61" s="233" t="s">
-        <v>155</v>
-      </c>
-      <c r="P61" s="230"/>
-      <c r="Q61" s="231"/>
-      <c r="R61" s="41"/>
-      <c r="T61" s="184"/>
-      <c r="U61" s="224"/>
-    </row>
-    <row r="62" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="39"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="234" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="235"/>
-      <c r="F62" s="230"/>
-      <c r="G62" s="229" t="b">
-        <f>E61=E62</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="J62" s="184"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="234" t="s">
-        <v>204</v>
-      </c>
-      <c r="O62" s="235"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="229" t="b">
-        <f>O61=O62</f>
-        <v>0</v>
-      </c>
-      <c r="R62" s="41"/>
-      <c r="T62" s="184"/>
-      <c r="U62" s="224"/>
-    </row>
-    <row r="63" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="39"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="41"/>
-      <c r="J63" s="184"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="41"/>
-      <c r="T63" s="184"/>
-      <c r="U63" s="224"/>
-    </row>
-    <row r="64" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="O62" s="280"/>
+      <c r="P62" s="280"/>
+      <c r="Q62" s="280"/>
+    </row>
+    <row r="63" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="39"/>
       <c r="B64" s="43"/>
       <c r="C64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="54"/>
+      <c r="D64" s="281" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="282"/>
+      <c r="F64" s="230"/>
+      <c r="G64" s="231"/>
       <c r="H64" s="41"/>
       <c r="J64" s="184"/>
       <c r="K64" s="39"/>
       <c r="L64" s="43"/>
       <c r="M64" s="40"/>
-      <c r="N64" s="73"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="54"/>
+      <c r="N64" s="281" t="s">
+        <v>206</v>
+      </c>
+      <c r="O64" s="282"/>
+      <c r="P64" s="230"/>
+      <c r="Q64" s="231"/>
       <c r="R64" s="41"/>
       <c r="T64" s="184"/>
       <c r="U64" s="224"/>
     </row>
-    <row r="65" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" s="42" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="39"/>
       <c r="B65" s="43"/>
       <c r="C65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="54"/>
+      <c r="D65" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="230"/>
+      <c r="G65" s="231"/>
       <c r="H65" s="41"/>
       <c r="J65" s="184"/>
       <c r="K65" s="39"/>
       <c r="L65" s="43"/>
       <c r="M65" s="40"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="54"/>
+      <c r="N65" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="O65" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="P65" s="230"/>
+      <c r="Q65" s="231"/>
       <c r="R65" s="41"/>
       <c r="T65" s="184"/>
       <c r="U65" s="224"/>
     </row>
-    <row r="66" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" s="42" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="39"/>
       <c r="B66" s="43"/>
       <c r="C66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="54"/>
+      <c r="D66" s="234" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="235"/>
+      <c r="F66" s="230"/>
+      <c r="G66" s="229" t="b">
+        <f>E65=E66</f>
+        <v>0</v>
+      </c>
       <c r="H66" s="41"/>
       <c r="J66" s="184"/>
       <c r="K66" s="39"/>
       <c r="L66" s="43"/>
       <c r="M66" s="40"/>
-      <c r="N66" s="73"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="54"/>
+      <c r="N66" s="234" t="s">
+        <v>204</v>
+      </c>
+      <c r="O66" s="235"/>
+      <c r="P66" s="230"/>
+      <c r="Q66" s="229" t="b">
+        <f>O65=O66</f>
+        <v>0</v>
+      </c>
       <c r="R66" s="41"/>
       <c r="T66" s="184"/>
       <c r="U66" s="224"/>
@@ -22954,8 +23257,6 @@
       <c r="A71" s="39"/>
       <c r="B71" s="43"/>
       <c r="C71" s="40"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="40"/>
       <c r="F71" s="40"/>
       <c r="G71" s="54"/>
       <c r="H71" s="41"/>
@@ -22975,8 +23276,6 @@
       <c r="A72" s="39"/>
       <c r="B72" s="43"/>
       <c r="C72" s="40"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="40"/>
       <c r="F72" s="40"/>
       <c r="G72" s="54"/>
       <c r="H72" s="41"/>
@@ -22984,7 +23283,7 @@
       <c r="K72" s="39"/>
       <c r="L72" s="43"/>
       <c r="M72" s="40"/>
-      <c r="N72" s="54"/>
+      <c r="N72" s="73"/>
       <c r="O72" s="40"/>
       <c r="P72" s="40"/>
       <c r="Q72" s="54"/>
@@ -22996,8 +23295,6 @@
       <c r="A73" s="39"/>
       <c r="B73" s="43"/>
       <c r="C73" s="40"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="40"/>
       <c r="F73" s="40"/>
       <c r="G73" s="54"/>
       <c r="H73" s="41"/>
@@ -23005,7 +23302,7 @@
       <c r="K73" s="39"/>
       <c r="L73" s="43"/>
       <c r="M73" s="40"/>
-      <c r="N73" s="54"/>
+      <c r="N73" s="73"/>
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
       <c r="Q73" s="54"/>
@@ -23017,8 +23314,6 @@
       <c r="A74" s="39"/>
       <c r="B74" s="43"/>
       <c r="C74" s="40"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="40"/>
       <c r="F74" s="40"/>
       <c r="G74" s="54"/>
       <c r="H74" s="41"/>
@@ -23026,7 +23321,7 @@
       <c r="K74" s="39"/>
       <c r="L74" s="43"/>
       <c r="M74" s="40"/>
-      <c r="N74" s="54"/>
+      <c r="N74" s="73"/>
       <c r="O74" s="40"/>
       <c r="P74" s="40"/>
       <c r="Q74" s="54"/>
@@ -23047,7 +23342,7 @@
       <c r="K75" s="39"/>
       <c r="L75" s="43"/>
       <c r="M75" s="40"/>
-      <c r="N75" s="54"/>
+      <c r="N75" s="73"/>
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
       <c r="Q75" s="54"/>
@@ -23181,27 +23476,111 @@
       <c r="T81" s="184"/>
       <c r="U81" s="224"/>
     </row>
+    <row r="82" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="39"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="41"/>
+      <c r="J82" s="184"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="41"/>
+      <c r="T82" s="184"/>
+      <c r="U82" s="224"/>
+    </row>
+    <row r="83" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="39"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="41"/>
+      <c r="J83" s="184"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="41"/>
+      <c r="T83" s="184"/>
+      <c r="U83" s="224"/>
+    </row>
+    <row r="84" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="39"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="41"/>
+      <c r="J84" s="184"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="54"/>
+      <c r="R84" s="41"/>
+      <c r="T84" s="184"/>
+      <c r="U84" s="224"/>
+    </row>
+    <row r="85" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="39"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="41"/>
+      <c r="J85" s="184"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="41"/>
+      <c r="T85" s="184"/>
+      <c r="U85" s="224"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N64:O64"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q62">
+  <conditionalFormatting sqref="Q66">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61:E62 O61:O62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E65:E66 O65:O66">
       <formula1>"上,下,波动"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23229,9 +23608,9 @@
   </sheetPr>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -23260,29 +23639,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="277" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="274"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="279"/>
       <c r="J1" s="205"/>
-      <c r="K1" s="272" t="s">
+      <c r="K1" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="274"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="279"/>
       <c r="T1" s="205"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.45">
@@ -24570,21 +24949,31 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A27" s="176">
+      <c r="A27" s="228">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="67">
+      <c r="B27" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="112">
+        <v>1.3151900000000001</v>
+      </c>
+      <c r="D27" s="113">
+        <v>43278</v>
+      </c>
+      <c r="E27" s="116"/>
+      <c r="F27" s="112">
+        <v>1.3119400000000001</v>
+      </c>
+      <c r="G27" s="113">
+        <v>43280</v>
+      </c>
+      <c r="H27" s="112">
         <f t="shared" ref="H27:H31" si="31">IF(B27="卖",C27-F27,F27-C27)*J27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="60" t="str">
+        <v>3.2499999999999751E-3</v>
+      </c>
+      <c r="I27" s="117" t="str">
         <f t="shared" ref="I27:I31" si="32">IF(H27&gt;=0,"盈","亏")</f>
         <v>盈</v>
       </c>
@@ -24900,13 +25289,13 @@
       <c r="A35" s="39"/>
       <c r="B35" s="43"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="275" t="str">
+      <c r="D35" s="280" t="str">
         <f>E38</f>
         <v>上</v>
       </c>
-      <c r="E35" s="275"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="275"/>
+      <c r="E35" s="280"/>
+      <c r="F35" s="280"/>
+      <c r="G35" s="280"/>
       <c r="H35" s="238" t="b">
         <f>G39</f>
         <v>1</v>
@@ -24915,13 +25304,13 @@
       <c r="K35" s="39"/>
       <c r="L35" s="43"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="275" t="str">
+      <c r="N35" s="280" t="str">
         <f>O38</f>
         <v>波动</v>
       </c>
-      <c r="O35" s="275"/>
-      <c r="P35" s="275"/>
-      <c r="Q35" s="275"/>
+      <c r="O35" s="280"/>
+      <c r="P35" s="280"/>
+      <c r="Q35" s="280"/>
       <c r="R35" s="41"/>
       <c r="T35" s="184"/>
     </row>
@@ -24949,10 +25338,10 @@
       <c r="A37" s="39"/>
       <c r="B37" s="43"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="276" t="s">
+      <c r="D37" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="277"/>
+      <c r="E37" s="282"/>
       <c r="F37" s="230"/>
       <c r="G37" s="231"/>
       <c r="H37" s="41"/>
@@ -24960,10 +25349,10 @@
       <c r="K37" s="39"/>
       <c r="L37" s="43"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="276" t="s">
+      <c r="N37" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="277"/>
+      <c r="O37" s="282"/>
       <c r="P37" s="230"/>
       <c r="Q37" s="231"/>
       <c r="R37" s="41"/>
@@ -25357,45 +25746,45 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="281" t="s">
+      <c r="D7" s="286" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="211" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="287"/>
-      <c r="G7" s="290" t="s">
+      <c r="F7" s="292"/>
+      <c r="G7" s="295" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="290" t="s">
+      <c r="H7" s="295" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="278" t="s">
+      <c r="I7" s="283" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="282"/>
+      <c r="D8" s="287"/>
       <c r="E8" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="288"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="279"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="284"/>
     </row>
     <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="283"/>
+      <c r="D9" s="288"/>
       <c r="E9" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="289"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="280"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="297"/>
+      <c r="H9" s="297"/>
+      <c r="I9" s="285"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="284" t="s">
+      <c r="D10" s="289" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="214" t="s">
@@ -25414,7 +25803,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="285"/>
+      <c r="D11" s="290"/>
       <c r="E11" s="212" t="s">
         <v>177</v>
       </c>
@@ -25431,7 +25820,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="285"/>
+      <c r="D12" s="290"/>
       <c r="E12" s="212" t="s">
         <v>176</v>
       </c>
@@ -25448,7 +25837,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="286"/>
+      <c r="D13" s="291"/>
       <c r="E13" s="215" t="s">
         <v>179</v>
       </c>
@@ -25626,38 +26015,38 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K18" s="293" t="s">
+      <c r="K18" s="298" t="s">
         <v>242</v>
       </c>
-      <c r="L18" s="293"/>
-      <c r="M18" s="293"/>
-      <c r="N18" s="293"/>
-      <c r="O18" s="293"/>
-      <c r="P18" s="293"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="298"/>
+      <c r="N18" s="298"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="298"/>
     </row>
     <row r="19" spans="4:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="250" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="293"/>
+      <c r="K19" s="298"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="298"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="298"/>
     </row>
     <row r="20" spans="4:16" ht="31.2" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="293" t="s">
+      <c r="K20" s="298" t="s">
         <v>245</v>
       </c>
-      <c r="L20" s="293"/>
-      <c r="M20" s="293"/>
-      <c r="N20" s="293"/>
-      <c r="O20" s="293"/>
-      <c r="P20" s="293"/>
+      <c r="L20" s="298"/>
+      <c r="M20" s="298"/>
+      <c r="N20" s="298"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="298"/>
     </row>
     <row r="22" spans="4:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E22" s="250" t="s">

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" activeTab="1"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="指南针交易法" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="194">
   <si>
     <t>总额</t>
   </si>
@@ -647,9 +647,6 @@
     <t>中日</t>
   </si>
   <si>
-    <t>入场原因： 日K 和 月K 相符 / 日K 趋势明显变化  周线交易</t>
-  </si>
-  <si>
     <t>几乎没有都有一个容易交易的货币对，不错过、不执念、拿得住</t>
   </si>
   <si>
@@ -677,6 +674,18 @@
 不错过、不执念、拿得住</t>
     </r>
   </si>
+  <si>
+    <t>入场原因： 日K 周K 趋势向下</t>
+  </si>
+  <si>
+    <t>离场条件： 1、日线（MACD）指标出现反转。2、4HK出现亏损</t>
+  </si>
+  <si>
+    <t>入场原因： 日K 和 周K 相符 / 日K 趋势明显变化  周线交易</t>
+  </si>
+  <si>
+    <t>涨跌对策： 看日K线买卖 设置止损（买入价）</t>
+  </si>
 </sst>
 </file>
 
@@ -691,7 +700,7 @@
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="170" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,6 +970,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1704,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2236,6 +2257,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,14 +2317,8 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2314,8 +2344,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3738,11 +3774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227882880"/>
-        <c:axId val="227884416"/>
+        <c:axId val="212154240"/>
+        <c:axId val="212155776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="227882880"/>
+        <c:axId val="212154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,14 +3788,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227884416"/>
+        <c:crossAx val="212155776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="227884416"/>
+        <c:axId val="212155776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227882880"/>
+        <c:crossAx val="212154240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4188,45 +4224,45 @@
       </c>
     </row>
     <row r="7" spans="3:10">
-      <c r="D7" s="318" t="s">
+      <c r="D7" s="323" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="324"/>
-      <c r="G7" s="327" t="s">
+      <c r="F7" s="329"/>
+      <c r="G7" s="332" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="327" t="s">
+      <c r="H7" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="315" t="s">
+      <c r="I7" s="320" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="3:10">
-      <c r="D8" s="319"/>
+      <c r="D8" s="324"/>
       <c r="E8" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="325"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="328"/>
-      <c r="I8" s="316"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="321"/>
     </row>
     <row r="9" spans="3:10" ht="15" thickBot="1">
-      <c r="D9" s="320"/>
+      <c r="D9" s="325"/>
       <c r="E9" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="326"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="329"/>
-      <c r="I9" s="317"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="334"/>
+      <c r="I9" s="322"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="D10" s="321" t="s">
+      <c r="D10" s="326" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="189" t="s">
@@ -4245,7 +4281,7 @@
       </c>
     </row>
     <row r="11" spans="3:10">
-      <c r="D11" s="322"/>
+      <c r="D11" s="327"/>
       <c r="E11" s="187" t="s">
         <v>101</v>
       </c>
@@ -4262,7 +4298,7 @@
       </c>
     </row>
     <row r="12" spans="3:10">
-      <c r="D12" s="322"/>
+      <c r="D12" s="327"/>
       <c r="E12" s="187" t="s">
         <v>100</v>
       </c>
@@ -4279,7 +4315,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" ht="15" thickBot="1">
-      <c r="D13" s="323"/>
+      <c r="D13" s="328"/>
       <c r="E13" s="190" t="s">
         <v>103</v>
       </c>
@@ -4327,11 +4363,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:UH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF3" sqref="BF3:BF17"/>
+      <selection pane="bottomRight" activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="21"/>
@@ -4369,717 +4405,717 @@
   <sheetData>
     <row r="1" spans="1:554" s="307" customFormat="1" ht="24" thickBot="1">
       <c r="A1" s="308"/>
-      <c r="B1" s="351">
+      <c r="B1" s="356">
         <v>2018</v>
       </c>
-      <c r="C1" s="352"/>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="351">
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="358"/>
+      <c r="I1" s="356">
         <v>2018</v>
       </c>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
-      <c r="N1" s="352"/>
-      <c r="O1" s="353"/>
-      <c r="P1" s="351">
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
+      <c r="O1" s="358"/>
+      <c r="P1" s="356">
         <v>2018</v>
       </c>
-      <c r="Q1" s="352"/>
-      <c r="R1" s="352"/>
-      <c r="S1" s="352"/>
-      <c r="T1" s="352"/>
-      <c r="U1" s="352"/>
-      <c r="V1" s="352"/>
-      <c r="W1" s="351">
+      <c r="Q1" s="357"/>
+      <c r="R1" s="357"/>
+      <c r="S1" s="357"/>
+      <c r="T1" s="357"/>
+      <c r="U1" s="357"/>
+      <c r="V1" s="357"/>
+      <c r="W1" s="356">
         <v>2018</v>
       </c>
-      <c r="X1" s="352"/>
-      <c r="Y1" s="352"/>
-      <c r="Z1" s="352"/>
-      <c r="AA1" s="352"/>
-      <c r="AB1" s="352"/>
-      <c r="AC1" s="352"/>
-      <c r="AD1" s="351">
+      <c r="X1" s="357"/>
+      <c r="Y1" s="357"/>
+      <c r="Z1" s="357"/>
+      <c r="AA1" s="357"/>
+      <c r="AB1" s="357"/>
+      <c r="AC1" s="357"/>
+      <c r="AD1" s="356">
         <v>2018</v>
       </c>
-      <c r="AE1" s="352"/>
-      <c r="AF1" s="352"/>
-      <c r="AG1" s="352"/>
-      <c r="AH1" s="352"/>
-      <c r="AI1" s="352"/>
-      <c r="AJ1" s="352"/>
-      <c r="AK1" s="351">
+      <c r="AE1" s="357"/>
+      <c r="AF1" s="357"/>
+      <c r="AG1" s="357"/>
+      <c r="AH1" s="357"/>
+      <c r="AI1" s="357"/>
+      <c r="AJ1" s="357"/>
+      <c r="AK1" s="356">
         <v>2018</v>
       </c>
-      <c r="AL1" s="352"/>
-      <c r="AM1" s="352"/>
-      <c r="AN1" s="352"/>
-      <c r="AO1" s="352"/>
-      <c r="AP1" s="352"/>
-      <c r="AQ1" s="352"/>
-      <c r="AR1" s="351">
+      <c r="AL1" s="357"/>
+      <c r="AM1" s="357"/>
+      <c r="AN1" s="357"/>
+      <c r="AO1" s="357"/>
+      <c r="AP1" s="357"/>
+      <c r="AQ1" s="357"/>
+      <c r="AR1" s="356">
         <v>2018</v>
       </c>
-      <c r="AS1" s="352"/>
-      <c r="AT1" s="352"/>
-      <c r="AU1" s="352"/>
-      <c r="AV1" s="352"/>
-      <c r="AW1" s="352"/>
-      <c r="AX1" s="352"/>
-      <c r="AY1" s="351">
+      <c r="AS1" s="357"/>
+      <c r="AT1" s="357"/>
+      <c r="AU1" s="357"/>
+      <c r="AV1" s="357"/>
+      <c r="AW1" s="357"/>
+      <c r="AX1" s="357"/>
+      <c r="AY1" s="356">
         <v>2018</v>
       </c>
-      <c r="AZ1" s="352"/>
-      <c r="BA1" s="352"/>
-      <c r="BB1" s="352"/>
-      <c r="BC1" s="352"/>
-      <c r="BD1" s="352"/>
-      <c r="BE1" s="352"/>
-      <c r="BF1" s="351">
+      <c r="AZ1" s="357"/>
+      <c r="BA1" s="357"/>
+      <c r="BB1" s="357"/>
+      <c r="BC1" s="357"/>
+      <c r="BD1" s="357"/>
+      <c r="BE1" s="357"/>
+      <c r="BF1" s="356">
         <v>2018</v>
       </c>
-      <c r="BG1" s="352"/>
-      <c r="BH1" s="352"/>
-      <c r="BI1" s="352"/>
-      <c r="BJ1" s="352"/>
-      <c r="BK1" s="352"/>
-      <c r="BL1" s="352"/>
-      <c r="BM1" s="351">
+      <c r="BG1" s="357"/>
+      <c r="BH1" s="357"/>
+      <c r="BI1" s="357"/>
+      <c r="BJ1" s="357"/>
+      <c r="BK1" s="357"/>
+      <c r="BL1" s="357"/>
+      <c r="BM1" s="356">
         <v>2018</v>
       </c>
-      <c r="BN1" s="352"/>
-      <c r="BO1" s="352"/>
-      <c r="BP1" s="352"/>
-      <c r="BQ1" s="352"/>
-      <c r="BR1" s="352"/>
-      <c r="BS1" s="352"/>
-      <c r="BT1" s="351">
+      <c r="BN1" s="357"/>
+      <c r="BO1" s="357"/>
+      <c r="BP1" s="357"/>
+      <c r="BQ1" s="357"/>
+      <c r="BR1" s="357"/>
+      <c r="BS1" s="357"/>
+      <c r="BT1" s="356">
         <v>2018</v>
       </c>
-      <c r="BU1" s="352"/>
-      <c r="BV1" s="352"/>
-      <c r="BW1" s="352"/>
-      <c r="BX1" s="352"/>
-      <c r="BY1" s="352"/>
-      <c r="BZ1" s="352"/>
-      <c r="CA1" s="351">
+      <c r="BU1" s="357"/>
+      <c r="BV1" s="357"/>
+      <c r="BW1" s="357"/>
+      <c r="BX1" s="357"/>
+      <c r="BY1" s="357"/>
+      <c r="BZ1" s="357"/>
+      <c r="CA1" s="356">
         <v>2018</v>
       </c>
-      <c r="CB1" s="352"/>
-      <c r="CC1" s="352"/>
-      <c r="CD1" s="352"/>
-      <c r="CE1" s="352"/>
-      <c r="CF1" s="352"/>
-      <c r="CG1" s="352"/>
-      <c r="CH1" s="351">
+      <c r="CB1" s="357"/>
+      <c r="CC1" s="357"/>
+      <c r="CD1" s="357"/>
+      <c r="CE1" s="357"/>
+      <c r="CF1" s="357"/>
+      <c r="CG1" s="357"/>
+      <c r="CH1" s="356">
         <v>2018</v>
       </c>
-      <c r="CI1" s="352"/>
-      <c r="CJ1" s="352"/>
-      <c r="CK1" s="352"/>
-      <c r="CL1" s="352"/>
-      <c r="CM1" s="352"/>
-      <c r="CN1" s="352"/>
-      <c r="CO1" s="351">
+      <c r="CI1" s="357"/>
+      <c r="CJ1" s="357"/>
+      <c r="CK1" s="357"/>
+      <c r="CL1" s="357"/>
+      <c r="CM1" s="357"/>
+      <c r="CN1" s="357"/>
+      <c r="CO1" s="356">
         <v>2018</v>
       </c>
-      <c r="CP1" s="352"/>
-      <c r="CQ1" s="352"/>
-      <c r="CR1" s="352"/>
-      <c r="CS1" s="352"/>
-      <c r="CT1" s="352"/>
-      <c r="CU1" s="352"/>
-      <c r="CV1" s="351">
+      <c r="CP1" s="357"/>
+      <c r="CQ1" s="357"/>
+      <c r="CR1" s="357"/>
+      <c r="CS1" s="357"/>
+      <c r="CT1" s="357"/>
+      <c r="CU1" s="357"/>
+      <c r="CV1" s="356">
         <v>2018</v>
       </c>
-      <c r="CW1" s="352"/>
-      <c r="CX1" s="352"/>
-      <c r="CY1" s="352"/>
-      <c r="CZ1" s="352"/>
-      <c r="DA1" s="352"/>
-      <c r="DB1" s="352"/>
-      <c r="DC1" s="351">
+      <c r="CW1" s="357"/>
+      <c r="CX1" s="357"/>
+      <c r="CY1" s="357"/>
+      <c r="CZ1" s="357"/>
+      <c r="DA1" s="357"/>
+      <c r="DB1" s="357"/>
+      <c r="DC1" s="356">
         <v>2018</v>
       </c>
-      <c r="DD1" s="352"/>
-      <c r="DE1" s="352"/>
-      <c r="DF1" s="352"/>
-      <c r="DG1" s="352"/>
-      <c r="DH1" s="352"/>
-      <c r="DI1" s="352"/>
-      <c r="DJ1" s="351">
+      <c r="DD1" s="357"/>
+      <c r="DE1" s="357"/>
+      <c r="DF1" s="357"/>
+      <c r="DG1" s="357"/>
+      <c r="DH1" s="357"/>
+      <c r="DI1" s="357"/>
+      <c r="DJ1" s="356">
         <v>2018</v>
       </c>
-      <c r="DK1" s="352"/>
-      <c r="DL1" s="352"/>
-      <c r="DM1" s="352"/>
-      <c r="DN1" s="352"/>
-      <c r="DO1" s="352"/>
-      <c r="DP1" s="352"/>
-      <c r="DQ1" s="351">
+      <c r="DK1" s="357"/>
+      <c r="DL1" s="357"/>
+      <c r="DM1" s="357"/>
+      <c r="DN1" s="357"/>
+      <c r="DO1" s="357"/>
+      <c r="DP1" s="357"/>
+      <c r="DQ1" s="356">
         <v>2018</v>
       </c>
-      <c r="DR1" s="352"/>
-      <c r="DS1" s="352"/>
-      <c r="DT1" s="352"/>
-      <c r="DU1" s="352"/>
-      <c r="DV1" s="352"/>
-      <c r="DW1" s="352"/>
-      <c r="DX1" s="351">
+      <c r="DR1" s="357"/>
+      <c r="DS1" s="357"/>
+      <c r="DT1" s="357"/>
+      <c r="DU1" s="357"/>
+      <c r="DV1" s="357"/>
+      <c r="DW1" s="357"/>
+      <c r="DX1" s="356">
         <v>2018</v>
       </c>
-      <c r="DY1" s="352"/>
-      <c r="DZ1" s="352"/>
-      <c r="EA1" s="352"/>
-      <c r="EB1" s="352"/>
-      <c r="EC1" s="352"/>
-      <c r="ED1" s="352"/>
-      <c r="EE1" s="351">
+      <c r="DY1" s="357"/>
+      <c r="DZ1" s="357"/>
+      <c r="EA1" s="357"/>
+      <c r="EB1" s="357"/>
+      <c r="EC1" s="357"/>
+      <c r="ED1" s="357"/>
+      <c r="EE1" s="356">
         <v>2018</v>
       </c>
-      <c r="EF1" s="352"/>
-      <c r="EG1" s="352"/>
-      <c r="EH1" s="352"/>
-      <c r="EI1" s="352"/>
-      <c r="EJ1" s="352"/>
-      <c r="EK1" s="352"/>
-      <c r="EL1" s="351">
+      <c r="EF1" s="357"/>
+      <c r="EG1" s="357"/>
+      <c r="EH1" s="357"/>
+      <c r="EI1" s="357"/>
+      <c r="EJ1" s="357"/>
+      <c r="EK1" s="357"/>
+      <c r="EL1" s="356">
         <v>2018</v>
       </c>
-      <c r="EM1" s="352"/>
-      <c r="EN1" s="352"/>
-      <c r="EO1" s="352"/>
-      <c r="EP1" s="352"/>
-      <c r="EQ1" s="352"/>
-      <c r="ER1" s="352"/>
-      <c r="ES1" s="351">
+      <c r="EM1" s="357"/>
+      <c r="EN1" s="357"/>
+      <c r="EO1" s="357"/>
+      <c r="EP1" s="357"/>
+      <c r="EQ1" s="357"/>
+      <c r="ER1" s="357"/>
+      <c r="ES1" s="356">
         <v>2018</v>
       </c>
-      <c r="ET1" s="352"/>
-      <c r="EU1" s="352"/>
-      <c r="EV1" s="352"/>
-      <c r="EW1" s="352"/>
-      <c r="EX1" s="352"/>
-      <c r="EY1" s="352"/>
-      <c r="EZ1" s="351">
+      <c r="ET1" s="357"/>
+      <c r="EU1" s="357"/>
+      <c r="EV1" s="357"/>
+      <c r="EW1" s="357"/>
+      <c r="EX1" s="357"/>
+      <c r="EY1" s="357"/>
+      <c r="EZ1" s="356">
         <v>2018</v>
       </c>
-      <c r="FA1" s="352"/>
-      <c r="FB1" s="352"/>
-      <c r="FC1" s="352"/>
-      <c r="FD1" s="352"/>
-      <c r="FE1" s="352"/>
-      <c r="FF1" s="352"/>
-      <c r="FG1" s="351">
+      <c r="FA1" s="357"/>
+      <c r="FB1" s="357"/>
+      <c r="FC1" s="357"/>
+      <c r="FD1" s="357"/>
+      <c r="FE1" s="357"/>
+      <c r="FF1" s="357"/>
+      <c r="FG1" s="356">
         <v>2018</v>
       </c>
-      <c r="FH1" s="352"/>
-      <c r="FI1" s="352"/>
-      <c r="FJ1" s="352"/>
-      <c r="FK1" s="352"/>
-      <c r="FL1" s="352"/>
-      <c r="FM1" s="352"/>
-      <c r="FN1" s="351">
+      <c r="FH1" s="357"/>
+      <c r="FI1" s="357"/>
+      <c r="FJ1" s="357"/>
+      <c r="FK1" s="357"/>
+      <c r="FL1" s="357"/>
+      <c r="FM1" s="357"/>
+      <c r="FN1" s="356">
         <v>2018</v>
       </c>
-      <c r="FO1" s="352"/>
-      <c r="FP1" s="352"/>
-      <c r="FQ1" s="352"/>
-      <c r="FR1" s="352"/>
-      <c r="FS1" s="352"/>
-      <c r="FT1" s="352"/>
-      <c r="FU1" s="351">
+      <c r="FO1" s="357"/>
+      <c r="FP1" s="357"/>
+      <c r="FQ1" s="357"/>
+      <c r="FR1" s="357"/>
+      <c r="FS1" s="357"/>
+      <c r="FT1" s="357"/>
+      <c r="FU1" s="356">
         <v>2018</v>
       </c>
-      <c r="FV1" s="352"/>
-      <c r="FW1" s="352"/>
-      <c r="FX1" s="352"/>
-      <c r="FY1" s="352"/>
-      <c r="FZ1" s="352"/>
-      <c r="GA1" s="352"/>
-      <c r="GB1" s="351">
+      <c r="FV1" s="357"/>
+      <c r="FW1" s="357"/>
+      <c r="FX1" s="357"/>
+      <c r="FY1" s="357"/>
+      <c r="FZ1" s="357"/>
+      <c r="GA1" s="357"/>
+      <c r="GB1" s="356">
         <v>2019</v>
       </c>
-      <c r="GC1" s="352"/>
-      <c r="GD1" s="352"/>
-      <c r="GE1" s="352"/>
-      <c r="GF1" s="352"/>
-      <c r="GG1" s="352"/>
-      <c r="GH1" s="352"/>
-      <c r="GI1" s="351">
+      <c r="GC1" s="357"/>
+      <c r="GD1" s="357"/>
+      <c r="GE1" s="357"/>
+      <c r="GF1" s="357"/>
+      <c r="GG1" s="357"/>
+      <c r="GH1" s="357"/>
+      <c r="GI1" s="356">
         <v>2019</v>
       </c>
-      <c r="GJ1" s="352"/>
-      <c r="GK1" s="352"/>
-      <c r="GL1" s="352"/>
-      <c r="GM1" s="352"/>
-      <c r="GN1" s="352"/>
-      <c r="GO1" s="352"/>
-      <c r="GP1" s="351">
+      <c r="GJ1" s="357"/>
+      <c r="GK1" s="357"/>
+      <c r="GL1" s="357"/>
+      <c r="GM1" s="357"/>
+      <c r="GN1" s="357"/>
+      <c r="GO1" s="357"/>
+      <c r="GP1" s="356">
         <v>2019</v>
       </c>
-      <c r="GQ1" s="352"/>
-      <c r="GR1" s="352"/>
-      <c r="GS1" s="352"/>
-      <c r="GT1" s="352"/>
-      <c r="GU1" s="352"/>
-      <c r="GV1" s="352"/>
-      <c r="GW1" s="351">
+      <c r="GQ1" s="357"/>
+      <c r="GR1" s="357"/>
+      <c r="GS1" s="357"/>
+      <c r="GT1" s="357"/>
+      <c r="GU1" s="357"/>
+      <c r="GV1" s="357"/>
+      <c r="GW1" s="356">
         <v>2019</v>
       </c>
-      <c r="GX1" s="352"/>
-      <c r="GY1" s="352"/>
-      <c r="GZ1" s="352"/>
-      <c r="HA1" s="352"/>
-      <c r="HB1" s="352"/>
-      <c r="HC1" s="352"/>
-      <c r="HD1" s="351">
+      <c r="GX1" s="357"/>
+      <c r="GY1" s="357"/>
+      <c r="GZ1" s="357"/>
+      <c r="HA1" s="357"/>
+      <c r="HB1" s="357"/>
+      <c r="HC1" s="357"/>
+      <c r="HD1" s="356">
         <v>2019</v>
       </c>
-      <c r="HE1" s="352"/>
-      <c r="HF1" s="352"/>
-      <c r="HG1" s="352"/>
-      <c r="HH1" s="352"/>
-      <c r="HI1" s="352"/>
-      <c r="HJ1" s="352"/>
-      <c r="HK1" s="351">
+      <c r="HE1" s="357"/>
+      <c r="HF1" s="357"/>
+      <c r="HG1" s="357"/>
+      <c r="HH1" s="357"/>
+      <c r="HI1" s="357"/>
+      <c r="HJ1" s="357"/>
+      <c r="HK1" s="356">
         <v>2019</v>
       </c>
-      <c r="HL1" s="352"/>
-      <c r="HM1" s="352"/>
-      <c r="HN1" s="352"/>
-      <c r="HO1" s="352"/>
-      <c r="HP1" s="352"/>
-      <c r="HQ1" s="352"/>
-      <c r="HR1" s="351">
+      <c r="HL1" s="357"/>
+      <c r="HM1" s="357"/>
+      <c r="HN1" s="357"/>
+      <c r="HO1" s="357"/>
+      <c r="HP1" s="357"/>
+      <c r="HQ1" s="357"/>
+      <c r="HR1" s="356">
         <v>2019</v>
       </c>
-      <c r="HS1" s="352"/>
-      <c r="HT1" s="352"/>
-      <c r="HU1" s="352"/>
-      <c r="HV1" s="352"/>
-      <c r="HW1" s="352"/>
-      <c r="HX1" s="352"/>
-      <c r="HY1" s="351">
+      <c r="HS1" s="357"/>
+      <c r="HT1" s="357"/>
+      <c r="HU1" s="357"/>
+      <c r="HV1" s="357"/>
+      <c r="HW1" s="357"/>
+      <c r="HX1" s="357"/>
+      <c r="HY1" s="356">
         <v>2019</v>
       </c>
-      <c r="HZ1" s="352"/>
-      <c r="IA1" s="352"/>
-      <c r="IB1" s="352"/>
-      <c r="IC1" s="352"/>
-      <c r="ID1" s="352"/>
-      <c r="IE1" s="352"/>
-      <c r="IF1" s="351">
+      <c r="HZ1" s="357"/>
+      <c r="IA1" s="357"/>
+      <c r="IB1" s="357"/>
+      <c r="IC1" s="357"/>
+      <c r="ID1" s="357"/>
+      <c r="IE1" s="357"/>
+      <c r="IF1" s="356">
         <v>2019</v>
       </c>
-      <c r="IG1" s="352"/>
-      <c r="IH1" s="352"/>
-      <c r="II1" s="352"/>
-      <c r="IJ1" s="352"/>
-      <c r="IK1" s="352"/>
-      <c r="IL1" s="352"/>
-      <c r="IM1" s="351">
+      <c r="IG1" s="357"/>
+      <c r="IH1" s="357"/>
+      <c r="II1" s="357"/>
+      <c r="IJ1" s="357"/>
+      <c r="IK1" s="357"/>
+      <c r="IL1" s="357"/>
+      <c r="IM1" s="356">
         <v>2019</v>
       </c>
-      <c r="IN1" s="352"/>
-      <c r="IO1" s="352"/>
-      <c r="IP1" s="352"/>
-      <c r="IQ1" s="352"/>
-      <c r="IR1" s="352"/>
-      <c r="IS1" s="352"/>
-      <c r="IT1" s="351">
+      <c r="IN1" s="357"/>
+      <c r="IO1" s="357"/>
+      <c r="IP1" s="357"/>
+      <c r="IQ1" s="357"/>
+      <c r="IR1" s="357"/>
+      <c r="IS1" s="357"/>
+      <c r="IT1" s="356">
         <v>2019</v>
       </c>
-      <c r="IU1" s="352"/>
-      <c r="IV1" s="352"/>
-      <c r="IW1" s="352"/>
-      <c r="IX1" s="352"/>
-      <c r="IY1" s="352"/>
-      <c r="IZ1" s="352"/>
-      <c r="JA1" s="351">
+      <c r="IU1" s="357"/>
+      <c r="IV1" s="357"/>
+      <c r="IW1" s="357"/>
+      <c r="IX1" s="357"/>
+      <c r="IY1" s="357"/>
+      <c r="IZ1" s="357"/>
+      <c r="JA1" s="356">
         <v>2019</v>
       </c>
-      <c r="JB1" s="352"/>
-      <c r="JC1" s="352"/>
-      <c r="JD1" s="352"/>
-      <c r="JE1" s="352"/>
-      <c r="JF1" s="352"/>
-      <c r="JG1" s="352"/>
-      <c r="JH1" s="351">
+      <c r="JB1" s="357"/>
+      <c r="JC1" s="357"/>
+      <c r="JD1" s="357"/>
+      <c r="JE1" s="357"/>
+      <c r="JF1" s="357"/>
+      <c r="JG1" s="357"/>
+      <c r="JH1" s="356">
         <v>2019</v>
       </c>
-      <c r="JI1" s="352"/>
-      <c r="JJ1" s="352"/>
-      <c r="JK1" s="352"/>
-      <c r="JL1" s="352"/>
-      <c r="JM1" s="352"/>
-      <c r="JN1" s="352"/>
-      <c r="JO1" s="351">
+      <c r="JI1" s="357"/>
+      <c r="JJ1" s="357"/>
+      <c r="JK1" s="357"/>
+      <c r="JL1" s="357"/>
+      <c r="JM1" s="357"/>
+      <c r="JN1" s="357"/>
+      <c r="JO1" s="356">
         <v>2019</v>
       </c>
-      <c r="JP1" s="352"/>
-      <c r="JQ1" s="352"/>
-      <c r="JR1" s="352"/>
-      <c r="JS1" s="352"/>
-      <c r="JT1" s="352"/>
-      <c r="JU1" s="352"/>
-      <c r="JV1" s="351">
+      <c r="JP1" s="357"/>
+      <c r="JQ1" s="357"/>
+      <c r="JR1" s="357"/>
+      <c r="JS1" s="357"/>
+      <c r="JT1" s="357"/>
+      <c r="JU1" s="357"/>
+      <c r="JV1" s="356">
         <v>2019</v>
       </c>
-      <c r="JW1" s="352"/>
-      <c r="JX1" s="352"/>
-      <c r="JY1" s="352"/>
-      <c r="JZ1" s="352"/>
-      <c r="KA1" s="352"/>
-      <c r="KB1" s="352"/>
-      <c r="KC1" s="351">
+      <c r="JW1" s="357"/>
+      <c r="JX1" s="357"/>
+      <c r="JY1" s="357"/>
+      <c r="JZ1" s="357"/>
+      <c r="KA1" s="357"/>
+      <c r="KB1" s="357"/>
+      <c r="KC1" s="356">
         <v>2019</v>
       </c>
-      <c r="KD1" s="352"/>
-      <c r="KE1" s="352"/>
-      <c r="KF1" s="352"/>
-      <c r="KG1" s="352"/>
-      <c r="KH1" s="352"/>
-      <c r="KI1" s="352"/>
-      <c r="KJ1" s="351">
+      <c r="KD1" s="357"/>
+      <c r="KE1" s="357"/>
+      <c r="KF1" s="357"/>
+      <c r="KG1" s="357"/>
+      <c r="KH1" s="357"/>
+      <c r="KI1" s="357"/>
+      <c r="KJ1" s="356">
         <v>2019</v>
       </c>
-      <c r="KK1" s="352"/>
-      <c r="KL1" s="352"/>
-      <c r="KM1" s="352"/>
-      <c r="KN1" s="352"/>
-      <c r="KO1" s="352"/>
-      <c r="KP1" s="352"/>
-      <c r="KQ1" s="351">
+      <c r="KK1" s="357"/>
+      <c r="KL1" s="357"/>
+      <c r="KM1" s="357"/>
+      <c r="KN1" s="357"/>
+      <c r="KO1" s="357"/>
+      <c r="KP1" s="357"/>
+      <c r="KQ1" s="356">
         <v>2019</v>
       </c>
-      <c r="KR1" s="352"/>
-      <c r="KS1" s="352"/>
-      <c r="KT1" s="352"/>
-      <c r="KU1" s="352"/>
-      <c r="KV1" s="352"/>
-      <c r="KW1" s="352"/>
-      <c r="KX1" s="351">
+      <c r="KR1" s="357"/>
+      <c r="KS1" s="357"/>
+      <c r="KT1" s="357"/>
+      <c r="KU1" s="357"/>
+      <c r="KV1" s="357"/>
+      <c r="KW1" s="357"/>
+      <c r="KX1" s="356">
         <v>2019</v>
       </c>
-      <c r="KY1" s="352"/>
-      <c r="KZ1" s="352"/>
-      <c r="LA1" s="352"/>
-      <c r="LB1" s="352"/>
-      <c r="LC1" s="352"/>
-      <c r="LD1" s="352"/>
-      <c r="LE1" s="351">
+      <c r="KY1" s="357"/>
+      <c r="KZ1" s="357"/>
+      <c r="LA1" s="357"/>
+      <c r="LB1" s="357"/>
+      <c r="LC1" s="357"/>
+      <c r="LD1" s="357"/>
+      <c r="LE1" s="356">
         <v>2019</v>
       </c>
-      <c r="LF1" s="352"/>
-      <c r="LG1" s="352"/>
-      <c r="LH1" s="352"/>
-      <c r="LI1" s="352"/>
-      <c r="LJ1" s="352"/>
-      <c r="LK1" s="352"/>
-      <c r="LL1" s="351">
+      <c r="LF1" s="357"/>
+      <c r="LG1" s="357"/>
+      <c r="LH1" s="357"/>
+      <c r="LI1" s="357"/>
+      <c r="LJ1" s="357"/>
+      <c r="LK1" s="357"/>
+      <c r="LL1" s="356">
         <v>2019</v>
       </c>
-      <c r="LM1" s="352"/>
-      <c r="LN1" s="352"/>
-      <c r="LO1" s="352"/>
-      <c r="LP1" s="352"/>
-      <c r="LQ1" s="352"/>
-      <c r="LR1" s="352"/>
-      <c r="LS1" s="351">
+      <c r="LM1" s="357"/>
+      <c r="LN1" s="357"/>
+      <c r="LO1" s="357"/>
+      <c r="LP1" s="357"/>
+      <c r="LQ1" s="357"/>
+      <c r="LR1" s="357"/>
+      <c r="LS1" s="356">
         <v>2019</v>
       </c>
-      <c r="LT1" s="352"/>
-      <c r="LU1" s="352"/>
-      <c r="LV1" s="352"/>
-      <c r="LW1" s="352"/>
-      <c r="LX1" s="352"/>
-      <c r="LY1" s="352"/>
-      <c r="LZ1" s="351">
+      <c r="LT1" s="357"/>
+      <c r="LU1" s="357"/>
+      <c r="LV1" s="357"/>
+      <c r="LW1" s="357"/>
+      <c r="LX1" s="357"/>
+      <c r="LY1" s="357"/>
+      <c r="LZ1" s="356">
         <v>2019</v>
       </c>
-      <c r="MA1" s="352"/>
-      <c r="MB1" s="352"/>
-      <c r="MC1" s="352"/>
-      <c r="MD1" s="352"/>
-      <c r="ME1" s="352"/>
-      <c r="MF1" s="352"/>
-      <c r="MG1" s="351">
+      <c r="MA1" s="357"/>
+      <c r="MB1" s="357"/>
+      <c r="MC1" s="357"/>
+      <c r="MD1" s="357"/>
+      <c r="ME1" s="357"/>
+      <c r="MF1" s="357"/>
+      <c r="MG1" s="356">
         <v>2019</v>
       </c>
-      <c r="MH1" s="352"/>
-      <c r="MI1" s="352"/>
-      <c r="MJ1" s="352"/>
-      <c r="MK1" s="352"/>
-      <c r="ML1" s="352"/>
-      <c r="MM1" s="352"/>
-      <c r="MN1" s="351">
+      <c r="MH1" s="357"/>
+      <c r="MI1" s="357"/>
+      <c r="MJ1" s="357"/>
+      <c r="MK1" s="357"/>
+      <c r="ML1" s="357"/>
+      <c r="MM1" s="357"/>
+      <c r="MN1" s="356">
         <v>2019</v>
       </c>
-      <c r="MO1" s="352"/>
-      <c r="MP1" s="352"/>
-      <c r="MQ1" s="352"/>
-      <c r="MR1" s="352"/>
-      <c r="MS1" s="352"/>
-      <c r="MT1" s="352"/>
-      <c r="MU1" s="351">
+      <c r="MO1" s="357"/>
+      <c r="MP1" s="357"/>
+      <c r="MQ1" s="357"/>
+      <c r="MR1" s="357"/>
+      <c r="MS1" s="357"/>
+      <c r="MT1" s="357"/>
+      <c r="MU1" s="356">
         <v>2019</v>
       </c>
-      <c r="MV1" s="352"/>
-      <c r="MW1" s="352"/>
-      <c r="MX1" s="352"/>
-      <c r="MY1" s="352"/>
-      <c r="MZ1" s="352"/>
-      <c r="NA1" s="352"/>
-      <c r="NB1" s="351">
+      <c r="MV1" s="357"/>
+      <c r="MW1" s="357"/>
+      <c r="MX1" s="357"/>
+      <c r="MY1" s="357"/>
+      <c r="MZ1" s="357"/>
+      <c r="NA1" s="357"/>
+      <c r="NB1" s="356">
         <v>2019</v>
       </c>
-      <c r="NC1" s="352"/>
-      <c r="ND1" s="352"/>
-      <c r="NE1" s="352"/>
-      <c r="NF1" s="352"/>
-      <c r="NG1" s="352"/>
-      <c r="NH1" s="352"/>
-      <c r="NI1" s="351">
+      <c r="NC1" s="357"/>
+      <c r="ND1" s="357"/>
+      <c r="NE1" s="357"/>
+      <c r="NF1" s="357"/>
+      <c r="NG1" s="357"/>
+      <c r="NH1" s="357"/>
+      <c r="NI1" s="356">
         <v>2019</v>
       </c>
-      <c r="NJ1" s="352"/>
-      <c r="NK1" s="352"/>
-      <c r="NL1" s="352"/>
-      <c r="NM1" s="352"/>
-      <c r="NN1" s="352"/>
-      <c r="NO1" s="352"/>
-      <c r="NP1" s="351">
+      <c r="NJ1" s="357"/>
+      <c r="NK1" s="357"/>
+      <c r="NL1" s="357"/>
+      <c r="NM1" s="357"/>
+      <c r="NN1" s="357"/>
+      <c r="NO1" s="357"/>
+      <c r="NP1" s="356">
         <v>2019</v>
       </c>
-      <c r="NQ1" s="352"/>
-      <c r="NR1" s="352"/>
-      <c r="NS1" s="352"/>
-      <c r="NT1" s="352"/>
-      <c r="NU1" s="352"/>
-      <c r="NV1" s="352"/>
-      <c r="NW1" s="351">
+      <c r="NQ1" s="357"/>
+      <c r="NR1" s="357"/>
+      <c r="NS1" s="357"/>
+      <c r="NT1" s="357"/>
+      <c r="NU1" s="357"/>
+      <c r="NV1" s="357"/>
+      <c r="NW1" s="356">
         <v>2019</v>
       </c>
-      <c r="NX1" s="352"/>
-      <c r="NY1" s="352"/>
-      <c r="NZ1" s="352"/>
-      <c r="OA1" s="352"/>
-      <c r="OB1" s="352"/>
-      <c r="OC1" s="352"/>
-      <c r="OD1" s="351">
+      <c r="NX1" s="357"/>
+      <c r="NY1" s="357"/>
+      <c r="NZ1" s="357"/>
+      <c r="OA1" s="357"/>
+      <c r="OB1" s="357"/>
+      <c r="OC1" s="357"/>
+      <c r="OD1" s="356">
         <v>2019</v>
       </c>
-      <c r="OE1" s="352"/>
-      <c r="OF1" s="352"/>
-      <c r="OG1" s="352"/>
-      <c r="OH1" s="352"/>
-      <c r="OI1" s="352"/>
-      <c r="OJ1" s="352"/>
-      <c r="OK1" s="351">
+      <c r="OE1" s="357"/>
+      <c r="OF1" s="357"/>
+      <c r="OG1" s="357"/>
+      <c r="OH1" s="357"/>
+      <c r="OI1" s="357"/>
+      <c r="OJ1" s="357"/>
+      <c r="OK1" s="356">
         <v>2019</v>
       </c>
-      <c r="OL1" s="352"/>
-      <c r="OM1" s="352"/>
-      <c r="ON1" s="352"/>
-      <c r="OO1" s="352"/>
-      <c r="OP1" s="352"/>
-      <c r="OQ1" s="352"/>
-      <c r="OR1" s="351">
+      <c r="OL1" s="357"/>
+      <c r="OM1" s="357"/>
+      <c r="ON1" s="357"/>
+      <c r="OO1" s="357"/>
+      <c r="OP1" s="357"/>
+      <c r="OQ1" s="357"/>
+      <c r="OR1" s="356">
         <v>2019</v>
       </c>
-      <c r="OS1" s="352"/>
-      <c r="OT1" s="352"/>
-      <c r="OU1" s="352"/>
-      <c r="OV1" s="352"/>
-      <c r="OW1" s="352"/>
-      <c r="OX1" s="352"/>
-      <c r="OY1" s="351">
+      <c r="OS1" s="357"/>
+      <c r="OT1" s="357"/>
+      <c r="OU1" s="357"/>
+      <c r="OV1" s="357"/>
+      <c r="OW1" s="357"/>
+      <c r="OX1" s="357"/>
+      <c r="OY1" s="356">
         <v>2019</v>
       </c>
-      <c r="OZ1" s="352"/>
-      <c r="PA1" s="352"/>
-      <c r="PB1" s="352"/>
-      <c r="PC1" s="352"/>
-      <c r="PD1" s="352"/>
-      <c r="PE1" s="352"/>
-      <c r="PF1" s="351">
+      <c r="OZ1" s="357"/>
+      <c r="PA1" s="357"/>
+      <c r="PB1" s="357"/>
+      <c r="PC1" s="357"/>
+      <c r="PD1" s="357"/>
+      <c r="PE1" s="357"/>
+      <c r="PF1" s="356">
         <v>2019</v>
       </c>
-      <c r="PG1" s="352"/>
-      <c r="PH1" s="352"/>
-      <c r="PI1" s="352"/>
-      <c r="PJ1" s="352"/>
-      <c r="PK1" s="352"/>
-      <c r="PL1" s="352"/>
-      <c r="PM1" s="351">
+      <c r="PG1" s="357"/>
+      <c r="PH1" s="357"/>
+      <c r="PI1" s="357"/>
+      <c r="PJ1" s="357"/>
+      <c r="PK1" s="357"/>
+      <c r="PL1" s="357"/>
+      <c r="PM1" s="356">
         <v>2019</v>
       </c>
-      <c r="PN1" s="352"/>
-      <c r="PO1" s="352"/>
-      <c r="PP1" s="352"/>
-      <c r="PQ1" s="352"/>
-      <c r="PR1" s="352"/>
-      <c r="PS1" s="352"/>
-      <c r="PT1" s="351">
+      <c r="PN1" s="357"/>
+      <c r="PO1" s="357"/>
+      <c r="PP1" s="357"/>
+      <c r="PQ1" s="357"/>
+      <c r="PR1" s="357"/>
+      <c r="PS1" s="357"/>
+      <c r="PT1" s="356">
         <v>2019</v>
       </c>
-      <c r="PU1" s="352"/>
-      <c r="PV1" s="352"/>
-      <c r="PW1" s="352"/>
-      <c r="PX1" s="352"/>
-      <c r="PY1" s="352"/>
-      <c r="PZ1" s="352"/>
-      <c r="QA1" s="351">
+      <c r="PU1" s="357"/>
+      <c r="PV1" s="357"/>
+      <c r="PW1" s="357"/>
+      <c r="PX1" s="357"/>
+      <c r="PY1" s="357"/>
+      <c r="PZ1" s="357"/>
+      <c r="QA1" s="356">
         <v>2019</v>
       </c>
-      <c r="QB1" s="352"/>
-      <c r="QC1" s="352"/>
-      <c r="QD1" s="352"/>
-      <c r="QE1" s="352"/>
-      <c r="QF1" s="352"/>
-      <c r="QG1" s="352"/>
-      <c r="QH1" s="351">
+      <c r="QB1" s="357"/>
+      <c r="QC1" s="357"/>
+      <c r="QD1" s="357"/>
+      <c r="QE1" s="357"/>
+      <c r="QF1" s="357"/>
+      <c r="QG1" s="357"/>
+      <c r="QH1" s="356">
         <v>2019</v>
       </c>
-      <c r="QI1" s="352"/>
-      <c r="QJ1" s="352"/>
-      <c r="QK1" s="352"/>
-      <c r="QL1" s="352"/>
-      <c r="QM1" s="352"/>
-      <c r="QN1" s="352"/>
-      <c r="QO1" s="351">
+      <c r="QI1" s="357"/>
+      <c r="QJ1" s="357"/>
+      <c r="QK1" s="357"/>
+      <c r="QL1" s="357"/>
+      <c r="QM1" s="357"/>
+      <c r="QN1" s="357"/>
+      <c r="QO1" s="356">
         <v>2019</v>
       </c>
-      <c r="QP1" s="352"/>
-      <c r="QQ1" s="352"/>
-      <c r="QR1" s="352"/>
-      <c r="QS1" s="352"/>
-      <c r="QT1" s="352"/>
-      <c r="QU1" s="352"/>
-      <c r="QV1" s="351">
+      <c r="QP1" s="357"/>
+      <c r="QQ1" s="357"/>
+      <c r="QR1" s="357"/>
+      <c r="QS1" s="357"/>
+      <c r="QT1" s="357"/>
+      <c r="QU1" s="357"/>
+      <c r="QV1" s="356">
         <v>2019</v>
       </c>
-      <c r="QW1" s="352"/>
-      <c r="QX1" s="352"/>
-      <c r="QY1" s="352"/>
-      <c r="QZ1" s="352"/>
-      <c r="RA1" s="352"/>
-      <c r="RB1" s="352"/>
-      <c r="RC1" s="351">
+      <c r="QW1" s="357"/>
+      <c r="QX1" s="357"/>
+      <c r="QY1" s="357"/>
+      <c r="QZ1" s="357"/>
+      <c r="RA1" s="357"/>
+      <c r="RB1" s="357"/>
+      <c r="RC1" s="356">
         <v>2019</v>
       </c>
-      <c r="RD1" s="352"/>
-      <c r="RE1" s="352"/>
-      <c r="RF1" s="352"/>
-      <c r="RG1" s="352"/>
-      <c r="RH1" s="352"/>
-      <c r="RI1" s="352"/>
-      <c r="RJ1" s="351">
+      <c r="RD1" s="357"/>
+      <c r="RE1" s="357"/>
+      <c r="RF1" s="357"/>
+      <c r="RG1" s="357"/>
+      <c r="RH1" s="357"/>
+      <c r="RI1" s="357"/>
+      <c r="RJ1" s="356">
         <v>2019</v>
       </c>
-      <c r="RK1" s="352"/>
-      <c r="RL1" s="352"/>
-      <c r="RM1" s="352"/>
-      <c r="RN1" s="352"/>
-      <c r="RO1" s="352"/>
-      <c r="RP1" s="352"/>
-      <c r="RQ1" s="351">
+      <c r="RK1" s="357"/>
+      <c r="RL1" s="357"/>
+      <c r="RM1" s="357"/>
+      <c r="RN1" s="357"/>
+      <c r="RO1" s="357"/>
+      <c r="RP1" s="357"/>
+      <c r="RQ1" s="356">
         <v>2019</v>
       </c>
-      <c r="RR1" s="352"/>
-      <c r="RS1" s="352"/>
-      <c r="RT1" s="352"/>
-      <c r="RU1" s="352"/>
-      <c r="RV1" s="352"/>
-      <c r="RW1" s="352"/>
-      <c r="RX1" s="351">
+      <c r="RR1" s="357"/>
+      <c r="RS1" s="357"/>
+      <c r="RT1" s="357"/>
+      <c r="RU1" s="357"/>
+      <c r="RV1" s="357"/>
+      <c r="RW1" s="357"/>
+      <c r="RX1" s="356">
         <v>2019</v>
       </c>
-      <c r="RY1" s="352"/>
-      <c r="RZ1" s="352"/>
-      <c r="SA1" s="352"/>
-      <c r="SB1" s="352"/>
-      <c r="SC1" s="352"/>
-      <c r="SD1" s="352"/>
-      <c r="SE1" s="351">
+      <c r="RY1" s="357"/>
+      <c r="RZ1" s="357"/>
+      <c r="SA1" s="357"/>
+      <c r="SB1" s="357"/>
+      <c r="SC1" s="357"/>
+      <c r="SD1" s="357"/>
+      <c r="SE1" s="356">
         <v>2019</v>
       </c>
-      <c r="SF1" s="352"/>
-      <c r="SG1" s="352"/>
-      <c r="SH1" s="352"/>
-      <c r="SI1" s="352"/>
-      <c r="SJ1" s="352"/>
-      <c r="SK1" s="352"/>
-      <c r="SL1" s="351">
+      <c r="SF1" s="357"/>
+      <c r="SG1" s="357"/>
+      <c r="SH1" s="357"/>
+      <c r="SI1" s="357"/>
+      <c r="SJ1" s="357"/>
+      <c r="SK1" s="357"/>
+      <c r="SL1" s="356">
         <v>2019</v>
       </c>
-      <c r="SM1" s="352"/>
-      <c r="SN1" s="352"/>
-      <c r="SO1" s="352"/>
-      <c r="SP1" s="352"/>
-      <c r="SQ1" s="352"/>
-      <c r="SR1" s="352"/>
-      <c r="SS1" s="351">
+      <c r="SM1" s="357"/>
+      <c r="SN1" s="357"/>
+      <c r="SO1" s="357"/>
+      <c r="SP1" s="357"/>
+      <c r="SQ1" s="357"/>
+      <c r="SR1" s="357"/>
+      <c r="SS1" s="356">
         <v>2019</v>
       </c>
-      <c r="ST1" s="352"/>
-      <c r="SU1" s="352"/>
-      <c r="SV1" s="352"/>
-      <c r="SW1" s="352"/>
-      <c r="SX1" s="352"/>
-      <c r="SY1" s="352"/>
-      <c r="SZ1" s="351">
+      <c r="ST1" s="357"/>
+      <c r="SU1" s="357"/>
+      <c r="SV1" s="357"/>
+      <c r="SW1" s="357"/>
+      <c r="SX1" s="357"/>
+      <c r="SY1" s="357"/>
+      <c r="SZ1" s="356">
         <v>2019</v>
       </c>
-      <c r="TA1" s="352"/>
-      <c r="TB1" s="352"/>
-      <c r="TC1" s="352"/>
-      <c r="TD1" s="352"/>
-      <c r="TE1" s="352"/>
-      <c r="TF1" s="352"/>
-      <c r="TG1" s="351">
+      <c r="TA1" s="357"/>
+      <c r="TB1" s="357"/>
+      <c r="TC1" s="357"/>
+      <c r="TD1" s="357"/>
+      <c r="TE1" s="357"/>
+      <c r="TF1" s="357"/>
+      <c r="TG1" s="356">
         <v>2019</v>
       </c>
-      <c r="TH1" s="352"/>
-      <c r="TI1" s="352"/>
-      <c r="TJ1" s="352"/>
-      <c r="TK1" s="352"/>
-      <c r="TL1" s="352"/>
-      <c r="TM1" s="352"/>
-      <c r="TN1" s="351">
+      <c r="TH1" s="357"/>
+      <c r="TI1" s="357"/>
+      <c r="TJ1" s="357"/>
+      <c r="TK1" s="357"/>
+      <c r="TL1" s="357"/>
+      <c r="TM1" s="357"/>
+      <c r="TN1" s="356">
         <v>2019</v>
       </c>
-      <c r="TO1" s="352"/>
-      <c r="TP1" s="352"/>
-      <c r="TQ1" s="352"/>
-      <c r="TR1" s="352"/>
-      <c r="TS1" s="352"/>
-      <c r="TT1" s="352"/>
-      <c r="TU1" s="351">
+      <c r="TO1" s="357"/>
+      <c r="TP1" s="357"/>
+      <c r="TQ1" s="357"/>
+      <c r="TR1" s="357"/>
+      <c r="TS1" s="357"/>
+      <c r="TT1" s="357"/>
+      <c r="TU1" s="356">
         <v>2019</v>
       </c>
-      <c r="TV1" s="352"/>
-      <c r="TW1" s="352"/>
-      <c r="TX1" s="352"/>
-      <c r="TY1" s="352"/>
-      <c r="TZ1" s="352"/>
-      <c r="UA1" s="352"/>
-      <c r="UB1" s="351">
+      <c r="TV1" s="357"/>
+      <c r="TW1" s="357"/>
+      <c r="TX1" s="357"/>
+      <c r="TY1" s="357"/>
+      <c r="TZ1" s="357"/>
+      <c r="UA1" s="357"/>
+      <c r="UB1" s="356">
         <v>2020</v>
       </c>
-      <c r="UC1" s="352"/>
-      <c r="UD1" s="352"/>
-      <c r="UE1" s="352"/>
-      <c r="UF1" s="352"/>
-      <c r="UG1" s="352"/>
-      <c r="UH1" s="353"/>
+      <c r="UC1" s="357"/>
+      <c r="UD1" s="357"/>
+      <c r="UE1" s="357"/>
+      <c r="UF1" s="357"/>
+      <c r="UG1" s="357"/>
+      <c r="UH1" s="358"/>
     </row>
     <row r="2" spans="1:554" s="305" customFormat="1" ht="21.6" thickBot="1">
       <c r="A2" s="309"/>
@@ -6767,6 +6803,8 @@
       <c r="BB3" s="312"/>
       <c r="BC3" s="312"/>
       <c r="BF3" s="312"/>
+      <c r="BG3" s="312"/>
+      <c r="BH3" s="236"/>
     </row>
     <row r="4" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="313"/>
@@ -6792,8 +6830,10 @@
       <c r="AZ5" s="312"/>
       <c r="BA5" s="312"/>
       <c r="BB5" s="312"/>
-      <c r="BC5" s="312"/>
-      <c r="BF5" s="312"/>
+      <c r="BC5" s="236"/>
+      <c r="BF5" s="236"/>
+      <c r="BG5" s="236"/>
+      <c r="BH5" s="236"/>
     </row>
     <row r="6" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="313"/>
@@ -6819,8 +6859,10 @@
       <c r="AZ7" s="312"/>
       <c r="BA7" s="312"/>
       <c r="BB7" s="312"/>
-      <c r="BC7" s="312"/>
-      <c r="BF7" s="312"/>
+      <c r="BC7" s="236"/>
+      <c r="BF7" s="236"/>
+      <c r="BG7" s="236"/>
+      <c r="BH7" s="236"/>
     </row>
     <row r="8" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="313"/>
@@ -6848,6 +6890,8 @@
       <c r="BB9" s="227"/>
       <c r="BC9" s="312"/>
       <c r="BF9" s="312"/>
+      <c r="BG9" s="312"/>
+      <c r="BH9" s="227"/>
     </row>
     <row r="10" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="313"/>
@@ -6875,6 +6919,8 @@
       <c r="BB11" s="312"/>
       <c r="BC11" s="227"/>
       <c r="BF11" s="227"/>
+      <c r="BG11" s="227"/>
+      <c r="BH11" s="227"/>
     </row>
     <row r="12" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="313"/>
@@ -6902,6 +6948,8 @@
       <c r="BB13" s="312"/>
       <c r="BC13" s="312"/>
       <c r="BF13" s="312"/>
+      <c r="BG13" s="312"/>
+      <c r="BH13" s="236"/>
     </row>
     <row r="14" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="313"/>
@@ -6929,11 +6977,13 @@
       <c r="BB15" s="312"/>
       <c r="BC15" s="312"/>
       <c r="BF15" s="312"/>
+      <c r="BG15" s="312"/>
+      <c r="BH15" s="236"/>
     </row>
     <row r="16" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="313"/>
     </row>
-    <row r="17" spans="1:58" s="111" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:60" s="111" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="311" t="s">
         <v>187</v>
       </c>
@@ -6956,66 +7006,25 @@
       <c r="BB17" s="312"/>
       <c r="BC17" s="312"/>
       <c r="BF17" s="312"/>
-    </row>
-    <row r="18" spans="1:58" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="BG17" s="312"/>
+      <c r="BH17" s="312"/>
+    </row>
+    <row r="18" spans="1:60" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="313"/>
     </row>
-    <row r="19" spans="1:58" ht="18" customHeight="1"/>
+    <row r="19" spans="1:60" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="FN1:FT1"/>
-    <mergeCell ref="CO1:CU1"/>
-    <mergeCell ref="CV1:DB1"/>
-    <mergeCell ref="DC1:DI1"/>
-    <mergeCell ref="DJ1:DP1"/>
-    <mergeCell ref="DQ1:DW1"/>
-    <mergeCell ref="DX1:ED1"/>
-    <mergeCell ref="EE1:EK1"/>
-    <mergeCell ref="EL1:ER1"/>
-    <mergeCell ref="ES1:EY1"/>
-    <mergeCell ref="EZ1:FF1"/>
-    <mergeCell ref="FG1:FM1"/>
-    <mergeCell ref="IT1:IZ1"/>
-    <mergeCell ref="FU1:GA1"/>
-    <mergeCell ref="GB1:GH1"/>
-    <mergeCell ref="GI1:GO1"/>
-    <mergeCell ref="GP1:GV1"/>
-    <mergeCell ref="GW1:HC1"/>
-    <mergeCell ref="HD1:HJ1"/>
-    <mergeCell ref="HK1:HQ1"/>
-    <mergeCell ref="HR1:HX1"/>
-    <mergeCell ref="HY1:IE1"/>
-    <mergeCell ref="IF1:IL1"/>
-    <mergeCell ref="IM1:IS1"/>
-    <mergeCell ref="LZ1:MF1"/>
-    <mergeCell ref="JA1:JG1"/>
-    <mergeCell ref="JH1:JN1"/>
-    <mergeCell ref="JO1:JU1"/>
-    <mergeCell ref="JV1:KB1"/>
-    <mergeCell ref="KC1:KI1"/>
-    <mergeCell ref="KJ1:KP1"/>
-    <mergeCell ref="KQ1:KW1"/>
-    <mergeCell ref="KX1:LD1"/>
-    <mergeCell ref="LE1:LK1"/>
-    <mergeCell ref="LL1:LR1"/>
-    <mergeCell ref="LS1:LY1"/>
-    <mergeCell ref="PF1:PL1"/>
-    <mergeCell ref="MG1:MM1"/>
-    <mergeCell ref="MN1:MT1"/>
-    <mergeCell ref="MU1:NA1"/>
-    <mergeCell ref="NB1:NH1"/>
-    <mergeCell ref="NI1:NO1"/>
-    <mergeCell ref="NP1:NV1"/>
-    <mergeCell ref="TG1:TM1"/>
-    <mergeCell ref="TN1:TT1"/>
-    <mergeCell ref="TU1:UA1"/>
-    <mergeCell ref="UB1:UH1"/>
-    <mergeCell ref="RC1:RI1"/>
-    <mergeCell ref="RJ1:RP1"/>
-    <mergeCell ref="RQ1:RW1"/>
-    <mergeCell ref="RX1:SD1"/>
-    <mergeCell ref="SE1:SK1"/>
-    <mergeCell ref="SL1:SR1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AY1:BE1"/>
+    <mergeCell ref="BF1:BL1"/>
+    <mergeCell ref="BM1:BS1"/>
     <mergeCell ref="BT1:BZ1"/>
     <mergeCell ref="CA1:CG1"/>
     <mergeCell ref="CH1:CN1"/>
@@ -7032,16 +7041,59 @@
     <mergeCell ref="OK1:OQ1"/>
     <mergeCell ref="OR1:OX1"/>
     <mergeCell ref="OY1:PE1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AY1:BE1"/>
-    <mergeCell ref="BF1:BL1"/>
-    <mergeCell ref="BM1:BS1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="TG1:TM1"/>
+    <mergeCell ref="TN1:TT1"/>
+    <mergeCell ref="TU1:UA1"/>
+    <mergeCell ref="UB1:UH1"/>
+    <mergeCell ref="RC1:RI1"/>
+    <mergeCell ref="RJ1:RP1"/>
+    <mergeCell ref="RQ1:RW1"/>
+    <mergeCell ref="RX1:SD1"/>
+    <mergeCell ref="SE1:SK1"/>
+    <mergeCell ref="SL1:SR1"/>
+    <mergeCell ref="PF1:PL1"/>
+    <mergeCell ref="MG1:MM1"/>
+    <mergeCell ref="MN1:MT1"/>
+    <mergeCell ref="MU1:NA1"/>
+    <mergeCell ref="NB1:NH1"/>
+    <mergeCell ref="NI1:NO1"/>
+    <mergeCell ref="NP1:NV1"/>
+    <mergeCell ref="LZ1:MF1"/>
+    <mergeCell ref="JA1:JG1"/>
+    <mergeCell ref="JH1:JN1"/>
+    <mergeCell ref="JO1:JU1"/>
+    <mergeCell ref="JV1:KB1"/>
+    <mergeCell ref="KC1:KI1"/>
+    <mergeCell ref="KJ1:KP1"/>
+    <mergeCell ref="KQ1:KW1"/>
+    <mergeCell ref="KX1:LD1"/>
+    <mergeCell ref="LE1:LK1"/>
+    <mergeCell ref="LL1:LR1"/>
+    <mergeCell ref="LS1:LY1"/>
+    <mergeCell ref="IT1:IZ1"/>
+    <mergeCell ref="FU1:GA1"/>
+    <mergeCell ref="GB1:GH1"/>
+    <mergeCell ref="GI1:GO1"/>
+    <mergeCell ref="GP1:GV1"/>
+    <mergeCell ref="GW1:HC1"/>
+    <mergeCell ref="HD1:HJ1"/>
+    <mergeCell ref="HK1:HQ1"/>
+    <mergeCell ref="HR1:HX1"/>
+    <mergeCell ref="HY1:IE1"/>
+    <mergeCell ref="IF1:IL1"/>
+    <mergeCell ref="IM1:IS1"/>
+    <mergeCell ref="FN1:FT1"/>
+    <mergeCell ref="CO1:CU1"/>
+    <mergeCell ref="CV1:DB1"/>
+    <mergeCell ref="DC1:DI1"/>
+    <mergeCell ref="DJ1:DP1"/>
+    <mergeCell ref="DQ1:DW1"/>
+    <mergeCell ref="DX1:ED1"/>
+    <mergeCell ref="EE1:EK1"/>
+    <mergeCell ref="EL1:ER1"/>
+    <mergeCell ref="ES1:EY1"/>
+    <mergeCell ref="EZ1:FF1"/>
+    <mergeCell ref="FG1:FM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7054,11 +7106,11 @@
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T94" sqref="T94"/>
+      <selection pane="bottomRight" activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7138,10 +7190,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="339" t="s">
+      <c r="I3" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="340"/>
+      <c r="J3" s="343"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -7198,7 +7250,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="336" t="s">
+      <c r="A5" s="339" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -7247,7 +7299,7 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="337"/>
+      <c r="A6" s="340"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -7300,7 +7352,7 @@
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="337"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -7353,7 +7405,7 @@
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1">
-      <c r="A8" s="338"/>
+      <c r="A8" s="341"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -7409,7 +7461,7 @@
       <c r="X8" s="18"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="336" t="s">
+      <c r="A9" s="339" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -7467,7 +7519,7 @@
       <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="337"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -7523,7 +7575,7 @@
       <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="337"/>
+      <c r="A11" s="340"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -7579,7 +7631,7 @@
       <c r="X11" s="18"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1">
-      <c r="A12" s="338"/>
+      <c r="A12" s="341"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -7635,7 +7687,7 @@
       <c r="X12" s="18"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="337" t="s">
+      <c r="A13" s="340" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="109">
@@ -7693,7 +7745,7 @@
       <c r="X13" s="18"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A14" s="337"/>
+      <c r="A14" s="340"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -7750,7 +7802,7 @@
       <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="337"/>
+      <c r="A15" s="340"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -7807,7 +7859,7 @@
       <c r="X15" s="18"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1">
-      <c r="A16" s="338"/>
+      <c r="A16" s="341"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -7863,7 +7915,7 @@
       <c r="X16" s="18"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="337" t="s">
+      <c r="A17" s="340" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="109">
@@ -7920,7 +7972,7 @@
       <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="337"/>
+      <c r="A18" s="340"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -7975,7 +8027,7 @@
       <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="337"/>
+      <c r="A19" s="340"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -8030,7 +8082,7 @@
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="337"/>
+      <c r="A20" s="340"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -8085,7 +8137,7 @@
       <c r="X20" s="18"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1">
-      <c r="A21" s="337"/>
+      <c r="A21" s="340"/>
       <c r="B21" s="103">
         <v>17</v>
       </c>
@@ -8140,7 +8192,7 @@
       <c r="X21" s="18"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="336" t="s">
+      <c r="A22" s="339" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -8198,7 +8250,7 @@
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="337"/>
+      <c r="A23" s="340"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -8254,7 +8306,7 @@
       <c r="X23" s="18"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="337"/>
+      <c r="A24" s="340"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -8310,7 +8362,7 @@
       <c r="X24" s="18"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1">
-      <c r="A25" s="338"/>
+      <c r="A25" s="341"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -8366,7 +8418,7 @@
       <c r="X25" s="18"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="337" t="s">
+      <c r="A26" s="340" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="109">
@@ -8423,7 +8475,7 @@
       <c r="X26" s="18"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="337"/>
+      <c r="A27" s="340"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -8478,7 +8530,7 @@
       <c r="X27" s="18"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="337"/>
+      <c r="A28" s="340"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -8533,7 +8585,7 @@
       <c r="X28" s="18"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1">
-      <c r="A29" s="337"/>
+      <c r="A29" s="340"/>
       <c r="B29" s="103">
         <v>25</v>
       </c>
@@ -8588,7 +8640,7 @@
       <c r="X29" s="18"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="336" t="s">
+      <c r="A30" s="339" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -8646,7 +8698,7 @@
       <c r="X30" s="18"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="337"/>
+      <c r="A31" s="340"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -8702,7 +8754,7 @@
       <c r="X31" s="18"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="337"/>
+      <c r="A32" s="340"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -8758,7 +8810,7 @@
       <c r="X32" s="18"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="337"/>
+      <c r="A33" s="340"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -8814,7 +8866,7 @@
       <c r="X33" s="18"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1">
-      <c r="A34" s="338"/>
+      <c r="A34" s="341"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -8870,7 +8922,7 @@
       <c r="X34" s="18"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="337" t="s">
+      <c r="A35" s="340" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="109">
@@ -8929,7 +8981,7 @@
       <c r="X35" s="18"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="337"/>
+      <c r="A36" s="340"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -8984,7 +9036,7 @@
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="337"/>
+      <c r="A37" s="340"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -9039,7 +9091,7 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1">
-      <c r="A38" s="337"/>
+      <c r="A38" s="340"/>
       <c r="B38" s="103">
         <v>34</v>
       </c>
@@ -9094,7 +9146,7 @@
       <c r="X38" s="18"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="336" t="s">
+      <c r="A39" s="339" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -9152,7 +9204,7 @@
       <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="337"/>
+      <c r="A40" s="340"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -9208,7 +9260,7 @@
       <c r="X40" s="18"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="337"/>
+      <c r="A41" s="340"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -9266,7 +9318,7 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1">
-      <c r="A42" s="338"/>
+      <c r="A42" s="341"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -9324,7 +9376,7 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="336" t="s">
+      <c r="A43" s="339" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -9384,7 +9436,7 @@
       <c r="X43" s="18"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="337"/>
+      <c r="A44" s="340"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -9443,7 +9495,7 @@
       <c r="X44" s="18"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="337"/>
+      <c r="A45" s="340"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -9509,7 +9561,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="337"/>
+      <c r="A46" s="340"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -9572,7 +9624,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1">
-      <c r="A47" s="338"/>
+      <c r="A47" s="341"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -9630,7 +9682,7 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="336" t="s">
+      <c r="A48" s="339" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -9691,7 +9743,7 @@
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="337"/>
+      <c r="A49" s="340"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -9752,7 +9804,7 @@
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="337"/>
+      <c r="A50" s="340"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -9813,7 +9865,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1">
-      <c r="A51" s="338"/>
+      <c r="A51" s="341"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -9872,7 +9924,7 @@
       </c>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="336" t="s">
+      <c r="A52" s="339" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -9933,7 +9985,7 @@
       </c>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="337"/>
+      <c r="A53" s="340"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -9992,7 +10044,7 @@
       </c>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="337"/>
+      <c r="A54" s="340"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -10048,7 +10100,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1">
-      <c r="A55" s="337"/>
+      <c r="A55" s="340"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -10102,18 +10154,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="341" t="s">
+      <c r="X55" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="Y55" s="341"/>
-      <c r="Z55" s="341"/>
-      <c r="AA55" s="341"/>
-      <c r="AB55" s="341"/>
-      <c r="AC55" s="341"/>
-      <c r="AD55" s="341"/>
+      <c r="Y55" s="335"/>
+      <c r="Z55" s="335"/>
+      <c r="AA55" s="335"/>
+      <c r="AB55" s="335"/>
+      <c r="AC55" s="335"/>
+      <c r="AD55" s="335"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="338"/>
+      <c r="A56" s="341"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -10167,16 +10219,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="341"/>
-      <c r="Y56" s="341"/>
-      <c r="Z56" s="341"/>
-      <c r="AA56" s="341"/>
-      <c r="AB56" s="341"/>
-      <c r="AC56" s="341"/>
-      <c r="AD56" s="341"/>
+      <c r="X56" s="335"/>
+      <c r="Y56" s="335"/>
+      <c r="Z56" s="335"/>
+      <c r="AA56" s="335"/>
+      <c r="AB56" s="335"/>
+      <c r="AC56" s="335"/>
+      <c r="AD56" s="335"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1">
-      <c r="A57" s="333" t="s">
+      <c r="A57" s="336" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="106">
@@ -10232,16 +10284,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="341"/>
-      <c r="Y57" s="341"/>
-      <c r="Z57" s="341"/>
-      <c r="AA57" s="341"/>
-      <c r="AB57" s="341"/>
-      <c r="AC57" s="341"/>
-      <c r="AD57" s="341"/>
+      <c r="X57" s="335"/>
+      <c r="Y57" s="335"/>
+      <c r="Z57" s="335"/>
+      <c r="AA57" s="335"/>
+      <c r="AB57" s="335"/>
+      <c r="AC57" s="335"/>
+      <c r="AD57" s="335"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="334"/>
+      <c r="A58" s="337"/>
       <c r="B58" s="104">
         <v>2</v>
       </c>
@@ -10300,7 +10352,7 @@
       </c>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="334"/>
+      <c r="A59" s="337"/>
       <c r="B59" s="104">
         <v>3</v>
       </c>
@@ -10359,7 +10411,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1">
-      <c r="A60" s="335"/>
+      <c r="A60" s="338"/>
       <c r="B60" s="107">
         <v>4</v>
       </c>
@@ -10415,7 +10467,7 @@
       </c>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="333" t="s">
+      <c r="A61" s="336" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="106">
@@ -10473,7 +10525,7 @@
       </c>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="334"/>
+      <c r="A62" s="337"/>
       <c r="B62" s="104">
         <v>6</v>
       </c>
@@ -10532,7 +10584,7 @@
       </c>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="334"/>
+      <c r="A63" s="337"/>
       <c r="B63" s="104">
         <v>7</v>
       </c>
@@ -10591,7 +10643,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1">
-      <c r="A64" s="335"/>
+      <c r="A64" s="338"/>
       <c r="B64" s="107">
         <v>8</v>
       </c>
@@ -10650,7 +10702,7 @@
       </c>
     </row>
     <row r="65" spans="1:29">
-      <c r="A65" s="333" t="s">
+      <c r="A65" s="336" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="106">
@@ -10711,7 +10763,7 @@
       </c>
     </row>
     <row r="66" spans="1:29">
-      <c r="A66" s="334"/>
+      <c r="A66" s="337"/>
       <c r="B66" s="104">
         <v>10</v>
       </c>
@@ -10770,7 +10822,7 @@
       </c>
     </row>
     <row r="67" spans="1:29">
-      <c r="A67" s="334"/>
+      <c r="A67" s="337"/>
       <c r="B67" s="104">
         <v>11</v>
       </c>
@@ -10829,7 +10881,7 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="15" thickBot="1">
-      <c r="A68" s="335"/>
+      <c r="A68" s="338"/>
       <c r="B68" s="107">
         <v>12</v>
       </c>
@@ -10888,7 +10940,7 @@
       </c>
     </row>
     <row r="69" spans="1:29">
-      <c r="A69" s="334" t="s">
+      <c r="A69" s="337" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="105">
@@ -10947,7 +10999,7 @@
       </c>
     </row>
     <row r="70" spans="1:29">
-      <c r="A70" s="334"/>
+      <c r="A70" s="337"/>
       <c r="B70" s="104">
         <v>14</v>
       </c>
@@ -11004,7 +11056,7 @@
       </c>
     </row>
     <row r="71" spans="1:29">
-      <c r="A71" s="334"/>
+      <c r="A71" s="337"/>
       <c r="B71" s="104">
         <v>15</v>
       </c>
@@ -11058,7 +11110,7 @@
       </c>
     </row>
     <row r="72" spans="1:29">
-      <c r="A72" s="334"/>
+      <c r="A72" s="337"/>
       <c r="B72" s="104">
         <v>16</v>
       </c>
@@ -11115,7 +11167,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1">
-      <c r="A73" s="334"/>
+      <c r="A73" s="337"/>
       <c r="B73" s="108">
         <v>17</v>
       </c>
@@ -11172,7 +11224,7 @@
       </c>
     </row>
     <row r="74" spans="1:29">
-      <c r="A74" s="333" t="s">
+      <c r="A74" s="336" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="106">
@@ -11230,7 +11282,7 @@
       </c>
     </row>
     <row r="75" spans="1:29">
-      <c r="A75" s="334"/>
+      <c r="A75" s="337"/>
       <c r="B75" s="104">
         <v>19</v>
       </c>
@@ -11289,7 +11341,7 @@
       </c>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="334"/>
+      <c r="A76" s="337"/>
       <c r="B76" s="104">
         <v>20</v>
       </c>
@@ -11344,7 +11396,7 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="15" thickBot="1">
-      <c r="A77" s="335"/>
+      <c r="A77" s="338"/>
       <c r="B77" s="107">
         <v>21</v>
       </c>
@@ -11400,7 +11452,7 @@
       </c>
     </row>
     <row r="78" spans="1:29">
-      <c r="A78" s="334" t="s">
+      <c r="A78" s="337" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="105">
@@ -11452,7 +11504,7 @@
       </c>
     </row>
     <row r="79" spans="1:29">
-      <c r="A79" s="334"/>
+      <c r="A79" s="337"/>
       <c r="B79" s="104">
         <v>23</v>
       </c>
@@ -11502,7 +11554,7 @@
       </c>
     </row>
     <row r="80" spans="1:29">
-      <c r="A80" s="334"/>
+      <c r="A80" s="337"/>
       <c r="B80" s="104">
         <v>24</v>
       </c>
@@ -11550,18 +11602,18 @@
       <c r="Q80" s="116">
         <v>0</v>
       </c>
-      <c r="W80" s="341" t="s">
+      <c r="W80" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="X80" s="341"/>
-      <c r="Y80" s="341"/>
-      <c r="Z80" s="341"/>
-      <c r="AA80" s="341"/>
-      <c r="AB80" s="341"/>
-      <c r="AC80" s="341"/>
+      <c r="X80" s="335"/>
+      <c r="Y80" s="335"/>
+      <c r="Z80" s="335"/>
+      <c r="AA80" s="335"/>
+      <c r="AB80" s="335"/>
+      <c r="AC80" s="335"/>
     </row>
     <row r="81" spans="1:29" ht="15" thickBot="1">
-      <c r="A81" s="334"/>
+      <c r="A81" s="337"/>
       <c r="B81" s="108">
         <v>25</v>
       </c>
@@ -11609,16 +11661,16 @@
       <c r="Q81" s="116">
         <v>0</v>
       </c>
-      <c r="W81" s="341"/>
-      <c r="X81" s="341"/>
-      <c r="Y81" s="341"/>
-      <c r="Z81" s="341"/>
-      <c r="AA81" s="341"/>
-      <c r="AB81" s="341"/>
-      <c r="AC81" s="341"/>
+      <c r="W81" s="335"/>
+      <c r="X81" s="335"/>
+      <c r="Y81" s="335"/>
+      <c r="Z81" s="335"/>
+      <c r="AA81" s="335"/>
+      <c r="AB81" s="335"/>
+      <c r="AC81" s="335"/>
     </row>
     <row r="82" spans="1:29">
-      <c r="A82" s="333" t="s">
+      <c r="A82" s="336" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="106">
@@ -11671,16 +11723,16 @@
         <v>0</v>
       </c>
       <c r="R82" s="101"/>
-      <c r="W82" s="341"/>
-      <c r="X82" s="341"/>
-      <c r="Y82" s="341"/>
-      <c r="Z82" s="341"/>
-      <c r="AA82" s="341"/>
-      <c r="AB82" s="341"/>
-      <c r="AC82" s="341"/>
+      <c r="W82" s="335"/>
+      <c r="X82" s="335"/>
+      <c r="Y82" s="335"/>
+      <c r="Z82" s="335"/>
+      <c r="AA82" s="335"/>
+      <c r="AB82" s="335"/>
+      <c r="AC82" s="335"/>
     </row>
     <row r="83" spans="1:29">
-      <c r="A83" s="334"/>
+      <c r="A83" s="337"/>
       <c r="B83" s="104">
         <v>27</v>
       </c>
@@ -11732,7 +11784,7 @@
       </c>
     </row>
     <row r="84" spans="1:29">
-      <c r="A84" s="334"/>
+      <c r="A84" s="337"/>
       <c r="B84" s="104">
         <v>28</v>
       </c>
@@ -11784,7 +11836,7 @@
       </c>
     </row>
     <row r="85" spans="1:29">
-      <c r="A85" s="334"/>
+      <c r="A85" s="337"/>
       <c r="B85" s="104">
         <v>29</v>
       </c>
@@ -11836,7 +11888,7 @@
       </c>
     </row>
     <row r="86" spans="1:29" ht="15" thickBot="1">
-      <c r="A86" s="335"/>
+      <c r="A86" s="338"/>
       <c r="B86" s="107">
         <v>30</v>
       </c>
@@ -11889,7 +11941,7 @@
       <c r="R86" s="124"/>
     </row>
     <row r="87" spans="1:29">
-      <c r="A87" s="334" t="s">
+      <c r="A87" s="337" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="105">
@@ -11941,7 +11993,7 @@
       </c>
     </row>
     <row r="88" spans="1:29">
-      <c r="A88" s="334"/>
+      <c r="A88" s="337"/>
       <c r="B88" s="104">
         <v>32</v>
       </c>
@@ -11991,7 +12043,7 @@
       </c>
     </row>
     <row r="89" spans="1:29">
-      <c r="A89" s="334"/>
+      <c r="A89" s="337"/>
       <c r="B89" s="104">
         <v>33</v>
       </c>
@@ -12041,7 +12093,7 @@
       </c>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1">
-      <c r="A90" s="334"/>
+      <c r="A90" s="337"/>
       <c r="B90" s="108">
         <v>34</v>
       </c>
@@ -12091,7 +12143,7 @@
       </c>
     </row>
     <row r="91" spans="1:29">
-      <c r="A91" s="333" t="s">
+      <c r="A91" s="336" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="106">
@@ -12136,7 +12188,7 @@
       <c r="R91" s="101"/>
     </row>
     <row r="92" spans="1:29">
-      <c r="A92" s="334"/>
+      <c r="A92" s="337"/>
       <c r="B92" s="104">
         <v>36</v>
       </c>
@@ -12178,7 +12230,7 @@
       <c r="Q92" s="115"/>
     </row>
     <row r="93" spans="1:29">
-      <c r="A93" s="334"/>
+      <c r="A93" s="337"/>
       <c r="B93" s="104">
         <v>37</v>
       </c>
@@ -12220,7 +12272,7 @@
       <c r="Q93" s="115"/>
     </row>
     <row r="94" spans="1:29">
-      <c r="A94" s="334"/>
+      <c r="A94" s="337"/>
       <c r="B94" s="104">
         <v>38</v>
       </c>
@@ -12262,7 +12314,7 @@
       <c r="Q94" s="115"/>
     </row>
     <row r="95" spans="1:29" ht="15" thickBot="1">
-      <c r="A95" s="335"/>
+      <c r="A95" s="338"/>
       <c r="B95" s="107">
         <v>39</v>
       </c>
@@ -12305,7 +12357,7 @@
       <c r="R95" s="124"/>
     </row>
     <row r="96" spans="1:29">
-      <c r="A96" s="334" t="s">
+      <c r="A96" s="337" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="105">
@@ -12342,7 +12394,7 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="334"/>
+      <c r="A97" s="337"/>
       <c r="B97" s="104">
         <v>41</v>
       </c>
@@ -12377,7 +12429,7 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="334"/>
+      <c r="A98" s="337"/>
       <c r="B98" s="104">
         <v>42</v>
       </c>
@@ -12412,7 +12464,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1">
-      <c r="A99" s="334"/>
+      <c r="A99" s="337"/>
       <c r="B99" s="108">
         <v>43</v>
       </c>
@@ -12447,7 +12499,7 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="333" t="s">
+      <c r="A100" s="336" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="106">
@@ -12492,7 +12544,7 @@
       <c r="R100" s="101"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="334"/>
+      <c r="A101" s="337"/>
       <c r="B101" s="104">
         <v>45</v>
       </c>
@@ -12534,7 +12586,7 @@
       <c r="Q101" s="115"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="334"/>
+      <c r="A102" s="337"/>
       <c r="B102" s="104">
         <v>46</v>
       </c>
@@ -12576,7 +12628,7 @@
       <c r="Q102" s="115"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1">
-      <c r="A103" s="335"/>
+      <c r="A103" s="338"/>
       <c r="B103" s="107">
         <v>47</v>
       </c>
@@ -12619,7 +12671,7 @@
       <c r="R103" s="124"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="333" t="s">
+      <c r="A104" s="336" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="106">
@@ -12664,7 +12716,7 @@
       <c r="R104" s="101"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="334"/>
+      <c r="A105" s="337"/>
       <c r="B105" s="104">
         <v>49</v>
       </c>
@@ -12706,7 +12758,7 @@
       <c r="Q105" s="115"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="334"/>
+      <c r="A106" s="337"/>
       <c r="B106" s="104">
         <v>50</v>
       </c>
@@ -12748,7 +12800,7 @@
       <c r="Q106" s="115"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="334"/>
+      <c r="A107" s="337"/>
       <c r="B107" s="104">
         <v>51</v>
       </c>
@@ -12790,7 +12842,7 @@
       <c r="Q107" s="115"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1">
-      <c r="A108" s="335"/>
+      <c r="A108" s="338"/>
       <c r="B108" s="107">
         <v>52</v>
       </c>
@@ -12833,7 +12885,7 @@
       <c r="R108" s="124"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="333" t="s">
+      <c r="A109" s="336" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="105">
@@ -12850,7 +12902,7 @@
       </c>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="334"/>
+      <c r="A110" s="337"/>
       <c r="B110" s="104">
         <v>2</v>
       </c>
@@ -12865,7 +12917,7 @@
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="334"/>
+      <c r="A111" s="337"/>
       <c r="B111" s="104">
         <v>3</v>
       </c>
@@ -12880,7 +12932,7 @@
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="334"/>
+      <c r="A112" s="337"/>
       <c r="B112" s="104">
         <v>4</v>
       </c>
@@ -12895,7 +12947,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1">
-      <c r="A113" s="335"/>
+      <c r="A113" s="338"/>
       <c r="B113" s="104">
         <v>5</v>
       </c>
@@ -12910,7 +12962,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="333" t="s">
+      <c r="A114" s="336" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="104">
@@ -12927,7 +12979,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="334"/>
+      <c r="A115" s="337"/>
       <c r="B115" s="104">
         <v>7</v>
       </c>
@@ -12942,7 +12994,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="334"/>
+      <c r="A116" s="337"/>
       <c r="B116" s="104">
         <v>8</v>
       </c>
@@ -12957,7 +13009,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1">
-      <c r="A117" s="335"/>
+      <c r="A117" s="338"/>
       <c r="B117" s="104">
         <v>9</v>
       </c>
@@ -12972,7 +13024,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="333" t="s">
+      <c r="A118" s="336" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="104">
@@ -12989,7 +13041,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="334"/>
+      <c r="A119" s="337"/>
       <c r="B119" s="104">
         <v>11</v>
       </c>
@@ -13004,7 +13056,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="334"/>
+      <c r="A120" s="337"/>
       <c r="B120" s="104">
         <v>12</v>
       </c>
@@ -13019,7 +13071,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1">
-      <c r="A121" s="335"/>
+      <c r="A121" s="338"/>
       <c r="B121" s="104">
         <v>13</v>
       </c>
@@ -13034,7 +13086,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="330" t="s">
+      <c r="A122" s="344" t="s">
         <v>4</v>
       </c>
       <c r="B122" s="310">
@@ -13051,7 +13103,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="331"/>
+      <c r="A123" s="345"/>
       <c r="B123" s="310">
         <v>15</v>
       </c>
@@ -13066,7 +13118,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="331"/>
+      <c r="A124" s="345"/>
       <c r="B124" s="310">
         <v>16</v>
       </c>
@@ -13081,7 +13133,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="331"/>
+      <c r="A125" s="345"/>
       <c r="B125" s="310">
         <v>17</v>
       </c>
@@ -13096,7 +13148,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1">
-      <c r="A126" s="332"/>
+      <c r="A126" s="346"/>
       <c r="B126" s="310">
         <v>18</v>
       </c>
@@ -13111,7 +13163,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="333" t="s">
+      <c r="A127" s="336" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="104">
@@ -13125,7 +13177,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="334"/>
+      <c r="A128" s="337"/>
       <c r="B128" s="104">
         <v>20</v>
       </c>
@@ -13137,7 +13189,7 @@
       </c>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="334"/>
+      <c r="A129" s="337"/>
       <c r="B129" s="104">
         <v>21</v>
       </c>
@@ -13149,7 +13201,7 @@
       </c>
     </row>
     <row r="130" spans="1:18" ht="15" thickBot="1">
-      <c r="A130" s="335"/>
+      <c r="A130" s="338"/>
       <c r="B130" s="104">
         <v>22</v>
       </c>
@@ -14628,11 +14680,23 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="W80:AC82"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="X55:AD57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A30:A34"/>
@@ -14643,23 +14707,11 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="W80:AC82"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="X55:AD57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="8" priority="4">
@@ -14693,7 +14745,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -14712,17 +14764,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="349" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="346"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="351"/>
       <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="21" thickBot="1">
@@ -15878,13 +15930,13 @@
       <c r="A46" s="22"/>
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="347" t="str">
+      <c r="D46" s="352" t="str">
         <f>E49</f>
         <v>波动</v>
       </c>
-      <c r="E46" s="347"/>
-      <c r="F46" s="347"/>
-      <c r="G46" s="347"/>
+      <c r="E46" s="352"/>
+      <c r="F46" s="352"/>
+      <c r="G46" s="352"/>
       <c r="H46" s="24"/>
       <c r="J46" s="172"/>
     </row>
@@ -15903,10 +15955,10 @@
       <c r="A48" s="22"/>
       <c r="B48" s="26"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="342" t="s">
+      <c r="D48" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="343"/>
+      <c r="E48" s="348"/>
       <c r="F48" s="205"/>
       <c r="G48" s="206"/>
       <c r="H48" s="24"/>
@@ -16096,8 +16148,8 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z61" sqref="Z61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -16128,29 +16180,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="29.4">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="349" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="346"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="351"/>
       <c r="J1" s="180"/>
-      <c r="P1" s="344" t="s">
+      <c r="P1" s="349" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="346"/>
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="350"/>
+      <c r="W1" s="350"/>
+      <c r="X1" s="351"/>
       <c r="Y1" s="180"/>
     </row>
     <row r="2" spans="1:25" ht="21" thickBot="1">
@@ -19805,30 +19857,30 @@
       <c r="S70" s="56"/>
     </row>
     <row r="71" spans="1:26" ht="39.6">
-      <c r="D71" s="347" t="str">
+      <c r="D71" s="352" t="str">
         <f>E74</f>
         <v>波动</v>
       </c>
-      <c r="E71" s="347"/>
-      <c r="F71" s="347"/>
-      <c r="G71" s="347"/>
-      <c r="S71" s="347" t="str">
+      <c r="E71" s="352"/>
+      <c r="F71" s="352"/>
+      <c r="G71" s="352"/>
+      <c r="S71" s="352" t="str">
         <f>T74</f>
         <v>波动</v>
       </c>
-      <c r="T71" s="347"/>
-      <c r="U71" s="347"/>
-      <c r="V71" s="347"/>
+      <c r="T71" s="352"/>
+      <c r="U71" s="352"/>
+      <c r="V71" s="352"/>
     </row>
     <row r="72" spans="1:26" ht="17.399999999999999" thickBot="1"/>
     <row r="73" spans="1:26" s="25" customFormat="1" ht="24.6">
       <c r="A73" s="22"/>
       <c r="B73" s="26"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="342" t="s">
+      <c r="D73" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="343"/>
+      <c r="E73" s="348"/>
       <c r="F73" s="205"/>
       <c r="G73" s="206"/>
       <c r="H73" s="24"/>
@@ -19841,10 +19893,10 @@
       <c r="P73" s="22"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="23"/>
-      <c r="S73" s="342" t="s">
+      <c r="S73" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="T73" s="343"/>
+      <c r="T73" s="348"/>
       <c r="U73" s="205"/>
       <c r="V73" s="206"/>
       <c r="W73" s="24"/>
@@ -20436,11 +20488,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -20470,29 +20522,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="29.4">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="349" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="346"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="351"/>
       <c r="J1" s="180"/>
-      <c r="P1" s="344" t="s">
+      <c r="P1" s="349" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="346"/>
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="350"/>
+      <c r="W1" s="350"/>
+      <c r="X1" s="351"/>
       <c r="Y1" s="180"/>
     </row>
     <row r="2" spans="1:25" ht="21" thickBot="1">
@@ -22082,7 +22134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:27">
       <c r="A33" s="248">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -22131,7 +22183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:27">
       <c r="A34" s="248">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -22162,15 +22214,21 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="40"/>
+      <c r="Q34" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="50">
+        <v>0.97763</v>
+      </c>
+      <c r="S34" s="40">
+        <v>43340</v>
+      </c>
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
       <c r="V34" s="40"/>
       <c r="W34" s="50">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.97763</v>
       </c>
       <c r="X34" s="267" t="str">
         <f t="shared" si="12"/>
@@ -22179,8 +22237,11 @@
       <c r="Y34" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" s="25" customFormat="1">
+      <c r="Z34" s="318" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="25" customFormat="1">
       <c r="A35" s="248">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -22223,8 +22284,11 @@
       <c r="Y35" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" s="25" customFormat="1">
+      <c r="Z35" s="319" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="25" customFormat="1">
       <c r="A36" s="248">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -22267,8 +22331,11 @@
       <c r="Y36" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" s="25" customFormat="1">
+      <c r="Z36" s="319" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="25" customFormat="1">
       <c r="A37" s="248">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -22311,8 +22378,9 @@
       <c r="Y37" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" s="25" customFormat="1">
+      <c r="Z37" s="315"/>
+    </row>
+    <row r="38" spans="1:27" s="25" customFormat="1">
       <c r="A38" s="248">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -22356,7 +22424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="25" customFormat="1">
+    <row r="39" spans="1:27" s="25" customFormat="1">
       <c r="A39" s="248">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -22400,7 +22468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="25" customFormat="1">
+    <row r="40" spans="1:27" s="25" customFormat="1">
       <c r="A40" s="248">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -22444,7 +22512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="25" customFormat="1">
+    <row r="41" spans="1:27" s="25" customFormat="1">
       <c r="A41" s="248">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -22487,8 +22555,9 @@
       <c r="Y41" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" s="25" customFormat="1">
+      <c r="AA41" s="316"/>
+    </row>
+    <row r="42" spans="1:27" s="25" customFormat="1">
       <c r="A42" s="248">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -22531,8 +22600,9 @@
       <c r="Y42" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" s="25" customFormat="1" ht="17.399999999999999" thickBot="1">
+      <c r="AA42" s="317"/>
+    </row>
+    <row r="43" spans="1:27" s="25" customFormat="1" ht="17.399999999999999" thickBot="1">
       <c r="A43" s="261">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -22575,8 +22645,9 @@
       <c r="Y43" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" s="25" customFormat="1">
+      <c r="AA43" s="317"/>
+    </row>
+    <row r="44" spans="1:27" s="25" customFormat="1">
       <c r="A44" s="22"/>
       <c r="B44" s="26"/>
       <c r="C44" s="23"/>
@@ -22596,33 +22667,33 @@
       <c r="W44" s="24"/>
       <c r="Y44" s="162"/>
     </row>
-    <row r="45" spans="1:25" s="25" customFormat="1" ht="39.6">
+    <row r="45" spans="1:27" s="25" customFormat="1" ht="39.6">
       <c r="A45" s="22"/>
       <c r="B45" s="26"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="347" t="str">
+      <c r="D45" s="352" t="str">
         <f>E48</f>
         <v>下</v>
       </c>
-      <c r="E45" s="347"/>
-      <c r="F45" s="347"/>
-      <c r="G45" s="347"/>
+      <c r="E45" s="352"/>
+      <c r="F45" s="352"/>
+      <c r="G45" s="352"/>
       <c r="H45" s="24"/>
       <c r="J45" s="162"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="347" t="str">
+      <c r="S45" s="352" t="str">
         <f>T48</f>
         <v>波动</v>
       </c>
-      <c r="T45" s="347"/>
-      <c r="U45" s="347"/>
-      <c r="V45" s="347"/>
+      <c r="T45" s="352"/>
+      <c r="U45" s="352"/>
+      <c r="V45" s="352"/>
       <c r="W45" s="24"/>
       <c r="Y45" s="162"/>
     </row>
-    <row r="46" spans="1:25" s="25" customFormat="1" ht="17.399999999999999" thickBot="1">
+    <row r="46" spans="1:27" s="25" customFormat="1" ht="17.399999999999999" thickBot="1">
       <c r="A46" s="22"/>
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
@@ -22642,14 +22713,14 @@
       <c r="W46" s="24"/>
       <c r="Y46" s="162"/>
     </row>
-    <row r="47" spans="1:25" s="25" customFormat="1" ht="24.6">
+    <row r="47" spans="1:27" s="25" customFormat="1" ht="24.6">
       <c r="A47" s="22"/>
       <c r="B47" s="26"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="342" t="s">
+      <c r="D47" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="343"/>
+      <c r="E47" s="348"/>
       <c r="F47" s="205"/>
       <c r="G47" s="206"/>
       <c r="H47" s="24"/>
@@ -22657,16 +22728,16 @@
       <c r="P47" s="22"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="342" t="s">
+      <c r="S47" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="T47" s="343"/>
+      <c r="T47" s="348"/>
       <c r="U47" s="205"/>
       <c r="V47" s="206"/>
       <c r="W47" s="24"/>
       <c r="Y47" s="162"/>
     </row>
-    <row r="48" spans="1:25" s="25" customFormat="1" ht="24.6">
+    <row r="48" spans="1:27" s="25" customFormat="1" ht="24.6">
       <c r="A48" s="22"/>
       <c r="B48" s="26"/>
       <c r="C48" s="23"/>
@@ -23104,7 +23175,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -23134,29 +23205,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="29.4">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="349" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="346"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="351"/>
       <c r="J1" s="180"/>
-      <c r="P1" s="344" t="s">
+      <c r="P1" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="346"/>
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="350"/>
+      <c r="W1" s="350"/>
+      <c r="X1" s="351"/>
       <c r="Y1" s="180"/>
     </row>
     <row r="2" spans="1:25" ht="21" thickBot="1">
@@ -24488,29 +24559,33 @@
       <c r="J27" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="248">
+      <c r="P27" s="256">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Q27" s="38" t="s">
+      <c r="Q27" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="39">
+      <c r="R27" s="35">
         <v>140.44399999999999</v>
       </c>
-      <c r="S27" s="40">
+      <c r="S27" s="58">
         <v>43329</v>
       </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="39">
+      <c r="T27" s="35"/>
+      <c r="U27" s="35">
+        <v>143.459</v>
+      </c>
+      <c r="V27" s="58">
+        <v>43340</v>
+      </c>
+      <c r="W27" s="35">
         <f t="shared" si="31"/>
-        <v>140.44399999999999</v>
-      </c>
-      <c r="X27" s="43" t="str">
+        <v>-3.0150000000000148</v>
+      </c>
+      <c r="X27" s="55" t="str">
         <f t="shared" si="32"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="Y27" s="295" t="s">
         <v>39</v>
@@ -24804,13 +24879,13 @@
       <c r="A35" s="22"/>
       <c r="B35" s="26"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="347" t="str">
+      <c r="D35" s="352" t="str">
         <f>E38</f>
         <v>上</v>
       </c>
-      <c r="E35" s="347"/>
-      <c r="F35" s="347"/>
-      <c r="G35" s="347"/>
+      <c r="E35" s="352"/>
+      <c r="F35" s="352"/>
+      <c r="G35" s="352"/>
       <c r="H35" s="213" t="b">
         <f>G39</f>
         <v>1</v>
@@ -24819,13 +24894,13 @@
       <c r="P35" s="22"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="23"/>
-      <c r="S35" s="347" t="str">
+      <c r="S35" s="352" t="str">
         <f>T38</f>
         <v>波动</v>
       </c>
-      <c r="T35" s="347"/>
-      <c r="U35" s="347"/>
-      <c r="V35" s="347"/>
+      <c r="T35" s="352"/>
+      <c r="U35" s="352"/>
+      <c r="V35" s="352"/>
       <c r="W35" s="24"/>
       <c r="Y35" s="162"/>
     </row>
@@ -24853,10 +24928,10 @@
       <c r="A37" s="22"/>
       <c r="B37" s="26"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="342" t="s">
+      <c r="D37" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="343"/>
+      <c r="E37" s="348"/>
       <c r="F37" s="205"/>
       <c r="G37" s="206"/>
       <c r="H37" s="24"/>
@@ -24864,10 +24939,10 @@
       <c r="P37" s="22"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="342" t="s">
+      <c r="S37" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="T37" s="343"/>
+      <c r="T37" s="348"/>
       <c r="U37" s="205"/>
       <c r="V37" s="206"/>
       <c r="W37" s="24"/>
@@ -25346,34 +25421,34 @@
       </c>
     </row>
     <row r="18" spans="4:16">
-      <c r="K18" s="348"/>
-      <c r="L18" s="348"/>
-      <c r="M18" s="348"/>
-      <c r="N18" s="348"/>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
+      <c r="K18" s="353"/>
+      <c r="L18" s="353"/>
+      <c r="M18" s="353"/>
+      <c r="N18" s="353"/>
+      <c r="O18" s="353"/>
+      <c r="P18" s="353"/>
     </row>
     <row r="19" spans="4:16" ht="18">
       <c r="E19" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="348"/>
-      <c r="L19" s="348"/>
-      <c r="M19" s="348"/>
-      <c r="N19" s="348"/>
-      <c r="O19" s="348"/>
-      <c r="P19" s="348"/>
+      <c r="K19" s="353"/>
+      <c r="L19" s="353"/>
+      <c r="M19" s="353"/>
+      <c r="N19" s="353"/>
+      <c r="O19" s="353"/>
+      <c r="P19" s="353"/>
     </row>
     <row r="20" spans="4:16" ht="31.2">
       <c r="D20" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="348"/>
-      <c r="L20" s="348"/>
-      <c r="M20" s="348"/>
-      <c r="N20" s="348"/>
-      <c r="O20" s="348"/>
-      <c r="P20" s="348"/>
+      <c r="K20" s="353"/>
+      <c r="L20" s="353"/>
+      <c r="M20" s="353"/>
+      <c r="N20" s="353"/>
+      <c r="O20" s="353"/>
+      <c r="P20" s="353"/>
     </row>
     <row r="22" spans="4:16" ht="18">
       <c r="E22" s="225" t="s">
@@ -25398,7 +25473,7 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -25407,56 +25482,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
-      <c r="A1" s="349" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
-      <c r="N1" s="350"/>
-      <c r="O1" s="350"/>
-      <c r="P1" s="350"/>
-      <c r="Q1" s="350"/>
-      <c r="R1" s="350"/>
-      <c r="S1" s="350"/>
-      <c r="T1" s="350"/>
-      <c r="U1" s="350"/>
-      <c r="V1" s="350"/>
-      <c r="W1" s="350"/>
+      <c r="A1" s="354" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
+      <c r="Q1" s="355"/>
+      <c r="R1" s="355"/>
+      <c r="S1" s="355"/>
+      <c r="T1" s="355"/>
+      <c r="U1" s="355"/>
+      <c r="V1" s="355"/>
+      <c r="W1" s="355"/>
     </row>
     <row r="2" spans="1:23" ht="88.2" customHeight="1">
-      <c r="A2" s="350"/>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
-      <c r="H2" s="350"/>
-      <c r="I2" s="350"/>
-      <c r="J2" s="350"/>
-      <c r="K2" s="350"/>
-      <c r="L2" s="350"/>
-      <c r="M2" s="350"/>
-      <c r="N2" s="350"/>
-      <c r="O2" s="350"/>
-      <c r="P2" s="350"/>
-      <c r="Q2" s="350"/>
-      <c r="R2" s="350"/>
-      <c r="S2" s="350"/>
-      <c r="T2" s="350"/>
-      <c r="U2" s="350"/>
-      <c r="V2" s="350"/>
-      <c r="W2" s="350"/>
+      <c r="A2" s="355"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="355"/>
+      <c r="J2" s="355"/>
+      <c r="K2" s="355"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="355"/>
+      <c r="N2" s="355"/>
+      <c r="O2" s="355"/>
+      <c r="P2" s="355"/>
+      <c r="Q2" s="355"/>
+      <c r="R2" s="355"/>
+      <c r="S2" s="355"/>
+      <c r="T2" s="355"/>
+      <c r="U2" s="355"/>
+      <c r="V2" s="355"/>
+      <c r="W2" s="355"/>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="240">
@@ -25501,7 +25576,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="240" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -25522,7 +25597,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="E15" s="314" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F15" s="244"/>
       <c r="G15" s="244"/>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" activeTab="9"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="指南针交易法" sheetId="17" r:id="rId1"/>
-    <sheet name="10年计划-周" sheetId="1" r:id="rId2"/>
-    <sheet name="美日" sheetId="22" r:id="rId3"/>
-    <sheet name="欧日 欧美" sheetId="14" r:id="rId4"/>
-    <sheet name="奥美 美加" sheetId="18" r:id="rId5"/>
-    <sheet name="磅美日" sheetId="15" r:id="rId6"/>
-    <sheet name="天道" sheetId="19" r:id="rId7"/>
-    <sheet name="原则" sheetId="21" r:id="rId8"/>
-    <sheet name="图" sheetId="23" r:id="rId9"/>
-    <sheet name="趋势跟踪" sheetId="24" r:id="rId10"/>
+    <sheet name="交易记录参数" sheetId="25" r:id="rId1"/>
+    <sheet name="指南针交易法" sheetId="17" r:id="rId2"/>
+    <sheet name="10年计划-周" sheetId="1" r:id="rId3"/>
+    <sheet name="美日" sheetId="22" r:id="rId4"/>
+    <sheet name="欧日 欧美" sheetId="14" r:id="rId5"/>
+    <sheet name="奥美 美加" sheetId="18" r:id="rId6"/>
+    <sheet name="磅美日" sheetId="15" r:id="rId7"/>
+    <sheet name="天道" sheetId="19" r:id="rId8"/>
+    <sheet name="原则" sheetId="21" r:id="rId9"/>
+    <sheet name="图" sheetId="23" r:id="rId10"/>
+    <sheet name="趋势跟踪" sheetId="24" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="205">
   <si>
     <t>总额</t>
   </si>
@@ -685,6 +686,39 @@
   </si>
   <si>
     <t>涨跌对策： 看日K线买卖 设置止损（买入价）</t>
+  </si>
+  <si>
+    <t>不抢反弹</t>
+  </si>
+  <si>
+    <t>不赚最后一个铜板</t>
+  </si>
+  <si>
+    <t>美瑞</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>1，连续亏两次后不操作</t>
+  </si>
+  <si>
+    <t>2，是否符合趋势，不抢反弹</t>
+  </si>
+  <si>
+    <t>3，是否心平气和</t>
+  </si>
+  <si>
+    <t>4，是否贪心</t>
+  </si>
+  <si>
+    <t>5，是否听取了别人的信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入场原因： 补仓 和 趋势相符  4H   </t>
+  </si>
+  <si>
+    <t>离场原因： 4H K线不对，提早离场，进场方向和日线不符</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2317,8 +2351,14 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2344,14 +2384,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2388,6 +2422,18 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3394,7 +3440,7 @@
                   <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>100</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>100</c:v>
@@ -3774,11 +3820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212154240"/>
-        <c:axId val="212155776"/>
+        <c:axId val="199588480"/>
+        <c:axId val="199590272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="212154240"/>
+        <c:axId val="199588480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,14 +3834,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212155776"/>
+        <c:crossAx val="199590272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="212155776"/>
+        <c:axId val="199590272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3806,7 +3852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212154240"/>
+        <c:crossAx val="199588480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4189,171 +4235,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J17"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="25.8">
-      <c r="C3" s="202" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="201" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="15" thickBot="1">
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="D7" s="323" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="186" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="329"/>
-      <c r="G7" s="332" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="332" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="320" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="D8" s="324"/>
-      <c r="E8" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="330"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="333"/>
-      <c r="I8" s="321"/>
-    </row>
-    <row r="9" spans="3:10" ht="15" thickBot="1">
-      <c r="D9" s="325"/>
-      <c r="E9" s="188" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="331"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="334"/>
-      <c r="I9" s="322"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="D10" s="326" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="189" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="184"/>
-      <c r="G10" s="191" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="191"/>
-      <c r="I10" s="192" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="183" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="D11" s="327"/>
-      <c r="E11" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="181"/>
-      <c r="G11" s="182" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="193" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="183" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="D12" s="327"/>
-      <c r="E12" s="187" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="181"/>
-      <c r="G12" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="182"/>
-      <c r="I12" s="193" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="183" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="15" thickBot="1">
-      <c r="D13" s="328"/>
-      <c r="E13" s="190" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="185"/>
-      <c r="G13" s="194" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="195" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="183" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="25.8">
-      <c r="C16" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="201" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="25.8">
-      <c r="C17" s="202"/>
-      <c r="D17" s="201" t="s">
-        <v>127</v>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="L12" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="L15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="L17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <f>ROW()</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4361,13 +4353,2113 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B208"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="301" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="301">
+        <f>'10年计划-周'!D5</f>
+        <v>42743</v>
+      </c>
+      <c r="B1" s="20">
+        <f>'10年计划-周'!I5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="301">
+        <f>'10年计划-周'!D6</f>
+        <v>42750</v>
+      </c>
+      <c r="B2" s="20">
+        <f>'10年计划-周'!I6</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="301">
+        <f>'10年计划-周'!D7</f>
+        <v>42757</v>
+      </c>
+      <c r="B3" s="20">
+        <f>'10年计划-周'!I7</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="301">
+        <f>'10年计划-周'!D8</f>
+        <v>42764</v>
+      </c>
+      <c r="B4" s="20">
+        <f>'10年计划-周'!I8</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="301">
+        <f>'10年计划-周'!D9</f>
+        <v>42771</v>
+      </c>
+      <c r="B5" s="20">
+        <f>'10年计划-周'!I9</f>
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="301">
+        <f>'10年计划-周'!D10</f>
+        <v>42778</v>
+      </c>
+      <c r="B6" s="20">
+        <f>'10年计划-周'!I10</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="301">
+        <f>'10年计划-周'!D11</f>
+        <v>42785</v>
+      </c>
+      <c r="B7" s="20">
+        <f>'10年计划-周'!I11</f>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="301">
+        <f>'10年计划-周'!D12</f>
+        <v>42792</v>
+      </c>
+      <c r="B8" s="20">
+        <f>'10年计划-周'!I12</f>
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="301">
+        <f>'10年计划-周'!D13</f>
+        <v>42799</v>
+      </c>
+      <c r="B9" s="20">
+        <f>'10年计划-周'!I13</f>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="301">
+        <f>'10年计划-周'!D14</f>
+        <v>42806</v>
+      </c>
+      <c r="B10" s="20">
+        <f>'10年计划-周'!I14</f>
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="301">
+        <f>'10年计划-周'!D15</f>
+        <v>42813</v>
+      </c>
+      <c r="B11" s="20">
+        <f>'10年计划-周'!I15</f>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="301">
+        <f>'10年计划-周'!D16</f>
+        <v>42820</v>
+      </c>
+      <c r="B12" s="20">
+        <f>'10年计划-周'!I16</f>
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="301">
+        <f>'10年计划-周'!D17</f>
+        <v>42827</v>
+      </c>
+      <c r="B13" s="20">
+        <f>'10年计划-周'!I17</f>
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="301">
+        <f>'10年计划-周'!D18</f>
+        <v>42834</v>
+      </c>
+      <c r="B14" s="20">
+        <f>'10年计划-周'!I18</f>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="301">
+        <f>'10年计划-周'!D19</f>
+        <v>42841</v>
+      </c>
+      <c r="B15" s="20">
+        <f>'10年计划-周'!I19</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="301">
+        <f>'10年计划-周'!D20</f>
+        <v>42848</v>
+      </c>
+      <c r="B16" s="20">
+        <f>'10年计划-周'!I20</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="301">
+        <f>'10年计划-周'!D21</f>
+        <v>42855</v>
+      </c>
+      <c r="B17" s="20">
+        <f>'10年计划-周'!I21</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="301">
+        <f>'10年计划-周'!D22</f>
+        <v>42862</v>
+      </c>
+      <c r="B18" s="20">
+        <f>'10年计划-周'!I22</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="301">
+        <f>'10年计划-周'!D23</f>
+        <v>42869</v>
+      </c>
+      <c r="B19" s="20">
+        <f>'10年计划-周'!I23</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="301">
+        <f>'10年计划-周'!D24</f>
+        <v>42876</v>
+      </c>
+      <c r="B20" s="20">
+        <f>'10年计划-周'!I24</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="301">
+        <f>'10年计划-周'!D25</f>
+        <v>42883</v>
+      </c>
+      <c r="B21" s="20">
+        <f>'10年计划-周'!I25</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="301">
+        <f>'10年计划-周'!D26</f>
+        <v>42890</v>
+      </c>
+      <c r="B22" s="20">
+        <f>'10年计划-周'!I26</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="301">
+        <f>'10年计划-周'!D27</f>
+        <v>42897</v>
+      </c>
+      <c r="B23" s="20">
+        <f>'10年计划-周'!I27</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="301">
+        <f>'10年计划-周'!D28</f>
+        <v>42904</v>
+      </c>
+      <c r="B24" s="20">
+        <f>'10年计划-周'!I28</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="301">
+        <f>'10年计划-周'!D29</f>
+        <v>42911</v>
+      </c>
+      <c r="B25" s="20">
+        <f>'10年计划-周'!I29</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="301">
+        <f>'10年计划-周'!D30</f>
+        <v>42918</v>
+      </c>
+      <c r="B26" s="20">
+        <f>'10年计划-周'!I30</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="301">
+        <f>'10年计划-周'!D31</f>
+        <v>42925</v>
+      </c>
+      <c r="B27" s="20">
+        <f>'10年计划-周'!I31</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="301">
+        <f>'10年计划-周'!D32</f>
+        <v>42932</v>
+      </c>
+      <c r="B28" s="20">
+        <f>'10年计划-周'!I32</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="301">
+        <f>'10年计划-周'!D33</f>
+        <v>42939</v>
+      </c>
+      <c r="B29" s="20">
+        <f>'10年计划-周'!I33</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="301">
+        <f>'10年计划-周'!D34</f>
+        <v>42946</v>
+      </c>
+      <c r="B30" s="20">
+        <f>'10年计划-周'!I34</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="301">
+        <f>'10年计划-周'!D35</f>
+        <v>42953</v>
+      </c>
+      <c r="B31" s="20">
+        <f>'10年计划-周'!I35</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="301">
+        <f>'10年计划-周'!D36</f>
+        <v>42960</v>
+      </c>
+      <c r="B32" s="20">
+        <f>'10年计划-周'!I36</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="301">
+        <f>'10年计划-周'!D37</f>
+        <v>42967</v>
+      </c>
+      <c r="B33" s="20">
+        <f>'10年计划-周'!I37</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="301">
+        <f>'10年计划-周'!D38</f>
+        <v>42974</v>
+      </c>
+      <c r="B34" s="20">
+        <f>'10年计划-周'!I38</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="301">
+        <f>'10年计划-周'!D39</f>
+        <v>42981</v>
+      </c>
+      <c r="B35" s="20">
+        <f>'10年计划-周'!I39</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="301">
+        <f>'10年计划-周'!D40</f>
+        <v>42988</v>
+      </c>
+      <c r="B36" s="20">
+        <f>'10年计划-周'!I40</f>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="301">
+        <f>'10年计划-周'!D41</f>
+        <v>42995</v>
+      </c>
+      <c r="B37" s="20">
+        <f>'10年计划-周'!I41</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="301">
+        <f>'10年计划-周'!D42</f>
+        <v>43002</v>
+      </c>
+      <c r="B38" s="20">
+        <f>'10年计划-周'!I42</f>
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="301">
+        <f>'10年计划-周'!D43</f>
+        <v>43009</v>
+      </c>
+      <c r="B39" s="20">
+        <f>'10年计划-周'!I43</f>
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="301">
+        <f>'10年计划-周'!D44</f>
+        <v>43016</v>
+      </c>
+      <c r="B40" s="20">
+        <f>'10年计划-周'!I44</f>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="301">
+        <f>'10年计划-周'!D45</f>
+        <v>43023</v>
+      </c>
+      <c r="B41" s="20">
+        <f>'10年计划-周'!I45</f>
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="301">
+        <f>'10年计划-周'!D46</f>
+        <v>43030</v>
+      </c>
+      <c r="B42" s="20">
+        <f>'10年计划-周'!I46</f>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="301">
+        <f>'10年计划-周'!D47</f>
+        <v>43037</v>
+      </c>
+      <c r="B43" s="20">
+        <f>'10年计划-周'!I47</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="301">
+        <f>'10年计划-周'!D48</f>
+        <v>43044</v>
+      </c>
+      <c r="B44" s="20">
+        <f>'10年计划-周'!I48</f>
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="301">
+        <f>'10年计划-周'!D49</f>
+        <v>43051</v>
+      </c>
+      <c r="B45" s="20">
+        <f>'10年计划-周'!I49</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="301">
+        <f>'10年计划-周'!D50</f>
+        <v>43058</v>
+      </c>
+      <c r="B46" s="20">
+        <f>'10年计划-周'!I50</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="301">
+        <f>'10年计划-周'!D51</f>
+        <v>43065</v>
+      </c>
+      <c r="B47" s="20">
+        <f>'10年计划-周'!I51</f>
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="301">
+        <f>'10年计划-周'!D52</f>
+        <v>43072</v>
+      </c>
+      <c r="B48" s="20">
+        <f>'10年计划-周'!I52</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="301">
+        <f>'10年计划-周'!D53</f>
+        <v>43079</v>
+      </c>
+      <c r="B49" s="20">
+        <f>'10年计划-周'!I53</f>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="301">
+        <f>'10年计划-周'!D54</f>
+        <v>43086</v>
+      </c>
+      <c r="B50" s="20">
+        <f>'10年计划-周'!I54</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="301">
+        <f>'10年计划-周'!D55</f>
+        <v>43093</v>
+      </c>
+      <c r="B51" s="20">
+        <f>'10年计划-周'!I55</f>
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="301">
+        <f>'10年计划-周'!D56</f>
+        <v>43100</v>
+      </c>
+      <c r="B52" s="20">
+        <f>'10年计划-周'!I56</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="301">
+        <f>'10年计划-周'!D57</f>
+        <v>43107</v>
+      </c>
+      <c r="B53" s="20">
+        <f>'10年计划-周'!I57</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="301">
+        <f>'10年计划-周'!D58</f>
+        <v>43114</v>
+      </c>
+      <c r="B54" s="20">
+        <f>'10年计划-周'!I58</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="301">
+        <f>'10年计划-周'!D59</f>
+        <v>43121</v>
+      </c>
+      <c r="B55" s="20">
+        <f>'10年计划-周'!I59</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="301">
+        <f>'10年计划-周'!D60</f>
+        <v>43128</v>
+      </c>
+      <c r="B56" s="20">
+        <f>'10年计划-周'!I60</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="301">
+        <f>'10年计划-周'!D61</f>
+        <v>43135</v>
+      </c>
+      <c r="B57" s="20">
+        <f>'10年计划-周'!I61</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="301">
+        <f>'10年计划-周'!D62</f>
+        <v>43142</v>
+      </c>
+      <c r="B58" s="20">
+        <f>'10年计划-周'!I62</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="301">
+        <f>'10年计划-周'!D63</f>
+        <v>43149</v>
+      </c>
+      <c r="B59" s="20">
+        <f>'10年计划-周'!I63</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="301">
+        <f>'10年计划-周'!D64</f>
+        <v>43156</v>
+      </c>
+      <c r="B60" s="20">
+        <f>'10年计划-周'!I64</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="301">
+        <f>'10年计划-周'!D65</f>
+        <v>43163</v>
+      </c>
+      <c r="B61" s="20">
+        <f>'10年计划-周'!I65</f>
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="301">
+        <f>'10年计划-周'!D66</f>
+        <v>43170</v>
+      </c>
+      <c r="B62" s="20">
+        <f>'10年计划-周'!I66</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="301">
+        <f>'10年计划-周'!D67</f>
+        <v>43177</v>
+      </c>
+      <c r="B63" s="20">
+        <f>'10年计划-周'!I67</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="301">
+        <f>'10年计划-周'!D68</f>
+        <v>43184</v>
+      </c>
+      <c r="B64" s="20">
+        <f>'10年计划-周'!I68</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="301">
+        <f>'10年计划-周'!D69</f>
+        <v>43191</v>
+      </c>
+      <c r="B65" s="20">
+        <f>'10年计划-周'!I69</f>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="301">
+        <f>'10年计划-周'!D70</f>
+        <v>43198</v>
+      </c>
+      <c r="B66" s="20">
+        <f>'10年计划-周'!I70</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="301">
+        <f>'10年计划-周'!D71</f>
+        <v>43205</v>
+      </c>
+      <c r="B67" s="20">
+        <f>'10年计划-周'!I71</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="301">
+        <f>'10年计划-周'!D72</f>
+        <v>43212</v>
+      </c>
+      <c r="B68" s="20">
+        <f>'10年计划-周'!I72</f>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="301">
+        <f>'10年计划-周'!D73</f>
+        <v>43219</v>
+      </c>
+      <c r="B69" s="20">
+        <f>'10年计划-周'!I73</f>
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="301">
+        <f>'10年计划-周'!D74</f>
+        <v>43226</v>
+      </c>
+      <c r="B70" s="20">
+        <f>'10年计划-周'!I74</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="301">
+        <f>'10年计划-周'!D75</f>
+        <v>43233</v>
+      </c>
+      <c r="B71" s="20">
+        <f>'10年计划-周'!I75</f>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="301">
+        <f>'10年计划-周'!D76</f>
+        <v>43240</v>
+      </c>
+      <c r="B72" s="20">
+        <f>'10年计划-周'!I76</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="301">
+        <f>'10年计划-周'!D77</f>
+        <v>43247</v>
+      </c>
+      <c r="B73" s="20">
+        <f>'10年计划-周'!I77</f>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="301">
+        <f>'10年计划-周'!D78</f>
+        <v>43254</v>
+      </c>
+      <c r="B74" s="20">
+        <f>'10年计划-周'!I78</f>
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="301">
+        <f>'10年计划-周'!D79</f>
+        <v>43261</v>
+      </c>
+      <c r="B75" s="20">
+        <f>'10年计划-周'!I79</f>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="301">
+        <f>'10年计划-周'!D80</f>
+        <v>43268</v>
+      </c>
+      <c r="B76" s="20">
+        <f>'10年计划-周'!I80</f>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="301">
+        <f>'10年计划-周'!D81</f>
+        <v>43275</v>
+      </c>
+      <c r="B77" s="20">
+        <f>'10年计划-周'!I81</f>
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="301">
+        <f>'10年计划-周'!D82</f>
+        <v>43282</v>
+      </c>
+      <c r="B78" s="20">
+        <f>'10年计划-周'!I82</f>
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="301">
+        <f>'10年计划-周'!D83</f>
+        <v>43289</v>
+      </c>
+      <c r="B79" s="20">
+        <f>'10年计划-周'!I83</f>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="301">
+        <f>'10年计划-周'!D84</f>
+        <v>43296</v>
+      </c>
+      <c r="B80" s="20">
+        <f>'10年计划-周'!I84</f>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="301">
+        <f>'10年计划-周'!D85</f>
+        <v>43303</v>
+      </c>
+      <c r="B81" s="20">
+        <f>'10年计划-周'!I85</f>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="301">
+        <f>'10年计划-周'!D86</f>
+        <v>43310</v>
+      </c>
+      <c r="B82" s="20">
+        <f>'10年计划-周'!I86</f>
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="301">
+        <f>'10年计划-周'!D87</f>
+        <v>43317</v>
+      </c>
+      <c r="B83" s="20">
+        <f>'10年计划-周'!I87</f>
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="301">
+        <f>'10年计划-周'!D88</f>
+        <v>43324</v>
+      </c>
+      <c r="B84" s="20">
+        <f>'10年计划-周'!I88</f>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="301">
+        <f>'10年计划-周'!D89</f>
+        <v>43331</v>
+      </c>
+      <c r="B85" s="20">
+        <f>'10年计划-周'!I89</f>
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="301">
+        <f>'10年计划-周'!D90</f>
+        <v>43338</v>
+      </c>
+      <c r="B86" s="20">
+        <f>'10年计划-周'!I90</f>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="301">
+        <f>'10年计划-周'!D91</f>
+        <v>43345</v>
+      </c>
+      <c r="B87" s="20">
+        <f>'10年计划-周'!I91</f>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="301">
+        <f>'10年计划-周'!D92</f>
+        <v>43352</v>
+      </c>
+      <c r="B88" s="20">
+        <f>'10年计划-周'!I92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="301">
+        <f>'10年计划-周'!D93</f>
+        <v>43359</v>
+      </c>
+      <c r="B89" s="20">
+        <f>'10年计划-周'!I93</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="301">
+        <f>'10年计划-周'!D94</f>
+        <v>43366</v>
+      </c>
+      <c r="B90" s="20">
+        <f>'10年计划-周'!I94</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="301">
+        <f>'10年计划-周'!D95</f>
+        <v>43373</v>
+      </c>
+      <c r="B91" s="20">
+        <f>'10年计划-周'!I95</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="301">
+        <f>'10年计划-周'!D96</f>
+        <v>43380</v>
+      </c>
+      <c r="B92" s="20">
+        <f>'10年计划-周'!I96</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="301">
+        <f>'10年计划-周'!D97</f>
+        <v>43387</v>
+      </c>
+      <c r="B93" s="20">
+        <f>'10年计划-周'!I97</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="301">
+        <f>'10年计划-周'!D98</f>
+        <v>43394</v>
+      </c>
+      <c r="B94" s="20">
+        <f>'10年计划-周'!I98</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="301">
+        <f>'10年计划-周'!D99</f>
+        <v>43401</v>
+      </c>
+      <c r="B95" s="20">
+        <f>'10年计划-周'!I99</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="301">
+        <f>'10年计划-周'!D100</f>
+        <v>43408</v>
+      </c>
+      <c r="B96" s="20">
+        <f>'10年计划-周'!I100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="301">
+        <f>'10年计划-周'!D101</f>
+        <v>43415</v>
+      </c>
+      <c r="B97" s="20">
+        <f>'10年计划-周'!I101</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="301">
+        <f>'10年计划-周'!D102</f>
+        <v>43422</v>
+      </c>
+      <c r="B98" s="20">
+        <f>'10年计划-周'!I102</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="301">
+        <f>'10年计划-周'!D103</f>
+        <v>43429</v>
+      </c>
+      <c r="B99" s="20">
+        <f>'10年计划-周'!I103</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="301">
+        <f>'10年计划-周'!D104</f>
+        <v>43436</v>
+      </c>
+      <c r="B100" s="20">
+        <f>'10年计划-周'!I104</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="301">
+        <f>'10年计划-周'!D105</f>
+        <v>43443</v>
+      </c>
+      <c r="B101" s="20">
+        <f>'10年计划-周'!I105</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="301">
+        <f>'10年计划-周'!D106</f>
+        <v>43450</v>
+      </c>
+      <c r="B102" s="20">
+        <f>'10年计划-周'!I106</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="301">
+        <f>'10年计划-周'!D107</f>
+        <v>43457</v>
+      </c>
+      <c r="B103" s="20">
+        <f>'10年计划-周'!I107</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="301">
+        <f>'10年计划-周'!D108</f>
+        <v>43464</v>
+      </c>
+      <c r="B104" s="20">
+        <f>'10年计划-周'!I108</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="301">
+        <f>'10年计划-周'!D109</f>
+        <v>43471</v>
+      </c>
+      <c r="B105" s="20">
+        <f>'10年计划-周'!I109</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="301">
+        <f>'10年计划-周'!D110</f>
+        <v>43478</v>
+      </c>
+      <c r="B106" s="20">
+        <f>'10年计划-周'!I110</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="301">
+        <f>'10年计划-周'!D111</f>
+        <v>43485</v>
+      </c>
+      <c r="B107" s="20">
+        <f>'10年计划-周'!I111</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="301">
+        <f>'10年计划-周'!D112</f>
+        <v>43492</v>
+      </c>
+      <c r="B108" s="20">
+        <f>'10年计划-周'!I112</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="301">
+        <f>'10年计划-周'!D113</f>
+        <v>43499</v>
+      </c>
+      <c r="B109" s="20">
+        <f>'10年计划-周'!I113</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="301">
+        <f>'10年计划-周'!D114</f>
+        <v>43506</v>
+      </c>
+      <c r="B110" s="20">
+        <f>'10年计划-周'!I114</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="301">
+        <f>'10年计划-周'!D115</f>
+        <v>43513</v>
+      </c>
+      <c r="B111" s="20">
+        <f>'10年计划-周'!I115</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="301">
+        <f>'10年计划-周'!D116</f>
+        <v>43520</v>
+      </c>
+      <c r="B112" s="20">
+        <f>'10年计划-周'!I116</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="301">
+        <f>'10年计划-周'!D117</f>
+        <v>43527</v>
+      </c>
+      <c r="B113" s="20">
+        <f>'10年计划-周'!I117</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="301">
+        <f>'10年计划-周'!D118</f>
+        <v>43534</v>
+      </c>
+      <c r="B114" s="20">
+        <f>'10年计划-周'!I118</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="301">
+        <f>'10年计划-周'!D119</f>
+        <v>43541</v>
+      </c>
+      <c r="B115" s="20">
+        <f>'10年计划-周'!I119</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="301">
+        <f>'10年计划-周'!D120</f>
+        <v>43548</v>
+      </c>
+      <c r="B116" s="20">
+        <f>'10年计划-周'!I120</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="301">
+        <f>'10年计划-周'!D121</f>
+        <v>43555</v>
+      </c>
+      <c r="B117" s="20">
+        <f>'10年计划-周'!I121</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="301">
+        <f>'10年计划-周'!D122</f>
+        <v>43562</v>
+      </c>
+      <c r="B118" s="20">
+        <f>'10年计划-周'!I122</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="301">
+        <f>'10年计划-周'!D123</f>
+        <v>43569</v>
+      </c>
+      <c r="B119" s="20">
+        <f>'10年计划-周'!I123</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="301">
+        <f>'10年计划-周'!D124</f>
+        <v>43576</v>
+      </c>
+      <c r="B120" s="20">
+        <f>'10年计划-周'!I124</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="301">
+        <f>'10年计划-周'!D125</f>
+        <v>43583</v>
+      </c>
+      <c r="B121" s="20">
+        <f>'10年计划-周'!I125</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="301">
+        <f>'10年计划-周'!D126</f>
+        <v>43590</v>
+      </c>
+      <c r="B122" s="20">
+        <f>'10年计划-周'!I126</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="301">
+        <f>'10年计划-周'!D127</f>
+        <v>43597</v>
+      </c>
+      <c r="B123" s="20">
+        <f>'10年计划-周'!I127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="301">
+        <f>'10年计划-周'!D128</f>
+        <v>43604</v>
+      </c>
+      <c r="B124" s="20">
+        <f>'10年计划-周'!I128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="301">
+        <f>'10年计划-周'!D129</f>
+        <v>43611</v>
+      </c>
+      <c r="B125" s="20">
+        <f>'10年计划-周'!I129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="301">
+        <f>'10年计划-周'!D130</f>
+        <v>43618</v>
+      </c>
+      <c r="B126" s="20">
+        <f>'10年计划-周'!I130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="301">
+        <f>'10年计划-周'!D131</f>
+        <v>43625</v>
+      </c>
+      <c r="B127" s="20">
+        <f>'10年计划-周'!I131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="301">
+        <f>'10年计划-周'!D132</f>
+        <v>43632</v>
+      </c>
+      <c r="B128" s="20">
+        <f>'10年计划-周'!I132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="301">
+        <f>'10年计划-周'!D133</f>
+        <v>43639</v>
+      </c>
+      <c r="B129" s="20">
+        <f>'10年计划-周'!I133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="301">
+        <f>'10年计划-周'!D134</f>
+        <v>43646</v>
+      </c>
+      <c r="B130" s="20">
+        <f>'10年计划-周'!I134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="301">
+        <f>'10年计划-周'!D135</f>
+        <v>43653</v>
+      </c>
+      <c r="B131" s="20">
+        <f>'10年计划-周'!I135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="301">
+        <f>'10年计划-周'!D136</f>
+        <v>43660</v>
+      </c>
+      <c r="B132" s="20">
+        <f>'10年计划-周'!I136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="301">
+        <f>'10年计划-周'!D137</f>
+        <v>43667</v>
+      </c>
+      <c r="B133" s="20">
+        <f>'10年计划-周'!I137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="301">
+        <f>'10年计划-周'!D138</f>
+        <v>43674</v>
+      </c>
+      <c r="B134" s="20">
+        <f>'10年计划-周'!I138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="301">
+        <f>'10年计划-周'!D139</f>
+        <v>43681</v>
+      </c>
+      <c r="B135" s="20">
+        <f>'10年计划-周'!I139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="301">
+        <f>'10年计划-周'!D140</f>
+        <v>43688</v>
+      </c>
+      <c r="B136" s="20">
+        <f>'10年计划-周'!I140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="301">
+        <f>'10年计划-周'!D141</f>
+        <v>43695</v>
+      </c>
+      <c r="B137" s="20">
+        <f>'10年计划-周'!I141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="301">
+        <f>'10年计划-周'!D142</f>
+        <v>43702</v>
+      </c>
+      <c r="B138" s="20">
+        <f>'10年计划-周'!I142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="301">
+        <f>'10年计划-周'!D143</f>
+        <v>43709</v>
+      </c>
+      <c r="B139" s="20">
+        <f>'10年计划-周'!I143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="301">
+        <f>'10年计划-周'!D144</f>
+        <v>43716</v>
+      </c>
+      <c r="B140" s="20">
+        <f>'10年计划-周'!I144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="301">
+        <f>'10年计划-周'!D145</f>
+        <v>43723</v>
+      </c>
+      <c r="B141" s="20">
+        <f>'10年计划-周'!I145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="301">
+        <f>'10年计划-周'!D146</f>
+        <v>43730</v>
+      </c>
+      <c r="B142" s="20">
+        <f>'10年计划-周'!I146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="301">
+        <f>'10年计划-周'!D147</f>
+        <v>43737</v>
+      </c>
+      <c r="B143" s="20">
+        <f>'10年计划-周'!I147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="301">
+        <f>'10年计划-周'!D148</f>
+        <v>43744</v>
+      </c>
+      <c r="B144" s="20">
+        <f>'10年计划-周'!I148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="301">
+        <f>'10年计划-周'!D149</f>
+        <v>43751</v>
+      </c>
+      <c r="B145" s="20">
+        <f>'10年计划-周'!I149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="301">
+        <f>'10年计划-周'!D150</f>
+        <v>43758</v>
+      </c>
+      <c r="B146" s="20">
+        <f>'10年计划-周'!I150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="301">
+        <f>'10年计划-周'!D151</f>
+        <v>43765</v>
+      </c>
+      <c r="B147" s="20">
+        <f>'10年计划-周'!I151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="301">
+        <f>'10年计划-周'!D152</f>
+        <v>43772</v>
+      </c>
+      <c r="B148" s="20">
+        <f>'10年计划-周'!I152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="301">
+        <f>'10年计划-周'!D153</f>
+        <v>43779</v>
+      </c>
+      <c r="B149" s="20">
+        <f>'10年计划-周'!I153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="301">
+        <f>'10年计划-周'!D154</f>
+        <v>43786</v>
+      </c>
+      <c r="B150" s="20">
+        <f>'10年计划-周'!I154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="301">
+        <f>'10年计划-周'!D155</f>
+        <v>43793</v>
+      </c>
+      <c r="B151" s="20">
+        <f>'10年计划-周'!I155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="301">
+        <f>'10年计划-周'!D156</f>
+        <v>43800</v>
+      </c>
+      <c r="B152" s="20">
+        <f>'10年计划-周'!I156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="301">
+        <f>'10年计划-周'!D157</f>
+        <v>43807</v>
+      </c>
+      <c r="B153" s="20">
+        <f>'10年计划-周'!I157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="301">
+        <f>'10年计划-周'!D158</f>
+        <v>43814</v>
+      </c>
+      <c r="B154" s="20">
+        <f>'10年计划-周'!I158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="301">
+        <f>'10年计划-周'!D159</f>
+        <v>43821</v>
+      </c>
+      <c r="B155" s="20">
+        <f>'10年计划-周'!I159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="301">
+        <f>'10年计划-周'!D160</f>
+        <v>43828</v>
+      </c>
+      <c r="B156" s="20">
+        <f>'10年计划-周'!I160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="301">
+        <f>'10年计划-周'!D161</f>
+        <v>43835</v>
+      </c>
+      <c r="B157" s="20">
+        <f>'10年计划-周'!I161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="301">
+        <f>'10年计划-周'!D162</f>
+        <v>43842</v>
+      </c>
+      <c r="B158" s="20">
+        <f>'10年计划-周'!I162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="301">
+        <f>'10年计划-周'!D163</f>
+        <v>43849</v>
+      </c>
+      <c r="B159" s="20">
+        <f>'10年计划-周'!I163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="301">
+        <f>'10年计划-周'!D164</f>
+        <v>43856</v>
+      </c>
+      <c r="B160" s="20">
+        <f>'10年计划-周'!I164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="301">
+        <f>'10年计划-周'!D165</f>
+        <v>43863</v>
+      </c>
+      <c r="B161" s="20">
+        <f>'10年计划-周'!I165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="301">
+        <f>'10年计划-周'!D166</f>
+        <v>43870</v>
+      </c>
+      <c r="B162" s="20">
+        <f>'10年计划-周'!I166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="301">
+        <f>'10年计划-周'!D167</f>
+        <v>43877</v>
+      </c>
+      <c r="B163" s="20">
+        <f>'10年计划-周'!I167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="301">
+        <f>'10年计划-周'!D168</f>
+        <v>43884</v>
+      </c>
+      <c r="B164" s="20">
+        <f>'10年计划-周'!I168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="301">
+        <f>'10年计划-周'!D169</f>
+        <v>43891</v>
+      </c>
+      <c r="B165" s="20">
+        <f>'10年计划-周'!I169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="301">
+        <f>'10年计划-周'!D170</f>
+        <v>43898</v>
+      </c>
+      <c r="B166" s="20">
+        <f>'10年计划-周'!I170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="301">
+        <f>'10年计划-周'!D171</f>
+        <v>43905</v>
+      </c>
+      <c r="B167" s="20">
+        <f>'10年计划-周'!I171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="301">
+        <f>'10年计划-周'!D172</f>
+        <v>43912</v>
+      </c>
+      <c r="B168" s="20">
+        <f>'10年计划-周'!I172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="301">
+        <f>'10年计划-周'!D173</f>
+        <v>43919</v>
+      </c>
+      <c r="B169" s="20">
+        <f>'10年计划-周'!I173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="301">
+        <f>'10年计划-周'!D174</f>
+        <v>43926</v>
+      </c>
+      <c r="B170" s="20">
+        <f>'10年计划-周'!I174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="301">
+        <f>'10年计划-周'!D175</f>
+        <v>43933</v>
+      </c>
+      <c r="B171" s="20">
+        <f>'10年计划-周'!I175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="301">
+        <f>'10年计划-周'!D176</f>
+        <v>43940</v>
+      </c>
+      <c r="B172" s="20">
+        <f>'10年计划-周'!I176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="301">
+        <f>'10年计划-周'!D177</f>
+        <v>43947</v>
+      </c>
+      <c r="B173" s="20">
+        <f>'10年计划-周'!I177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="301">
+        <f>'10年计划-周'!D178</f>
+        <v>43954</v>
+      </c>
+      <c r="B174" s="20">
+        <f>'10年计划-周'!I178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="301">
+        <f>'10年计划-周'!D179</f>
+        <v>43961</v>
+      </c>
+      <c r="B175" s="20">
+        <f>'10年计划-周'!I179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="301">
+        <f>'10年计划-周'!D180</f>
+        <v>43968</v>
+      </c>
+      <c r="B176" s="20">
+        <f>'10年计划-周'!I180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="301">
+        <f>'10年计划-周'!D181</f>
+        <v>43975</v>
+      </c>
+      <c r="B177" s="20">
+        <f>'10年计划-周'!I181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="301">
+        <f>'10年计划-周'!D182</f>
+        <v>43982</v>
+      </c>
+      <c r="B178" s="20">
+        <f>'10年计划-周'!I182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="301">
+        <f>'10年计划-周'!D183</f>
+        <v>43989</v>
+      </c>
+      <c r="B179" s="20">
+        <f>'10年计划-周'!I183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="301">
+        <f>'10年计划-周'!D184</f>
+        <v>43996</v>
+      </c>
+      <c r="B180" s="20">
+        <f>'10年计划-周'!I184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="301">
+        <f>'10年计划-周'!D185</f>
+        <v>44003</v>
+      </c>
+      <c r="B181" s="20">
+        <f>'10年计划-周'!I185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="301">
+        <f>'10年计划-周'!D186</f>
+        <v>44010</v>
+      </c>
+      <c r="B182" s="20">
+        <f>'10年计划-周'!I186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="301">
+        <f>'10年计划-周'!D187</f>
+        <v>44017</v>
+      </c>
+      <c r="B183" s="20">
+        <f>'10年计划-周'!I187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="301">
+        <f>'10年计划-周'!D188</f>
+        <v>44024</v>
+      </c>
+      <c r="B184" s="20">
+        <f>'10年计划-周'!I188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="301">
+        <f>'10年计划-周'!D189</f>
+        <v>44031</v>
+      </c>
+      <c r="B185" s="20">
+        <f>'10年计划-周'!I189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="301">
+        <f>'10年计划-周'!D190</f>
+        <v>44038</v>
+      </c>
+      <c r="B186" s="20">
+        <f>'10年计划-周'!I190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="301">
+        <f>'10年计划-周'!D191</f>
+        <v>44045</v>
+      </c>
+      <c r="B187" s="20">
+        <f>'10年计划-周'!I191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="301">
+        <f>'10年计划-周'!D192</f>
+        <v>44052</v>
+      </c>
+      <c r="B188" s="20">
+        <f>'10年计划-周'!I192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="301">
+        <f>'10年计划-周'!D193</f>
+        <v>44059</v>
+      </c>
+      <c r="B189" s="20">
+        <f>'10年计划-周'!I193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="301">
+        <f>'10年计划-周'!D194</f>
+        <v>44066</v>
+      </c>
+      <c r="B190" s="20">
+        <f>'10年计划-周'!I194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="301">
+        <f>'10年计划-周'!D195</f>
+        <v>44073</v>
+      </c>
+      <c r="B191" s="20">
+        <f>'10年计划-周'!I195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="301">
+        <f>'10年计划-周'!D196</f>
+        <v>44080</v>
+      </c>
+      <c r="B192" s="20">
+        <f>'10年计划-周'!I196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="301">
+        <f>'10年计划-周'!D197</f>
+        <v>44087</v>
+      </c>
+      <c r="B193" s="20">
+        <f>'10年计划-周'!I197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="301">
+        <f>'10年计划-周'!D198</f>
+        <v>44094</v>
+      </c>
+      <c r="B194" s="20">
+        <f>'10年计划-周'!I198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="301">
+        <f>'10年计划-周'!D199</f>
+        <v>44101</v>
+      </c>
+      <c r="B195" s="20">
+        <f>'10年计划-周'!I199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="301">
+        <f>'10年计划-周'!D200</f>
+        <v>44108</v>
+      </c>
+      <c r="B196" s="20">
+        <f>'10年计划-周'!I200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="301">
+        <f>'10年计划-周'!D201</f>
+        <v>44115</v>
+      </c>
+      <c r="B197" s="20">
+        <f>'10年计划-周'!I201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="301">
+        <f>'10年计划-周'!D202</f>
+        <v>44122</v>
+      </c>
+      <c r="B198" s="20">
+        <f>'10年计划-周'!I202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="301">
+        <f>'10年计划-周'!D203</f>
+        <v>44129</v>
+      </c>
+      <c r="B199" s="20">
+        <f>'10年计划-周'!I203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="301">
+        <f>'10年计划-周'!D204</f>
+        <v>44136</v>
+      </c>
+      <c r="B200" s="20">
+        <f>'10年计划-周'!I204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="301">
+        <f>'10年计划-周'!D205</f>
+        <v>44143</v>
+      </c>
+      <c r="B201" s="20">
+        <f>'10年计划-周'!I205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="301">
+        <f>'10年计划-周'!D206</f>
+        <v>44150</v>
+      </c>
+      <c r="B202" s="20">
+        <f>'10年计划-周'!I206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="301">
+        <f>'10年计划-周'!D207</f>
+        <v>44157</v>
+      </c>
+      <c r="B203" s="20">
+        <f>'10年计划-周'!I207</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="301">
+        <f>'10年计划-周'!D208</f>
+        <v>44164</v>
+      </c>
+      <c r="B204" s="20">
+        <f>'10年计划-周'!I208</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="301">
+        <f>'10年计划-周'!D209</f>
+        <v>44171</v>
+      </c>
+      <c r="B205" s="20">
+        <f>'10年计划-周'!I209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="301">
+        <f>'10年计划-周'!D210</f>
+        <v>44178</v>
+      </c>
+      <c r="B206" s="20">
+        <f>'10年计划-周'!I210</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="301">
+        <f>'10年计划-周'!D211</f>
+        <v>44185</v>
+      </c>
+      <c r="B207" s="20">
+        <f>'10年计划-周'!I211</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="301">
+        <f>'10年计划-周'!D212</f>
+        <v>44192</v>
+      </c>
+      <c r="B208" s="20">
+        <f>'10年计划-周'!I212</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:UH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM10" sqref="BM10"/>
+      <selection pane="bottomRight" activeCell="BO11" sqref="BO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="21"/>
@@ -6805,6 +8897,9 @@
       <c r="BF3" s="312"/>
       <c r="BG3" s="312"/>
       <c r="BH3" s="236"/>
+      <c r="BI3" s="227"/>
+      <c r="BJ3" s="312"/>
+      <c r="BM3" s="312"/>
     </row>
     <row r="4" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="313"/>
@@ -6834,6 +8929,9 @@
       <c r="BF5" s="236"/>
       <c r="BG5" s="236"/>
       <c r="BH5" s="236"/>
+      <c r="BI5" s="227"/>
+      <c r="BJ5" s="227"/>
+      <c r="BM5" s="312"/>
     </row>
     <row r="6" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="313"/>
@@ -6863,6 +8961,9 @@
       <c r="BF7" s="236"/>
       <c r="BG7" s="236"/>
       <c r="BH7" s="236"/>
+      <c r="BI7" s="227"/>
+      <c r="BJ7" s="227"/>
+      <c r="BM7" s="312"/>
     </row>
     <row r="8" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="313"/>
@@ -6892,6 +8993,9 @@
       <c r="BF9" s="312"/>
       <c r="BG9" s="312"/>
       <c r="BH9" s="227"/>
+      <c r="BI9" s="227"/>
+      <c r="BJ9" s="227"/>
+      <c r="BM9" s="312"/>
     </row>
     <row r="10" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="313"/>
@@ -6921,6 +9025,9 @@
       <c r="BF11" s="227"/>
       <c r="BG11" s="227"/>
       <c r="BH11" s="227"/>
+      <c r="BI11" s="227"/>
+      <c r="BJ11" s="227"/>
+      <c r="BM11" s="312"/>
     </row>
     <row r="12" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="313"/>
@@ -6950,6 +9057,9 @@
       <c r="BF13" s="312"/>
       <c r="BG13" s="312"/>
       <c r="BH13" s="236"/>
+      <c r="BI13" s="227"/>
+      <c r="BJ13" s="312"/>
+      <c r="BM13" s="227"/>
     </row>
     <row r="14" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="313"/>
@@ -6979,11 +9089,14 @@
       <c r="BF15" s="312"/>
       <c r="BG15" s="312"/>
       <c r="BH15" s="236"/>
+      <c r="BI15" s="227"/>
+      <c r="BJ15" s="312"/>
+      <c r="BM15" s="227"/>
     </row>
     <row r="16" spans="1:554" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="313"/>
     </row>
-    <row r="17" spans="1:60" s="111" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:65" s="111" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="311" t="s">
         <v>187</v>
       </c>
@@ -7008,23 +9121,69 @@
       <c r="BF17" s="312"/>
       <c r="BG17" s="312"/>
       <c r="BH17" s="312"/>
-    </row>
-    <row r="18" spans="1:60" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="BI17" s="227"/>
+      <c r="BJ17" s="312"/>
+      <c r="BM17" s="312"/>
+    </row>
+    <row r="18" spans="1:65" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="313"/>
     </row>
-    <row r="19" spans="1:60" ht="18" customHeight="1"/>
+    <row r="19" spans="1:65" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AY1:BE1"/>
-    <mergeCell ref="BF1:BL1"/>
-    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="FN1:FT1"/>
+    <mergeCell ref="CO1:CU1"/>
+    <mergeCell ref="CV1:DB1"/>
+    <mergeCell ref="DC1:DI1"/>
+    <mergeCell ref="DJ1:DP1"/>
+    <mergeCell ref="DQ1:DW1"/>
+    <mergeCell ref="DX1:ED1"/>
+    <mergeCell ref="EE1:EK1"/>
+    <mergeCell ref="EL1:ER1"/>
+    <mergeCell ref="ES1:EY1"/>
+    <mergeCell ref="EZ1:FF1"/>
+    <mergeCell ref="FG1:FM1"/>
+    <mergeCell ref="IT1:IZ1"/>
+    <mergeCell ref="FU1:GA1"/>
+    <mergeCell ref="GB1:GH1"/>
+    <mergeCell ref="GI1:GO1"/>
+    <mergeCell ref="GP1:GV1"/>
+    <mergeCell ref="GW1:HC1"/>
+    <mergeCell ref="HD1:HJ1"/>
+    <mergeCell ref="HK1:HQ1"/>
+    <mergeCell ref="HR1:HX1"/>
+    <mergeCell ref="HY1:IE1"/>
+    <mergeCell ref="IF1:IL1"/>
+    <mergeCell ref="IM1:IS1"/>
+    <mergeCell ref="LZ1:MF1"/>
+    <mergeCell ref="JA1:JG1"/>
+    <mergeCell ref="JH1:JN1"/>
+    <mergeCell ref="JO1:JU1"/>
+    <mergeCell ref="JV1:KB1"/>
+    <mergeCell ref="KC1:KI1"/>
+    <mergeCell ref="KJ1:KP1"/>
+    <mergeCell ref="KQ1:KW1"/>
+    <mergeCell ref="KX1:LD1"/>
+    <mergeCell ref="LE1:LK1"/>
+    <mergeCell ref="LL1:LR1"/>
+    <mergeCell ref="LS1:LY1"/>
+    <mergeCell ref="PF1:PL1"/>
+    <mergeCell ref="MG1:MM1"/>
+    <mergeCell ref="MN1:MT1"/>
+    <mergeCell ref="MU1:NA1"/>
+    <mergeCell ref="NB1:NH1"/>
+    <mergeCell ref="NI1:NO1"/>
+    <mergeCell ref="NP1:NV1"/>
+    <mergeCell ref="TG1:TM1"/>
+    <mergeCell ref="TN1:TT1"/>
+    <mergeCell ref="TU1:UA1"/>
+    <mergeCell ref="UB1:UH1"/>
+    <mergeCell ref="RC1:RI1"/>
+    <mergeCell ref="RJ1:RP1"/>
+    <mergeCell ref="RQ1:RW1"/>
+    <mergeCell ref="RX1:SD1"/>
+    <mergeCell ref="SE1:SK1"/>
+    <mergeCell ref="SL1:SR1"/>
     <mergeCell ref="BT1:BZ1"/>
     <mergeCell ref="CA1:CG1"/>
     <mergeCell ref="CH1:CN1"/>
@@ -7041,59 +9200,16 @@
     <mergeCell ref="OK1:OQ1"/>
     <mergeCell ref="OR1:OX1"/>
     <mergeCell ref="OY1:PE1"/>
-    <mergeCell ref="TG1:TM1"/>
-    <mergeCell ref="TN1:TT1"/>
-    <mergeCell ref="TU1:UA1"/>
-    <mergeCell ref="UB1:UH1"/>
-    <mergeCell ref="RC1:RI1"/>
-    <mergeCell ref="RJ1:RP1"/>
-    <mergeCell ref="RQ1:RW1"/>
-    <mergeCell ref="RX1:SD1"/>
-    <mergeCell ref="SE1:SK1"/>
-    <mergeCell ref="SL1:SR1"/>
-    <mergeCell ref="PF1:PL1"/>
-    <mergeCell ref="MG1:MM1"/>
-    <mergeCell ref="MN1:MT1"/>
-    <mergeCell ref="MU1:NA1"/>
-    <mergeCell ref="NB1:NH1"/>
-    <mergeCell ref="NI1:NO1"/>
-    <mergeCell ref="NP1:NV1"/>
-    <mergeCell ref="LZ1:MF1"/>
-    <mergeCell ref="JA1:JG1"/>
-    <mergeCell ref="JH1:JN1"/>
-    <mergeCell ref="JO1:JU1"/>
-    <mergeCell ref="JV1:KB1"/>
-    <mergeCell ref="KC1:KI1"/>
-    <mergeCell ref="KJ1:KP1"/>
-    <mergeCell ref="KQ1:KW1"/>
-    <mergeCell ref="KX1:LD1"/>
-    <mergeCell ref="LE1:LK1"/>
-    <mergeCell ref="LL1:LR1"/>
-    <mergeCell ref="LS1:LY1"/>
-    <mergeCell ref="IT1:IZ1"/>
-    <mergeCell ref="FU1:GA1"/>
-    <mergeCell ref="GB1:GH1"/>
-    <mergeCell ref="GI1:GO1"/>
-    <mergeCell ref="GP1:GV1"/>
-    <mergeCell ref="GW1:HC1"/>
-    <mergeCell ref="HD1:HJ1"/>
-    <mergeCell ref="HK1:HQ1"/>
-    <mergeCell ref="HR1:HX1"/>
-    <mergeCell ref="HY1:IE1"/>
-    <mergeCell ref="IF1:IL1"/>
-    <mergeCell ref="IM1:IS1"/>
-    <mergeCell ref="FN1:FT1"/>
-    <mergeCell ref="CO1:CU1"/>
-    <mergeCell ref="CV1:DB1"/>
-    <mergeCell ref="DC1:DI1"/>
-    <mergeCell ref="DJ1:DP1"/>
-    <mergeCell ref="DQ1:DW1"/>
-    <mergeCell ref="DX1:ED1"/>
-    <mergeCell ref="EE1:EK1"/>
-    <mergeCell ref="EL1:ER1"/>
-    <mergeCell ref="ES1:EY1"/>
-    <mergeCell ref="EZ1:FF1"/>
-    <mergeCell ref="FG1:FM1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AY1:BE1"/>
+    <mergeCell ref="BF1:BL1"/>
+    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7101,16 +9217,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" ht="25.8">
+      <c r="C3" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="201" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="15" thickBot="1">
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="D7" s="323" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="186" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="329"/>
+      <c r="G7" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="332" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="320" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="D8" s="324"/>
+      <c r="E8" s="187" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="330"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="321"/>
+    </row>
+    <row r="9" spans="3:10" ht="15" thickBot="1">
+      <c r="D9" s="325"/>
+      <c r="E9" s="188" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="331"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="334"/>
+      <c r="I9" s="322"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="D10" s="326" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="189" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="184"/>
+      <c r="G10" s="191" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="191"/>
+      <c r="I10" s="192" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="183" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="D11" s="327"/>
+      <c r="E11" s="187" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="181"/>
+      <c r="G11" s="182" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="182"/>
+      <c r="I11" s="193" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="183" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="D12" s="327"/>
+      <c r="E12" s="187" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="181"/>
+      <c r="G12" s="182" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="182"/>
+      <c r="I12" s="193" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="183" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15" thickBot="1">
+      <c r="D13" s="328"/>
+      <c r="E13" s="190" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="185"/>
+      <c r="G13" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="183" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="25.8">
+      <c r="C16" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="201" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="25.8">
+      <c r="C17" s="202"/>
+      <c r="D17" s="201" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AD212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S93" sqref="S93"/>
+      <selection pane="bottomRight" activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7190,10 +9478,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="342" t="s">
+      <c r="I3" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="343"/>
+      <c r="J3" s="345"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -7250,7 +9538,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="339" t="s">
+      <c r="A5" s="341" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -7299,7 +9587,7 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="340"/>
+      <c r="A6" s="342"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -7352,7 +9640,7 @@
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="340"/>
+      <c r="A7" s="342"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -7405,7 +9693,7 @@
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1">
-      <c r="A8" s="341"/>
+      <c r="A8" s="343"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -7461,7 +9749,7 @@
       <c r="X8" s="18"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="339" t="s">
+      <c r="A9" s="341" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -7519,7 +9807,7 @@
       <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="340"/>
+      <c r="A10" s="342"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -7575,7 +9863,7 @@
       <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="340"/>
+      <c r="A11" s="342"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -7631,7 +9919,7 @@
       <c r="X11" s="18"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1">
-      <c r="A12" s="341"/>
+      <c r="A12" s="343"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -7687,7 +9975,7 @@
       <c r="X12" s="18"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="340" t="s">
+      <c r="A13" s="342" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="109">
@@ -7745,7 +10033,7 @@
       <c r="X13" s="18"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A14" s="340"/>
+      <c r="A14" s="342"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -7802,7 +10090,7 @@
       <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="340"/>
+      <c r="A15" s="342"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -7859,7 +10147,7 @@
       <c r="X15" s="18"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1">
-      <c r="A16" s="341"/>
+      <c r="A16" s="343"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -7915,7 +10203,7 @@
       <c r="X16" s="18"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="340" t="s">
+      <c r="A17" s="342" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="109">
@@ -7972,7 +10260,7 @@
       <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="340"/>
+      <c r="A18" s="342"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -8027,7 +10315,7 @@
       <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="340"/>
+      <c r="A19" s="342"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -8082,7 +10370,7 @@
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="340"/>
+      <c r="A20" s="342"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -8137,7 +10425,7 @@
       <c r="X20" s="18"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1">
-      <c r="A21" s="340"/>
+      <c r="A21" s="342"/>
       <c r="B21" s="103">
         <v>17</v>
       </c>
@@ -8192,7 +10480,7 @@
       <c r="X21" s="18"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="339" t="s">
+      <c r="A22" s="341" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -8250,7 +10538,7 @@
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="340"/>
+      <c r="A23" s="342"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -8306,7 +10594,7 @@
       <c r="X23" s="18"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="340"/>
+      <c r="A24" s="342"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -8362,7 +10650,7 @@
       <c r="X24" s="18"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1">
-      <c r="A25" s="341"/>
+      <c r="A25" s="343"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -8418,7 +10706,7 @@
       <c r="X25" s="18"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="340" t="s">
+      <c r="A26" s="342" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="109">
@@ -8475,7 +10763,7 @@
       <c r="X26" s="18"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="340"/>
+      <c r="A27" s="342"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -8530,7 +10818,7 @@
       <c r="X27" s="18"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="340"/>
+      <c r="A28" s="342"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -8585,7 +10873,7 @@
       <c r="X28" s="18"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1">
-      <c r="A29" s="340"/>
+      <c r="A29" s="342"/>
       <c r="B29" s="103">
         <v>25</v>
       </c>
@@ -8640,7 +10928,7 @@
       <c r="X29" s="18"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="339" t="s">
+      <c r="A30" s="341" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -8698,7 +10986,7 @@
       <c r="X30" s="18"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="340"/>
+      <c r="A31" s="342"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -8754,7 +11042,7 @@
       <c r="X31" s="18"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="340"/>
+      <c r="A32" s="342"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -8810,7 +11098,7 @@
       <c r="X32" s="18"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="340"/>
+      <c r="A33" s="342"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -8866,7 +11154,7 @@
       <c r="X33" s="18"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1">
-      <c r="A34" s="341"/>
+      <c r="A34" s="343"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -8922,7 +11210,7 @@
       <c r="X34" s="18"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="340" t="s">
+      <c r="A35" s="342" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="109">
@@ -8981,7 +11269,7 @@
       <c r="X35" s="18"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="340"/>
+      <c r="A36" s="342"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -9036,7 +11324,7 @@
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="340"/>
+      <c r="A37" s="342"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -9091,7 +11379,7 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1">
-      <c r="A38" s="340"/>
+      <c r="A38" s="342"/>
       <c r="B38" s="103">
         <v>34</v>
       </c>
@@ -9146,7 +11434,7 @@
       <c r="X38" s="18"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="339" t="s">
+      <c r="A39" s="341" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -9204,7 +11492,7 @@
       <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="340"/>
+      <c r="A40" s="342"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -9260,7 +11548,7 @@
       <c r="X40" s="18"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="340"/>
+      <c r="A41" s="342"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -9318,7 +11606,7 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1">
-      <c r="A42" s="341"/>
+      <c r="A42" s="343"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -9376,7 +11664,7 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="339" t="s">
+      <c r="A43" s="341" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -9436,7 +11724,7 @@
       <c r="X43" s="18"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="340"/>
+      <c r="A44" s="342"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -9495,7 +11783,7 @@
       <c r="X44" s="18"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="340"/>
+      <c r="A45" s="342"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -9561,7 +11849,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="340"/>
+      <c r="A46" s="342"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -9624,7 +11912,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1">
-      <c r="A47" s="341"/>
+      <c r="A47" s="343"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -9682,7 +11970,7 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="339" t="s">
+      <c r="A48" s="341" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -9743,7 +12031,7 @@
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="340"/>
+      <c r="A49" s="342"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -9804,7 +12092,7 @@
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="340"/>
+      <c r="A50" s="342"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -9865,7 +12153,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1">
-      <c r="A51" s="341"/>
+      <c r="A51" s="343"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -9924,7 +12212,7 @@
       </c>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="339" t="s">
+      <c r="A52" s="341" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -9985,7 +12273,7 @@
       </c>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="340"/>
+      <c r="A53" s="342"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -10044,7 +12332,7 @@
       </c>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="340"/>
+      <c r="A54" s="342"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -10100,7 +12388,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1">
-      <c r="A55" s="340"/>
+      <c r="A55" s="342"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -10154,18 +12442,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="335" t="s">
+      <c r="X55" s="346" t="s">
         <v>87</v>
       </c>
-      <c r="Y55" s="335"/>
-      <c r="Z55" s="335"/>
-      <c r="AA55" s="335"/>
-      <c r="AB55" s="335"/>
-      <c r="AC55" s="335"/>
-      <c r="AD55" s="335"/>
+      <c r="Y55" s="346"/>
+      <c r="Z55" s="346"/>
+      <c r="AA55" s="346"/>
+      <c r="AB55" s="346"/>
+      <c r="AC55" s="346"/>
+      <c r="AD55" s="346"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="341"/>
+      <c r="A56" s="343"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -10219,16 +12507,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="335"/>
-      <c r="Y56" s="335"/>
-      <c r="Z56" s="335"/>
-      <c r="AA56" s="335"/>
-      <c r="AB56" s="335"/>
-      <c r="AC56" s="335"/>
-      <c r="AD56" s="335"/>
+      <c r="X56" s="346"/>
+      <c r="Y56" s="346"/>
+      <c r="Z56" s="346"/>
+      <c r="AA56" s="346"/>
+      <c r="AB56" s="346"/>
+      <c r="AC56" s="346"/>
+      <c r="AD56" s="346"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1">
-      <c r="A57" s="336" t="s">
+      <c r="A57" s="338" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="106">
@@ -10284,16 +12572,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="335"/>
-      <c r="Y57" s="335"/>
-      <c r="Z57" s="335"/>
-      <c r="AA57" s="335"/>
-      <c r="AB57" s="335"/>
-      <c r="AC57" s="335"/>
-      <c r="AD57" s="335"/>
+      <c r="X57" s="346"/>
+      <c r="Y57" s="346"/>
+      <c r="Z57" s="346"/>
+      <c r="AA57" s="346"/>
+      <c r="AB57" s="346"/>
+      <c r="AC57" s="346"/>
+      <c r="AD57" s="346"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="337"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="104">
         <v>2</v>
       </c>
@@ -10352,7 +12640,7 @@
       </c>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="337"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="104">
         <v>3</v>
       </c>
@@ -10411,7 +12699,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1">
-      <c r="A60" s="338"/>
+      <c r="A60" s="340"/>
       <c r="B60" s="107">
         <v>4</v>
       </c>
@@ -10467,7 +12755,7 @@
       </c>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="336" t="s">
+      <c r="A61" s="338" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="106">
@@ -10525,7 +12813,7 @@
       </c>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="337"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="104">
         <v>6</v>
       </c>
@@ -10584,7 +12872,7 @@
       </c>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="337"/>
+      <c r="A63" s="339"/>
       <c r="B63" s="104">
         <v>7</v>
       </c>
@@ -10643,7 +12931,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1">
-      <c r="A64" s="338"/>
+      <c r="A64" s="340"/>
       <c r="B64" s="107">
         <v>8</v>
       </c>
@@ -10702,7 +12990,7 @@
       </c>
     </row>
     <row r="65" spans="1:29">
-      <c r="A65" s="336" t="s">
+      <c r="A65" s="338" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="106">
@@ -10763,7 +13051,7 @@
       </c>
     </row>
     <row r="66" spans="1:29">
-      <c r="A66" s="337"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="104">
         <v>10</v>
       </c>
@@ -10822,7 +13110,7 @@
       </c>
     </row>
     <row r="67" spans="1:29">
-      <c r="A67" s="337"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="104">
         <v>11</v>
       </c>
@@ -10881,7 +13169,7 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="15" thickBot="1">
-      <c r="A68" s="338"/>
+      <c r="A68" s="340"/>
       <c r="B68" s="107">
         <v>12</v>
       </c>
@@ -10940,7 +13228,7 @@
       </c>
     </row>
     <row r="69" spans="1:29">
-      <c r="A69" s="337" t="s">
+      <c r="A69" s="339" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="105">
@@ -10999,7 +13287,7 @@
       </c>
     </row>
     <row r="70" spans="1:29">
-      <c r="A70" s="337"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="104">
         <v>14</v>
       </c>
@@ -11056,7 +13344,7 @@
       </c>
     </row>
     <row r="71" spans="1:29">
-      <c r="A71" s="337"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="104">
         <v>15</v>
       </c>
@@ -11110,7 +13398,7 @@
       </c>
     </row>
     <row r="72" spans="1:29">
-      <c r="A72" s="337"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="104">
         <v>16</v>
       </c>
@@ -11167,7 +13455,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1">
-      <c r="A73" s="337"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="108">
         <v>17</v>
       </c>
@@ -11224,7 +13512,7 @@
       </c>
     </row>
     <row r="74" spans="1:29">
-      <c r="A74" s="336" t="s">
+      <c r="A74" s="338" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="106">
@@ -11282,7 +13570,7 @@
       </c>
     </row>
     <row r="75" spans="1:29">
-      <c r="A75" s="337"/>
+      <c r="A75" s="339"/>
       <c r="B75" s="104">
         <v>19</v>
       </c>
@@ -11341,7 +13629,7 @@
       </c>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="337"/>
+      <c r="A76" s="339"/>
       <c r="B76" s="104">
         <v>20</v>
       </c>
@@ -11396,7 +13684,7 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="15" thickBot="1">
-      <c r="A77" s="338"/>
+      <c r="A77" s="340"/>
       <c r="B77" s="107">
         <v>21</v>
       </c>
@@ -11452,7 +13740,7 @@
       </c>
     </row>
     <row r="78" spans="1:29">
-      <c r="A78" s="337" t="s">
+      <c r="A78" s="339" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="105">
@@ -11504,7 +13792,7 @@
       </c>
     </row>
     <row r="79" spans="1:29">
-      <c r="A79" s="337"/>
+      <c r="A79" s="339"/>
       <c r="B79" s="104">
         <v>23</v>
       </c>
@@ -11554,7 +13842,7 @@
       </c>
     </row>
     <row r="80" spans="1:29">
-      <c r="A80" s="337"/>
+      <c r="A80" s="339"/>
       <c r="B80" s="104">
         <v>24</v>
       </c>
@@ -11602,18 +13890,18 @@
       <c r="Q80" s="116">
         <v>0</v>
       </c>
-      <c r="W80" s="335" t="s">
+      <c r="W80" s="346" t="s">
         <v>154</v>
       </c>
-      <c r="X80" s="335"/>
-      <c r="Y80" s="335"/>
-      <c r="Z80" s="335"/>
-      <c r="AA80" s="335"/>
-      <c r="AB80" s="335"/>
-      <c r="AC80" s="335"/>
+      <c r="X80" s="346"/>
+      <c r="Y80" s="346"/>
+      <c r="Z80" s="346"/>
+      <c r="AA80" s="346"/>
+      <c r="AB80" s="346"/>
+      <c r="AC80" s="346"/>
     </row>
     <row r="81" spans="1:29" ht="15" thickBot="1">
-      <c r="A81" s="337"/>
+      <c r="A81" s="339"/>
       <c r="B81" s="108">
         <v>25</v>
       </c>
@@ -11661,16 +13949,16 @@
       <c r="Q81" s="116">
         <v>0</v>
       </c>
-      <c r="W81" s="335"/>
-      <c r="X81" s="335"/>
-      <c r="Y81" s="335"/>
-      <c r="Z81" s="335"/>
-      <c r="AA81" s="335"/>
-      <c r="AB81" s="335"/>
-      <c r="AC81" s="335"/>
+      <c r="W81" s="346"/>
+      <c r="X81" s="346"/>
+      <c r="Y81" s="346"/>
+      <c r="Z81" s="346"/>
+      <c r="AA81" s="346"/>
+      <c r="AB81" s="346"/>
+      <c r="AC81" s="346"/>
     </row>
     <row r="82" spans="1:29">
-      <c r="A82" s="336" t="s">
+      <c r="A82" s="338" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="106">
@@ -11723,16 +14011,16 @@
         <v>0</v>
       </c>
       <c r="R82" s="101"/>
-      <c r="W82" s="335"/>
-      <c r="X82" s="335"/>
-      <c r="Y82" s="335"/>
-      <c r="Z82" s="335"/>
-      <c r="AA82" s="335"/>
-      <c r="AB82" s="335"/>
-      <c r="AC82" s="335"/>
+      <c r="W82" s="346"/>
+      <c r="X82" s="346"/>
+      <c r="Y82" s="346"/>
+      <c r="Z82" s="346"/>
+      <c r="AA82" s="346"/>
+      <c r="AB82" s="346"/>
+      <c r="AC82" s="346"/>
     </row>
     <row r="83" spans="1:29">
-      <c r="A83" s="337"/>
+      <c r="A83" s="339"/>
       <c r="B83" s="104">
         <v>27</v>
       </c>
@@ -11784,7 +14072,7 @@
       </c>
     </row>
     <row r="84" spans="1:29">
-      <c r="A84" s="337"/>
+      <c r="A84" s="339"/>
       <c r="B84" s="104">
         <v>28</v>
       </c>
@@ -11836,7 +14124,7 @@
       </c>
     </row>
     <row r="85" spans="1:29">
-      <c r="A85" s="337"/>
+      <c r="A85" s="339"/>
       <c r="B85" s="104">
         <v>29</v>
       </c>
@@ -11888,7 +14176,7 @@
       </c>
     </row>
     <row r="86" spans="1:29" ht="15" thickBot="1">
-      <c r="A86" s="338"/>
+      <c r="A86" s="340"/>
       <c r="B86" s="107">
         <v>30</v>
       </c>
@@ -11941,7 +14229,7 @@
       <c r="R86" s="124"/>
     </row>
     <row r="87" spans="1:29">
-      <c r="A87" s="337" t="s">
+      <c r="A87" s="339" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="105">
@@ -11993,7 +14281,7 @@
       </c>
     </row>
     <row r="88" spans="1:29">
-      <c r="A88" s="337"/>
+      <c r="A88" s="339"/>
       <c r="B88" s="104">
         <v>32</v>
       </c>
@@ -12043,7 +14331,7 @@
       </c>
     </row>
     <row r="89" spans="1:29">
-      <c r="A89" s="337"/>
+      <c r="A89" s="339"/>
       <c r="B89" s="104">
         <v>33</v>
       </c>
@@ -12093,7 +14381,7 @@
       </c>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1">
-      <c r="A90" s="337"/>
+      <c r="A90" s="339"/>
       <c r="B90" s="108">
         <v>34</v>
       </c>
@@ -12143,7 +14431,7 @@
       </c>
     </row>
     <row r="91" spans="1:29">
-      <c r="A91" s="336" t="s">
+      <c r="A91" s="338" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="106">
@@ -12169,26 +14457,36 @@
       </c>
       <c r="H91" s="111"/>
       <c r="I91" s="111">
-        <v>100</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J91" s="113">
         <f t="shared" si="15"/>
-        <v>1.198</v>
+        <v>1.3999999999999915E-2</v>
       </c>
       <c r="K91" s="177">
         <f t="shared" si="19"/>
-        <v>57.524999999999999</v>
+        <v>42.724999999999994</v>
       </c>
       <c r="L91" s="111"/>
-      <c r="M91" s="111"/>
-      <c r="N91" s="111"/>
-      <c r="O91" s="111"/>
-      <c r="P91" s="111"/>
-      <c r="Q91" s="111"/>
+      <c r="M91" s="111">
+        <v>0</v>
+      </c>
+      <c r="N91" s="111">
+        <v>0</v>
+      </c>
+      <c r="O91" s="111">
+        <v>0</v>
+      </c>
+      <c r="P91" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="111">
+        <v>0</v>
+      </c>
       <c r="R91" s="101"/>
     </row>
     <row r="92" spans="1:29">
-      <c r="A92" s="337"/>
+      <c r="A92" s="339"/>
       <c r="B92" s="104">
         <v>36</v>
       </c>
@@ -12216,11 +14514,11 @@
       </c>
       <c r="J92" s="117">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.1840000000000002</v>
       </c>
       <c r="K92" s="177">
         <f t="shared" si="19"/>
-        <v>71.25</v>
+        <v>56.45</v>
       </c>
       <c r="L92" s="115"/>
       <c r="M92" s="115"/>
@@ -12230,7 +14528,7 @@
       <c r="Q92" s="115"/>
     </row>
     <row r="93" spans="1:29">
-      <c r="A93" s="337"/>
+      <c r="A93" s="339"/>
       <c r="B93" s="104">
         <v>37</v>
       </c>
@@ -12262,7 +14560,7 @@
       </c>
       <c r="K93" s="177">
         <f t="shared" si="19"/>
-        <v>85.025000000000006</v>
+        <v>70.224999999999994</v>
       </c>
       <c r="L93" s="115"/>
       <c r="M93" s="115"/>
@@ -12272,7 +14570,7 @@
       <c r="Q93" s="115"/>
     </row>
     <row r="94" spans="1:29">
-      <c r="A94" s="337"/>
+      <c r="A94" s="339"/>
       <c r="B94" s="104">
         <v>38</v>
       </c>
@@ -12304,7 +14602,7 @@
       </c>
       <c r="K94" s="177">
         <f t="shared" si="19"/>
-        <v>100</v>
+        <v>85.2</v>
       </c>
       <c r="L94" s="115"/>
       <c r="M94" s="115"/>
@@ -12314,7 +14612,7 @@
       <c r="Q94" s="115"/>
     </row>
     <row r="95" spans="1:29" ht="15" thickBot="1">
-      <c r="A95" s="338"/>
+      <c r="A95" s="340"/>
       <c r="B95" s="107">
         <v>39</v>
       </c>
@@ -12357,7 +14655,7 @@
       <c r="R95" s="124"/>
     </row>
     <row r="96" spans="1:29">
-      <c r="A96" s="337" t="s">
+      <c r="A96" s="339" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="105">
@@ -12394,7 +14692,7 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="337"/>
+      <c r="A97" s="339"/>
       <c r="B97" s="104">
         <v>41</v>
       </c>
@@ -12429,7 +14727,7 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="337"/>
+      <c r="A98" s="339"/>
       <c r="B98" s="104">
         <v>42</v>
       </c>
@@ -12464,7 +14762,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1">
-      <c r="A99" s="337"/>
+      <c r="A99" s="339"/>
       <c r="B99" s="108">
         <v>43</v>
       </c>
@@ -12499,7 +14797,7 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="336" t="s">
+      <c r="A100" s="338" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="106">
@@ -12544,7 +14842,7 @@
       <c r="R100" s="101"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="337"/>
+      <c r="A101" s="339"/>
       <c r="B101" s="104">
         <v>45</v>
       </c>
@@ -12586,7 +14884,7 @@
       <c r="Q101" s="115"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="337"/>
+      <c r="A102" s="339"/>
       <c r="B102" s="104">
         <v>46</v>
       </c>
@@ -12628,7 +14926,7 @@
       <c r="Q102" s="115"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1">
-      <c r="A103" s="338"/>
+      <c r="A103" s="340"/>
       <c r="B103" s="107">
         <v>47</v>
       </c>
@@ -12671,7 +14969,7 @@
       <c r="R103" s="124"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="336" t="s">
+      <c r="A104" s="338" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="106">
@@ -12716,7 +15014,7 @@
       <c r="R104" s="101"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="337"/>
+      <c r="A105" s="339"/>
       <c r="B105" s="104">
         <v>49</v>
       </c>
@@ -12758,7 +15056,7 @@
       <c r="Q105" s="115"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="337"/>
+      <c r="A106" s="339"/>
       <c r="B106" s="104">
         <v>50</v>
       </c>
@@ -12800,7 +15098,7 @@
       <c r="Q106" s="115"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="337"/>
+      <c r="A107" s="339"/>
       <c r="B107" s="104">
         <v>51</v>
       </c>
@@ -12842,7 +15140,7 @@
       <c r="Q107" s="115"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1">
-      <c r="A108" s="338"/>
+      <c r="A108" s="340"/>
       <c r="B108" s="107">
         <v>52</v>
       </c>
@@ -12885,7 +15183,7 @@
       <c r="R108" s="124"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="336" t="s">
+      <c r="A109" s="338" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="105">
@@ -12902,7 +15200,7 @@
       </c>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="337"/>
+      <c r="A110" s="339"/>
       <c r="B110" s="104">
         <v>2</v>
       </c>
@@ -12917,7 +15215,7 @@
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="337"/>
+      <c r="A111" s="339"/>
       <c r="B111" s="104">
         <v>3</v>
       </c>
@@ -12932,7 +15230,7 @@
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="337"/>
+      <c r="A112" s="339"/>
       <c r="B112" s="104">
         <v>4</v>
       </c>
@@ -12947,7 +15245,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1">
-      <c r="A113" s="338"/>
+      <c r="A113" s="340"/>
       <c r="B113" s="104">
         <v>5</v>
       </c>
@@ -12962,7 +15260,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="336" t="s">
+      <c r="A114" s="338" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="104">
@@ -12979,7 +15277,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="337"/>
+      <c r="A115" s="339"/>
       <c r="B115" s="104">
         <v>7</v>
       </c>
@@ -12994,7 +15292,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="337"/>
+      <c r="A116" s="339"/>
       <c r="B116" s="104">
         <v>8</v>
       </c>
@@ -13009,7 +15307,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1">
-      <c r="A117" s="338"/>
+      <c r="A117" s="340"/>
       <c r="B117" s="104">
         <v>9</v>
       </c>
@@ -13024,7 +15322,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="336" t="s">
+      <c r="A118" s="338" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="104">
@@ -13041,7 +15339,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="337"/>
+      <c r="A119" s="339"/>
       <c r="B119" s="104">
         <v>11</v>
       </c>
@@ -13056,7 +15354,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="337"/>
+      <c r="A120" s="339"/>
       <c r="B120" s="104">
         <v>12</v>
       </c>
@@ -13071,7 +15369,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1">
-      <c r="A121" s="338"/>
+      <c r="A121" s="340"/>
       <c r="B121" s="104">
         <v>13</v>
       </c>
@@ -13086,7 +15384,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="344" t="s">
+      <c r="A122" s="335" t="s">
         <v>4</v>
       </c>
       <c r="B122" s="310">
@@ -13103,7 +15401,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="345"/>
+      <c r="A123" s="336"/>
       <c r="B123" s="310">
         <v>15</v>
       </c>
@@ -13118,7 +15416,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="345"/>
+      <c r="A124" s="336"/>
       <c r="B124" s="310">
         <v>16</v>
       </c>
@@ -13133,7 +15431,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="345"/>
+      <c r="A125" s="336"/>
       <c r="B125" s="310">
         <v>17</v>
       </c>
@@ -13148,7 +15446,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1">
-      <c r="A126" s="346"/>
+      <c r="A126" s="337"/>
       <c r="B126" s="310">
         <v>18</v>
       </c>
@@ -13163,7 +15461,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="336" t="s">
+      <c r="A127" s="338" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="104">
@@ -13177,7 +15475,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="337"/>
+      <c r="A128" s="339"/>
       <c r="B128" s="104">
         <v>20</v>
       </c>
@@ -13189,7 +15487,7 @@
       </c>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="337"/>
+      <c r="A129" s="339"/>
       <c r="B129" s="104">
         <v>21</v>
       </c>
@@ -13201,7 +15499,7 @@
       </c>
     </row>
     <row r="130" spans="1:18" ht="15" thickBot="1">
-      <c r="A130" s="338"/>
+      <c r="A130" s="340"/>
       <c r="B130" s="104">
         <v>22</v>
       </c>
@@ -14680,23 +16978,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="W80:AC82"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="X55:AD57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A30:A34"/>
@@ -14707,11 +16993,23 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="W80:AC82"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="X55:AD57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A118:A121"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="8" priority="4">
@@ -14736,7 +17034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -16143,13 +18441,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE94"/>
+  <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z61" sqref="Z61"/>
+      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -18804,7 +21102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="16.8" customHeight="1">
+    <row r="49" spans="1:36" ht="16.8" customHeight="1">
       <c r="A49" s="155">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -18863,7 +21161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="16.8" customHeight="1">
+    <row r="50" spans="1:36" ht="16.8" customHeight="1">
       <c r="A50" s="155">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -18927,7 +21225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="16.8" customHeight="1">
+    <row r="51" spans="1:36" ht="16.8" customHeight="1">
       <c r="A51" s="203">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -18986,7 +21284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="16.8" customHeight="1">
+    <row r="52" spans="1:36" ht="16.8" customHeight="1">
       <c r="A52" s="155">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -19035,7 +21333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="16.8" customHeight="1">
+    <row r="53" spans="1:36" ht="16.8" customHeight="1">
       <c r="A53" s="155">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -19091,7 +21389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="16.8" customHeight="1">
+    <row r="54" spans="1:36" ht="16.8" customHeight="1">
       <c r="A54" s="203">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -19155,7 +21453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="16.8" customHeight="1">
+    <row r="55" spans="1:36" ht="16.8" customHeight="1">
       <c r="A55" s="203">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -19219,7 +21517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="16.8" customHeight="1">
+    <row r="56" spans="1:36" ht="16.8" customHeight="1">
       <c r="A56" s="203">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -19273,7 +21571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="16.8" customHeight="1">
+    <row r="57" spans="1:36" ht="16.8" customHeight="1">
       <c r="A57" s="203">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -19327,7 +21625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="16.8" customHeight="1">
+    <row r="58" spans="1:36" ht="16.8" customHeight="1">
       <c r="A58" s="155">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -19370,8 +21668,18 @@
       <c r="Y58" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" ht="16.8" customHeight="1">
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
+    </row>
+    <row r="59" spans="1:36" ht="16.8" customHeight="1">
       <c r="A59" s="155">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -19392,29 +21700,52 @@
       <c r="J59" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="P59" s="248">
+      <c r="P59" s="359">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="50">
+      <c r="Q59" s="360" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="361">
+        <v>1.1613599999999999</v>
+      </c>
+      <c r="S59" s="362">
+        <v>43344</v>
+      </c>
+      <c r="T59" s="363"/>
+      <c r="U59" s="361">
+        <v>1.1611</v>
+      </c>
+      <c r="V59" s="362">
+        <v>43346</v>
+      </c>
+      <c r="W59" s="361">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="257" t="str">
+        <v>2.5999999999992696E-4</v>
+      </c>
+      <c r="X59" s="364" t="str">
         <f t="shared" si="55"/>
         <v>盈</v>
       </c>
       <c r="Y59" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="16.8" customHeight="1">
+      <c r="Z59" s="318" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+    </row>
+    <row r="60" spans="1:36" ht="16.8" customHeight="1">
       <c r="A60" s="155">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -19457,8 +21788,21 @@
       <c r="Y60" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" ht="16.8" customHeight="1">
+      <c r="Z60" s="319" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
+    </row>
+    <row r="61" spans="1:36" ht="16.8" customHeight="1">
       <c r="A61" s="155">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -19501,8 +21845,19 @@
       <c r="Y61" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" ht="16.8" customHeight="1">
+      <c r="Z61" s="319"/>
+      <c r="AA61" s="37"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="37"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="37"/>
+      <c r="AF61" s="37"/>
+      <c r="AG61" s="37"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="37"/>
+      <c r="AJ61" s="37"/>
+    </row>
+    <row r="62" spans="1:36" ht="16.8" customHeight="1">
       <c r="A62" s="155">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -19544,8 +21899,18 @@
       <c r="Y62" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" ht="16.8" customHeight="1">
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="37"/>
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="37"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="37"/>
+      <c r="AJ62" s="37"/>
+    </row>
+    <row r="63" spans="1:36" ht="16.8" customHeight="1">
       <c r="A63" s="155">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -19588,8 +21953,18 @@
       <c r="Y63" s="161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="16.8" customHeight="1">
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="37"/>
+      <c r="AF63" s="37"/>
+      <c r="AG63" s="37"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="37"/>
+      <c r="AJ63" s="37"/>
+    </row>
+    <row r="64" spans="1:36" ht="16.8" customHeight="1">
       <c r="A64" s="155">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -20483,7 +22858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -20492,7 +22867,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O47" sqref="O47"/>
+      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34:Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -23166,7 +25541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -25290,12 +27665,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -25465,15 +27840,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -25829,2104 +28204,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B208"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" style="301" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="301">
-        <f>'10年计划-周'!D5</f>
-        <v>42743</v>
-      </c>
-      <c r="B1" s="20">
-        <f>'10年计划-周'!I5</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="301">
-        <f>'10年计划-周'!D6</f>
-        <v>42750</v>
-      </c>
-      <c r="B2" s="20">
-        <f>'10年计划-周'!I6</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="301">
-        <f>'10年计划-周'!D7</f>
-        <v>42757</v>
-      </c>
-      <c r="B3" s="20">
-        <f>'10年计划-周'!I7</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="301">
-        <f>'10年计划-周'!D8</f>
-        <v>42764</v>
-      </c>
-      <c r="B4" s="20">
-        <f>'10年计划-周'!I8</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="301">
-        <f>'10年计划-周'!D9</f>
-        <v>42771</v>
-      </c>
-      <c r="B5" s="20">
-        <f>'10年计划-周'!I9</f>
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="301">
-        <f>'10年计划-周'!D10</f>
-        <v>42778</v>
-      </c>
-      <c r="B6" s="20">
-        <f>'10年计划-周'!I10</f>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="301">
-        <f>'10年计划-周'!D11</f>
-        <v>42785</v>
-      </c>
-      <c r="B7" s="20">
-        <f>'10年计划-周'!I11</f>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="301">
-        <f>'10年计划-周'!D12</f>
-        <v>42792</v>
-      </c>
-      <c r="B8" s="20">
-        <f>'10年计划-周'!I12</f>
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="301">
-        <f>'10年计划-周'!D13</f>
-        <v>42799</v>
-      </c>
-      <c r="B9" s="20">
-        <f>'10年计划-周'!I13</f>
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="301">
-        <f>'10年计划-周'!D14</f>
-        <v>42806</v>
-      </c>
-      <c r="B10" s="20">
-        <f>'10年计划-周'!I14</f>
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="301">
-        <f>'10年计划-周'!D15</f>
-        <v>42813</v>
-      </c>
-      <c r="B11" s="20">
-        <f>'10年计划-周'!I15</f>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="301">
-        <f>'10年计划-周'!D16</f>
-        <v>42820</v>
-      </c>
-      <c r="B12" s="20">
-        <f>'10年计划-周'!I16</f>
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="301">
-        <f>'10年计划-周'!D17</f>
-        <v>42827</v>
-      </c>
-      <c r="B13" s="20">
-        <f>'10年计划-周'!I17</f>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="301">
-        <f>'10年计划-周'!D18</f>
-        <v>42834</v>
-      </c>
-      <c r="B14" s="20">
-        <f>'10年计划-周'!I18</f>
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="301">
-        <f>'10年计划-周'!D19</f>
-        <v>42841</v>
-      </c>
-      <c r="B15" s="20">
-        <f>'10年计划-周'!I19</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="301">
-        <f>'10年计划-周'!D20</f>
-        <v>42848</v>
-      </c>
-      <c r="B16" s="20">
-        <f>'10年计划-周'!I20</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="301">
-        <f>'10年计划-周'!D21</f>
-        <v>42855</v>
-      </c>
-      <c r="B17" s="20">
-        <f>'10年计划-周'!I21</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="301">
-        <f>'10年计划-周'!D22</f>
-        <v>42862</v>
-      </c>
-      <c r="B18" s="20">
-        <f>'10年计划-周'!I22</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="301">
-        <f>'10年计划-周'!D23</f>
-        <v>42869</v>
-      </c>
-      <c r="B19" s="20">
-        <f>'10年计划-周'!I23</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="301">
-        <f>'10年计划-周'!D24</f>
-        <v>42876</v>
-      </c>
-      <c r="B20" s="20">
-        <f>'10年计划-周'!I24</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="301">
-        <f>'10年计划-周'!D25</f>
-        <v>42883</v>
-      </c>
-      <c r="B21" s="20">
-        <f>'10年计划-周'!I25</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="301">
-        <f>'10年计划-周'!D26</f>
-        <v>42890</v>
-      </c>
-      <c r="B22" s="20">
-        <f>'10年计划-周'!I26</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="301">
-        <f>'10年计划-周'!D27</f>
-        <v>42897</v>
-      </c>
-      <c r="B23" s="20">
-        <f>'10年计划-周'!I27</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="301">
-        <f>'10年计划-周'!D28</f>
-        <v>42904</v>
-      </c>
-      <c r="B24" s="20">
-        <f>'10年计划-周'!I28</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="301">
-        <f>'10年计划-周'!D29</f>
-        <v>42911</v>
-      </c>
-      <c r="B25" s="20">
-        <f>'10年计划-周'!I29</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="301">
-        <f>'10年计划-周'!D30</f>
-        <v>42918</v>
-      </c>
-      <c r="B26" s="20">
-        <f>'10年计划-周'!I30</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="301">
-        <f>'10年计划-周'!D31</f>
-        <v>42925</v>
-      </c>
-      <c r="B27" s="20">
-        <f>'10年计划-周'!I31</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="301">
-        <f>'10年计划-周'!D32</f>
-        <v>42932</v>
-      </c>
-      <c r="B28" s="20">
-        <f>'10年计划-周'!I32</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="301">
-        <f>'10年计划-周'!D33</f>
-        <v>42939</v>
-      </c>
-      <c r="B29" s="20">
-        <f>'10年计划-周'!I33</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="301">
-        <f>'10年计划-周'!D34</f>
-        <v>42946</v>
-      </c>
-      <c r="B30" s="20">
-        <f>'10年计划-周'!I34</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="301">
-        <f>'10年计划-周'!D35</f>
-        <v>42953</v>
-      </c>
-      <c r="B31" s="20">
-        <f>'10年计划-周'!I35</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="301">
-        <f>'10年计划-周'!D36</f>
-        <v>42960</v>
-      </c>
-      <c r="B32" s="20">
-        <f>'10年计划-周'!I36</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="301">
-        <f>'10年计划-周'!D37</f>
-        <v>42967</v>
-      </c>
-      <c r="B33" s="20">
-        <f>'10年计划-周'!I37</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="301">
-        <f>'10年计划-周'!D38</f>
-        <v>42974</v>
-      </c>
-      <c r="B34" s="20">
-        <f>'10年计划-周'!I38</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="301">
-        <f>'10年计划-周'!D39</f>
-        <v>42981</v>
-      </c>
-      <c r="B35" s="20">
-        <f>'10年计划-周'!I39</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="301">
-        <f>'10年计划-周'!D40</f>
-        <v>42988</v>
-      </c>
-      <c r="B36" s="20">
-        <f>'10年计划-周'!I40</f>
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="301">
-        <f>'10年计划-周'!D41</f>
-        <v>42995</v>
-      </c>
-      <c r="B37" s="20">
-        <f>'10年计划-周'!I41</f>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="301">
-        <f>'10年计划-周'!D42</f>
-        <v>43002</v>
-      </c>
-      <c r="B38" s="20">
-        <f>'10年计划-周'!I42</f>
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="301">
-        <f>'10年计划-周'!D43</f>
-        <v>43009</v>
-      </c>
-      <c r="B39" s="20">
-        <f>'10年计划-周'!I43</f>
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="301">
-        <f>'10年计划-周'!D44</f>
-        <v>43016</v>
-      </c>
-      <c r="B40" s="20">
-        <f>'10年计划-周'!I44</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="301">
-        <f>'10年计划-周'!D45</f>
-        <v>43023</v>
-      </c>
-      <c r="B41" s="20">
-        <f>'10年计划-周'!I45</f>
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="301">
-        <f>'10年计划-周'!D46</f>
-        <v>43030</v>
-      </c>
-      <c r="B42" s="20">
-        <f>'10年计划-周'!I46</f>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="301">
-        <f>'10年计划-周'!D47</f>
-        <v>43037</v>
-      </c>
-      <c r="B43" s="20">
-        <f>'10年计划-周'!I47</f>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="301">
-        <f>'10年计划-周'!D48</f>
-        <v>43044</v>
-      </c>
-      <c r="B44" s="20">
-        <f>'10年计划-周'!I48</f>
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="301">
-        <f>'10年计划-周'!D49</f>
-        <v>43051</v>
-      </c>
-      <c r="B45" s="20">
-        <f>'10年计划-周'!I49</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="301">
-        <f>'10年计划-周'!D50</f>
-        <v>43058</v>
-      </c>
-      <c r="B46" s="20">
-        <f>'10年计划-周'!I50</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="301">
-        <f>'10年计划-周'!D51</f>
-        <v>43065</v>
-      </c>
-      <c r="B47" s="20">
-        <f>'10年计划-周'!I51</f>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="301">
-        <f>'10年计划-周'!D52</f>
-        <v>43072</v>
-      </c>
-      <c r="B48" s="20">
-        <f>'10年计划-周'!I52</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="301">
-        <f>'10年计划-周'!D53</f>
-        <v>43079</v>
-      </c>
-      <c r="B49" s="20">
-        <f>'10年计划-周'!I53</f>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="301">
-        <f>'10年计划-周'!D54</f>
-        <v>43086</v>
-      </c>
-      <c r="B50" s="20">
-        <f>'10年计划-周'!I54</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="301">
-        <f>'10年计划-周'!D55</f>
-        <v>43093</v>
-      </c>
-      <c r="B51" s="20">
-        <f>'10年计划-周'!I55</f>
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="301">
-        <f>'10年计划-周'!D56</f>
-        <v>43100</v>
-      </c>
-      <c r="B52" s="20">
-        <f>'10年计划-周'!I56</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="301">
-        <f>'10年计划-周'!D57</f>
-        <v>43107</v>
-      </c>
-      <c r="B53" s="20">
-        <f>'10年计划-周'!I57</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="301">
-        <f>'10年计划-周'!D58</f>
-        <v>43114</v>
-      </c>
-      <c r="B54" s="20">
-        <f>'10年计划-周'!I58</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="301">
-        <f>'10年计划-周'!D59</f>
-        <v>43121</v>
-      </c>
-      <c r="B55" s="20">
-        <f>'10年计划-周'!I59</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="301">
-        <f>'10年计划-周'!D60</f>
-        <v>43128</v>
-      </c>
-      <c r="B56" s="20">
-        <f>'10年计划-周'!I60</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="301">
-        <f>'10年计划-周'!D61</f>
-        <v>43135</v>
-      </c>
-      <c r="B57" s="20">
-        <f>'10年计划-周'!I61</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="301">
-        <f>'10年计划-周'!D62</f>
-        <v>43142</v>
-      </c>
-      <c r="B58" s="20">
-        <f>'10年计划-周'!I62</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="301">
-        <f>'10年计划-周'!D63</f>
-        <v>43149</v>
-      </c>
-      <c r="B59" s="20">
-        <f>'10年计划-周'!I63</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="301">
-        <f>'10年计划-周'!D64</f>
-        <v>43156</v>
-      </c>
-      <c r="B60" s="20">
-        <f>'10年计划-周'!I64</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="301">
-        <f>'10年计划-周'!D65</f>
-        <v>43163</v>
-      </c>
-      <c r="B61" s="20">
-        <f>'10年计划-周'!I65</f>
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="301">
-        <f>'10年计划-周'!D66</f>
-        <v>43170</v>
-      </c>
-      <c r="B62" s="20">
-        <f>'10年计划-周'!I66</f>
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="301">
-        <f>'10年计划-周'!D67</f>
-        <v>43177</v>
-      </c>
-      <c r="B63" s="20">
-        <f>'10年计划-周'!I67</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="301">
-        <f>'10年计划-周'!D68</f>
-        <v>43184</v>
-      </c>
-      <c r="B64" s="20">
-        <f>'10年计划-周'!I68</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="301">
-        <f>'10年计划-周'!D69</f>
-        <v>43191</v>
-      </c>
-      <c r="B65" s="20">
-        <f>'10年计划-周'!I69</f>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="301">
-        <f>'10年计划-周'!D70</f>
-        <v>43198</v>
-      </c>
-      <c r="B66" s="20">
-        <f>'10年计划-周'!I70</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="301">
-        <f>'10年计划-周'!D71</f>
-        <v>43205</v>
-      </c>
-      <c r="B67" s="20">
-        <f>'10年计划-周'!I71</f>
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="301">
-        <f>'10年计划-周'!D72</f>
-        <v>43212</v>
-      </c>
-      <c r="B68" s="20">
-        <f>'10年计划-周'!I72</f>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="301">
-        <f>'10年计划-周'!D73</f>
-        <v>43219</v>
-      </c>
-      <c r="B69" s="20">
-        <f>'10年计划-周'!I73</f>
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="301">
-        <f>'10年计划-周'!D74</f>
-        <v>43226</v>
-      </c>
-      <c r="B70" s="20">
-        <f>'10年计划-周'!I74</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="301">
-        <f>'10年计划-周'!D75</f>
-        <v>43233</v>
-      </c>
-      <c r="B71" s="20">
-        <f>'10年计划-周'!I75</f>
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="301">
-        <f>'10年计划-周'!D76</f>
-        <v>43240</v>
-      </c>
-      <c r="B72" s="20">
-        <f>'10年计划-周'!I76</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="301">
-        <f>'10年计划-周'!D77</f>
-        <v>43247</v>
-      </c>
-      <c r="B73" s="20">
-        <f>'10年计划-周'!I77</f>
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="301">
-        <f>'10年计划-周'!D78</f>
-        <v>43254</v>
-      </c>
-      <c r="B74" s="20">
-        <f>'10年计划-周'!I78</f>
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="301">
-        <f>'10年计划-周'!D79</f>
-        <v>43261</v>
-      </c>
-      <c r="B75" s="20">
-        <f>'10年计划-周'!I79</f>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="301">
-        <f>'10年计划-周'!D80</f>
-        <v>43268</v>
-      </c>
-      <c r="B76" s="20">
-        <f>'10年计划-周'!I80</f>
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="301">
-        <f>'10年计划-周'!D81</f>
-        <v>43275</v>
-      </c>
-      <c r="B77" s="20">
-        <f>'10年计划-周'!I81</f>
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="301">
-        <f>'10年计划-周'!D82</f>
-        <v>43282</v>
-      </c>
-      <c r="B78" s="20">
-        <f>'10年计划-周'!I82</f>
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="301">
-        <f>'10年计划-周'!D83</f>
-        <v>43289</v>
-      </c>
-      <c r="B79" s="20">
-        <f>'10年计划-周'!I83</f>
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="301">
-        <f>'10年计划-周'!D84</f>
-        <v>43296</v>
-      </c>
-      <c r="B80" s="20">
-        <f>'10年计划-周'!I84</f>
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="301">
-        <f>'10年计划-周'!D85</f>
-        <v>43303</v>
-      </c>
-      <c r="B81" s="20">
-        <f>'10年计划-周'!I85</f>
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="301">
-        <f>'10年计划-周'!D86</f>
-        <v>43310</v>
-      </c>
-      <c r="B82" s="20">
-        <f>'10年计划-周'!I86</f>
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="301">
-        <f>'10年计划-周'!D87</f>
-        <v>43317</v>
-      </c>
-      <c r="B83" s="20">
-        <f>'10年计划-周'!I87</f>
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="301">
-        <f>'10年计划-周'!D88</f>
-        <v>43324</v>
-      </c>
-      <c r="B84" s="20">
-        <f>'10年计划-周'!I88</f>
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="301">
-        <f>'10年计划-周'!D89</f>
-        <v>43331</v>
-      </c>
-      <c r="B85" s="20">
-        <f>'10年计划-周'!I89</f>
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="301">
-        <f>'10年计划-周'!D90</f>
-        <v>43338</v>
-      </c>
-      <c r="B86" s="20">
-        <f>'10年计划-周'!I90</f>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="301">
-        <f>'10年计划-周'!D91</f>
-        <v>43345</v>
-      </c>
-      <c r="B87" s="20">
-        <f>'10年计划-周'!I91</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="301">
-        <f>'10年计划-周'!D92</f>
-        <v>43352</v>
-      </c>
-      <c r="B88" s="20">
-        <f>'10年计划-周'!I92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="301">
-        <f>'10年计划-周'!D93</f>
-        <v>43359</v>
-      </c>
-      <c r="B89" s="20">
-        <f>'10年计划-周'!I93</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="301">
-        <f>'10年计划-周'!D94</f>
-        <v>43366</v>
-      </c>
-      <c r="B90" s="20">
-        <f>'10年计划-周'!I94</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="301">
-        <f>'10年计划-周'!D95</f>
-        <v>43373</v>
-      </c>
-      <c r="B91" s="20">
-        <f>'10年计划-周'!I95</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="301">
-        <f>'10年计划-周'!D96</f>
-        <v>43380</v>
-      </c>
-      <c r="B92" s="20">
-        <f>'10年计划-周'!I96</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="301">
-        <f>'10年计划-周'!D97</f>
-        <v>43387</v>
-      </c>
-      <c r="B93" s="20">
-        <f>'10年计划-周'!I97</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="301">
-        <f>'10年计划-周'!D98</f>
-        <v>43394</v>
-      </c>
-      <c r="B94" s="20">
-        <f>'10年计划-周'!I98</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="301">
-        <f>'10年计划-周'!D99</f>
-        <v>43401</v>
-      </c>
-      <c r="B95" s="20">
-        <f>'10年计划-周'!I99</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="301">
-        <f>'10年计划-周'!D100</f>
-        <v>43408</v>
-      </c>
-      <c r="B96" s="20">
-        <f>'10年计划-周'!I100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="301">
-        <f>'10年计划-周'!D101</f>
-        <v>43415</v>
-      </c>
-      <c r="B97" s="20">
-        <f>'10年计划-周'!I101</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="301">
-        <f>'10年计划-周'!D102</f>
-        <v>43422</v>
-      </c>
-      <c r="B98" s="20">
-        <f>'10年计划-周'!I102</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="301">
-        <f>'10年计划-周'!D103</f>
-        <v>43429</v>
-      </c>
-      <c r="B99" s="20">
-        <f>'10年计划-周'!I103</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="301">
-        <f>'10年计划-周'!D104</f>
-        <v>43436</v>
-      </c>
-      <c r="B100" s="20">
-        <f>'10年计划-周'!I104</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="301">
-        <f>'10年计划-周'!D105</f>
-        <v>43443</v>
-      </c>
-      <c r="B101" s="20">
-        <f>'10年计划-周'!I105</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="301">
-        <f>'10年计划-周'!D106</f>
-        <v>43450</v>
-      </c>
-      <c r="B102" s="20">
-        <f>'10年计划-周'!I106</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="301">
-        <f>'10年计划-周'!D107</f>
-        <v>43457</v>
-      </c>
-      <c r="B103" s="20">
-        <f>'10年计划-周'!I107</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="301">
-        <f>'10年计划-周'!D108</f>
-        <v>43464</v>
-      </c>
-      <c r="B104" s="20">
-        <f>'10年计划-周'!I108</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="301">
-        <f>'10年计划-周'!D109</f>
-        <v>43471</v>
-      </c>
-      <c r="B105" s="20">
-        <f>'10年计划-周'!I109</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="301">
-        <f>'10年计划-周'!D110</f>
-        <v>43478</v>
-      </c>
-      <c r="B106" s="20">
-        <f>'10年计划-周'!I110</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="301">
-        <f>'10年计划-周'!D111</f>
-        <v>43485</v>
-      </c>
-      <c r="B107" s="20">
-        <f>'10年计划-周'!I111</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="301">
-        <f>'10年计划-周'!D112</f>
-        <v>43492</v>
-      </c>
-      <c r="B108" s="20">
-        <f>'10年计划-周'!I112</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="301">
-        <f>'10年计划-周'!D113</f>
-        <v>43499</v>
-      </c>
-      <c r="B109" s="20">
-        <f>'10年计划-周'!I113</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="301">
-        <f>'10年计划-周'!D114</f>
-        <v>43506</v>
-      </c>
-      <c r="B110" s="20">
-        <f>'10年计划-周'!I114</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="301">
-        <f>'10年计划-周'!D115</f>
-        <v>43513</v>
-      </c>
-      <c r="B111" s="20">
-        <f>'10年计划-周'!I115</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="301">
-        <f>'10年计划-周'!D116</f>
-        <v>43520</v>
-      </c>
-      <c r="B112" s="20">
-        <f>'10年计划-周'!I116</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="301">
-        <f>'10年计划-周'!D117</f>
-        <v>43527</v>
-      </c>
-      <c r="B113" s="20">
-        <f>'10年计划-周'!I117</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="301">
-        <f>'10年计划-周'!D118</f>
-        <v>43534</v>
-      </c>
-      <c r="B114" s="20">
-        <f>'10年计划-周'!I118</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="301">
-        <f>'10年计划-周'!D119</f>
-        <v>43541</v>
-      </c>
-      <c r="B115" s="20">
-        <f>'10年计划-周'!I119</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="301">
-        <f>'10年计划-周'!D120</f>
-        <v>43548</v>
-      </c>
-      <c r="B116" s="20">
-        <f>'10年计划-周'!I120</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="301">
-        <f>'10年计划-周'!D121</f>
-        <v>43555</v>
-      </c>
-      <c r="B117" s="20">
-        <f>'10年计划-周'!I121</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="301">
-        <f>'10年计划-周'!D122</f>
-        <v>43562</v>
-      </c>
-      <c r="B118" s="20">
-        <f>'10年计划-周'!I122</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="301">
-        <f>'10年计划-周'!D123</f>
-        <v>43569</v>
-      </c>
-      <c r="B119" s="20">
-        <f>'10年计划-周'!I123</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="301">
-        <f>'10年计划-周'!D124</f>
-        <v>43576</v>
-      </c>
-      <c r="B120" s="20">
-        <f>'10年计划-周'!I124</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="301">
-        <f>'10年计划-周'!D125</f>
-        <v>43583</v>
-      </c>
-      <c r="B121" s="20">
-        <f>'10年计划-周'!I125</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="301">
-        <f>'10年计划-周'!D126</f>
-        <v>43590</v>
-      </c>
-      <c r="B122" s="20">
-        <f>'10年计划-周'!I126</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="301">
-        <f>'10年计划-周'!D127</f>
-        <v>43597</v>
-      </c>
-      <c r="B123" s="20">
-        <f>'10年计划-周'!I127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="301">
-        <f>'10年计划-周'!D128</f>
-        <v>43604</v>
-      </c>
-      <c r="B124" s="20">
-        <f>'10年计划-周'!I128</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="301">
-        <f>'10年计划-周'!D129</f>
-        <v>43611</v>
-      </c>
-      <c r="B125" s="20">
-        <f>'10年计划-周'!I129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="301">
-        <f>'10年计划-周'!D130</f>
-        <v>43618</v>
-      </c>
-      <c r="B126" s="20">
-        <f>'10年计划-周'!I130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="301">
-        <f>'10年计划-周'!D131</f>
-        <v>43625</v>
-      </c>
-      <c r="B127" s="20">
-        <f>'10年计划-周'!I131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="301">
-        <f>'10年计划-周'!D132</f>
-        <v>43632</v>
-      </c>
-      <c r="B128" s="20">
-        <f>'10年计划-周'!I132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="301">
-        <f>'10年计划-周'!D133</f>
-        <v>43639</v>
-      </c>
-      <c r="B129" s="20">
-        <f>'10年计划-周'!I133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="301">
-        <f>'10年计划-周'!D134</f>
-        <v>43646</v>
-      </c>
-      <c r="B130" s="20">
-        <f>'10年计划-周'!I134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="301">
-        <f>'10年计划-周'!D135</f>
-        <v>43653</v>
-      </c>
-      <c r="B131" s="20">
-        <f>'10年计划-周'!I135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="301">
-        <f>'10年计划-周'!D136</f>
-        <v>43660</v>
-      </c>
-      <c r="B132" s="20">
-        <f>'10年计划-周'!I136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="301">
-        <f>'10年计划-周'!D137</f>
-        <v>43667</v>
-      </c>
-      <c r="B133" s="20">
-        <f>'10年计划-周'!I137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="301">
-        <f>'10年计划-周'!D138</f>
-        <v>43674</v>
-      </c>
-      <c r="B134" s="20">
-        <f>'10年计划-周'!I138</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="301">
-        <f>'10年计划-周'!D139</f>
-        <v>43681</v>
-      </c>
-      <c r="B135" s="20">
-        <f>'10年计划-周'!I139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="301">
-        <f>'10年计划-周'!D140</f>
-        <v>43688</v>
-      </c>
-      <c r="B136" s="20">
-        <f>'10年计划-周'!I140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="301">
-        <f>'10年计划-周'!D141</f>
-        <v>43695</v>
-      </c>
-      <c r="B137" s="20">
-        <f>'10年计划-周'!I141</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="301">
-        <f>'10年计划-周'!D142</f>
-        <v>43702</v>
-      </c>
-      <c r="B138" s="20">
-        <f>'10年计划-周'!I142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="301">
-        <f>'10年计划-周'!D143</f>
-        <v>43709</v>
-      </c>
-      <c r="B139" s="20">
-        <f>'10年计划-周'!I143</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="301">
-        <f>'10年计划-周'!D144</f>
-        <v>43716</v>
-      </c>
-      <c r="B140" s="20">
-        <f>'10年计划-周'!I144</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="301">
-        <f>'10年计划-周'!D145</f>
-        <v>43723</v>
-      </c>
-      <c r="B141" s="20">
-        <f>'10年计划-周'!I145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="301">
-        <f>'10年计划-周'!D146</f>
-        <v>43730</v>
-      </c>
-      <c r="B142" s="20">
-        <f>'10年计划-周'!I146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="301">
-        <f>'10年计划-周'!D147</f>
-        <v>43737</v>
-      </c>
-      <c r="B143" s="20">
-        <f>'10年计划-周'!I147</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="301">
-        <f>'10年计划-周'!D148</f>
-        <v>43744</v>
-      </c>
-      <c r="B144" s="20">
-        <f>'10年计划-周'!I148</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="301">
-        <f>'10年计划-周'!D149</f>
-        <v>43751</v>
-      </c>
-      <c r="B145" s="20">
-        <f>'10年计划-周'!I149</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="301">
-        <f>'10年计划-周'!D150</f>
-        <v>43758</v>
-      </c>
-      <c r="B146" s="20">
-        <f>'10年计划-周'!I150</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="301">
-        <f>'10年计划-周'!D151</f>
-        <v>43765</v>
-      </c>
-      <c r="B147" s="20">
-        <f>'10年计划-周'!I151</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="301">
-        <f>'10年计划-周'!D152</f>
-        <v>43772</v>
-      </c>
-      <c r="B148" s="20">
-        <f>'10年计划-周'!I152</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="301">
-        <f>'10年计划-周'!D153</f>
-        <v>43779</v>
-      </c>
-      <c r="B149" s="20">
-        <f>'10年计划-周'!I153</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="301">
-        <f>'10年计划-周'!D154</f>
-        <v>43786</v>
-      </c>
-      <c r="B150" s="20">
-        <f>'10年计划-周'!I154</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="301">
-        <f>'10年计划-周'!D155</f>
-        <v>43793</v>
-      </c>
-      <c r="B151" s="20">
-        <f>'10年计划-周'!I155</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="301">
-        <f>'10年计划-周'!D156</f>
-        <v>43800</v>
-      </c>
-      <c r="B152" s="20">
-        <f>'10年计划-周'!I156</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="301">
-        <f>'10年计划-周'!D157</f>
-        <v>43807</v>
-      </c>
-      <c r="B153" s="20">
-        <f>'10年计划-周'!I157</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="301">
-        <f>'10年计划-周'!D158</f>
-        <v>43814</v>
-      </c>
-      <c r="B154" s="20">
-        <f>'10年计划-周'!I158</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="301">
-        <f>'10年计划-周'!D159</f>
-        <v>43821</v>
-      </c>
-      <c r="B155" s="20">
-        <f>'10年计划-周'!I159</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="301">
-        <f>'10年计划-周'!D160</f>
-        <v>43828</v>
-      </c>
-      <c r="B156" s="20">
-        <f>'10年计划-周'!I160</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="301">
-        <f>'10年计划-周'!D161</f>
-        <v>43835</v>
-      </c>
-      <c r="B157" s="20">
-        <f>'10年计划-周'!I161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="301">
-        <f>'10年计划-周'!D162</f>
-        <v>43842</v>
-      </c>
-      <c r="B158" s="20">
-        <f>'10年计划-周'!I162</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="301">
-        <f>'10年计划-周'!D163</f>
-        <v>43849</v>
-      </c>
-      <c r="B159" s="20">
-        <f>'10年计划-周'!I163</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="301">
-        <f>'10年计划-周'!D164</f>
-        <v>43856</v>
-      </c>
-      <c r="B160" s="20">
-        <f>'10年计划-周'!I164</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="301">
-        <f>'10年计划-周'!D165</f>
-        <v>43863</v>
-      </c>
-      <c r="B161" s="20">
-        <f>'10年计划-周'!I165</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="301">
-        <f>'10年计划-周'!D166</f>
-        <v>43870</v>
-      </c>
-      <c r="B162" s="20">
-        <f>'10年计划-周'!I166</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="301">
-        <f>'10年计划-周'!D167</f>
-        <v>43877</v>
-      </c>
-      <c r="B163" s="20">
-        <f>'10年计划-周'!I167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="301">
-        <f>'10年计划-周'!D168</f>
-        <v>43884</v>
-      </c>
-      <c r="B164" s="20">
-        <f>'10年计划-周'!I168</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="301">
-        <f>'10年计划-周'!D169</f>
-        <v>43891</v>
-      </c>
-      <c r="B165" s="20">
-        <f>'10年计划-周'!I169</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="301">
-        <f>'10年计划-周'!D170</f>
-        <v>43898</v>
-      </c>
-      <c r="B166" s="20">
-        <f>'10年计划-周'!I170</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="301">
-        <f>'10年计划-周'!D171</f>
-        <v>43905</v>
-      </c>
-      <c r="B167" s="20">
-        <f>'10年计划-周'!I171</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="301">
-        <f>'10年计划-周'!D172</f>
-        <v>43912</v>
-      </c>
-      <c r="B168" s="20">
-        <f>'10年计划-周'!I172</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="301">
-        <f>'10年计划-周'!D173</f>
-        <v>43919</v>
-      </c>
-      <c r="B169" s="20">
-        <f>'10年计划-周'!I173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="301">
-        <f>'10年计划-周'!D174</f>
-        <v>43926</v>
-      </c>
-      <c r="B170" s="20">
-        <f>'10年计划-周'!I174</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="301">
-        <f>'10年计划-周'!D175</f>
-        <v>43933</v>
-      </c>
-      <c r="B171" s="20">
-        <f>'10年计划-周'!I175</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="301">
-        <f>'10年计划-周'!D176</f>
-        <v>43940</v>
-      </c>
-      <c r="B172" s="20">
-        <f>'10年计划-周'!I176</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="301">
-        <f>'10年计划-周'!D177</f>
-        <v>43947</v>
-      </c>
-      <c r="B173" s="20">
-        <f>'10年计划-周'!I177</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="301">
-        <f>'10年计划-周'!D178</f>
-        <v>43954</v>
-      </c>
-      <c r="B174" s="20">
-        <f>'10年计划-周'!I178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="301">
-        <f>'10年计划-周'!D179</f>
-        <v>43961</v>
-      </c>
-      <c r="B175" s="20">
-        <f>'10年计划-周'!I179</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="301">
-        <f>'10年计划-周'!D180</f>
-        <v>43968</v>
-      </c>
-      <c r="B176" s="20">
-        <f>'10年计划-周'!I180</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="301">
-        <f>'10年计划-周'!D181</f>
-        <v>43975</v>
-      </c>
-      <c r="B177" s="20">
-        <f>'10年计划-周'!I181</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="301">
-        <f>'10年计划-周'!D182</f>
-        <v>43982</v>
-      </c>
-      <c r="B178" s="20">
-        <f>'10年计划-周'!I182</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="301">
-        <f>'10年计划-周'!D183</f>
-        <v>43989</v>
-      </c>
-      <c r="B179" s="20">
-        <f>'10年计划-周'!I183</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="301">
-        <f>'10年计划-周'!D184</f>
-        <v>43996</v>
-      </c>
-      <c r="B180" s="20">
-        <f>'10年计划-周'!I184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="301">
-        <f>'10年计划-周'!D185</f>
-        <v>44003</v>
-      </c>
-      <c r="B181" s="20">
-        <f>'10年计划-周'!I185</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="301">
-        <f>'10年计划-周'!D186</f>
-        <v>44010</v>
-      </c>
-      <c r="B182" s="20">
-        <f>'10年计划-周'!I186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="301">
-        <f>'10年计划-周'!D187</f>
-        <v>44017</v>
-      </c>
-      <c r="B183" s="20">
-        <f>'10年计划-周'!I187</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="301">
-        <f>'10年计划-周'!D188</f>
-        <v>44024</v>
-      </c>
-      <c r="B184" s="20">
-        <f>'10年计划-周'!I188</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="301">
-        <f>'10年计划-周'!D189</f>
-        <v>44031</v>
-      </c>
-      <c r="B185" s="20">
-        <f>'10年计划-周'!I189</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="301">
-        <f>'10年计划-周'!D190</f>
-        <v>44038</v>
-      </c>
-      <c r="B186" s="20">
-        <f>'10年计划-周'!I190</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="301">
-        <f>'10年计划-周'!D191</f>
-        <v>44045</v>
-      </c>
-      <c r="B187" s="20">
-        <f>'10年计划-周'!I191</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="301">
-        <f>'10年计划-周'!D192</f>
-        <v>44052</v>
-      </c>
-      <c r="B188" s="20">
-        <f>'10年计划-周'!I192</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="301">
-        <f>'10年计划-周'!D193</f>
-        <v>44059</v>
-      </c>
-      <c r="B189" s="20">
-        <f>'10年计划-周'!I193</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="301">
-        <f>'10年计划-周'!D194</f>
-        <v>44066</v>
-      </c>
-      <c r="B190" s="20">
-        <f>'10年计划-周'!I194</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="301">
-        <f>'10年计划-周'!D195</f>
-        <v>44073</v>
-      </c>
-      <c r="B191" s="20">
-        <f>'10年计划-周'!I195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="301">
-        <f>'10年计划-周'!D196</f>
-        <v>44080</v>
-      </c>
-      <c r="B192" s="20">
-        <f>'10年计划-周'!I196</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="301">
-        <f>'10年计划-周'!D197</f>
-        <v>44087</v>
-      </c>
-      <c r="B193" s="20">
-        <f>'10年计划-周'!I197</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="301">
-        <f>'10年计划-周'!D198</f>
-        <v>44094</v>
-      </c>
-      <c r="B194" s="20">
-        <f>'10年计划-周'!I198</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="301">
-        <f>'10年计划-周'!D199</f>
-        <v>44101</v>
-      </c>
-      <c r="B195" s="20">
-        <f>'10年计划-周'!I199</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="301">
-        <f>'10年计划-周'!D200</f>
-        <v>44108</v>
-      </c>
-      <c r="B196" s="20">
-        <f>'10年计划-周'!I200</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="301">
-        <f>'10年计划-周'!D201</f>
-        <v>44115</v>
-      </c>
-      <c r="B197" s="20">
-        <f>'10年计划-周'!I201</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="301">
-        <f>'10年计划-周'!D202</f>
-        <v>44122</v>
-      </c>
-      <c r="B198" s="20">
-        <f>'10年计划-周'!I202</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="301">
-        <f>'10年计划-周'!D203</f>
-        <v>44129</v>
-      </c>
-      <c r="B199" s="20">
-        <f>'10年计划-周'!I203</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="301">
-        <f>'10年计划-周'!D204</f>
-        <v>44136</v>
-      </c>
-      <c r="B200" s="20">
-        <f>'10年计划-周'!I204</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="301">
-        <f>'10年计划-周'!D205</f>
-        <v>44143</v>
-      </c>
-      <c r="B201" s="20">
-        <f>'10年计划-周'!I205</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="301">
-        <f>'10年计划-周'!D206</f>
-        <v>44150</v>
-      </c>
-      <c r="B202" s="20">
-        <f>'10年计划-周'!I206</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="301">
-        <f>'10年计划-周'!D207</f>
-        <v>44157</v>
-      </c>
-      <c r="B203" s="20">
-        <f>'10年计划-周'!I207</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="301">
-        <f>'10年计划-周'!D208</f>
-        <v>44164</v>
-      </c>
-      <c r="B204" s="20">
-        <f>'10年计划-周'!I208</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="301">
-        <f>'10年计划-周'!D209</f>
-        <v>44171</v>
-      </c>
-      <c r="B205" s="20">
-        <f>'10年计划-周'!I209</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="301">
-        <f>'10年计划-周'!D210</f>
-        <v>44178</v>
-      </c>
-      <c r="B206" s="20">
-        <f>'10年计划-周'!I210</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="301">
-        <f>'10年计划-周'!D211</f>
-        <v>44185</v>
-      </c>
-      <c r="B207" s="20">
-        <f>'10年计划-周'!I211</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="301">
-        <f>'10年计划-周'!D212</f>
-        <v>44192</v>
-      </c>
-      <c r="B208" s="20">
-        <f>'10年计划-周'!I212</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" activeTab="1"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="765" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="指南针交易法" sheetId="17" r:id="rId1"/>
@@ -2338,8 +2338,14 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2365,14 +2371,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2383,12 +2383,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2397,6 +2391,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3393,7 +3393,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>100</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>100</c:v>
@@ -3764,11 +3764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195627264"/>
-        <c:axId val="195629056"/>
+        <c:axId val="235027456"/>
+        <c:axId val="235029248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="195627264"/>
+        <c:axId val="235027456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,14 +3778,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195629056"/>
+        <c:crossAx val="235029248"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="195629056"/>
+        <c:axId val="235029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3806,7 +3806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195627264"/>
+        <c:crossAx val="235027456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4984,7 +4984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B90" s="20">
         <f>'10年计划-周'!I94</f>
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7464,7 +7464,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M94" sqref="M94"/>
+      <selection pane="bottomRight" activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7544,10 +7544,10 @@
         <f>G1*G2</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="329" t="s">
+      <c r="I3" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="330"/>
+      <c r="J3" s="332"/>
       <c r="M3">
         <v>1.1000000000000001</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="326" t="s">
+      <c r="A5" s="328" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -7653,7 +7653,7 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="327"/>
+      <c r="A6" s="329"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="327"/>
+      <c r="A7" s="329"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1">
-      <c r="A8" s="328"/>
+      <c r="A8" s="330"/>
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -7815,7 +7815,7 @@
       <c r="X8" s="18"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="328" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
@@ -7873,7 +7873,7 @@
       <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="327"/>
+      <c r="A10" s="329"/>
       <c r="B10" s="8">
         <v>6</v>
       </c>
@@ -7929,7 +7929,7 @@
       <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="327"/>
+      <c r="A11" s="329"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="X11" s="18"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1">
-      <c r="A12" s="328"/>
+      <c r="A12" s="330"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="X12" s="18"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="327" t="s">
+      <c r="A13" s="329" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="107">
@@ -8099,7 +8099,7 @@
       <c r="X13" s="18"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A14" s="327"/>
+      <c r="A14" s="329"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="327"/>
+      <c r="A15" s="329"/>
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="X15" s="18"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1">
-      <c r="A16" s="328"/>
+      <c r="A16" s="330"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
@@ -8269,7 +8269,7 @@
       <c r="X16" s="18"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="327" t="s">
+      <c r="A17" s="329" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="107">
@@ -8326,7 +8326,7 @@
       <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="327"/>
+      <c r="A18" s="329"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="327"/>
+      <c r="A19" s="329"/>
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="327"/>
+      <c r="A20" s="329"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -8491,7 +8491,7 @@
       <c r="X20" s="18"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1">
-      <c r="A21" s="327"/>
+      <c r="A21" s="329"/>
       <c r="B21" s="101">
         <v>17</v>
       </c>
@@ -8546,7 +8546,7 @@
       <c r="X21" s="18"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="326" t="s">
+      <c r="A22" s="328" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="9">
@@ -8604,7 +8604,7 @@
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="327"/>
+      <c r="A23" s="329"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="X23" s="18"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="327"/>
+      <c r="A24" s="329"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="X24" s="18"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1">
-      <c r="A25" s="328"/>
+      <c r="A25" s="330"/>
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -8772,7 +8772,7 @@
       <c r="X25" s="18"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="327" t="s">
+      <c r="A26" s="329" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="107">
@@ -8829,7 +8829,7 @@
       <c r="X26" s="18"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="327"/>
+      <c r="A27" s="329"/>
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="X27" s="18"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="327"/>
+      <c r="A28" s="329"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="X28" s="18"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1">
-      <c r="A29" s="327"/>
+      <c r="A29" s="329"/>
       <c r="B29" s="101">
         <v>25</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="X29" s="18"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="326" t="s">
+      <c r="A30" s="328" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9">
@@ -9052,7 +9052,7 @@
       <c r="X30" s="18"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="327"/>
+      <c r="A31" s="329"/>
       <c r="B31" s="8">
         <v>27</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="X31" s="18"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="327"/>
+      <c r="A32" s="329"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -9164,7 +9164,7 @@
       <c r="X32" s="18"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="327"/>
+      <c r="A33" s="329"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="X33" s="18"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1">
-      <c r="A34" s="328"/>
+      <c r="A34" s="330"/>
       <c r="B34" s="10">
         <v>30</v>
       </c>
@@ -9276,7 +9276,7 @@
       <c r="X34" s="18"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="327" t="s">
+      <c r="A35" s="329" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="107">
@@ -9335,7 +9335,7 @@
       <c r="X35" s="18"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="327"/>
+      <c r="A36" s="329"/>
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="327"/>
+      <c r="A37" s="329"/>
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1">
-      <c r="A38" s="327"/>
+      <c r="A38" s="329"/>
       <c r="B38" s="101">
         <v>34</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="X38" s="18"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="326" t="s">
+      <c r="A39" s="328" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9">
@@ -9558,7 +9558,7 @@
       <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="327"/>
+      <c r="A40" s="329"/>
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="X40" s="18"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="327"/>
+      <c r="A41" s="329"/>
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1">
-      <c r="A42" s="328"/>
+      <c r="A42" s="330"/>
       <c r="B42" s="10">
         <v>38</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="326" t="s">
+      <c r="A43" s="328" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9">
@@ -9790,7 +9790,7 @@
       <c r="X43" s="18"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="327"/>
+      <c r="A44" s="329"/>
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -9849,7 +9849,7 @@
       <c r="X44" s="18"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="327"/>
+      <c r="A45" s="329"/>
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -9915,7 +9915,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="327"/>
+      <c r="A46" s="329"/>
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -9978,7 +9978,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1">
-      <c r="A47" s="328"/>
+      <c r="A47" s="330"/>
       <c r="B47" s="10">
         <v>43</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="326" t="s">
+      <c r="A48" s="328" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9">
@@ -10097,7 +10097,7 @@
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="327"/>
+      <c r="A49" s="329"/>
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -10158,7 +10158,7 @@
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="327"/>
+      <c r="A50" s="329"/>
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -10219,7 +10219,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1">
-      <c r="A51" s="328"/>
+      <c r="A51" s="330"/>
       <c r="B51" s="10">
         <v>47</v>
       </c>
@@ -10278,7 +10278,7 @@
       </c>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="326" t="s">
+      <c r="A52" s="328" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="9">
@@ -10339,7 +10339,7 @@
       </c>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="327"/>
+      <c r="A53" s="329"/>
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -10398,7 +10398,7 @@
       </c>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="327"/>
+      <c r="A54" s="329"/>
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -10454,7 +10454,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="14.4" customHeight="1">
-      <c r="A55" s="327"/>
+      <c r="A55" s="329"/>
       <c r="B55" s="8">
         <v>51</v>
       </c>
@@ -10508,18 +10508,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X55" s="322" t="s">
+      <c r="X55" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="Y55" s="322"/>
-      <c r="Z55" s="322"/>
-      <c r="AA55" s="322"/>
-      <c r="AB55" s="322"/>
-      <c r="AC55" s="322"/>
-      <c r="AD55" s="322"/>
+      <c r="Y55" s="333"/>
+      <c r="Z55" s="333"/>
+      <c r="AA55" s="333"/>
+      <c r="AB55" s="333"/>
+      <c r="AC55" s="333"/>
+      <c r="AD55" s="333"/>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="328"/>
+      <c r="A56" s="330"/>
       <c r="B56" s="10">
         <v>52</v>
       </c>
@@ -10573,16 +10573,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X56" s="322"/>
-      <c r="Y56" s="322"/>
-      <c r="Z56" s="322"/>
-      <c r="AA56" s="322"/>
-      <c r="AB56" s="322"/>
-      <c r="AC56" s="322"/>
-      <c r="AD56" s="322"/>
+      <c r="X56" s="333"/>
+      <c r="Y56" s="333"/>
+      <c r="Z56" s="333"/>
+      <c r="AA56" s="333"/>
+      <c r="AB56" s="333"/>
+      <c r="AC56" s="333"/>
+      <c r="AD56" s="333"/>
     </row>
     <row r="57" spans="1:30" ht="14.4" customHeight="1">
-      <c r="A57" s="323" t="s">
+      <c r="A57" s="325" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="104">
@@ -10638,16 +10638,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X57" s="322"/>
-      <c r="Y57" s="322"/>
-      <c r="Z57" s="322"/>
-      <c r="AA57" s="322"/>
-      <c r="AB57" s="322"/>
-      <c r="AC57" s="322"/>
-      <c r="AD57" s="322"/>
+      <c r="X57" s="333"/>
+      <c r="Y57" s="333"/>
+      <c r="Z57" s="333"/>
+      <c r="AA57" s="333"/>
+      <c r="AB57" s="333"/>
+      <c r="AC57" s="333"/>
+      <c r="AD57" s="333"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="324"/>
+      <c r="A58" s="326"/>
       <c r="B58" s="102">
         <v>2</v>
       </c>
@@ -10706,7 +10706,7 @@
       </c>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="324"/>
+      <c r="A59" s="326"/>
       <c r="B59" s="102">
         <v>3</v>
       </c>
@@ -10765,7 +10765,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1">
-      <c r="A60" s="325"/>
+      <c r="A60" s="327"/>
       <c r="B60" s="105">
         <v>4</v>
       </c>
@@ -10821,7 +10821,7 @@
       </c>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="323" t="s">
+      <c r="A61" s="325" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="104">
@@ -10879,7 +10879,7 @@
       </c>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="324"/>
+      <c r="A62" s="326"/>
       <c r="B62" s="102">
         <v>6</v>
       </c>
@@ -10938,7 +10938,7 @@
       </c>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="324"/>
+      <c r="A63" s="326"/>
       <c r="B63" s="102">
         <v>7</v>
       </c>
@@ -10997,7 +10997,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1">
-      <c r="A64" s="325"/>
+      <c r="A64" s="327"/>
       <c r="B64" s="105">
         <v>8</v>
       </c>
@@ -11056,7 +11056,7 @@
       </c>
     </row>
     <row r="65" spans="1:29">
-      <c r="A65" s="323" t="s">
+      <c r="A65" s="325" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="104">
@@ -11117,7 +11117,7 @@
       </c>
     </row>
     <row r="66" spans="1:29">
-      <c r="A66" s="324"/>
+      <c r="A66" s="326"/>
       <c r="B66" s="102">
         <v>10</v>
       </c>
@@ -11176,7 +11176,7 @@
       </c>
     </row>
     <row r="67" spans="1:29">
-      <c r="A67" s="324"/>
+      <c r="A67" s="326"/>
       <c r="B67" s="102">
         <v>11</v>
       </c>
@@ -11235,7 +11235,7 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="15" thickBot="1">
-      <c r="A68" s="325"/>
+      <c r="A68" s="327"/>
       <c r="B68" s="105">
         <v>12</v>
       </c>
@@ -11294,7 +11294,7 @@
       </c>
     </row>
     <row r="69" spans="1:29">
-      <c r="A69" s="324" t="s">
+      <c r="A69" s="326" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="103">
@@ -11353,7 +11353,7 @@
       </c>
     </row>
     <row r="70" spans="1:29">
-      <c r="A70" s="324"/>
+      <c r="A70" s="326"/>
       <c r="B70" s="102">
         <v>14</v>
       </c>
@@ -11410,7 +11410,7 @@
       </c>
     </row>
     <row r="71" spans="1:29">
-      <c r="A71" s="324"/>
+      <c r="A71" s="326"/>
       <c r="B71" s="102">
         <v>15</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
     </row>
     <row r="72" spans="1:29">
-      <c r="A72" s="324"/>
+      <c r="A72" s="326"/>
       <c r="B72" s="102">
         <v>16</v>
       </c>
@@ -11521,7 +11521,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1">
-      <c r="A73" s="324"/>
+      <c r="A73" s="326"/>
       <c r="B73" s="106">
         <v>17</v>
       </c>
@@ -11578,7 +11578,7 @@
       </c>
     </row>
     <row r="74" spans="1:29">
-      <c r="A74" s="323" t="s">
+      <c r="A74" s="325" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="104">
@@ -11636,7 +11636,7 @@
       </c>
     </row>
     <row r="75" spans="1:29">
-      <c r="A75" s="324"/>
+      <c r="A75" s="326"/>
       <c r="B75" s="102">
         <v>19</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="324"/>
+      <c r="A76" s="326"/>
       <c r="B76" s="102">
         <v>20</v>
       </c>
@@ -11750,7 +11750,7 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="15" thickBot="1">
-      <c r="A77" s="325"/>
+      <c r="A77" s="327"/>
       <c r="B77" s="105">
         <v>21</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
     </row>
     <row r="78" spans="1:29">
-      <c r="A78" s="324" t="s">
+      <c r="A78" s="326" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="103">
@@ -11858,7 +11858,7 @@
       </c>
     </row>
     <row r="79" spans="1:29">
-      <c r="A79" s="324"/>
+      <c r="A79" s="326"/>
       <c r="B79" s="102">
         <v>23</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
     </row>
     <row r="80" spans="1:29">
-      <c r="A80" s="324"/>
+      <c r="A80" s="326"/>
       <c r="B80" s="102">
         <v>24</v>
       </c>
@@ -11956,18 +11956,18 @@
       <c r="Q80" s="114">
         <v>0</v>
       </c>
-      <c r="W80" s="322" t="s">
+      <c r="W80" s="333" t="s">
         <v>144</v>
       </c>
-      <c r="X80" s="322"/>
-      <c r="Y80" s="322"/>
-      <c r="Z80" s="322"/>
-      <c r="AA80" s="322"/>
-      <c r="AB80" s="322"/>
-      <c r="AC80" s="322"/>
+      <c r="X80" s="333"/>
+      <c r="Y80" s="333"/>
+      <c r="Z80" s="333"/>
+      <c r="AA80" s="333"/>
+      <c r="AB80" s="333"/>
+      <c r="AC80" s="333"/>
     </row>
     <row r="81" spans="1:29" ht="15" thickBot="1">
-      <c r="A81" s="324"/>
+      <c r="A81" s="326"/>
       <c r="B81" s="106">
         <v>25</v>
       </c>
@@ -12015,16 +12015,16 @@
       <c r="Q81" s="114">
         <v>0</v>
       </c>
-      <c r="W81" s="322"/>
-      <c r="X81" s="322"/>
-      <c r="Y81" s="322"/>
-      <c r="Z81" s="322"/>
-      <c r="AA81" s="322"/>
-      <c r="AB81" s="322"/>
-      <c r="AC81" s="322"/>
+      <c r="W81" s="333"/>
+      <c r="X81" s="333"/>
+      <c r="Y81" s="333"/>
+      <c r="Z81" s="333"/>
+      <c r="AA81" s="333"/>
+      <c r="AB81" s="333"/>
+      <c r="AC81" s="333"/>
     </row>
     <row r="82" spans="1:29">
-      <c r="A82" s="323" t="s">
+      <c r="A82" s="325" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="104">
@@ -12077,16 +12077,16 @@
         <v>0</v>
       </c>
       <c r="R82" s="99"/>
-      <c r="W82" s="322"/>
-      <c r="X82" s="322"/>
-      <c r="Y82" s="322"/>
-      <c r="Z82" s="322"/>
-      <c r="AA82" s="322"/>
-      <c r="AB82" s="322"/>
-      <c r="AC82" s="322"/>
+      <c r="W82" s="333"/>
+      <c r="X82" s="333"/>
+      <c r="Y82" s="333"/>
+      <c r="Z82" s="333"/>
+      <c r="AA82" s="333"/>
+      <c r="AB82" s="333"/>
+      <c r="AC82" s="333"/>
     </row>
     <row r="83" spans="1:29">
-      <c r="A83" s="324"/>
+      <c r="A83" s="326"/>
       <c r="B83" s="102">
         <v>27</v>
       </c>
@@ -12138,7 +12138,7 @@
       </c>
     </row>
     <row r="84" spans="1:29">
-      <c r="A84" s="324"/>
+      <c r="A84" s="326"/>
       <c r="B84" s="102">
         <v>28</v>
       </c>
@@ -12190,7 +12190,7 @@
       </c>
     </row>
     <row r="85" spans="1:29">
-      <c r="A85" s="324"/>
+      <c r="A85" s="326"/>
       <c r="B85" s="102">
         <v>29</v>
       </c>
@@ -12242,7 +12242,7 @@
       </c>
     </row>
     <row r="86" spans="1:29" ht="15" thickBot="1">
-      <c r="A86" s="325"/>
+      <c r="A86" s="327"/>
       <c r="B86" s="105">
         <v>30</v>
       </c>
@@ -12295,7 +12295,7 @@
       <c r="R86" s="122"/>
     </row>
     <row r="87" spans="1:29">
-      <c r="A87" s="324" t="s">
+      <c r="A87" s="326" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="103">
@@ -12347,7 +12347,7 @@
       </c>
     </row>
     <row r="88" spans="1:29">
-      <c r="A88" s="324"/>
+      <c r="A88" s="326"/>
       <c r="B88" s="102">
         <v>32</v>
       </c>
@@ -12397,7 +12397,7 @@
       </c>
     </row>
     <row r="89" spans="1:29">
-      <c r="A89" s="324"/>
+      <c r="A89" s="326"/>
       <c r="B89" s="102">
         <v>33</v>
       </c>
@@ -12447,7 +12447,7 @@
       </c>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1">
-      <c r="A90" s="324"/>
+      <c r="A90" s="326"/>
       <c r="B90" s="106">
         <v>34</v>
       </c>
@@ -12497,7 +12497,7 @@
       </c>
     </row>
     <row r="91" spans="1:29">
-      <c r="A91" s="323" t="s">
+      <c r="A91" s="325" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="104">
@@ -12552,7 +12552,7 @@
       <c r="R91" s="99"/>
     </row>
     <row r="92" spans="1:29">
-      <c r="A92" s="324"/>
+      <c r="A92" s="326"/>
       <c r="B92" s="102">
         <v>36</v>
       </c>
@@ -12604,7 +12604,7 @@
       </c>
     </row>
     <row r="93" spans="1:29">
-      <c r="A93" s="324"/>
+      <c r="A93" s="326"/>
       <c r="B93" s="102">
         <v>37</v>
       </c>
@@ -12656,7 +12656,7 @@
       </c>
     </row>
     <row r="94" spans="1:29">
-      <c r="A94" s="324"/>
+      <c r="A94" s="326"/>
       <c r="B94" s="102">
         <v>38</v>
       </c>
@@ -12680,25 +12680,35 @@
       </c>
       <c r="H94" s="113"/>
       <c r="I94" s="114">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J94" s="115">
         <f t="shared" si="15"/>
-        <v>1.2</v>
+        <v>-0.02</v>
       </c>
       <c r="K94" s="170">
         <f t="shared" si="19"/>
-        <v>55.475000000000001</v>
+        <v>40.225000000000001</v>
       </c>
       <c r="L94" s="113"/>
-      <c r="M94" s="113"/>
-      <c r="N94" s="113"/>
-      <c r="O94" s="113"/>
-      <c r="P94" s="113"/>
-      <c r="Q94" s="113"/>
+      <c r="M94" s="114">
+        <v>0</v>
+      </c>
+      <c r="N94" s="114">
+        <v>0</v>
+      </c>
+      <c r="O94" s="114">
+        <v>0</v>
+      </c>
+      <c r="P94" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="114">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:29" ht="15" thickBot="1">
-      <c r="A95" s="325"/>
+      <c r="A95" s="327"/>
       <c r="B95" s="105">
         <v>39</v>
       </c>
@@ -12726,11 +12736,11 @@
       </c>
       <c r="J95" s="120">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="K95" s="171">
         <f t="shared" si="19"/>
-        <v>70.275000000000006</v>
+        <v>55.024999999999999</v>
       </c>
       <c r="L95" s="118"/>
       <c r="M95" s="118"/>
@@ -12741,7 +12751,7 @@
       <c r="R95" s="122"/>
     </row>
     <row r="96" spans="1:29">
-      <c r="A96" s="324" t="s">
+      <c r="A96" s="326" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="103">
@@ -12774,11 +12784,11 @@
       </c>
       <c r="K96" s="170">
         <f t="shared" si="19"/>
-        <v>85</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="324"/>
+      <c r="A97" s="326"/>
       <c r="B97" s="102">
         <v>41</v>
       </c>
@@ -12809,11 +12819,11 @@
       </c>
       <c r="K97" s="170">
         <f t="shared" si="19"/>
-        <v>100</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="324"/>
+      <c r="A98" s="326"/>
       <c r="B98" s="102">
         <v>42</v>
       </c>
@@ -12848,7 +12858,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1">
-      <c r="A99" s="324"/>
+      <c r="A99" s="326"/>
       <c r="B99" s="106">
         <v>43</v>
       </c>
@@ -12883,7 +12893,7 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="323" t="s">
+      <c r="A100" s="325" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="104">
@@ -12928,7 +12938,7 @@
       <c r="R100" s="99"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="324"/>
+      <c r="A101" s="326"/>
       <c r="B101" s="102">
         <v>45</v>
       </c>
@@ -12970,7 +12980,7 @@
       <c r="Q101" s="113"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="324"/>
+      <c r="A102" s="326"/>
       <c r="B102" s="102">
         <v>46</v>
       </c>
@@ -13012,7 +13022,7 @@
       <c r="Q102" s="113"/>
     </row>
     <row r="103" spans="1:18" ht="15" thickBot="1">
-      <c r="A103" s="325"/>
+      <c r="A103" s="327"/>
       <c r="B103" s="105">
         <v>47</v>
       </c>
@@ -13055,7 +13065,7 @@
       <c r="R103" s="122"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="323" t="s">
+      <c r="A104" s="325" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="104">
@@ -13100,7 +13110,7 @@
       <c r="R104" s="99"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="324"/>
+      <c r="A105" s="326"/>
       <c r="B105" s="102">
         <v>49</v>
       </c>
@@ -13142,7 +13152,7 @@
       <c r="Q105" s="113"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="324"/>
+      <c r="A106" s="326"/>
       <c r="B106" s="102">
         <v>50</v>
       </c>
@@ -13184,7 +13194,7 @@
       <c r="Q106" s="113"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="324"/>
+      <c r="A107" s="326"/>
       <c r="B107" s="102">
         <v>51</v>
       </c>
@@ -13226,7 +13236,7 @@
       <c r="Q107" s="113"/>
     </row>
     <row r="108" spans="1:18" ht="15" thickBot="1">
-      <c r="A108" s="325"/>
+      <c r="A108" s="327"/>
       <c r="B108" s="105">
         <v>52</v>
       </c>
@@ -13269,7 +13279,7 @@
       <c r="R108" s="122"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="323" t="s">
+      <c r="A109" s="325" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="103">
@@ -13286,7 +13296,7 @@
       </c>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="324"/>
+      <c r="A110" s="326"/>
       <c r="B110" s="102">
         <v>2</v>
       </c>
@@ -13301,7 +13311,7 @@
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="324"/>
+      <c r="A111" s="326"/>
       <c r="B111" s="102">
         <v>3</v>
       </c>
@@ -13316,7 +13326,7 @@
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="324"/>
+      <c r="A112" s="326"/>
       <c r="B112" s="102">
         <v>4</v>
       </c>
@@ -13331,7 +13341,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1">
-      <c r="A113" s="325"/>
+      <c r="A113" s="327"/>
       <c r="B113" s="102">
         <v>5</v>
       </c>
@@ -13346,7 +13356,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="323" t="s">
+      <c r="A114" s="325" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="102">
@@ -13363,7 +13373,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="324"/>
+      <c r="A115" s="326"/>
       <c r="B115" s="102">
         <v>7</v>
       </c>
@@ -13378,7 +13388,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="324"/>
+      <c r="A116" s="326"/>
       <c r="B116" s="102">
         <v>8</v>
       </c>
@@ -13393,7 +13403,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1">
-      <c r="A117" s="325"/>
+      <c r="A117" s="327"/>
       <c r="B117" s="102">
         <v>9</v>
       </c>
@@ -13408,7 +13418,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="323" t="s">
+      <c r="A118" s="325" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="102">
@@ -13425,7 +13435,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="324"/>
+      <c r="A119" s="326"/>
       <c r="B119" s="102">
         <v>11</v>
       </c>
@@ -13440,7 +13450,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="324"/>
+      <c r="A120" s="326"/>
       <c r="B120" s="102">
         <v>12</v>
       </c>
@@ -13455,7 +13465,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1">
-      <c r="A121" s="325"/>
+      <c r="A121" s="327"/>
       <c r="B121" s="102">
         <v>13</v>
       </c>
@@ -13470,7 +13480,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="331" t="s">
+      <c r="A122" s="322" t="s">
         <v>4</v>
       </c>
       <c r="B122" s="277">
@@ -13487,7 +13497,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="332"/>
+      <c r="A123" s="323"/>
       <c r="B123" s="277">
         <v>15</v>
       </c>
@@ -13502,7 +13512,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="332"/>
+      <c r="A124" s="323"/>
       <c r="B124" s="277">
         <v>16</v>
       </c>
@@ -13517,7 +13527,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="332"/>
+      <c r="A125" s="323"/>
       <c r="B125" s="277">
         <v>17</v>
       </c>
@@ -13532,7 +13542,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1">
-      <c r="A126" s="333"/>
+      <c r="A126" s="324"/>
       <c r="B126" s="277">
         <v>18</v>
       </c>
@@ -13547,7 +13557,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="323" t="s">
+      <c r="A127" s="325" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="102">
@@ -13561,7 +13571,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="324"/>
+      <c r="A128" s="326"/>
       <c r="B128" s="102">
         <v>20</v>
       </c>
@@ -13573,7 +13583,7 @@
       </c>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="324"/>
+      <c r="A129" s="326"/>
       <c r="B129" s="102">
         <v>21</v>
       </c>
@@ -13585,7 +13595,7 @@
       </c>
     </row>
     <row r="130" spans="1:18" ht="15" thickBot="1">
-      <c r="A130" s="325"/>
+      <c r="A130" s="327"/>
       <c r="B130" s="102">
         <v>22</v>
       </c>
@@ -15064,23 +15074,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="W80:AC82"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="X55:AD57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A30:A34"/>
@@ -15091,11 +15089,23 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="W80:AC82"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="X55:AD57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A118:A121"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -15127,9 +15137,9 @@
   </sheetPr>
   <dimension ref="A1:J398"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -42311,7 +42321,7 @@
   <dimension ref="A1:AD375"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
@@ -60826,8 +60836,8 @@
   <dimension ref="A1:AC395"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17:W23"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -79777,7 +79787,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG11" sqref="CG11"/>
+      <selection pane="bottomRight" activeCell="CI8" sqref="CI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="21"/>
@@ -79815,717 +79825,717 @@
   <sheetData>
     <row r="1" spans="1:554" s="274" customFormat="1" ht="24" thickBot="1">
       <c r="A1" s="275"/>
-      <c r="B1" s="339">
+      <c r="B1" s="337">
         <v>2018</v>
       </c>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="339">
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="337">
         <v>2018</v>
       </c>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="339">
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="339"/>
+      <c r="P1" s="337">
         <v>2018</v>
       </c>
-      <c r="Q1" s="340"/>
-      <c r="R1" s="340"/>
-      <c r="S1" s="340"/>
-      <c r="T1" s="340"/>
-      <c r="U1" s="340"/>
-      <c r="V1" s="340"/>
-      <c r="W1" s="339">
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
+      <c r="S1" s="338"/>
+      <c r="T1" s="338"/>
+      <c r="U1" s="338"/>
+      <c r="V1" s="338"/>
+      <c r="W1" s="337">
         <v>2018</v>
       </c>
-      <c r="X1" s="340"/>
-      <c r="Y1" s="340"/>
-      <c r="Z1" s="340"/>
-      <c r="AA1" s="340"/>
-      <c r="AB1" s="340"/>
-      <c r="AC1" s="340"/>
-      <c r="AD1" s="339">
+      <c r="X1" s="338"/>
+      <c r="Y1" s="338"/>
+      <c r="Z1" s="338"/>
+      <c r="AA1" s="338"/>
+      <c r="AB1" s="338"/>
+      <c r="AC1" s="338"/>
+      <c r="AD1" s="337">
         <v>2018</v>
       </c>
-      <c r="AE1" s="340"/>
-      <c r="AF1" s="340"/>
-      <c r="AG1" s="340"/>
-      <c r="AH1" s="340"/>
-      <c r="AI1" s="340"/>
-      <c r="AJ1" s="340"/>
-      <c r="AK1" s="339">
+      <c r="AE1" s="338"/>
+      <c r="AF1" s="338"/>
+      <c r="AG1" s="338"/>
+      <c r="AH1" s="338"/>
+      <c r="AI1" s="338"/>
+      <c r="AJ1" s="338"/>
+      <c r="AK1" s="337">
         <v>2018</v>
       </c>
-      <c r="AL1" s="340"/>
-      <c r="AM1" s="340"/>
-      <c r="AN1" s="340"/>
-      <c r="AO1" s="340"/>
-      <c r="AP1" s="340"/>
-      <c r="AQ1" s="340"/>
-      <c r="AR1" s="339">
+      <c r="AL1" s="338"/>
+      <c r="AM1" s="338"/>
+      <c r="AN1" s="338"/>
+      <c r="AO1" s="338"/>
+      <c r="AP1" s="338"/>
+      <c r="AQ1" s="338"/>
+      <c r="AR1" s="337">
         <v>2018</v>
       </c>
-      <c r="AS1" s="340"/>
-      <c r="AT1" s="340"/>
-      <c r="AU1" s="340"/>
-      <c r="AV1" s="340"/>
-      <c r="AW1" s="340"/>
-      <c r="AX1" s="340"/>
-      <c r="AY1" s="339">
+      <c r="AS1" s="338"/>
+      <c r="AT1" s="338"/>
+      <c r="AU1" s="338"/>
+      <c r="AV1" s="338"/>
+      <c r="AW1" s="338"/>
+      <c r="AX1" s="338"/>
+      <c r="AY1" s="337">
         <v>2018</v>
       </c>
-      <c r="AZ1" s="340"/>
-      <c r="BA1" s="340"/>
-      <c r="BB1" s="340"/>
-      <c r="BC1" s="340"/>
-      <c r="BD1" s="340"/>
-      <c r="BE1" s="340"/>
-      <c r="BF1" s="339">
+      <c r="AZ1" s="338"/>
+      <c r="BA1" s="338"/>
+      <c r="BB1" s="338"/>
+      <c r="BC1" s="338"/>
+      <c r="BD1" s="338"/>
+      <c r="BE1" s="338"/>
+      <c r="BF1" s="337">
         <v>2018</v>
       </c>
-      <c r="BG1" s="340"/>
-      <c r="BH1" s="340"/>
-      <c r="BI1" s="340"/>
-      <c r="BJ1" s="340"/>
-      <c r="BK1" s="340"/>
-      <c r="BL1" s="340"/>
-      <c r="BM1" s="339">
+      <c r="BG1" s="338"/>
+      <c r="BH1" s="338"/>
+      <c r="BI1" s="338"/>
+      <c r="BJ1" s="338"/>
+      <c r="BK1" s="338"/>
+      <c r="BL1" s="338"/>
+      <c r="BM1" s="337">
         <v>2018</v>
       </c>
-      <c r="BN1" s="340"/>
-      <c r="BO1" s="340"/>
-      <c r="BP1" s="340"/>
-      <c r="BQ1" s="340"/>
-      <c r="BR1" s="340"/>
-      <c r="BS1" s="340"/>
-      <c r="BT1" s="339">
+      <c r="BN1" s="338"/>
+      <c r="BO1" s="338"/>
+      <c r="BP1" s="338"/>
+      <c r="BQ1" s="338"/>
+      <c r="BR1" s="338"/>
+      <c r="BS1" s="338"/>
+      <c r="BT1" s="337">
         <v>2018</v>
       </c>
-      <c r="BU1" s="340"/>
-      <c r="BV1" s="340"/>
-      <c r="BW1" s="340"/>
-      <c r="BX1" s="340"/>
-      <c r="BY1" s="340"/>
-      <c r="BZ1" s="340"/>
-      <c r="CA1" s="339">
+      <c r="BU1" s="338"/>
+      <c r="BV1" s="338"/>
+      <c r="BW1" s="338"/>
+      <c r="BX1" s="338"/>
+      <c r="BY1" s="338"/>
+      <c r="BZ1" s="338"/>
+      <c r="CA1" s="337">
         <v>2018</v>
       </c>
-      <c r="CB1" s="340"/>
-      <c r="CC1" s="340"/>
-      <c r="CD1" s="340"/>
-      <c r="CE1" s="340"/>
-      <c r="CF1" s="340"/>
-      <c r="CG1" s="340"/>
-      <c r="CH1" s="339">
+      <c r="CB1" s="338"/>
+      <c r="CC1" s="338"/>
+      <c r="CD1" s="338"/>
+      <c r="CE1" s="338"/>
+      <c r="CF1" s="338"/>
+      <c r="CG1" s="338"/>
+      <c r="CH1" s="337">
         <v>2018</v>
       </c>
-      <c r="CI1" s="340"/>
-      <c r="CJ1" s="340"/>
-      <c r="CK1" s="340"/>
-      <c r="CL1" s="340"/>
-      <c r="CM1" s="340"/>
-      <c r="CN1" s="340"/>
-      <c r="CO1" s="339">
+      <c r="CI1" s="338"/>
+      <c r="CJ1" s="338"/>
+      <c r="CK1" s="338"/>
+      <c r="CL1" s="338"/>
+      <c r="CM1" s="338"/>
+      <c r="CN1" s="338"/>
+      <c r="CO1" s="337">
         <v>2018</v>
       </c>
-      <c r="CP1" s="340"/>
-      <c r="CQ1" s="340"/>
-      <c r="CR1" s="340"/>
-      <c r="CS1" s="340"/>
-      <c r="CT1" s="340"/>
-      <c r="CU1" s="340"/>
-      <c r="CV1" s="339">
+      <c r="CP1" s="338"/>
+      <c r="CQ1" s="338"/>
+      <c r="CR1" s="338"/>
+      <c r="CS1" s="338"/>
+      <c r="CT1" s="338"/>
+      <c r="CU1" s="338"/>
+      <c r="CV1" s="337">
         <v>2018</v>
       </c>
-      <c r="CW1" s="340"/>
-      <c r="CX1" s="340"/>
-      <c r="CY1" s="340"/>
-      <c r="CZ1" s="340"/>
-      <c r="DA1" s="340"/>
-      <c r="DB1" s="340"/>
-      <c r="DC1" s="339">
+      <c r="CW1" s="338"/>
+      <c r="CX1" s="338"/>
+      <c r="CY1" s="338"/>
+      <c r="CZ1" s="338"/>
+      <c r="DA1" s="338"/>
+      <c r="DB1" s="338"/>
+      <c r="DC1" s="337">
         <v>2018</v>
       </c>
-      <c r="DD1" s="340"/>
-      <c r="DE1" s="340"/>
-      <c r="DF1" s="340"/>
-      <c r="DG1" s="340"/>
-      <c r="DH1" s="340"/>
-      <c r="DI1" s="340"/>
-      <c r="DJ1" s="339">
+      <c r="DD1" s="338"/>
+      <c r="DE1" s="338"/>
+      <c r="DF1" s="338"/>
+      <c r="DG1" s="338"/>
+      <c r="DH1" s="338"/>
+      <c r="DI1" s="338"/>
+      <c r="DJ1" s="337">
         <v>2018</v>
       </c>
-      <c r="DK1" s="340"/>
-      <c r="DL1" s="340"/>
-      <c r="DM1" s="340"/>
-      <c r="DN1" s="340"/>
-      <c r="DO1" s="340"/>
-      <c r="DP1" s="340"/>
-      <c r="DQ1" s="339">
+      <c r="DK1" s="338"/>
+      <c r="DL1" s="338"/>
+      <c r="DM1" s="338"/>
+      <c r="DN1" s="338"/>
+      <c r="DO1" s="338"/>
+      <c r="DP1" s="338"/>
+      <c r="DQ1" s="337">
         <v>2018</v>
       </c>
-      <c r="DR1" s="340"/>
-      <c r="DS1" s="340"/>
-      <c r="DT1" s="340"/>
-      <c r="DU1" s="340"/>
-      <c r="DV1" s="340"/>
-      <c r="DW1" s="340"/>
-      <c r="DX1" s="339">
+      <c r="DR1" s="338"/>
+      <c r="DS1" s="338"/>
+      <c r="DT1" s="338"/>
+      <c r="DU1" s="338"/>
+      <c r="DV1" s="338"/>
+      <c r="DW1" s="338"/>
+      <c r="DX1" s="337">
         <v>2018</v>
       </c>
-      <c r="DY1" s="340"/>
-      <c r="DZ1" s="340"/>
-      <c r="EA1" s="340"/>
-      <c r="EB1" s="340"/>
-      <c r="EC1" s="340"/>
-      <c r="ED1" s="340"/>
-      <c r="EE1" s="339">
+      <c r="DY1" s="338"/>
+      <c r="DZ1" s="338"/>
+      <c r="EA1" s="338"/>
+      <c r="EB1" s="338"/>
+      <c r="EC1" s="338"/>
+      <c r="ED1" s="338"/>
+      <c r="EE1" s="337">
         <v>2018</v>
       </c>
-      <c r="EF1" s="340"/>
-      <c r="EG1" s="340"/>
-      <c r="EH1" s="340"/>
-      <c r="EI1" s="340"/>
-      <c r="EJ1" s="340"/>
-      <c r="EK1" s="340"/>
-      <c r="EL1" s="339">
+      <c r="EF1" s="338"/>
+      <c r="EG1" s="338"/>
+      <c r="EH1" s="338"/>
+      <c r="EI1" s="338"/>
+      <c r="EJ1" s="338"/>
+      <c r="EK1" s="338"/>
+      <c r="EL1" s="337">
         <v>2018</v>
       </c>
-      <c r="EM1" s="340"/>
-      <c r="EN1" s="340"/>
-      <c r="EO1" s="340"/>
-      <c r="EP1" s="340"/>
-      <c r="EQ1" s="340"/>
-      <c r="ER1" s="340"/>
-      <c r="ES1" s="339">
+      <c r="EM1" s="338"/>
+      <c r="EN1" s="338"/>
+      <c r="EO1" s="338"/>
+      <c r="EP1" s="338"/>
+      <c r="EQ1" s="338"/>
+      <c r="ER1" s="338"/>
+      <c r="ES1" s="337">
         <v>2018</v>
       </c>
-      <c r="ET1" s="340"/>
-      <c r="EU1" s="340"/>
-      <c r="EV1" s="340"/>
-      <c r="EW1" s="340"/>
-      <c r="EX1" s="340"/>
-      <c r="EY1" s="340"/>
-      <c r="EZ1" s="339">
+      <c r="ET1" s="338"/>
+      <c r="EU1" s="338"/>
+      <c r="EV1" s="338"/>
+      <c r="EW1" s="338"/>
+      <c r="EX1" s="338"/>
+      <c r="EY1" s="338"/>
+      <c r="EZ1" s="337">
         <v>2018</v>
       </c>
-      <c r="FA1" s="340"/>
-      <c r="FB1" s="340"/>
-      <c r="FC1" s="340"/>
-      <c r="FD1" s="340"/>
-      <c r="FE1" s="340"/>
-      <c r="FF1" s="340"/>
-      <c r="FG1" s="339">
+      <c r="FA1" s="338"/>
+      <c r="FB1" s="338"/>
+      <c r="FC1" s="338"/>
+      <c r="FD1" s="338"/>
+      <c r="FE1" s="338"/>
+      <c r="FF1" s="338"/>
+      <c r="FG1" s="337">
         <v>2018</v>
       </c>
-      <c r="FH1" s="340"/>
-      <c r="FI1" s="340"/>
-      <c r="FJ1" s="340"/>
-      <c r="FK1" s="340"/>
-      <c r="FL1" s="340"/>
-      <c r="FM1" s="340"/>
-      <c r="FN1" s="339">
+      <c r="FH1" s="338"/>
+      <c r="FI1" s="338"/>
+      <c r="FJ1" s="338"/>
+      <c r="FK1" s="338"/>
+      <c r="FL1" s="338"/>
+      <c r="FM1" s="338"/>
+      <c r="FN1" s="337">
         <v>2018</v>
       </c>
-      <c r="FO1" s="340"/>
-      <c r="FP1" s="340"/>
-      <c r="FQ1" s="340"/>
-      <c r="FR1" s="340"/>
-      <c r="FS1" s="340"/>
-      <c r="FT1" s="340"/>
-      <c r="FU1" s="339">
+      <c r="FO1" s="338"/>
+      <c r="FP1" s="338"/>
+      <c r="FQ1" s="338"/>
+      <c r="FR1" s="338"/>
+      <c r="FS1" s="338"/>
+      <c r="FT1" s="338"/>
+      <c r="FU1" s="337">
         <v>2018</v>
       </c>
-      <c r="FV1" s="340"/>
-      <c r="FW1" s="340"/>
-      <c r="FX1" s="340"/>
-      <c r="FY1" s="340"/>
-      <c r="FZ1" s="340"/>
-      <c r="GA1" s="340"/>
-      <c r="GB1" s="339">
+      <c r="FV1" s="338"/>
+      <c r="FW1" s="338"/>
+      <c r="FX1" s="338"/>
+      <c r="FY1" s="338"/>
+      <c r="FZ1" s="338"/>
+      <c r="GA1" s="338"/>
+      <c r="GB1" s="337">
         <v>2019</v>
       </c>
-      <c r="GC1" s="340"/>
-      <c r="GD1" s="340"/>
-      <c r="GE1" s="340"/>
-      <c r="GF1" s="340"/>
-      <c r="GG1" s="340"/>
-      <c r="GH1" s="340"/>
-      <c r="GI1" s="339">
+      <c r="GC1" s="338"/>
+      <c r="GD1" s="338"/>
+      <c r="GE1" s="338"/>
+      <c r="GF1" s="338"/>
+      <c r="GG1" s="338"/>
+      <c r="GH1" s="338"/>
+      <c r="GI1" s="337">
         <v>2019</v>
       </c>
-      <c r="GJ1" s="340"/>
-      <c r="GK1" s="340"/>
-      <c r="GL1" s="340"/>
-      <c r="GM1" s="340"/>
-      <c r="GN1" s="340"/>
-      <c r="GO1" s="340"/>
-      <c r="GP1" s="339">
+      <c r="GJ1" s="338"/>
+      <c r="GK1" s="338"/>
+      <c r="GL1" s="338"/>
+      <c r="GM1" s="338"/>
+      <c r="GN1" s="338"/>
+      <c r="GO1" s="338"/>
+      <c r="GP1" s="337">
         <v>2019</v>
       </c>
-      <c r="GQ1" s="340"/>
-      <c r="GR1" s="340"/>
-      <c r="GS1" s="340"/>
-      <c r="GT1" s="340"/>
-      <c r="GU1" s="340"/>
-      <c r="GV1" s="340"/>
-      <c r="GW1" s="339">
+      <c r="GQ1" s="338"/>
+      <c r="GR1" s="338"/>
+      <c r="GS1" s="338"/>
+      <c r="GT1" s="338"/>
+      <c r="GU1" s="338"/>
+      <c r="GV1" s="338"/>
+      <c r="GW1" s="337">
         <v>2019</v>
       </c>
-      <c r="GX1" s="340"/>
-      <c r="GY1" s="340"/>
-      <c r="GZ1" s="340"/>
-      <c r="HA1" s="340"/>
-      <c r="HB1" s="340"/>
-      <c r="HC1" s="340"/>
-      <c r="HD1" s="339">
+      <c r="GX1" s="338"/>
+      <c r="GY1" s="338"/>
+      <c r="GZ1" s="338"/>
+      <c r="HA1" s="338"/>
+      <c r="HB1" s="338"/>
+      <c r="HC1" s="338"/>
+      <c r="HD1" s="337">
         <v>2019</v>
       </c>
-      <c r="HE1" s="340"/>
-      <c r="HF1" s="340"/>
-      <c r="HG1" s="340"/>
-      <c r="HH1" s="340"/>
-      <c r="HI1" s="340"/>
-      <c r="HJ1" s="340"/>
-      <c r="HK1" s="339">
+      <c r="HE1" s="338"/>
+      <c r="HF1" s="338"/>
+      <c r="HG1" s="338"/>
+      <c r="HH1" s="338"/>
+      <c r="HI1" s="338"/>
+      <c r="HJ1" s="338"/>
+      <c r="HK1" s="337">
         <v>2019</v>
       </c>
-      <c r="HL1" s="340"/>
-      <c r="HM1" s="340"/>
-      <c r="HN1" s="340"/>
-      <c r="HO1" s="340"/>
-      <c r="HP1" s="340"/>
-      <c r="HQ1" s="340"/>
-      <c r="HR1" s="339">
+      <c r="HL1" s="338"/>
+      <c r="HM1" s="338"/>
+      <c r="HN1" s="338"/>
+      <c r="HO1" s="338"/>
+      <c r="HP1" s="338"/>
+      <c r="HQ1" s="338"/>
+      <c r="HR1" s="337">
         <v>2019</v>
       </c>
-      <c r="HS1" s="340"/>
-      <c r="HT1" s="340"/>
-      <c r="HU1" s="340"/>
-      <c r="HV1" s="340"/>
-      <c r="HW1" s="340"/>
-      <c r="HX1" s="340"/>
-      <c r="HY1" s="339">
+      <c r="HS1" s="338"/>
+      <c r="HT1" s="338"/>
+      <c r="HU1" s="338"/>
+      <c r="HV1" s="338"/>
+      <c r="HW1" s="338"/>
+      <c r="HX1" s="338"/>
+      <c r="HY1" s="337">
         <v>2019</v>
       </c>
-      <c r="HZ1" s="340"/>
-      <c r="IA1" s="340"/>
-      <c r="IB1" s="340"/>
-      <c r="IC1" s="340"/>
-      <c r="ID1" s="340"/>
-      <c r="IE1" s="340"/>
-      <c r="IF1" s="339">
+      <c r="HZ1" s="338"/>
+      <c r="IA1" s="338"/>
+      <c r="IB1" s="338"/>
+      <c r="IC1" s="338"/>
+      <c r="ID1" s="338"/>
+      <c r="IE1" s="338"/>
+      <c r="IF1" s="337">
         <v>2019</v>
       </c>
-      <c r="IG1" s="340"/>
-      <c r="IH1" s="340"/>
-      <c r="II1" s="340"/>
-      <c r="IJ1" s="340"/>
-      <c r="IK1" s="340"/>
-      <c r="IL1" s="340"/>
-      <c r="IM1" s="339">
+      <c r="IG1" s="338"/>
+      <c r="IH1" s="338"/>
+      <c r="II1" s="338"/>
+      <c r="IJ1" s="338"/>
+      <c r="IK1" s="338"/>
+      <c r="IL1" s="338"/>
+      <c r="IM1" s="337">
         <v>2019</v>
       </c>
-      <c r="IN1" s="340"/>
-      <c r="IO1" s="340"/>
-      <c r="IP1" s="340"/>
-      <c r="IQ1" s="340"/>
-      <c r="IR1" s="340"/>
-      <c r="IS1" s="340"/>
-      <c r="IT1" s="339">
+      <c r="IN1" s="338"/>
+      <c r="IO1" s="338"/>
+      <c r="IP1" s="338"/>
+      <c r="IQ1" s="338"/>
+      <c r="IR1" s="338"/>
+      <c r="IS1" s="338"/>
+      <c r="IT1" s="337">
         <v>2019</v>
       </c>
-      <c r="IU1" s="340"/>
-      <c r="IV1" s="340"/>
-      <c r="IW1" s="340"/>
-      <c r="IX1" s="340"/>
-      <c r="IY1" s="340"/>
-      <c r="IZ1" s="340"/>
-      <c r="JA1" s="339">
+      <c r="IU1" s="338"/>
+      <c r="IV1" s="338"/>
+      <c r="IW1" s="338"/>
+      <c r="IX1" s="338"/>
+      <c r="IY1" s="338"/>
+      <c r="IZ1" s="338"/>
+      <c r="JA1" s="337">
         <v>2019</v>
       </c>
-      <c r="JB1" s="340"/>
-      <c r="JC1" s="340"/>
-      <c r="JD1" s="340"/>
-      <c r="JE1" s="340"/>
-      <c r="JF1" s="340"/>
-      <c r="JG1" s="340"/>
-      <c r="JH1" s="339">
+      <c r="JB1" s="338"/>
+      <c r="JC1" s="338"/>
+      <c r="JD1" s="338"/>
+      <c r="JE1" s="338"/>
+      <c r="JF1" s="338"/>
+      <c r="JG1" s="338"/>
+      <c r="JH1" s="337">
         <v>2019</v>
       </c>
-      <c r="JI1" s="340"/>
-      <c r="JJ1" s="340"/>
-      <c r="JK1" s="340"/>
-      <c r="JL1" s="340"/>
-      <c r="JM1" s="340"/>
-      <c r="JN1" s="340"/>
-      <c r="JO1" s="339">
+      <c r="JI1" s="338"/>
+      <c r="JJ1" s="338"/>
+      <c r="JK1" s="338"/>
+      <c r="JL1" s="338"/>
+      <c r="JM1" s="338"/>
+      <c r="JN1" s="338"/>
+      <c r="JO1" s="337">
         <v>2019</v>
       </c>
-      <c r="JP1" s="340"/>
-      <c r="JQ1" s="340"/>
-      <c r="JR1" s="340"/>
-      <c r="JS1" s="340"/>
-      <c r="JT1" s="340"/>
-      <c r="JU1" s="340"/>
-      <c r="JV1" s="339">
+      <c r="JP1" s="338"/>
+      <c r="JQ1" s="338"/>
+      <c r="JR1" s="338"/>
+      <c r="JS1" s="338"/>
+      <c r="JT1" s="338"/>
+      <c r="JU1" s="338"/>
+      <c r="JV1" s="337">
         <v>2019</v>
       </c>
-      <c r="JW1" s="340"/>
-      <c r="JX1" s="340"/>
-      <c r="JY1" s="340"/>
-      <c r="JZ1" s="340"/>
-      <c r="KA1" s="340"/>
-      <c r="KB1" s="340"/>
-      <c r="KC1" s="339">
+      <c r="JW1" s="338"/>
+      <c r="JX1" s="338"/>
+      <c r="JY1" s="338"/>
+      <c r="JZ1" s="338"/>
+      <c r="KA1" s="338"/>
+      <c r="KB1" s="338"/>
+      <c r="KC1" s="337">
         <v>2019</v>
       </c>
-      <c r="KD1" s="340"/>
-      <c r="KE1" s="340"/>
-      <c r="KF1" s="340"/>
-      <c r="KG1" s="340"/>
-      <c r="KH1" s="340"/>
-      <c r="KI1" s="340"/>
-      <c r="KJ1" s="339">
+      <c r="KD1" s="338"/>
+      <c r="KE1" s="338"/>
+      <c r="KF1" s="338"/>
+      <c r="KG1" s="338"/>
+      <c r="KH1" s="338"/>
+      <c r="KI1" s="338"/>
+      <c r="KJ1" s="337">
         <v>2019</v>
       </c>
-      <c r="KK1" s="340"/>
-      <c r="KL1" s="340"/>
-      <c r="KM1" s="340"/>
-      <c r="KN1" s="340"/>
-      <c r="KO1" s="340"/>
-      <c r="KP1" s="340"/>
-      <c r="KQ1" s="339">
+      <c r="KK1" s="338"/>
+      <c r="KL1" s="338"/>
+      <c r="KM1" s="338"/>
+      <c r="KN1" s="338"/>
+      <c r="KO1" s="338"/>
+      <c r="KP1" s="338"/>
+      <c r="KQ1" s="337">
         <v>2019</v>
       </c>
-      <c r="KR1" s="340"/>
-      <c r="KS1" s="340"/>
-      <c r="KT1" s="340"/>
-      <c r="KU1" s="340"/>
-      <c r="KV1" s="340"/>
-      <c r="KW1" s="340"/>
-      <c r="KX1" s="339">
+      <c r="KR1" s="338"/>
+      <c r="KS1" s="338"/>
+      <c r="KT1" s="338"/>
+      <c r="KU1" s="338"/>
+      <c r="KV1" s="338"/>
+      <c r="KW1" s="338"/>
+      <c r="KX1" s="337">
         <v>2019</v>
       </c>
-      <c r="KY1" s="340"/>
-      <c r="KZ1" s="340"/>
-      <c r="LA1" s="340"/>
-      <c r="LB1" s="340"/>
-      <c r="LC1" s="340"/>
-      <c r="LD1" s="340"/>
-      <c r="LE1" s="339">
+      <c r="KY1" s="338"/>
+      <c r="KZ1" s="338"/>
+      <c r="LA1" s="338"/>
+      <c r="LB1" s="338"/>
+      <c r="LC1" s="338"/>
+      <c r="LD1" s="338"/>
+      <c r="LE1" s="337">
         <v>2019</v>
       </c>
-      <c r="LF1" s="340"/>
-      <c r="LG1" s="340"/>
-      <c r="LH1" s="340"/>
-      <c r="LI1" s="340"/>
-      <c r="LJ1" s="340"/>
-      <c r="LK1" s="340"/>
-      <c r="LL1" s="339">
+      <c r="LF1" s="338"/>
+      <c r="LG1" s="338"/>
+      <c r="LH1" s="338"/>
+      <c r="LI1" s="338"/>
+      <c r="LJ1" s="338"/>
+      <c r="LK1" s="338"/>
+      <c r="LL1" s="337">
         <v>2019</v>
       </c>
-      <c r="LM1" s="340"/>
-      <c r="LN1" s="340"/>
-      <c r="LO1" s="340"/>
-      <c r="LP1" s="340"/>
-      <c r="LQ1" s="340"/>
-      <c r="LR1" s="340"/>
-      <c r="LS1" s="339">
+      <c r="LM1" s="338"/>
+      <c r="LN1" s="338"/>
+      <c r="LO1" s="338"/>
+      <c r="LP1" s="338"/>
+      <c r="LQ1" s="338"/>
+      <c r="LR1" s="338"/>
+      <c r="LS1" s="337">
         <v>2019</v>
       </c>
-      <c r="LT1" s="340"/>
-      <c r="LU1" s="340"/>
-      <c r="LV1" s="340"/>
-      <c r="LW1" s="340"/>
-      <c r="LX1" s="340"/>
-      <c r="LY1" s="340"/>
-      <c r="LZ1" s="339">
+      <c r="LT1" s="338"/>
+      <c r="LU1" s="338"/>
+      <c r="LV1" s="338"/>
+      <c r="LW1" s="338"/>
+      <c r="LX1" s="338"/>
+      <c r="LY1" s="338"/>
+      <c r="LZ1" s="337">
         <v>2019</v>
       </c>
-      <c r="MA1" s="340"/>
-      <c r="MB1" s="340"/>
-      <c r="MC1" s="340"/>
-      <c r="MD1" s="340"/>
-      <c r="ME1" s="340"/>
-      <c r="MF1" s="340"/>
-      <c r="MG1" s="339">
+      <c r="MA1" s="338"/>
+      <c r="MB1" s="338"/>
+      <c r="MC1" s="338"/>
+      <c r="MD1" s="338"/>
+      <c r="ME1" s="338"/>
+      <c r="MF1" s="338"/>
+      <c r="MG1" s="337">
         <v>2019</v>
       </c>
-      <c r="MH1" s="340"/>
-      <c r="MI1" s="340"/>
-      <c r="MJ1" s="340"/>
-      <c r="MK1" s="340"/>
-      <c r="ML1" s="340"/>
-      <c r="MM1" s="340"/>
-      <c r="MN1" s="339">
+      <c r="MH1" s="338"/>
+      <c r="MI1" s="338"/>
+      <c r="MJ1" s="338"/>
+      <c r="MK1" s="338"/>
+      <c r="ML1" s="338"/>
+      <c r="MM1" s="338"/>
+      <c r="MN1" s="337">
         <v>2019</v>
       </c>
-      <c r="MO1" s="340"/>
-      <c r="MP1" s="340"/>
-      <c r="MQ1" s="340"/>
-      <c r="MR1" s="340"/>
-      <c r="MS1" s="340"/>
-      <c r="MT1" s="340"/>
-      <c r="MU1" s="339">
+      <c r="MO1" s="338"/>
+      <c r="MP1" s="338"/>
+      <c r="MQ1" s="338"/>
+      <c r="MR1" s="338"/>
+      <c r="MS1" s="338"/>
+      <c r="MT1" s="338"/>
+      <c r="MU1" s="337">
         <v>2019</v>
       </c>
-      <c r="MV1" s="340"/>
-      <c r="MW1" s="340"/>
-      <c r="MX1" s="340"/>
-      <c r="MY1" s="340"/>
-      <c r="MZ1" s="340"/>
-      <c r="NA1" s="340"/>
-      <c r="NB1" s="339">
+      <c r="MV1" s="338"/>
+      <c r="MW1" s="338"/>
+      <c r="MX1" s="338"/>
+      <c r="MY1" s="338"/>
+      <c r="MZ1" s="338"/>
+      <c r="NA1" s="338"/>
+      <c r="NB1" s="337">
         <v>2019</v>
       </c>
-      <c r="NC1" s="340"/>
-      <c r="ND1" s="340"/>
-      <c r="NE1" s="340"/>
-      <c r="NF1" s="340"/>
-      <c r="NG1" s="340"/>
-      <c r="NH1" s="340"/>
-      <c r="NI1" s="339">
+      <c r="NC1" s="338"/>
+      <c r="ND1" s="338"/>
+      <c r="NE1" s="338"/>
+      <c r="NF1" s="338"/>
+      <c r="NG1" s="338"/>
+      <c r="NH1" s="338"/>
+      <c r="NI1" s="337">
         <v>2019</v>
       </c>
-      <c r="NJ1" s="340"/>
-      <c r="NK1" s="340"/>
-      <c r="NL1" s="340"/>
-      <c r="NM1" s="340"/>
-      <c r="NN1" s="340"/>
-      <c r="NO1" s="340"/>
-      <c r="NP1" s="339">
+      <c r="NJ1" s="338"/>
+      <c r="NK1" s="338"/>
+      <c r="NL1" s="338"/>
+      <c r="NM1" s="338"/>
+      <c r="NN1" s="338"/>
+      <c r="NO1" s="338"/>
+      <c r="NP1" s="337">
         <v>2019</v>
       </c>
-      <c r="NQ1" s="340"/>
-      <c r="NR1" s="340"/>
-      <c r="NS1" s="340"/>
-      <c r="NT1" s="340"/>
-      <c r="NU1" s="340"/>
-      <c r="NV1" s="340"/>
-      <c r="NW1" s="339">
+      <c r="NQ1" s="338"/>
+      <c r="NR1" s="338"/>
+      <c r="NS1" s="338"/>
+      <c r="NT1" s="338"/>
+      <c r="NU1" s="338"/>
+      <c r="NV1" s="338"/>
+      <c r="NW1" s="337">
         <v>2019</v>
       </c>
-      <c r="NX1" s="340"/>
-      <c r="NY1" s="340"/>
-      <c r="NZ1" s="340"/>
-      <c r="OA1" s="340"/>
-      <c r="OB1" s="340"/>
-      <c r="OC1" s="340"/>
-      <c r="OD1" s="339">
+      <c r="NX1" s="338"/>
+      <c r="NY1" s="338"/>
+      <c r="NZ1" s="338"/>
+      <c r="OA1" s="338"/>
+      <c r="OB1" s="338"/>
+      <c r="OC1" s="338"/>
+      <c r="OD1" s="337">
         <v>2019</v>
       </c>
-      <c r="OE1" s="340"/>
-      <c r="OF1" s="340"/>
-      <c r="OG1" s="340"/>
-      <c r="OH1" s="340"/>
-      <c r="OI1" s="340"/>
-      <c r="OJ1" s="340"/>
-      <c r="OK1" s="339">
+      <c r="OE1" s="338"/>
+      <c r="OF1" s="338"/>
+      <c r="OG1" s="338"/>
+      <c r="OH1" s="338"/>
+      <c r="OI1" s="338"/>
+      <c r="OJ1" s="338"/>
+      <c r="OK1" s="337">
         <v>2019</v>
       </c>
-      <c r="OL1" s="340"/>
-      <c r="OM1" s="340"/>
-      <c r="ON1" s="340"/>
-      <c r="OO1" s="340"/>
-      <c r="OP1" s="340"/>
-      <c r="OQ1" s="340"/>
-      <c r="OR1" s="339">
+      <c r="OL1" s="338"/>
+      <c r="OM1" s="338"/>
+      <c r="ON1" s="338"/>
+      <c r="OO1" s="338"/>
+      <c r="OP1" s="338"/>
+      <c r="OQ1" s="338"/>
+      <c r="OR1" s="337">
         <v>2019</v>
       </c>
-      <c r="OS1" s="340"/>
-      <c r="OT1" s="340"/>
-      <c r="OU1" s="340"/>
-      <c r="OV1" s="340"/>
-      <c r="OW1" s="340"/>
-      <c r="OX1" s="340"/>
-      <c r="OY1" s="339">
+      <c r="OS1" s="338"/>
+      <c r="OT1" s="338"/>
+      <c r="OU1" s="338"/>
+      <c r="OV1" s="338"/>
+      <c r="OW1" s="338"/>
+      <c r="OX1" s="338"/>
+      <c r="OY1" s="337">
         <v>2019</v>
       </c>
-      <c r="OZ1" s="340"/>
-      <c r="PA1" s="340"/>
-      <c r="PB1" s="340"/>
-      <c r="PC1" s="340"/>
-      <c r="PD1" s="340"/>
-      <c r="PE1" s="340"/>
-      <c r="PF1" s="339">
+      <c r="OZ1" s="338"/>
+      <c r="PA1" s="338"/>
+      <c r="PB1" s="338"/>
+      <c r="PC1" s="338"/>
+      <c r="PD1" s="338"/>
+      <c r="PE1" s="338"/>
+      <c r="PF1" s="337">
         <v>2019</v>
       </c>
-      <c r="PG1" s="340"/>
-      <c r="PH1" s="340"/>
-      <c r="PI1" s="340"/>
-      <c r="PJ1" s="340"/>
-      <c r="PK1" s="340"/>
-      <c r="PL1" s="340"/>
-      <c r="PM1" s="339">
+      <c r="PG1" s="338"/>
+      <c r="PH1" s="338"/>
+      <c r="PI1" s="338"/>
+      <c r="PJ1" s="338"/>
+      <c r="PK1" s="338"/>
+      <c r="PL1" s="338"/>
+      <c r="PM1" s="337">
         <v>2019</v>
       </c>
-      <c r="PN1" s="340"/>
-      <c r="PO1" s="340"/>
-      <c r="PP1" s="340"/>
-      <c r="PQ1" s="340"/>
-      <c r="PR1" s="340"/>
-      <c r="PS1" s="340"/>
-      <c r="PT1" s="339">
+      <c r="PN1" s="338"/>
+      <c r="PO1" s="338"/>
+      <c r="PP1" s="338"/>
+      <c r="PQ1" s="338"/>
+      <c r="PR1" s="338"/>
+      <c r="PS1" s="338"/>
+      <c r="PT1" s="337">
         <v>2019</v>
       </c>
-      <c r="PU1" s="340"/>
-      <c r="PV1" s="340"/>
-      <c r="PW1" s="340"/>
-      <c r="PX1" s="340"/>
-      <c r="PY1" s="340"/>
-      <c r="PZ1" s="340"/>
-      <c r="QA1" s="339">
+      <c r="PU1" s="338"/>
+      <c r="PV1" s="338"/>
+      <c r="PW1" s="338"/>
+      <c r="PX1" s="338"/>
+      <c r="PY1" s="338"/>
+      <c r="PZ1" s="338"/>
+      <c r="QA1" s="337">
         <v>2019</v>
       </c>
-      <c r="QB1" s="340"/>
-      <c r="QC1" s="340"/>
-      <c r="QD1" s="340"/>
-      <c r="QE1" s="340"/>
-      <c r="QF1" s="340"/>
-      <c r="QG1" s="340"/>
-      <c r="QH1" s="339">
+      <c r="QB1" s="338"/>
+      <c r="QC1" s="338"/>
+      <c r="QD1" s="338"/>
+      <c r="QE1" s="338"/>
+      <c r="QF1" s="338"/>
+      <c r="QG1" s="338"/>
+      <c r="QH1" s="337">
         <v>2019</v>
       </c>
-      <c r="QI1" s="340"/>
-      <c r="QJ1" s="340"/>
-      <c r="QK1" s="340"/>
-      <c r="QL1" s="340"/>
-      <c r="QM1" s="340"/>
-      <c r="QN1" s="340"/>
-      <c r="QO1" s="339">
+      <c r="QI1" s="338"/>
+      <c r="QJ1" s="338"/>
+      <c r="QK1" s="338"/>
+      <c r="QL1" s="338"/>
+      <c r="QM1" s="338"/>
+      <c r="QN1" s="338"/>
+      <c r="QO1" s="337">
         <v>2019</v>
       </c>
-      <c r="QP1" s="340"/>
-      <c r="QQ1" s="340"/>
-      <c r="QR1" s="340"/>
-      <c r="QS1" s="340"/>
-      <c r="QT1" s="340"/>
-      <c r="QU1" s="340"/>
-      <c r="QV1" s="339">
+      <c r="QP1" s="338"/>
+      <c r="QQ1" s="338"/>
+      <c r="QR1" s="338"/>
+      <c r="QS1" s="338"/>
+      <c r="QT1" s="338"/>
+      <c r="QU1" s="338"/>
+      <c r="QV1" s="337">
         <v>2019</v>
       </c>
-      <c r="QW1" s="340"/>
-      <c r="QX1" s="340"/>
-      <c r="QY1" s="340"/>
-      <c r="QZ1" s="340"/>
-      <c r="RA1" s="340"/>
-      <c r="RB1" s="340"/>
-      <c r="RC1" s="339">
+      <c r="QW1" s="338"/>
+      <c r="QX1" s="338"/>
+      <c r="QY1" s="338"/>
+      <c r="QZ1" s="338"/>
+      <c r="RA1" s="338"/>
+      <c r="RB1" s="338"/>
+      <c r="RC1" s="337">
         <v>2019</v>
       </c>
-      <c r="RD1" s="340"/>
-      <c r="RE1" s="340"/>
-      <c r="RF1" s="340"/>
-      <c r="RG1" s="340"/>
-      <c r="RH1" s="340"/>
-      <c r="RI1" s="340"/>
-      <c r="RJ1" s="339">
+      <c r="RD1" s="338"/>
+      <c r="RE1" s="338"/>
+      <c r="RF1" s="338"/>
+      <c r="RG1" s="338"/>
+      <c r="RH1" s="338"/>
+      <c r="RI1" s="338"/>
+      <c r="RJ1" s="337">
         <v>2019</v>
       </c>
-      <c r="RK1" s="340"/>
-      <c r="RL1" s="340"/>
-      <c r="RM1" s="340"/>
-      <c r="RN1" s="340"/>
-      <c r="RO1" s="340"/>
-      <c r="RP1" s="340"/>
-      <c r="RQ1" s="339">
+      <c r="RK1" s="338"/>
+      <c r="RL1" s="338"/>
+      <c r="RM1" s="338"/>
+      <c r="RN1" s="338"/>
+      <c r="RO1" s="338"/>
+      <c r="RP1" s="338"/>
+      <c r="RQ1" s="337">
         <v>2019</v>
       </c>
-      <c r="RR1" s="340"/>
-      <c r="RS1" s="340"/>
-      <c r="RT1" s="340"/>
-      <c r="RU1" s="340"/>
-      <c r="RV1" s="340"/>
-      <c r="RW1" s="340"/>
-      <c r="RX1" s="339">
+      <c r="RR1" s="338"/>
+      <c r="RS1" s="338"/>
+      <c r="RT1" s="338"/>
+      <c r="RU1" s="338"/>
+      <c r="RV1" s="338"/>
+      <c r="RW1" s="338"/>
+      <c r="RX1" s="337">
         <v>2019</v>
       </c>
-      <c r="RY1" s="340"/>
-      <c r="RZ1" s="340"/>
-      <c r="SA1" s="340"/>
-      <c r="SB1" s="340"/>
-      <c r="SC1" s="340"/>
-      <c r="SD1" s="340"/>
-      <c r="SE1" s="339">
+      <c r="RY1" s="338"/>
+      <c r="RZ1" s="338"/>
+      <c r="SA1" s="338"/>
+      <c r="SB1" s="338"/>
+      <c r="SC1" s="338"/>
+      <c r="SD1" s="338"/>
+      <c r="SE1" s="337">
         <v>2019</v>
       </c>
-      <c r="SF1" s="340"/>
-      <c r="SG1" s="340"/>
-      <c r="SH1" s="340"/>
-      <c r="SI1" s="340"/>
-      <c r="SJ1" s="340"/>
-      <c r="SK1" s="340"/>
-      <c r="SL1" s="339">
+      <c r="SF1" s="338"/>
+      <c r="SG1" s="338"/>
+      <c r="SH1" s="338"/>
+      <c r="SI1" s="338"/>
+      <c r="SJ1" s="338"/>
+      <c r="SK1" s="338"/>
+      <c r="SL1" s="337">
         <v>2019</v>
       </c>
-      <c r="SM1" s="340"/>
-      <c r="SN1" s="340"/>
-      <c r="SO1" s="340"/>
-      <c r="SP1" s="340"/>
-      <c r="SQ1" s="340"/>
-      <c r="SR1" s="340"/>
-      <c r="SS1" s="339">
+      <c r="SM1" s="338"/>
+      <c r="SN1" s="338"/>
+      <c r="SO1" s="338"/>
+      <c r="SP1" s="338"/>
+      <c r="SQ1" s="338"/>
+      <c r="SR1" s="338"/>
+      <c r="SS1" s="337">
         <v>2019</v>
       </c>
-      <c r="ST1" s="340"/>
-      <c r="SU1" s="340"/>
-      <c r="SV1" s="340"/>
-      <c r="SW1" s="340"/>
-      <c r="SX1" s="340"/>
-      <c r="SY1" s="340"/>
-      <c r="SZ1" s="339">
+      <c r="ST1" s="338"/>
+      <c r="SU1" s="338"/>
+      <c r="SV1" s="338"/>
+      <c r="SW1" s="338"/>
+      <c r="SX1" s="338"/>
+      <c r="SY1" s="338"/>
+      <c r="SZ1" s="337">
         <v>2019</v>
       </c>
-      <c r="TA1" s="340"/>
-      <c r="TB1" s="340"/>
-      <c r="TC1" s="340"/>
-      <c r="TD1" s="340"/>
-      <c r="TE1" s="340"/>
-      <c r="TF1" s="340"/>
-      <c r="TG1" s="339">
+      <c r="TA1" s="338"/>
+      <c r="TB1" s="338"/>
+      <c r="TC1" s="338"/>
+      <c r="TD1" s="338"/>
+      <c r="TE1" s="338"/>
+      <c r="TF1" s="338"/>
+      <c r="TG1" s="337">
         <v>2019</v>
       </c>
-      <c r="TH1" s="340"/>
-      <c r="TI1" s="340"/>
-      <c r="TJ1" s="340"/>
-      <c r="TK1" s="340"/>
-      <c r="TL1" s="340"/>
-      <c r="TM1" s="340"/>
-      <c r="TN1" s="339">
+      <c r="TH1" s="338"/>
+      <c r="TI1" s="338"/>
+      <c r="TJ1" s="338"/>
+      <c r="TK1" s="338"/>
+      <c r="TL1" s="338"/>
+      <c r="TM1" s="338"/>
+      <c r="TN1" s="337">
         <v>2019</v>
       </c>
-      <c r="TO1" s="340"/>
-      <c r="TP1" s="340"/>
-      <c r="TQ1" s="340"/>
-      <c r="TR1" s="340"/>
-      <c r="TS1" s="340"/>
-      <c r="TT1" s="340"/>
-      <c r="TU1" s="339">
+      <c r="TO1" s="338"/>
+      <c r="TP1" s="338"/>
+      <c r="TQ1" s="338"/>
+      <c r="TR1" s="338"/>
+      <c r="TS1" s="338"/>
+      <c r="TT1" s="338"/>
+      <c r="TU1" s="337">
         <v>2019</v>
       </c>
-      <c r="TV1" s="340"/>
-      <c r="TW1" s="340"/>
-      <c r="TX1" s="340"/>
-      <c r="TY1" s="340"/>
-      <c r="TZ1" s="340"/>
-      <c r="UA1" s="340"/>
-      <c r="UB1" s="339">
+      <c r="TV1" s="338"/>
+      <c r="TW1" s="338"/>
+      <c r="TX1" s="338"/>
+      <c r="TY1" s="338"/>
+      <c r="TZ1" s="338"/>
+      <c r="UA1" s="338"/>
+      <c r="UB1" s="337">
         <v>2020</v>
       </c>
-      <c r="UC1" s="340"/>
-      <c r="UD1" s="340"/>
-      <c r="UE1" s="340"/>
-      <c r="UF1" s="340"/>
-      <c r="UG1" s="340"/>
-      <c r="UH1" s="341"/>
+      <c r="UC1" s="338"/>
+      <c r="UD1" s="338"/>
+      <c r="UE1" s="338"/>
+      <c r="UF1" s="338"/>
+      <c r="UG1" s="338"/>
+      <c r="UH1" s="339"/>
     </row>
     <row r="2" spans="1:554" s="272" customFormat="1" ht="21.6" thickBot="1">
       <c r="A2" s="276"/>
@@ -82190,7 +82200,7 @@
       </c>
     </row>
     <row r="3" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="340" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="267"/>
@@ -82230,12 +82240,14 @@
       <c r="CA3" s="278"/>
       <c r="CB3" s="219"/>
       <c r="CC3" s="278"/>
+      <c r="CD3" s="219"/>
+      <c r="CE3" s="219"/>
     </row>
     <row r="4" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="338"/>
+      <c r="A4" s="341"/>
     </row>
     <row r="5" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="337" t="s">
+      <c r="A5" s="340" t="s">
         <v>26</v>
       </c>
       <c r="AF5" s="210"/>
@@ -82274,12 +82286,14 @@
       <c r="CA5" s="219"/>
       <c r="CB5" s="219"/>
       <c r="CC5" s="278"/>
+      <c r="CD5" s="219"/>
+      <c r="CE5" s="210"/>
     </row>
     <row r="6" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="338"/>
+      <c r="A6" s="341"/>
     </row>
     <row r="7" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="337" t="s">
+      <c r="A7" s="340" t="s">
         <v>23</v>
       </c>
       <c r="AF7" s="210"/>
@@ -82318,12 +82332,14 @@
       <c r="CA7" s="219"/>
       <c r="CB7" s="219"/>
       <c r="CC7" s="278"/>
+      <c r="CD7" s="219"/>
+      <c r="CE7" s="210"/>
     </row>
     <row r="8" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="338"/>
+      <c r="A8" s="341"/>
     </row>
     <row r="9" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="337" t="s">
+      <c r="A9" s="340" t="s">
         <v>175</v>
       </c>
       <c r="AF9" s="278"/>
@@ -82362,12 +82378,14 @@
       <c r="CA9" s="278"/>
       <c r="CB9" s="219"/>
       <c r="CC9" s="219"/>
+      <c r="CD9" s="219"/>
+      <c r="CE9" s="278"/>
     </row>
     <row r="10" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="338"/>
+      <c r="A10" s="341"/>
     </row>
     <row r="11" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="337" t="s">
+      <c r="A11" s="340" t="s">
         <v>41</v>
       </c>
       <c r="AF11" s="278"/>
@@ -82404,14 +82422,16 @@
       <c r="BW11" s="210"/>
       <c r="BX11" s="278"/>
       <c r="CA11" s="210"/>
-      <c r="CB11" s="210"/>
+      <c r="CB11" s="219"/>
       <c r="CC11" s="219"/>
+      <c r="CD11" s="210"/>
+      <c r="CE11" s="210"/>
     </row>
     <row r="12" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="338"/>
+      <c r="A12" s="341"/>
     </row>
     <row r="13" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="337" t="s">
+      <c r="A13" s="340" t="s">
         <v>25</v>
       </c>
       <c r="AF13" s="210"/>
@@ -82450,12 +82470,14 @@
       <c r="CA13" s="219"/>
       <c r="CB13" s="219"/>
       <c r="CC13" s="278"/>
+      <c r="CD13" s="219"/>
+      <c r="CE13" s="210"/>
     </row>
     <row r="14" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="338"/>
+      <c r="A14" s="341"/>
     </row>
     <row r="15" spans="1:554" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="337" t="s">
+      <c r="A15" s="340" t="s">
         <v>24</v>
       </c>
       <c r="AF15" s="210"/>
@@ -82494,12 +82516,14 @@
       <c r="CA15" s="219"/>
       <c r="CB15" s="219"/>
       <c r="CC15" s="278"/>
+      <c r="CD15" s="219"/>
+      <c r="CE15" s="210"/>
     </row>
     <row r="16" spans="1:554" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="338"/>
-    </row>
-    <row r="17" spans="1:81" s="109" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="337" t="s">
+      <c r="A16" s="341"/>
+    </row>
+    <row r="17" spans="1:83" s="109" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="340" t="s">
         <v>176</v>
       </c>
       <c r="AF17" s="210"/>
@@ -82538,23 +82562,76 @@
       <c r="CA17" s="278"/>
       <c r="CB17" s="219"/>
       <c r="CC17" s="278"/>
-    </row>
-    <row r="18" spans="1:81" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="338"/>
-    </row>
-    <row r="19" spans="1:81" ht="18" customHeight="1"/>
+      <c r="CD17" s="219"/>
+      <c r="CE17" s="210"/>
+    </row>
+    <row r="18" spans="1:83" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A18" s="341"/>
+    </row>
+    <row r="19" spans="1:83" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AY1:BE1"/>
-    <mergeCell ref="BF1:BL1"/>
-    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="FN1:FT1"/>
+    <mergeCell ref="CO1:CU1"/>
+    <mergeCell ref="CV1:DB1"/>
+    <mergeCell ref="DC1:DI1"/>
+    <mergeCell ref="DJ1:DP1"/>
+    <mergeCell ref="DQ1:DW1"/>
+    <mergeCell ref="DX1:ED1"/>
+    <mergeCell ref="EE1:EK1"/>
+    <mergeCell ref="EL1:ER1"/>
+    <mergeCell ref="ES1:EY1"/>
+    <mergeCell ref="EZ1:FF1"/>
+    <mergeCell ref="FG1:FM1"/>
+    <mergeCell ref="IT1:IZ1"/>
+    <mergeCell ref="FU1:GA1"/>
+    <mergeCell ref="GB1:GH1"/>
+    <mergeCell ref="GI1:GO1"/>
+    <mergeCell ref="GP1:GV1"/>
+    <mergeCell ref="GW1:HC1"/>
+    <mergeCell ref="HD1:HJ1"/>
+    <mergeCell ref="HK1:HQ1"/>
+    <mergeCell ref="HR1:HX1"/>
+    <mergeCell ref="HY1:IE1"/>
+    <mergeCell ref="IF1:IL1"/>
+    <mergeCell ref="IM1:IS1"/>
+    <mergeCell ref="LZ1:MF1"/>
+    <mergeCell ref="JA1:JG1"/>
+    <mergeCell ref="JH1:JN1"/>
+    <mergeCell ref="JO1:JU1"/>
+    <mergeCell ref="JV1:KB1"/>
+    <mergeCell ref="KC1:KI1"/>
+    <mergeCell ref="KJ1:KP1"/>
+    <mergeCell ref="KQ1:KW1"/>
+    <mergeCell ref="KX1:LD1"/>
+    <mergeCell ref="LE1:LK1"/>
+    <mergeCell ref="LL1:LR1"/>
+    <mergeCell ref="LS1:LY1"/>
+    <mergeCell ref="PF1:PL1"/>
+    <mergeCell ref="MG1:MM1"/>
+    <mergeCell ref="MN1:MT1"/>
+    <mergeCell ref="MU1:NA1"/>
+    <mergeCell ref="NB1:NH1"/>
+    <mergeCell ref="NI1:NO1"/>
+    <mergeCell ref="NP1:NV1"/>
+    <mergeCell ref="TG1:TM1"/>
+    <mergeCell ref="TN1:TT1"/>
+    <mergeCell ref="TU1:UA1"/>
+    <mergeCell ref="UB1:UH1"/>
+    <mergeCell ref="RC1:RI1"/>
+    <mergeCell ref="RJ1:RP1"/>
+    <mergeCell ref="RQ1:RW1"/>
+    <mergeCell ref="RX1:SD1"/>
+    <mergeCell ref="SE1:SK1"/>
+    <mergeCell ref="SL1:SR1"/>
     <mergeCell ref="BT1:BZ1"/>
     <mergeCell ref="CA1:CG1"/>
     <mergeCell ref="CH1:CN1"/>
@@ -82571,67 +82648,16 @@
     <mergeCell ref="OK1:OQ1"/>
     <mergeCell ref="OR1:OX1"/>
     <mergeCell ref="OY1:PE1"/>
-    <mergeCell ref="TG1:TM1"/>
-    <mergeCell ref="TN1:TT1"/>
-    <mergeCell ref="TU1:UA1"/>
-    <mergeCell ref="UB1:UH1"/>
-    <mergeCell ref="RC1:RI1"/>
-    <mergeCell ref="RJ1:RP1"/>
-    <mergeCell ref="RQ1:RW1"/>
-    <mergeCell ref="RX1:SD1"/>
-    <mergeCell ref="SE1:SK1"/>
-    <mergeCell ref="SL1:SR1"/>
-    <mergeCell ref="PF1:PL1"/>
-    <mergeCell ref="MG1:MM1"/>
-    <mergeCell ref="MN1:MT1"/>
-    <mergeCell ref="MU1:NA1"/>
-    <mergeCell ref="NB1:NH1"/>
-    <mergeCell ref="NI1:NO1"/>
-    <mergeCell ref="NP1:NV1"/>
-    <mergeCell ref="LZ1:MF1"/>
-    <mergeCell ref="JA1:JG1"/>
-    <mergeCell ref="JH1:JN1"/>
-    <mergeCell ref="JO1:JU1"/>
-    <mergeCell ref="JV1:KB1"/>
-    <mergeCell ref="KC1:KI1"/>
-    <mergeCell ref="KJ1:KP1"/>
-    <mergeCell ref="KQ1:KW1"/>
-    <mergeCell ref="KX1:LD1"/>
-    <mergeCell ref="LE1:LK1"/>
-    <mergeCell ref="LL1:LR1"/>
-    <mergeCell ref="LS1:LY1"/>
-    <mergeCell ref="IT1:IZ1"/>
-    <mergeCell ref="FU1:GA1"/>
-    <mergeCell ref="GB1:GH1"/>
-    <mergeCell ref="GI1:GO1"/>
-    <mergeCell ref="GP1:GV1"/>
-    <mergeCell ref="GW1:HC1"/>
-    <mergeCell ref="HD1:HJ1"/>
-    <mergeCell ref="HK1:HQ1"/>
-    <mergeCell ref="HR1:HX1"/>
-    <mergeCell ref="HY1:IE1"/>
-    <mergeCell ref="IF1:IL1"/>
-    <mergeCell ref="IM1:IS1"/>
-    <mergeCell ref="FN1:FT1"/>
-    <mergeCell ref="CO1:CU1"/>
-    <mergeCell ref="CV1:DB1"/>
-    <mergeCell ref="DC1:DI1"/>
-    <mergeCell ref="DJ1:DP1"/>
-    <mergeCell ref="DQ1:DW1"/>
-    <mergeCell ref="DX1:ED1"/>
-    <mergeCell ref="EE1:EK1"/>
-    <mergeCell ref="EL1:ER1"/>
-    <mergeCell ref="ES1:EY1"/>
-    <mergeCell ref="EZ1:FF1"/>
-    <mergeCell ref="FG1:FM1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AY1:BE1"/>
+    <mergeCell ref="BF1:BL1"/>
+    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5423" uniqueCount="288">
   <si>
     <t>总额</t>
   </si>
@@ -1144,6 +1144,22 @@
   </si>
   <si>
     <t>震荡模式，没稳住，没按照震荡模式操作</t>
+  </si>
+  <si>
+    <r>
+      <t>总结 ，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反复阶段，没有刚开始买入后不动的利润高</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3914,7 +3930,7 @@
                   <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>100</c:v>
+                  <c:v>36.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
@@ -4255,11 +4271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206861824"/>
-        <c:axId val="206863360"/>
+        <c:axId val="205092352"/>
+        <c:axId val="205093888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="206861824"/>
+        <c:axId val="205092352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,14 +4285,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206863360"/>
+        <c:crossAx val="205093888"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206863360"/>
+        <c:axId val="205093888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4297,7 +4313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206861824"/>
+        <c:crossAx val="205092352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6688,7 +6704,7 @@
       </c>
       <c r="B100" s="20">
         <f>'10年计划-周'!I104</f>
-        <v>100</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24267,10 +24283,10 @@
   <dimension ref="A1:AD212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V104" sqref="V104"/>
+      <selection pane="bottomRight" activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30007,24 +30023,35 @@
         <v>303.41755985835579</v>
       </c>
       <c r="H104" s="48"/>
-      <c r="I104" s="48">
-        <v>100</v>
+      <c r="I104" s="118">
+        <v>36.299999999999997</v>
       </c>
       <c r="J104" s="50">
         <f t="shared" si="15"/>
-        <v>1.304</v>
+        <v>0.03</v>
       </c>
       <c r="K104" s="96">
         <f t="shared" si="19"/>
-        <v>51.474999999999994</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="L104" s="48"/>
       <c r="M104" s="48"/>
-      <c r="N104" s="48"/>
-      <c r="O104" s="48"/>
-      <c r="P104" s="48"/>
-      <c r="Q104" s="48"/>
+      <c r="N104" s="48">
+        <v>0</v>
+      </c>
+      <c r="O104" s="48">
+        <v>0</v>
+      </c>
+      <c r="P104" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="48">
+        <v>0</v>
+      </c>
       <c r="R104" s="38"/>
+      <c r="V104" s="35" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="294"/>
@@ -30055,11 +30082,11 @@
       </c>
       <c r="J105" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.274</v>
       </c>
       <c r="K105" s="96">
         <f t="shared" si="19"/>
-        <v>67.5</v>
+        <v>51.575000000000003</v>
       </c>
       <c r="L105" s="52"/>
       <c r="M105" s="52"/>
@@ -30101,7 +30128,7 @@
       </c>
       <c r="K106" s="96">
         <f t="shared" si="19"/>
-        <v>83.7</v>
+        <v>67.775000000000006</v>
       </c>
       <c r="L106" s="52"/>
       <c r="M106" s="52"/>
@@ -30143,7 +30170,7 @@
       </c>
       <c r="K107" s="96">
         <f t="shared" si="19"/>
-        <v>100</v>
+        <v>84.075000000000003</v>
       </c>
       <c r="L107" s="52"/>
       <c r="M107" s="52"/>
@@ -45912,14 +45939,14 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:HX37"/>
+  <dimension ref="A1:HX229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13932" ySplit="3528" topLeftCell="AD12" activePane="bottomLeft"/>
+      <pane xSplit="13932" ySplit="3528" topLeftCell="U14" activePane="bottomLeft"/>
       <selection activeCell="E26" sqref="E26"/>
       <selection pane="topRight" activeCell="E26" sqref="E26"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
-      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="16.8"/>
@@ -48835,7 +48862,7 @@
     </row>
     <row r="12" spans="1:232">
       <c r="A12" s="127">
-        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <f t="shared" ref="A12:A75" si="2">A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="226" t="s">
@@ -48939,7 +48966,7 @@
         <v>43413.791666666664</v>
       </c>
       <c r="D14" s="204">
-        <v>0.72436</v>
+        <v>0.72270000000000001</v>
       </c>
       <c r="E14" s="187" t="s">
         <v>184</v>
@@ -48950,7 +48977,7 @@
       <c r="I14" s="156"/>
       <c r="J14" s="204">
         <f t="shared" si="0"/>
-        <v>-0.72436</v>
+        <v>-0.72270000000000001</v>
       </c>
       <c r="K14" s="29" t="str">
         <f t="shared" si="1"/>
@@ -49289,21 +49316,31 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="204">
+      <c r="B23" s="235" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="236">
+        <v>43434</v>
+      </c>
+      <c r="D23" s="275">
+        <v>0.73243000000000003</v>
+      </c>
+      <c r="E23" s="238"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="275">
+        <v>0.72968</v>
+      </c>
+      <c r="I23" s="236">
+        <v>43434</v>
+      </c>
+      <c r="J23" s="275">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="29" t="str">
+        <v>-2.7500000000000302E-3</v>
+      </c>
+      <c r="K23" s="240" t="str">
         <f t="shared" si="4"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="L23" s="160" t="s">
         <v>28</v>
@@ -49314,19 +49351,25 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="204"/>
+      <c r="B24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="156">
+        <v>43439</v>
+      </c>
+      <c r="D24" s="204">
+        <v>0.72948999999999997</v>
+      </c>
       <c r="E24" s="187"/>
-      <c r="F24" s="289" t="s">
-        <v>271</v>
-      </c>
+      <c r="F24" s="289"/>
       <c r="G24" s="205"/>
-      <c r="H24" s="204"/>
+      <c r="H24" s="204">
+        <v>0.73299999999999998</v>
+      </c>
       <c r="I24" s="156"/>
       <c r="J24" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5100000000000131E-3</v>
       </c>
       <c r="K24" s="29" t="str">
         <f t="shared" si="4"/>
@@ -49345,9 +49388,7 @@
       <c r="C25" s="156"/>
       <c r="D25" s="204"/>
       <c r="E25" s="187"/>
-      <c r="F25" s="289" t="s">
-        <v>274</v>
-      </c>
+      <c r="F25" s="289"/>
       <c r="G25" s="205"/>
       <c r="H25" s="204"/>
       <c r="I25" s="156"/>
@@ -49372,8 +49413,8 @@
       <c r="C26" s="156"/>
       <c r="D26" s="204"/>
       <c r="E26" s="187"/>
-      <c r="F26" s="205" t="s">
-        <v>281</v>
+      <c r="F26" s="289" t="s">
+        <v>271</v>
       </c>
       <c r="G26" s="205"/>
       <c r="H26" s="204"/>
@@ -49399,8 +49440,8 @@
       <c r="C27" s="156"/>
       <c r="D27" s="204"/>
       <c r="E27" s="187"/>
-      <c r="F27" s="205" t="s">
-        <v>283</v>
+      <c r="F27" s="289" t="s">
+        <v>274</v>
       </c>
       <c r="G27" s="205"/>
       <c r="H27" s="204"/>
@@ -49427,7 +49468,7 @@
       <c r="D28" s="204"/>
       <c r="E28" s="187"/>
       <c r="F28" s="205" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G28" s="205"/>
       <c r="H28" s="204"/>
@@ -49453,7 +49494,9 @@
       <c r="C29" s="156"/>
       <c r="D29" s="204"/>
       <c r="E29" s="187"/>
-      <c r="F29" s="205"/>
+      <c r="F29" s="205" t="s">
+        <v>283</v>
+      </c>
       <c r="G29" s="205"/>
       <c r="H29" s="204"/>
       <c r="I29" s="156"/>
@@ -49478,7 +49521,9 @@
       <c r="C30" s="156"/>
       <c r="D30" s="204"/>
       <c r="E30" s="187"/>
-      <c r="F30" s="205"/>
+      <c r="F30" s="205" t="s">
+        <v>284</v>
+      </c>
       <c r="G30" s="205"/>
       <c r="H30" s="204"/>
       <c r="I30" s="156"/>
@@ -49544,7 +49589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:12">
       <c r="A33" s="127">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -49569,9 +49614,4904 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
-      <c r="S37" s="22" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="127">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="204">
+        <f t="shared" ref="J34:J97" si="7">IF(B34="卖",D34-H34,H34-D34)*L34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="29" t="str">
+        <f t="shared" ref="K34:K97" si="8">IF(J34&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="L34" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="127">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L35" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="127">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L36" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="127">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L37" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="127">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L38" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="127">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L39" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="127">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L40" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="127">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L41" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="127">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L42" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="127">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="205"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L43" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="127">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="204"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L44" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="127">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L45" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="127">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L46" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="127">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L47" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="127">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L48" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="127">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="204"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L49" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="127">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L50" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="127">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="205"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L51" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="127">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L52" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="127">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="205"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L53" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="127">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L54" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="127">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="187"/>
+      <c r="F55" s="205"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L55" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="127">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L56" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="127">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L57" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="127">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="204"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="204"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L58" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="127">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="204"/>
+      <c r="E59" s="187"/>
+      <c r="F59" s="205"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L59" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="127">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="204"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="205"/>
+      <c r="G60" s="205"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L60" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="127">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="204"/>
+      <c r="E61" s="187"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="205"/>
+      <c r="H61" s="204"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L61" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="127">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="204"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="205"/>
+      <c r="G62" s="205"/>
+      <c r="H62" s="204"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L62" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="127">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="205"/>
+      <c r="G63" s="205"/>
+      <c r="H63" s="204"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L63" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="127">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="204"/>
+      <c r="E64" s="187"/>
+      <c r="F64" s="205"/>
+      <c r="G64" s="205"/>
+      <c r="H64" s="204"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L64" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="127">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="204"/>
+      <c r="E65" s="187"/>
+      <c r="F65" s="205"/>
+      <c r="G65" s="205"/>
+      <c r="H65" s="204"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L65" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="127">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="204"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="205"/>
+      <c r="G66" s="205"/>
+      <c r="H66" s="204"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L66" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="127">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="204"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="205"/>
+      <c r="G67" s="205"/>
+      <c r="H67" s="204"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L67" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="127">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="204"/>
+      <c r="E68" s="187"/>
+      <c r="F68" s="205"/>
+      <c r="G68" s="205"/>
+      <c r="H68" s="204"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L68" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="127">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="187"/>
+      <c r="F69" s="205"/>
+      <c r="G69" s="205"/>
+      <c r="H69" s="204"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L69" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="127">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="187"/>
+      <c r="F70" s="205"/>
+      <c r="G70" s="205"/>
+      <c r="H70" s="204"/>
+      <c r="I70" s="156"/>
+      <c r="J70" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L70" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="127">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="204"/>
+      <c r="E71" s="187"/>
+      <c r="F71" s="205"/>
+      <c r="G71" s="205"/>
+      <c r="H71" s="204"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L71" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="127">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="156"/>
+      <c r="D72" s="204"/>
+      <c r="E72" s="187"/>
+      <c r="F72" s="205"/>
+      <c r="G72" s="205"/>
+      <c r="H72" s="204"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L72" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="127">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="204"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="205"/>
+      <c r="G73" s="205"/>
+      <c r="H73" s="204"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L73" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="127">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="156"/>
+      <c r="D74" s="204"/>
+      <c r="E74" s="187"/>
+      <c r="F74" s="205"/>
+      <c r="G74" s="205"/>
+      <c r="H74" s="204"/>
+      <c r="I74" s="156"/>
+      <c r="J74" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L74" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="127">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="204"/>
+      <c r="E75" s="187"/>
+      <c r="F75" s="205"/>
+      <c r="G75" s="205"/>
+      <c r="H75" s="204"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L75" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="127">
+        <f t="shared" ref="A76:A139" si="9">A75+1</f>
+        <v>68</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="187"/>
+      <c r="F76" s="205"/>
+      <c r="G76" s="205"/>
+      <c r="H76" s="204"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L76" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="127">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="204"/>
+      <c r="E77" s="187"/>
+      <c r="F77" s="205"/>
+      <c r="G77" s="205"/>
+      <c r="H77" s="204"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L77" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="127">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="204"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="205"/>
+      <c r="G78" s="205"/>
+      <c r="H78" s="204"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L78" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="127">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="205"/>
+      <c r="G79" s="205"/>
+      <c r="H79" s="204"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L79" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="127">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="204"/>
+      <c r="E80" s="187"/>
+      <c r="F80" s="205"/>
+      <c r="G80" s="205"/>
+      <c r="H80" s="204"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L80" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="127">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="B81" s="27"/>
+      <c r="C81" s="156"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="187"/>
+      <c r="F81" s="205"/>
+      <c r="G81" s="205"/>
+      <c r="H81" s="204"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L81" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="127">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="204"/>
+      <c r="E82" s="187"/>
+      <c r="F82" s="205"/>
+      <c r="G82" s="205"/>
+      <c r="H82" s="204"/>
+      <c r="I82" s="156"/>
+      <c r="J82" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L82" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="127">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="204"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="205"/>
+      <c r="G83" s="205"/>
+      <c r="H83" s="204"/>
+      <c r="I83" s="156"/>
+      <c r="J83" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L83" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="127">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="204"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="205"/>
+      <c r="G84" s="205"/>
+      <c r="H84" s="204"/>
+      <c r="I84" s="156"/>
+      <c r="J84" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L84" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="127">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="156"/>
+      <c r="D85" s="204"/>
+      <c r="E85" s="187"/>
+      <c r="F85" s="205"/>
+      <c r="G85" s="205"/>
+      <c r="H85" s="204"/>
+      <c r="I85" s="156"/>
+      <c r="J85" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L85" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="127">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="204"/>
+      <c r="E86" s="187"/>
+      <c r="F86" s="205"/>
+      <c r="G86" s="205"/>
+      <c r="H86" s="204"/>
+      <c r="I86" s="156"/>
+      <c r="J86" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L86" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="127">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="B87" s="27"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="204"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="205"/>
+      <c r="G87" s="205"/>
+      <c r="H87" s="204"/>
+      <c r="I87" s="156"/>
+      <c r="J87" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L87" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="127">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="205"/>
+      <c r="G88" s="205"/>
+      <c r="H88" s="204"/>
+      <c r="I88" s="156"/>
+      <c r="J88" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L88" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="127">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="204"/>
+      <c r="E89" s="187"/>
+      <c r="F89" s="205"/>
+      <c r="G89" s="205"/>
+      <c r="H89" s="204"/>
+      <c r="I89" s="156"/>
+      <c r="J89" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L89" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="127">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" s="156"/>
+      <c r="D90" s="204"/>
+      <c r="E90" s="187"/>
+      <c r="F90" s="205"/>
+      <c r="G90" s="205"/>
+      <c r="H90" s="204"/>
+      <c r="I90" s="156"/>
+      <c r="J90" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L90" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="127">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="156"/>
+      <c r="D91" s="204"/>
+      <c r="E91" s="187"/>
+      <c r="F91" s="205"/>
+      <c r="G91" s="205"/>
+      <c r="H91" s="204"/>
+      <c r="I91" s="156"/>
+      <c r="J91" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L91" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="127">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="B92" s="27"/>
+      <c r="C92" s="156"/>
+      <c r="D92" s="204"/>
+      <c r="E92" s="187"/>
+      <c r="F92" s="205"/>
+      <c r="G92" s="205"/>
+      <c r="H92" s="204"/>
+      <c r="I92" s="156"/>
+      <c r="J92" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L92" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="127">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="B93" s="27"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="204"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="205"/>
+      <c r="G93" s="205"/>
+      <c r="H93" s="204"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L93" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="127">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="B94" s="27"/>
+      <c r="C94" s="156"/>
+      <c r="D94" s="204"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="205"/>
+      <c r="G94" s="205"/>
+      <c r="H94" s="204"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L94" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="127">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="B95" s="27"/>
+      <c r="C95" s="156"/>
+      <c r="D95" s="204"/>
+      <c r="E95" s="187"/>
+      <c r="F95" s="205"/>
+      <c r="G95" s="205"/>
+      <c r="H95" s="204"/>
+      <c r="I95" s="156"/>
+      <c r="J95" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L95" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="127">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="B96" s="27"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="204"/>
+      <c r="E96" s="187"/>
+      <c r="F96" s="205"/>
+      <c r="G96" s="205"/>
+      <c r="H96" s="204"/>
+      <c r="I96" s="156"/>
+      <c r="J96" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L96" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="127">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="B97" s="27"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="204"/>
+      <c r="E97" s="187"/>
+      <c r="F97" s="205"/>
+      <c r="G97" s="205"/>
+      <c r="H97" s="204"/>
+      <c r="I97" s="156"/>
+      <c r="J97" s="204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>盈</v>
+      </c>
+      <c r="L97" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="127">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="B98" s="27"/>
+      <c r="C98" s="156"/>
+      <c r="D98" s="204"/>
+      <c r="E98" s="187"/>
+      <c r="F98" s="205"/>
+      <c r="G98" s="205"/>
+      <c r="H98" s="204"/>
+      <c r="I98" s="156"/>
+      <c r="J98" s="204">
+        <f t="shared" ref="J98:J161" si="10">IF(B98="卖",D98-H98,H98-D98)*L98</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="29" t="str">
+        <f t="shared" ref="K98:K161" si="11">IF(J98&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="L98" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="127">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="B99" s="27"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="204"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="205"/>
+      <c r="G99" s="205"/>
+      <c r="H99" s="204"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L99" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="127">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="B100" s="27"/>
+      <c r="C100" s="156"/>
+      <c r="D100" s="204"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="205"/>
+      <c r="G100" s="205"/>
+      <c r="H100" s="204"/>
+      <c r="I100" s="156"/>
+      <c r="J100" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L100" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="127">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="B101" s="27"/>
+      <c r="C101" s="156"/>
+      <c r="D101" s="204"/>
+      <c r="E101" s="187"/>
+      <c r="F101" s="205"/>
+      <c r="G101" s="205"/>
+      <c r="H101" s="204"/>
+      <c r="I101" s="156"/>
+      <c r="J101" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L101" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="127">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="204"/>
+      <c r="E102" s="187"/>
+      <c r="F102" s="205"/>
+      <c r="G102" s="205"/>
+      <c r="H102" s="204"/>
+      <c r="I102" s="156"/>
+      <c r="J102" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L102" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="127">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="B103" s="27"/>
+      <c r="C103" s="156"/>
+      <c r="D103" s="204"/>
+      <c r="E103" s="187"/>
+      <c r="F103" s="205"/>
+      <c r="G103" s="205"/>
+      <c r="H103" s="204"/>
+      <c r="I103" s="156"/>
+      <c r="J103" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L103" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="127">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="B104" s="27"/>
+      <c r="C104" s="156"/>
+      <c r="D104" s="204"/>
+      <c r="E104" s="187"/>
+      <c r="F104" s="205"/>
+      <c r="G104" s="205"/>
+      <c r="H104" s="204"/>
+      <c r="I104" s="156"/>
+      <c r="J104" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L104" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="127">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="B105" s="27"/>
+      <c r="C105" s="156"/>
+      <c r="D105" s="204"/>
+      <c r="E105" s="187"/>
+      <c r="F105" s="205"/>
+      <c r="G105" s="205"/>
+      <c r="H105" s="204"/>
+      <c r="I105" s="156"/>
+      <c r="J105" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L105" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="127">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="B106" s="27"/>
+      <c r="C106" s="156"/>
+      <c r="D106" s="204"/>
+      <c r="E106" s="187"/>
+      <c r="F106" s="205"/>
+      <c r="G106" s="205"/>
+      <c r="H106" s="204"/>
+      <c r="I106" s="156"/>
+      <c r="J106" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L106" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="127">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="B107" s="27"/>
+      <c r="C107" s="156"/>
+      <c r="D107" s="204"/>
+      <c r="E107" s="187"/>
+      <c r="F107" s="205"/>
+      <c r="G107" s="205"/>
+      <c r="H107" s="204"/>
+      <c r="I107" s="156"/>
+      <c r="J107" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L107" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="127">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="B108" s="27"/>
+      <c r="C108" s="156"/>
+      <c r="D108" s="204"/>
+      <c r="E108" s="187"/>
+      <c r="F108" s="205"/>
+      <c r="G108" s="205"/>
+      <c r="H108" s="204"/>
+      <c r="I108" s="156"/>
+      <c r="J108" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L108" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="127">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="B109" s="27"/>
+      <c r="C109" s="156"/>
+      <c r="D109" s="204"/>
+      <c r="E109" s="187"/>
+      <c r="F109" s="205"/>
+      <c r="G109" s="205"/>
+      <c r="H109" s="204"/>
+      <c r="I109" s="156"/>
+      <c r="J109" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L109" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="127">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="B110" s="27"/>
+      <c r="C110" s="156"/>
+      <c r="D110" s="204"/>
+      <c r="E110" s="187"/>
+      <c r="F110" s="205"/>
+      <c r="G110" s="205"/>
+      <c r="H110" s="204"/>
+      <c r="I110" s="156"/>
+      <c r="J110" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L110" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="127">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="B111" s="27"/>
+      <c r="C111" s="156"/>
+      <c r="D111" s="204"/>
+      <c r="E111" s="187"/>
+      <c r="F111" s="205"/>
+      <c r="G111" s="205"/>
+      <c r="H111" s="204"/>
+      <c r="I111" s="156"/>
+      <c r="J111" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L111" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="127">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="B112" s="27"/>
+      <c r="C112" s="156"/>
+      <c r="D112" s="204"/>
+      <c r="E112" s="187"/>
+      <c r="F112" s="205"/>
+      <c r="G112" s="205"/>
+      <c r="H112" s="204"/>
+      <c r="I112" s="156"/>
+      <c r="J112" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L112" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="127">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="B113" s="27"/>
+      <c r="C113" s="156"/>
+      <c r="D113" s="204"/>
+      <c r="E113" s="187"/>
+      <c r="F113" s="205"/>
+      <c r="G113" s="205"/>
+      <c r="H113" s="204"/>
+      <c r="I113" s="156"/>
+      <c r="J113" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L113" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="127">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="B114" s="27"/>
+      <c r="C114" s="156"/>
+      <c r="D114" s="204"/>
+      <c r="E114" s="187"/>
+      <c r="F114" s="205"/>
+      <c r="G114" s="205"/>
+      <c r="H114" s="204"/>
+      <c r="I114" s="156"/>
+      <c r="J114" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L114" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="127">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="B115" s="27"/>
+      <c r="C115" s="156"/>
+      <c r="D115" s="204"/>
+      <c r="E115" s="187"/>
+      <c r="F115" s="205"/>
+      <c r="G115" s="205"/>
+      <c r="H115" s="204"/>
+      <c r="I115" s="156"/>
+      <c r="J115" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L115" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="127">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="B116" s="27"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="204"/>
+      <c r="E116" s="187"/>
+      <c r="F116" s="205"/>
+      <c r="G116" s="205"/>
+      <c r="H116" s="204"/>
+      <c r="I116" s="156"/>
+      <c r="J116" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L116" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="127">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="B117" s="27"/>
+      <c r="C117" s="156"/>
+      <c r="D117" s="204"/>
+      <c r="E117" s="187"/>
+      <c r="F117" s="205"/>
+      <c r="G117" s="205"/>
+      <c r="H117" s="204"/>
+      <c r="I117" s="156"/>
+      <c r="J117" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L117" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="127">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="B118" s="27"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="204"/>
+      <c r="E118" s="187"/>
+      <c r="F118" s="205"/>
+      <c r="G118" s="205"/>
+      <c r="H118" s="204"/>
+      <c r="I118" s="156"/>
+      <c r="J118" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L118" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="127">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="B119" s="27"/>
+      <c r="C119" s="156"/>
+      <c r="D119" s="204"/>
+      <c r="E119" s="187"/>
+      <c r="F119" s="205"/>
+      <c r="G119" s="205"/>
+      <c r="H119" s="204"/>
+      <c r="I119" s="156"/>
+      <c r="J119" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L119" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="127">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="B120" s="27"/>
+      <c r="C120" s="156"/>
+      <c r="D120" s="204"/>
+      <c r="E120" s="187"/>
+      <c r="F120" s="205"/>
+      <c r="G120" s="205"/>
+      <c r="H120" s="204"/>
+      <c r="I120" s="156"/>
+      <c r="J120" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L120" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="127">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="B121" s="27"/>
+      <c r="C121" s="156"/>
+      <c r="D121" s="204"/>
+      <c r="E121" s="187"/>
+      <c r="F121" s="205"/>
+      <c r="G121" s="205"/>
+      <c r="H121" s="204"/>
+      <c r="I121" s="156"/>
+      <c r="J121" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L121" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="127">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="B122" s="27"/>
+      <c r="C122" s="156"/>
+      <c r="D122" s="204"/>
+      <c r="E122" s="187"/>
+      <c r="F122" s="205"/>
+      <c r="G122" s="205"/>
+      <c r="H122" s="204"/>
+      <c r="I122" s="156"/>
+      <c r="J122" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L122" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="127">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="B123" s="27"/>
+      <c r="C123" s="156"/>
+      <c r="D123" s="204"/>
+      <c r="E123" s="187"/>
+      <c r="F123" s="205"/>
+      <c r="G123" s="205"/>
+      <c r="H123" s="204"/>
+      <c r="I123" s="156"/>
+      <c r="J123" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L123" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="127">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="B124" s="27"/>
+      <c r="C124" s="156"/>
+      <c r="D124" s="204"/>
+      <c r="E124" s="187"/>
+      <c r="F124" s="205"/>
+      <c r="G124" s="205"/>
+      <c r="H124" s="204"/>
+      <c r="I124" s="156"/>
+      <c r="J124" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L124" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="127">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="B125" s="27"/>
+      <c r="C125" s="156"/>
+      <c r="D125" s="204"/>
+      <c r="E125" s="187"/>
+      <c r="F125" s="205"/>
+      <c r="G125" s="205"/>
+      <c r="H125" s="204"/>
+      <c r="I125" s="156"/>
+      <c r="J125" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L125" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="127">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="B126" s="27"/>
+      <c r="C126" s="156"/>
+      <c r="D126" s="204"/>
+      <c r="E126" s="187"/>
+      <c r="F126" s="205"/>
+      <c r="G126" s="205"/>
+      <c r="H126" s="204"/>
+      <c r="I126" s="156"/>
+      <c r="J126" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L126" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="127">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="B127" s="27"/>
+      <c r="C127" s="156"/>
+      <c r="D127" s="204"/>
+      <c r="E127" s="187"/>
+      <c r="F127" s="205"/>
+      <c r="G127" s="205"/>
+      <c r="H127" s="204"/>
+      <c r="I127" s="156"/>
+      <c r="J127" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L127" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="127">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="B128" s="27"/>
+      <c r="C128" s="156"/>
+      <c r="D128" s="204"/>
+      <c r="E128" s="187"/>
+      <c r="F128" s="205"/>
+      <c r="G128" s="205"/>
+      <c r="H128" s="204"/>
+      <c r="I128" s="156"/>
+      <c r="J128" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L128" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="127">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="B129" s="27"/>
+      <c r="C129" s="156"/>
+      <c r="D129" s="204"/>
+      <c r="E129" s="187"/>
+      <c r="F129" s="205"/>
+      <c r="G129" s="205"/>
+      <c r="H129" s="204"/>
+      <c r="I129" s="156"/>
+      <c r="J129" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L129" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="127">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
+      <c r="B130" s="27"/>
+      <c r="C130" s="156"/>
+      <c r="D130" s="204"/>
+      <c r="E130" s="187"/>
+      <c r="F130" s="205"/>
+      <c r="G130" s="205"/>
+      <c r="H130" s="204"/>
+      <c r="I130" s="156"/>
+      <c r="J130" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L130" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="127">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="B131" s="27"/>
+      <c r="C131" s="156"/>
+      <c r="D131" s="204"/>
+      <c r="E131" s="187"/>
+      <c r="F131" s="205"/>
+      <c r="G131" s="205"/>
+      <c r="H131" s="204"/>
+      <c r="I131" s="156"/>
+      <c r="J131" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L131" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="127">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="B132" s="27"/>
+      <c r="C132" s="156"/>
+      <c r="D132" s="204"/>
+      <c r="E132" s="187"/>
+      <c r="F132" s="205"/>
+      <c r="G132" s="205"/>
+      <c r="H132" s="204"/>
+      <c r="I132" s="156"/>
+      <c r="J132" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L132" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="127">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="B133" s="27"/>
+      <c r="C133" s="156"/>
+      <c r="D133" s="204"/>
+      <c r="E133" s="187"/>
+      <c r="F133" s="205"/>
+      <c r="G133" s="205"/>
+      <c r="H133" s="204"/>
+      <c r="I133" s="156"/>
+      <c r="J133" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L133" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="127">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="B134" s="27"/>
+      <c r="C134" s="156"/>
+      <c r="D134" s="204"/>
+      <c r="E134" s="187"/>
+      <c r="F134" s="205"/>
+      <c r="G134" s="205"/>
+      <c r="H134" s="204"/>
+      <c r="I134" s="156"/>
+      <c r="J134" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L134" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="127">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="B135" s="27"/>
+      <c r="C135" s="156"/>
+      <c r="D135" s="204"/>
+      <c r="E135" s="187"/>
+      <c r="F135" s="205"/>
+      <c r="G135" s="205"/>
+      <c r="H135" s="204"/>
+      <c r="I135" s="156"/>
+      <c r="J135" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L135" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="127">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="B136" s="27"/>
+      <c r="C136" s="156"/>
+      <c r="D136" s="204"/>
+      <c r="E136" s="187"/>
+      <c r="F136" s="205"/>
+      <c r="G136" s="205"/>
+      <c r="H136" s="204"/>
+      <c r="I136" s="156"/>
+      <c r="J136" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L136" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="127">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="B137" s="27"/>
+      <c r="C137" s="156"/>
+      <c r="D137" s="204"/>
+      <c r="E137" s="187"/>
+      <c r="F137" s="205"/>
+      <c r="G137" s="205"/>
+      <c r="H137" s="204"/>
+      <c r="I137" s="156"/>
+      <c r="J137" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L137" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="127">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="B138" s="27"/>
+      <c r="C138" s="156"/>
+      <c r="D138" s="204"/>
+      <c r="E138" s="187"/>
+      <c r="F138" s="205"/>
+      <c r="G138" s="205"/>
+      <c r="H138" s="204"/>
+      <c r="I138" s="156"/>
+      <c r="J138" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L138" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="127">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+      <c r="B139" s="27"/>
+      <c r="C139" s="156"/>
+      <c r="D139" s="204"/>
+      <c r="E139" s="187"/>
+      <c r="F139" s="205"/>
+      <c r="G139" s="205"/>
+      <c r="H139" s="204"/>
+      <c r="I139" s="156"/>
+      <c r="J139" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L139" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="127">
+        <f t="shared" ref="A140:A203" si="12">A139+1</f>
+        <v>132</v>
+      </c>
+      <c r="B140" s="27"/>
+      <c r="C140" s="156"/>
+      <c r="D140" s="204"/>
+      <c r="E140" s="187"/>
+      <c r="F140" s="205"/>
+      <c r="G140" s="205"/>
+      <c r="H140" s="204"/>
+      <c r="I140" s="156"/>
+      <c r="J140" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L140" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="127">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="B141" s="27"/>
+      <c r="C141" s="156"/>
+      <c r="D141" s="204"/>
+      <c r="E141" s="187"/>
+      <c r="F141" s="205"/>
+      <c r="G141" s="205"/>
+      <c r="H141" s="204"/>
+      <c r="I141" s="156"/>
+      <c r="J141" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L141" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="127">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="B142" s="27"/>
+      <c r="C142" s="156"/>
+      <c r="D142" s="204"/>
+      <c r="E142" s="187"/>
+      <c r="F142" s="205"/>
+      <c r="G142" s="205"/>
+      <c r="H142" s="204"/>
+      <c r="I142" s="156"/>
+      <c r="J142" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L142" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="127">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="B143" s="27"/>
+      <c r="C143" s="156"/>
+      <c r="D143" s="204"/>
+      <c r="E143" s="187"/>
+      <c r="F143" s="205"/>
+      <c r="G143" s="205"/>
+      <c r="H143" s="204"/>
+      <c r="I143" s="156"/>
+      <c r="J143" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K143" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L143" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="127">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="B144" s="27"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="204"/>
+      <c r="E144" s="187"/>
+      <c r="F144" s="205"/>
+      <c r="G144" s="205"/>
+      <c r="H144" s="204"/>
+      <c r="I144" s="156"/>
+      <c r="J144" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K144" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L144" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="127">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="B145" s="27"/>
+      <c r="C145" s="156"/>
+      <c r="D145" s="204"/>
+      <c r="E145" s="187"/>
+      <c r="F145" s="205"/>
+      <c r="G145" s="205"/>
+      <c r="H145" s="204"/>
+      <c r="I145" s="156"/>
+      <c r="J145" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L145" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="127">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="B146" s="27"/>
+      <c r="C146" s="156"/>
+      <c r="D146" s="204"/>
+      <c r="E146" s="187"/>
+      <c r="F146" s="205"/>
+      <c r="G146" s="205"/>
+      <c r="H146" s="204"/>
+      <c r="I146" s="156"/>
+      <c r="J146" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L146" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="127">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="B147" s="27"/>
+      <c r="C147" s="156"/>
+      <c r="D147" s="204"/>
+      <c r="E147" s="187"/>
+      <c r="F147" s="205"/>
+      <c r="G147" s="205"/>
+      <c r="H147" s="204"/>
+      <c r="I147" s="156"/>
+      <c r="J147" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L147" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="127">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="B148" s="27"/>
+      <c r="C148" s="156"/>
+      <c r="D148" s="204"/>
+      <c r="E148" s="187"/>
+      <c r="F148" s="205"/>
+      <c r="G148" s="205"/>
+      <c r="H148" s="204"/>
+      <c r="I148" s="156"/>
+      <c r="J148" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L148" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="127">
+        <f t="shared" si="12"/>
+        <v>141</v>
+      </c>
+      <c r="B149" s="27"/>
+      <c r="C149" s="156"/>
+      <c r="D149" s="204"/>
+      <c r="E149" s="187"/>
+      <c r="F149" s="205"/>
+      <c r="G149" s="205"/>
+      <c r="H149" s="204"/>
+      <c r="I149" s="156"/>
+      <c r="J149" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L149" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="127">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="B150" s="27"/>
+      <c r="C150" s="156"/>
+      <c r="D150" s="204"/>
+      <c r="E150" s="187"/>
+      <c r="F150" s="205"/>
+      <c r="G150" s="205"/>
+      <c r="H150" s="204"/>
+      <c r="I150" s="156"/>
+      <c r="J150" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K150" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L150" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="127">
+        <f t="shared" si="12"/>
+        <v>143</v>
+      </c>
+      <c r="B151" s="27"/>
+      <c r="C151" s="156"/>
+      <c r="D151" s="204"/>
+      <c r="E151" s="187"/>
+      <c r="F151" s="205"/>
+      <c r="G151" s="205"/>
+      <c r="H151" s="204"/>
+      <c r="I151" s="156"/>
+      <c r="J151" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L151" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="127">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="B152" s="27"/>
+      <c r="C152" s="156"/>
+      <c r="D152" s="204"/>
+      <c r="E152" s="187"/>
+      <c r="F152" s="205"/>
+      <c r="G152" s="205"/>
+      <c r="H152" s="204"/>
+      <c r="I152" s="156"/>
+      <c r="J152" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K152" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L152" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="127">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="B153" s="27"/>
+      <c r="C153" s="156"/>
+      <c r="D153" s="204"/>
+      <c r="E153" s="187"/>
+      <c r="F153" s="205"/>
+      <c r="G153" s="205"/>
+      <c r="H153" s="204"/>
+      <c r="I153" s="156"/>
+      <c r="J153" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L153" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="127">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="B154" s="27"/>
+      <c r="C154" s="156"/>
+      <c r="D154" s="204"/>
+      <c r="E154" s="187"/>
+      <c r="F154" s="205"/>
+      <c r="G154" s="205"/>
+      <c r="H154" s="204"/>
+      <c r="I154" s="156"/>
+      <c r="J154" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K154" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L154" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="127">
+        <f t="shared" si="12"/>
+        <v>147</v>
+      </c>
+      <c r="B155" s="27"/>
+      <c r="C155" s="156"/>
+      <c r="D155" s="204"/>
+      <c r="E155" s="187"/>
+      <c r="F155" s="205"/>
+      <c r="G155" s="205"/>
+      <c r="H155" s="204"/>
+      <c r="I155" s="156"/>
+      <c r="J155" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L155" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="127">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="B156" s="27"/>
+      <c r="C156" s="156"/>
+      <c r="D156" s="204"/>
+      <c r="E156" s="187"/>
+      <c r="F156" s="205"/>
+      <c r="G156" s="205"/>
+      <c r="H156" s="204"/>
+      <c r="I156" s="156"/>
+      <c r="J156" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L156" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="127">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="B157" s="27"/>
+      <c r="C157" s="156"/>
+      <c r="D157" s="204"/>
+      <c r="E157" s="187"/>
+      <c r="F157" s="205"/>
+      <c r="G157" s="205"/>
+      <c r="H157" s="204"/>
+      <c r="I157" s="156"/>
+      <c r="J157" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L157" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="127">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="B158" s="27"/>
+      <c r="C158" s="156"/>
+      <c r="D158" s="204"/>
+      <c r="E158" s="187"/>
+      <c r="F158" s="205"/>
+      <c r="G158" s="205"/>
+      <c r="H158" s="204"/>
+      <c r="I158" s="156"/>
+      <c r="J158" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K158" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L158" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="127">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="B159" s="27"/>
+      <c r="C159" s="156"/>
+      <c r="D159" s="204"/>
+      <c r="E159" s="187"/>
+      <c r="F159" s="205"/>
+      <c r="G159" s="205"/>
+      <c r="H159" s="204"/>
+      <c r="I159" s="156"/>
+      <c r="J159" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L159" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="127">
+        <f t="shared" si="12"/>
+        <v>152</v>
+      </c>
+      <c r="B160" s="27"/>
+      <c r="C160" s="156"/>
+      <c r="D160" s="204"/>
+      <c r="E160" s="187"/>
+      <c r="F160" s="205"/>
+      <c r="G160" s="205"/>
+      <c r="H160" s="204"/>
+      <c r="I160" s="156"/>
+      <c r="J160" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L160" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="127">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="B161" s="27"/>
+      <c r="C161" s="156"/>
+      <c r="D161" s="204"/>
+      <c r="E161" s="187"/>
+      <c r="F161" s="205"/>
+      <c r="G161" s="205"/>
+      <c r="H161" s="204"/>
+      <c r="I161" s="156"/>
+      <c r="J161" s="204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v>盈</v>
+      </c>
+      <c r="L161" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="127">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="B162" s="27"/>
+      <c r="C162" s="156"/>
+      <c r="D162" s="204"/>
+      <c r="E162" s="187"/>
+      <c r="F162" s="205"/>
+      <c r="G162" s="205"/>
+      <c r="H162" s="204"/>
+      <c r="I162" s="156"/>
+      <c r="J162" s="204">
+        <f t="shared" ref="J162:J225" si="13">IF(B162="卖",D162-H162,H162-D162)*L162</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="29" t="str">
+        <f t="shared" ref="K162:K225" si="14">IF(J162&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="L162" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="127">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="B163" s="27"/>
+      <c r="C163" s="156"/>
+      <c r="D163" s="204"/>
+      <c r="E163" s="187"/>
+      <c r="F163" s="205"/>
+      <c r="G163" s="205"/>
+      <c r="H163" s="204"/>
+      <c r="I163" s="156"/>
+      <c r="J163" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L163" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="127">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="B164" s="27"/>
+      <c r="C164" s="156"/>
+      <c r="D164" s="204"/>
+      <c r="E164" s="187"/>
+      <c r="F164" s="205"/>
+      <c r="G164" s="205"/>
+      <c r="H164" s="204"/>
+      <c r="I164" s="156"/>
+      <c r="J164" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L164" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="127">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="B165" s="27"/>
+      <c r="C165" s="156"/>
+      <c r="D165" s="204"/>
+      <c r="E165" s="187"/>
+      <c r="F165" s="205"/>
+      <c r="G165" s="205"/>
+      <c r="H165" s="204"/>
+      <c r="I165" s="156"/>
+      <c r="J165" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L165" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="127">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="B166" s="27"/>
+      <c r="C166" s="156"/>
+      <c r="D166" s="204"/>
+      <c r="E166" s="187"/>
+      <c r="F166" s="205"/>
+      <c r="G166" s="205"/>
+      <c r="H166" s="204"/>
+      <c r="I166" s="156"/>
+      <c r="J166" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L166" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="127">
+        <f t="shared" si="12"/>
+        <v>159</v>
+      </c>
+      <c r="B167" s="27"/>
+      <c r="C167" s="156"/>
+      <c r="D167" s="204"/>
+      <c r="E167" s="187"/>
+      <c r="F167" s="205"/>
+      <c r="G167" s="205"/>
+      <c r="H167" s="204"/>
+      <c r="I167" s="156"/>
+      <c r="J167" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L167" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="127">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="B168" s="27"/>
+      <c r="C168" s="156"/>
+      <c r="D168" s="204"/>
+      <c r="E168" s="187"/>
+      <c r="F168" s="205"/>
+      <c r="G168" s="205"/>
+      <c r="H168" s="204"/>
+      <c r="I168" s="156"/>
+      <c r="J168" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L168" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="127">
+        <f t="shared" si="12"/>
+        <v>161</v>
+      </c>
+      <c r="B169" s="27"/>
+      <c r="C169" s="156"/>
+      <c r="D169" s="204"/>
+      <c r="E169" s="187"/>
+      <c r="F169" s="205"/>
+      <c r="G169" s="205"/>
+      <c r="H169" s="204"/>
+      <c r="I169" s="156"/>
+      <c r="J169" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L169" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="127">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="B170" s="27"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="204"/>
+      <c r="E170" s="187"/>
+      <c r="F170" s="205"/>
+      <c r="G170" s="205"/>
+      <c r="H170" s="204"/>
+      <c r="I170" s="156"/>
+      <c r="J170" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L170" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="127">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="B171" s="27"/>
+      <c r="C171" s="156"/>
+      <c r="D171" s="204"/>
+      <c r="E171" s="187"/>
+      <c r="F171" s="205"/>
+      <c r="G171" s="205"/>
+      <c r="H171" s="204"/>
+      <c r="I171" s="156"/>
+      <c r="J171" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L171" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="127">
+        <f t="shared" si="12"/>
+        <v>164</v>
+      </c>
+      <c r="B172" s="27"/>
+      <c r="C172" s="156"/>
+      <c r="D172" s="204"/>
+      <c r="E172" s="187"/>
+      <c r="F172" s="205"/>
+      <c r="G172" s="205"/>
+      <c r="H172" s="204"/>
+      <c r="I172" s="156"/>
+      <c r="J172" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L172" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="127">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="B173" s="27"/>
+      <c r="C173" s="156"/>
+      <c r="D173" s="204"/>
+      <c r="E173" s="187"/>
+      <c r="F173" s="205"/>
+      <c r="G173" s="205"/>
+      <c r="H173" s="204"/>
+      <c r="I173" s="156"/>
+      <c r="J173" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L173" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="127">
+        <f t="shared" si="12"/>
+        <v>166</v>
+      </c>
+      <c r="B174" s="27"/>
+      <c r="C174" s="156"/>
+      <c r="D174" s="204"/>
+      <c r="E174" s="187"/>
+      <c r="F174" s="205"/>
+      <c r="G174" s="205"/>
+      <c r="H174" s="204"/>
+      <c r="I174" s="156"/>
+      <c r="J174" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L174" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="127">
+        <f t="shared" si="12"/>
+        <v>167</v>
+      </c>
+      <c r="B175" s="27"/>
+      <c r="C175" s="156"/>
+      <c r="D175" s="204"/>
+      <c r="E175" s="187"/>
+      <c r="F175" s="205"/>
+      <c r="G175" s="205"/>
+      <c r="H175" s="204"/>
+      <c r="I175" s="156"/>
+      <c r="J175" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L175" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="127">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="B176" s="27"/>
+      <c r="C176" s="156"/>
+      <c r="D176" s="204"/>
+      <c r="E176" s="187"/>
+      <c r="F176" s="205"/>
+      <c r="G176" s="205"/>
+      <c r="H176" s="204"/>
+      <c r="I176" s="156"/>
+      <c r="J176" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L176" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="127">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="B177" s="27"/>
+      <c r="C177" s="156"/>
+      <c r="D177" s="204"/>
+      <c r="E177" s="187"/>
+      <c r="F177" s="205"/>
+      <c r="G177" s="205"/>
+      <c r="H177" s="204"/>
+      <c r="I177" s="156"/>
+      <c r="J177" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L177" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="127">
+        <f t="shared" si="12"/>
+        <v>170</v>
+      </c>
+      <c r="B178" s="27"/>
+      <c r="C178" s="156"/>
+      <c r="D178" s="204"/>
+      <c r="E178" s="187"/>
+      <c r="F178" s="205"/>
+      <c r="G178" s="205"/>
+      <c r="H178" s="204"/>
+      <c r="I178" s="156"/>
+      <c r="J178" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L178" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="127">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+      <c r="B179" s="27"/>
+      <c r="C179" s="156"/>
+      <c r="D179" s="204"/>
+      <c r="E179" s="187"/>
+      <c r="F179" s="205"/>
+      <c r="G179" s="205"/>
+      <c r="H179" s="204"/>
+      <c r="I179" s="156"/>
+      <c r="J179" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L179" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="127">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="B180" s="27"/>
+      <c r="C180" s="156"/>
+      <c r="D180" s="204"/>
+      <c r="E180" s="187"/>
+      <c r="F180" s="205"/>
+      <c r="G180" s="205"/>
+      <c r="H180" s="204"/>
+      <c r="I180" s="156"/>
+      <c r="J180" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K180" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L180" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="127">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="B181" s="27"/>
+      <c r="C181" s="156"/>
+      <c r="D181" s="204"/>
+      <c r="E181" s="187"/>
+      <c r="F181" s="205"/>
+      <c r="G181" s="205"/>
+      <c r="H181" s="204"/>
+      <c r="I181" s="156"/>
+      <c r="J181" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K181" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L181" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="127">
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="B182" s="27"/>
+      <c r="C182" s="156"/>
+      <c r="D182" s="204"/>
+      <c r="E182" s="187"/>
+      <c r="F182" s="205"/>
+      <c r="G182" s="205"/>
+      <c r="H182" s="204"/>
+      <c r="I182" s="156"/>
+      <c r="J182" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K182" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L182" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="127">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="B183" s="27"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="204"/>
+      <c r="E183" s="187"/>
+      <c r="F183" s="205"/>
+      <c r="G183" s="205"/>
+      <c r="H183" s="204"/>
+      <c r="I183" s="156"/>
+      <c r="J183" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K183" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L183" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="127">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="B184" s="27"/>
+      <c r="C184" s="156"/>
+      <c r="D184" s="204"/>
+      <c r="E184" s="187"/>
+      <c r="F184" s="205"/>
+      <c r="G184" s="205"/>
+      <c r="H184" s="204"/>
+      <c r="I184" s="156"/>
+      <c r="J184" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K184" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L184" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="127">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="B185" s="27"/>
+      <c r="C185" s="156"/>
+      <c r="D185" s="204"/>
+      <c r="E185" s="187"/>
+      <c r="F185" s="205"/>
+      <c r="G185" s="205"/>
+      <c r="H185" s="204"/>
+      <c r="I185" s="156"/>
+      <c r="J185" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K185" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L185" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="127">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="B186" s="27"/>
+      <c r="C186" s="156"/>
+      <c r="D186" s="204"/>
+      <c r="E186" s="187"/>
+      <c r="F186" s="205"/>
+      <c r="G186" s="205"/>
+      <c r="H186" s="204"/>
+      <c r="I186" s="156"/>
+      <c r="J186" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K186" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L186" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="127">
+        <f t="shared" si="12"/>
+        <v>179</v>
+      </c>
+      <c r="B187" s="27"/>
+      <c r="C187" s="156"/>
+      <c r="D187" s="204"/>
+      <c r="E187" s="187"/>
+      <c r="F187" s="205"/>
+      <c r="G187" s="205"/>
+      <c r="H187" s="204"/>
+      <c r="I187" s="156"/>
+      <c r="J187" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L187" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="127">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="B188" s="27"/>
+      <c r="C188" s="156"/>
+      <c r="D188" s="204"/>
+      <c r="E188" s="187"/>
+      <c r="F188" s="205"/>
+      <c r="G188" s="205"/>
+      <c r="H188" s="204"/>
+      <c r="I188" s="156"/>
+      <c r="J188" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L188" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="127">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="B189" s="27"/>
+      <c r="C189" s="156"/>
+      <c r="D189" s="204"/>
+      <c r="E189" s="187"/>
+      <c r="F189" s="205"/>
+      <c r="G189" s="205"/>
+      <c r="H189" s="204"/>
+      <c r="I189" s="156"/>
+      <c r="J189" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L189" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="127">
+        <f t="shared" si="12"/>
+        <v>182</v>
+      </c>
+      <c r="B190" s="27"/>
+      <c r="C190" s="156"/>
+      <c r="D190" s="204"/>
+      <c r="E190" s="187"/>
+      <c r="F190" s="205"/>
+      <c r="G190" s="205"/>
+      <c r="H190" s="204"/>
+      <c r="I190" s="156"/>
+      <c r="J190" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L190" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="127">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="B191" s="27"/>
+      <c r="C191" s="156"/>
+      <c r="D191" s="204"/>
+      <c r="E191" s="187"/>
+      <c r="F191" s="205"/>
+      <c r="G191" s="205"/>
+      <c r="H191" s="204"/>
+      <c r="I191" s="156"/>
+      <c r="J191" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K191" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L191" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="127">
+        <f t="shared" si="12"/>
+        <v>184</v>
+      </c>
+      <c r="B192" s="27"/>
+      <c r="C192" s="156"/>
+      <c r="D192" s="204"/>
+      <c r="E192" s="187"/>
+      <c r="F192" s="205"/>
+      <c r="G192" s="205"/>
+      <c r="H192" s="204"/>
+      <c r="I192" s="156"/>
+      <c r="J192" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L192" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="127">
+        <f t="shared" si="12"/>
+        <v>185</v>
+      </c>
+      <c r="B193" s="27"/>
+      <c r="C193" s="156"/>
+      <c r="D193" s="204"/>
+      <c r="E193" s="187"/>
+      <c r="F193" s="205"/>
+      <c r="G193" s="205"/>
+      <c r="H193" s="204"/>
+      <c r="I193" s="156"/>
+      <c r="J193" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K193" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L193" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="127">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="B194" s="27"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="204"/>
+      <c r="E194" s="187"/>
+      <c r="F194" s="205"/>
+      <c r="G194" s="205"/>
+      <c r="H194" s="204"/>
+      <c r="I194" s="156"/>
+      <c r="J194" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K194" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L194" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="127">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="B195" s="27"/>
+      <c r="C195" s="156"/>
+      <c r="D195" s="204"/>
+      <c r="E195" s="187"/>
+      <c r="F195" s="205"/>
+      <c r="G195" s="205"/>
+      <c r="H195" s="204"/>
+      <c r="I195" s="156"/>
+      <c r="J195" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K195" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L195" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="127">
+        <f t="shared" si="12"/>
+        <v>188</v>
+      </c>
+      <c r="B196" s="27"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="204"/>
+      <c r="E196" s="187"/>
+      <c r="F196" s="205"/>
+      <c r="G196" s="205"/>
+      <c r="H196" s="204"/>
+      <c r="I196" s="156"/>
+      <c r="J196" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K196" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L196" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="127">
+        <f t="shared" si="12"/>
+        <v>189</v>
+      </c>
+      <c r="B197" s="27"/>
+      <c r="C197" s="156"/>
+      <c r="D197" s="204"/>
+      <c r="E197" s="187"/>
+      <c r="F197" s="205"/>
+      <c r="G197" s="205"/>
+      <c r="H197" s="204"/>
+      <c r="I197" s="156"/>
+      <c r="J197" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K197" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L197" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="127">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="B198" s="27"/>
+      <c r="C198" s="156"/>
+      <c r="D198" s="204"/>
+      <c r="E198" s="187"/>
+      <c r="F198" s="205"/>
+      <c r="G198" s="205"/>
+      <c r="H198" s="204"/>
+      <c r="I198" s="156"/>
+      <c r="J198" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K198" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L198" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="127">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="B199" s="27"/>
+      <c r="C199" s="156"/>
+      <c r="D199" s="204"/>
+      <c r="E199" s="187"/>
+      <c r="F199" s="205"/>
+      <c r="G199" s="205"/>
+      <c r="H199" s="204"/>
+      <c r="I199" s="156"/>
+      <c r="J199" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K199" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L199" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="127">
+        <f t="shared" si="12"/>
         <v>192</v>
+      </c>
+      <c r="B200" s="27"/>
+      <c r="C200" s="156"/>
+      <c r="D200" s="204"/>
+      <c r="E200" s="187"/>
+      <c r="F200" s="205"/>
+      <c r="G200" s="205"/>
+      <c r="H200" s="204"/>
+      <c r="I200" s="156"/>
+      <c r="J200" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K200" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L200" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="127">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="B201" s="27"/>
+      <c r="C201" s="156"/>
+      <c r="D201" s="204"/>
+      <c r="E201" s="187"/>
+      <c r="F201" s="205"/>
+      <c r="G201" s="205"/>
+      <c r="H201" s="204"/>
+      <c r="I201" s="156"/>
+      <c r="J201" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K201" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L201" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="127">
+        <f t="shared" si="12"/>
+        <v>194</v>
+      </c>
+      <c r="B202" s="27"/>
+      <c r="C202" s="156"/>
+      <c r="D202" s="204"/>
+      <c r="E202" s="187"/>
+      <c r="F202" s="205"/>
+      <c r="G202" s="205"/>
+      <c r="H202" s="204"/>
+      <c r="I202" s="156"/>
+      <c r="J202" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K202" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L202" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="127">
+        <f t="shared" si="12"/>
+        <v>195</v>
+      </c>
+      <c r="B203" s="27"/>
+      <c r="C203" s="156"/>
+      <c r="D203" s="204"/>
+      <c r="E203" s="187"/>
+      <c r="F203" s="205"/>
+      <c r="G203" s="205"/>
+      <c r="H203" s="204"/>
+      <c r="I203" s="156"/>
+      <c r="J203" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K203" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L203" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="127">
+        <f t="shared" ref="A204:A229" si="15">A203+1</f>
+        <v>196</v>
+      </c>
+      <c r="B204" s="27"/>
+      <c r="C204" s="156"/>
+      <c r="D204" s="204"/>
+      <c r="E204" s="187"/>
+      <c r="F204" s="205"/>
+      <c r="G204" s="205"/>
+      <c r="H204" s="204"/>
+      <c r="I204" s="156"/>
+      <c r="J204" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K204" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L204" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="127">
+        <f t="shared" si="15"/>
+        <v>197</v>
+      </c>
+      <c r="B205" s="27"/>
+      <c r="C205" s="156"/>
+      <c r="D205" s="204"/>
+      <c r="E205" s="187"/>
+      <c r="F205" s="205"/>
+      <c r="G205" s="205"/>
+      <c r="H205" s="204"/>
+      <c r="I205" s="156"/>
+      <c r="J205" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K205" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L205" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="127">
+        <f t="shared" si="15"/>
+        <v>198</v>
+      </c>
+      <c r="B206" s="27"/>
+      <c r="C206" s="156"/>
+      <c r="D206" s="204"/>
+      <c r="E206" s="187"/>
+      <c r="F206" s="205"/>
+      <c r="G206" s="205"/>
+      <c r="H206" s="204"/>
+      <c r="I206" s="156"/>
+      <c r="J206" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K206" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L206" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="127">
+        <f t="shared" si="15"/>
+        <v>199</v>
+      </c>
+      <c r="B207" s="27"/>
+      <c r="C207" s="156"/>
+      <c r="D207" s="204"/>
+      <c r="E207" s="187"/>
+      <c r="F207" s="205"/>
+      <c r="G207" s="205"/>
+      <c r="H207" s="204"/>
+      <c r="I207" s="156"/>
+      <c r="J207" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K207" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L207" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="127">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="B208" s="27"/>
+      <c r="C208" s="156"/>
+      <c r="D208" s="204"/>
+      <c r="E208" s="187"/>
+      <c r="F208" s="205"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="204"/>
+      <c r="I208" s="156"/>
+      <c r="J208" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K208" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L208" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="127">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="B209" s="27"/>
+      <c r="C209" s="156"/>
+      <c r="D209" s="204"/>
+      <c r="E209" s="187"/>
+      <c r="F209" s="205"/>
+      <c r="G209" s="205"/>
+      <c r="H209" s="204"/>
+      <c r="I209" s="156"/>
+      <c r="J209" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K209" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L209" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="127">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="B210" s="27"/>
+      <c r="C210" s="156"/>
+      <c r="D210" s="204"/>
+      <c r="E210" s="187"/>
+      <c r="F210" s="205"/>
+      <c r="G210" s="205"/>
+      <c r="H210" s="204"/>
+      <c r="I210" s="156"/>
+      <c r="J210" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K210" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L210" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="127">
+        <f t="shared" si="15"/>
+        <v>203</v>
+      </c>
+      <c r="B211" s="27"/>
+      <c r="C211" s="156"/>
+      <c r="D211" s="204"/>
+      <c r="E211" s="187"/>
+      <c r="F211" s="205"/>
+      <c r="G211" s="205"/>
+      <c r="H211" s="204"/>
+      <c r="I211" s="156"/>
+      <c r="J211" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K211" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L211" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="127">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="B212" s="27"/>
+      <c r="C212" s="156"/>
+      <c r="D212" s="204"/>
+      <c r="E212" s="187"/>
+      <c r="F212" s="205"/>
+      <c r="G212" s="205"/>
+      <c r="H212" s="204"/>
+      <c r="I212" s="156"/>
+      <c r="J212" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K212" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L212" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="127">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="B213" s="27"/>
+      <c r="C213" s="156"/>
+      <c r="D213" s="204"/>
+      <c r="E213" s="187"/>
+      <c r="F213" s="205"/>
+      <c r="G213" s="205"/>
+      <c r="H213" s="204"/>
+      <c r="I213" s="156"/>
+      <c r="J213" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K213" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L213" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="127">
+        <f t="shared" si="15"/>
+        <v>206</v>
+      </c>
+      <c r="B214" s="27"/>
+      <c r="C214" s="156"/>
+      <c r="D214" s="204"/>
+      <c r="E214" s="187"/>
+      <c r="F214" s="205"/>
+      <c r="G214" s="205"/>
+      <c r="H214" s="204"/>
+      <c r="I214" s="156"/>
+      <c r="J214" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K214" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L214" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="127">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="B215" s="27"/>
+      <c r="C215" s="156"/>
+      <c r="D215" s="204"/>
+      <c r="E215" s="187"/>
+      <c r="F215" s="205"/>
+      <c r="G215" s="205"/>
+      <c r="H215" s="204"/>
+      <c r="I215" s="156"/>
+      <c r="J215" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K215" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L215" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="127">
+        <f t="shared" si="15"/>
+        <v>208</v>
+      </c>
+      <c r="B216" s="27"/>
+      <c r="C216" s="156"/>
+      <c r="D216" s="204"/>
+      <c r="E216" s="187"/>
+      <c r="F216" s="205"/>
+      <c r="G216" s="205"/>
+      <c r="H216" s="204"/>
+      <c r="I216" s="156"/>
+      <c r="J216" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K216" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L216" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="127">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+      <c r="B217" s="27"/>
+      <c r="C217" s="156"/>
+      <c r="D217" s="204"/>
+      <c r="E217" s="187"/>
+      <c r="F217" s="205"/>
+      <c r="G217" s="205"/>
+      <c r="H217" s="204"/>
+      <c r="I217" s="156"/>
+      <c r="J217" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K217" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L217" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="127">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="B218" s="27"/>
+      <c r="C218" s="156"/>
+      <c r="D218" s="204"/>
+      <c r="E218" s="187"/>
+      <c r="F218" s="205"/>
+      <c r="G218" s="205"/>
+      <c r="H218" s="204"/>
+      <c r="I218" s="156"/>
+      <c r="J218" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K218" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L218" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="127">
+        <f t="shared" si="15"/>
+        <v>211</v>
+      </c>
+      <c r="B219" s="27"/>
+      <c r="C219" s="156"/>
+      <c r="D219" s="204"/>
+      <c r="E219" s="187"/>
+      <c r="F219" s="205"/>
+      <c r="G219" s="205"/>
+      <c r="H219" s="204"/>
+      <c r="I219" s="156"/>
+      <c r="J219" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K219" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L219" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="127">
+        <f t="shared" si="15"/>
+        <v>212</v>
+      </c>
+      <c r="B220" s="27"/>
+      <c r="C220" s="156"/>
+      <c r="D220" s="204"/>
+      <c r="E220" s="187"/>
+      <c r="F220" s="205"/>
+      <c r="G220" s="205"/>
+      <c r="H220" s="204"/>
+      <c r="I220" s="156"/>
+      <c r="J220" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K220" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L220" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" s="127">
+        <f t="shared" si="15"/>
+        <v>213</v>
+      </c>
+      <c r="B221" s="27"/>
+      <c r="C221" s="156"/>
+      <c r="D221" s="204"/>
+      <c r="E221" s="187"/>
+      <c r="F221" s="205"/>
+      <c r="G221" s="205"/>
+      <c r="H221" s="204"/>
+      <c r="I221" s="156"/>
+      <c r="J221" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K221" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L221" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" s="127">
+        <f t="shared" si="15"/>
+        <v>214</v>
+      </c>
+      <c r="B222" s="27"/>
+      <c r="C222" s="156"/>
+      <c r="D222" s="204"/>
+      <c r="E222" s="187"/>
+      <c r="F222" s="205"/>
+      <c r="G222" s="205"/>
+      <c r="H222" s="204"/>
+      <c r="I222" s="156"/>
+      <c r="J222" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K222" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L222" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="127">
+        <f t="shared" si="15"/>
+        <v>215</v>
+      </c>
+      <c r="B223" s="27"/>
+      <c r="C223" s="156"/>
+      <c r="D223" s="204"/>
+      <c r="E223" s="187"/>
+      <c r="F223" s="205"/>
+      <c r="G223" s="205"/>
+      <c r="H223" s="204"/>
+      <c r="I223" s="156"/>
+      <c r="J223" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L223" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" s="127">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+      <c r="B224" s="27"/>
+      <c r="C224" s="156"/>
+      <c r="D224" s="204"/>
+      <c r="E224" s="187"/>
+      <c r="F224" s="205"/>
+      <c r="G224" s="205"/>
+      <c r="H224" s="204"/>
+      <c r="I224" s="156"/>
+      <c r="J224" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K224" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L224" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="127">
+        <f t="shared" si="15"/>
+        <v>217</v>
+      </c>
+      <c r="B225" s="27"/>
+      <c r="C225" s="156"/>
+      <c r="D225" s="204"/>
+      <c r="E225" s="187"/>
+      <c r="F225" s="205"/>
+      <c r="G225" s="205"/>
+      <c r="H225" s="204"/>
+      <c r="I225" s="156"/>
+      <c r="J225" s="204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K225" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>盈</v>
+      </c>
+      <c r="L225" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="127">
+        <f t="shared" si="15"/>
+        <v>218</v>
+      </c>
+      <c r="B226" s="27"/>
+      <c r="C226" s="156"/>
+      <c r="D226" s="204"/>
+      <c r="E226" s="187"/>
+      <c r="F226" s="205"/>
+      <c r="G226" s="205"/>
+      <c r="H226" s="204"/>
+      <c r="I226" s="156"/>
+      <c r="J226" s="204">
+        <f t="shared" ref="J226:J229" si="16">IF(B226="卖",D226-H226,H226-D226)*L226</f>
+        <v>0</v>
+      </c>
+      <c r="K226" s="29" t="str">
+        <f t="shared" ref="K226:K229" si="17">IF(J226&gt;=0,"盈","亏")</f>
+        <v>盈</v>
+      </c>
+      <c r="L226" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="127">
+        <f t="shared" si="15"/>
+        <v>219</v>
+      </c>
+      <c r="B227" s="27"/>
+      <c r="C227" s="156"/>
+      <c r="D227" s="204"/>
+      <c r="E227" s="187"/>
+      <c r="F227" s="205"/>
+      <c r="G227" s="205"/>
+      <c r="H227" s="204"/>
+      <c r="I227" s="156"/>
+      <c r="J227" s="204">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K227" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>盈</v>
+      </c>
+      <c r="L227" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="127">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+      <c r="B228" s="27"/>
+      <c r="C228" s="156"/>
+      <c r="D228" s="204"/>
+      <c r="E228" s="187"/>
+      <c r="F228" s="205"/>
+      <c r="G228" s="205"/>
+      <c r="H228" s="204"/>
+      <c r="I228" s="156"/>
+      <c r="J228" s="204">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K228" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>盈</v>
+      </c>
+      <c r="L228" s="160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="127">
+        <f t="shared" si="15"/>
+        <v>221</v>
+      </c>
+      <c r="B229" s="27"/>
+      <c r="C229" s="156"/>
+      <c r="D229" s="204"/>
+      <c r="E229" s="187"/>
+      <c r="F229" s="205"/>
+      <c r="G229" s="205"/>
+      <c r="H229" s="204"/>
+      <c r="I229" s="156"/>
+      <c r="J229" s="204">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K229" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>盈</v>
+      </c>
+      <c r="L229" s="160" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -49720,16 +54660,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B229">
       <formula1>"买,卖"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E229">
       <formula1>"H1,H4,D1,W1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B230:B1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S37 HM4:HM7 W4:W7 AC4:AC7 AU4:AU7 R6:V6 AD6:AT6 BY4:BY7 AV6:BX6 CE4:CE7 CF6:CJ6 CL6:CP6 CK4:CK7 CQ4:CQ7 DC4:DC7 CR6:CV6 DD6:DH6 CX6:DB6 CW4:CW7 DI4:DI7 DJ6:DN6 DP6:DT6 DO4:DO7 DU4:DU7 EG4:EG7 DV6:DZ6 EH6:EL6 EB6:EF6 EA4:EA7 EM4:EM7 EN6:ER6 ET6:EX6 ES4:ES7 BZ6:CD6 EY4:EY7 FK4:FK7 EZ6:FD7 FL6:FP7 FF6:FJ7 FE4:FE7 FQ4:FQ7 FR6:FV7 FX6:GB7 FW4:FW7 GC4:GC7 GO4:GO7 GD6:GH7 GP6:GT7 GJ6:GN7 GI4:GI7 GU4:GU7 GV6:GZ7 HB6:HF7 HA4:HA7 HG4:HG7 HS4:HS7 HH6:HL7 HT6:HX7 HN6:HR7 Q4:Q7 AI4:AI5 AO4:AO5 BA4:BA5 BG4:BG5 BM4:BM5 BS4:BS5 X6:AB6 AI7 AO7 BA7 BG7 BM7 BS7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS7 HM4:HM7 W4:W7 AC4:AC7 AU4:AU7 R6:V6 AD6:AT6 BY4:BY7 AV6:BX6 CE4:CE7 CF6:CJ6 CL6:CP6 CK4:CK7 CQ4:CQ7 DC4:DC7 CR6:CV6 DD6:DH6 CX6:DB6 CW4:CW7 DI4:DI7 DJ6:DN6 DP6:DT6 DO4:DO7 DU4:DU7 EG4:EG7 DV6:DZ6 EH6:EL6 EB6:EF6 EA4:EA7 EM4:EM7 EN6:ER6 ET6:EX6 ES4:ES7 BZ6:CD6 EY4:EY7 FK4:FK7 EZ6:FD7 FL6:FP7 FF6:FJ7 FE4:FE7 FQ4:FQ7 FR6:FV7 FX6:GB7 FW4:FW7 GC4:GC7 GO4:GO7 GD6:GH7 GP6:GT7 GJ6:GN7 GI4:GI7 GU4:GU7 GV6:GZ7 HB6:HF7 HA4:HA7 HG4:HG7 HS4:HS7 HH6:HL7 HT6:HX7 HN6:HR7 Q4:Q7 AI4:AI5 AO4:AO5 BA4:BA5 BG4:BG5 BM4:BM5 BS4:BS5 X6:AB6 AI7 AO7 BA7 BG7 BM7">
       <formula1>"上,盘,下"</formula1>
     </dataValidation>
   </dataValidations>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="889" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="2208" yWindow="-276" windowWidth="20796" windowHeight="9756" tabRatio="889" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="23" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5423" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="302">
   <si>
     <t>总额</t>
   </si>
@@ -1024,15 +1024,6 @@
     <t>交易前 准则</t>
   </si>
   <si>
-    <t>3、交易前参考最近一个月的交易记录</t>
-  </si>
-  <si>
-    <t>9、做好止盈、止损</t>
-  </si>
-  <si>
-    <t>5、写下入场原因</t>
-  </si>
-  <si>
     <t>99、 每周写总结</t>
   </si>
   <si>
@@ -1087,9 +1078,6 @@
       </rPr>
       <t>只做日线，周线</t>
     </r>
-  </si>
-  <si>
-    <t>6、用H4确认一下是否是操作点，不要进场就亏着</t>
   </si>
   <si>
     <t>98、白天不要操作</t>
@@ -1159,6 +1147,99 @@
         <scheme val="minor"/>
       </rPr>
       <t>反复阶段，没有刚开始买入后不动的利润高</t>
+    </r>
+  </si>
+  <si>
+    <t>人是最不稳定的</t>
+  </si>
+  <si>
+    <t>人是有感情的</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>3、怎么有一个稳定的心态</t>
+  </si>
+  <si>
+    <t>2、怎么克服不稳定因素</t>
+  </si>
+  <si>
+    <t>1、怎么保持已有的盈利</t>
+  </si>
+  <si>
+    <t>4、盈利了不自大（不放大自信），亏损是不气馁（保持平和的心情）</t>
+  </si>
+  <si>
+    <t>原则：保持理性</t>
+  </si>
+  <si>
+    <t>盈利 就是大盘都长，运气罢了</t>
+  </si>
+  <si>
+    <t>为什么会盈利，为什么会亏损</t>
+  </si>
+  <si>
+    <t>盈利后出手后，再继续增长怎么处理</t>
+  </si>
+  <si>
+    <t>5、采过坑为什么还会在踩坑</t>
+  </si>
+  <si>
+    <t>6、买入卖出不应该看以前的交易，，，，往前看，不看进入点，预期上涨就买入，预期下跌就卖出</t>
+  </si>
+  <si>
+    <t>为什么不设置止盈，还加仓增加风险</t>
+  </si>
+  <si>
+    <t>9、设置止盈、止损， 并且控制好仓位</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3、交易前参考最近一个月的交易记录 是错误的  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客观的向前看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写下入场原因</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用H4确认一下是否是操作点，不要进场就亏着</t>
     </r>
   </si>
 </sst>
@@ -3933,7 +4014,7 @@
                   <c:v>36.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>32.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>100</c:v>
@@ -4271,11 +4352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205092352"/>
-        <c:axId val="205093888"/>
+        <c:axId val="145651200"/>
+        <c:axId val="145652736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="205092352"/>
+        <c:axId val="145651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,14 +4366,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205093888"/>
+        <c:crossAx val="145652736"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="205093888"/>
+        <c:axId val="145652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4313,7 +4394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205092352"/>
+        <c:crossAx val="145651200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6714,7 +6795,7 @@
       </c>
       <c r="B101" s="20">
         <f>'10年计划-周'!I105</f>
-        <v>100</v>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -14478,7 +14559,7 @@
       <c r="D21" s="204"/>
       <c r="E21" s="187"/>
       <c r="F21" s="289" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G21" s="205"/>
       <c r="H21" s="204"/>
@@ -24283,10 +24364,10 @@
   <dimension ref="A1:AD212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O106" sqref="O106"/>
+      <selection pane="bottomRight" activeCell="V107" sqref="V107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29994,7 +30075,7 @@
       </c>
       <c r="R103" s="61"/>
       <c r="V103" s="35" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -30050,7 +30131,7 @@
       </c>
       <c r="R104" s="38"/>
       <c r="V104" s="35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -30078,15 +30159,15 @@
       </c>
       <c r="H105" s="52"/>
       <c r="I105" s="52">
-        <v>100</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J105" s="54">
         <f t="shared" si="15"/>
-        <v>1.274</v>
+        <v>-7.1999999999999884E-2</v>
       </c>
       <c r="K105" s="96">
         <f t="shared" si="19"/>
-        <v>51.575000000000003</v>
+        <v>34.75</v>
       </c>
       <c r="L105" s="52"/>
       <c r="M105" s="52"/>
@@ -30094,6 +30175,9 @@
       <c r="O105" s="52"/>
       <c r="P105" s="52"/>
       <c r="Q105" s="52"/>
+      <c r="V105" s="35" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="294"/>
@@ -30124,11 +30208,11 @@
       </c>
       <c r="J106" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.3459999999999999</v>
       </c>
       <c r="K106" s="96">
         <f t="shared" si="19"/>
-        <v>67.775000000000006</v>
+        <v>50.95</v>
       </c>
       <c r="L106" s="52"/>
       <c r="M106" s="52"/>
@@ -30170,7 +30254,7 @@
       </c>
       <c r="K107" s="96">
         <f t="shared" si="19"/>
-        <v>84.075000000000003</v>
+        <v>67.25</v>
       </c>
       <c r="L107" s="52"/>
       <c r="M107" s="52"/>
@@ -30212,7 +30296,7 @@
       </c>
       <c r="K108" s="97">
         <f t="shared" si="19"/>
-        <v>100</v>
+        <v>83.174999999999997</v>
       </c>
       <c r="L108" s="57"/>
       <c r="M108" s="57"/>
@@ -45416,7 +45500,7 @@
         <v>28</v>
       </c>
       <c r="M15" s="141" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24"/>
@@ -45440,7 +45524,7 @@
       <c r="D16" s="204"/>
       <c r="E16" s="214"/>
       <c r="F16" s="289" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G16" s="205"/>
       <c r="H16" s="204"/>
@@ -45479,7 +45563,7 @@
       <c r="D17" s="204"/>
       <c r="E17" s="214"/>
       <c r="F17" s="205" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G17" s="205"/>
       <c r="H17" s="204"/>
@@ -45941,11 +46025,11 @@
   </sheetPr>
   <dimension ref="A1:HX229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13932" ySplit="3528" topLeftCell="U14" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13932" ySplit="3528" topLeftCell="U17" activePane="bottomLeft"/>
       <selection activeCell="E26" sqref="E26"/>
       <selection pane="topRight" activeCell="E26" sqref="E26"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
       <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
@@ -49384,17 +49468,25 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="204"/>
+      <c r="B25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="156">
+        <v>43440</v>
+      </c>
+      <c r="D25" s="204">
+        <v>0.72231999999999996</v>
+      </c>
       <c r="E25" s="187"/>
       <c r="F25" s="289"/>
       <c r="G25" s="205"/>
-      <c r="H25" s="204"/>
+      <c r="H25" s="204">
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I25" s="156"/>
       <c r="J25" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.6800000000000157E-3</v>
       </c>
       <c r="K25" s="29" t="str">
         <f t="shared" si="4"/>
@@ -49409,19 +49501,25 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="204"/>
+      <c r="B26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="156">
+        <v>43441</v>
+      </c>
+      <c r="D26" s="204">
+        <v>0.72377999999999998</v>
+      </c>
       <c r="E26" s="187"/>
-      <c r="F26" s="289" t="s">
-        <v>271</v>
-      </c>
+      <c r="F26" s="289"/>
       <c r="G26" s="205"/>
-      <c r="H26" s="204"/>
+      <c r="H26" s="204">
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I26" s="156"/>
       <c r="J26" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2199999999999989E-3</v>
       </c>
       <c r="K26" s="29" t="str">
         <f t="shared" si="4"/>
@@ -49440,9 +49538,7 @@
       <c r="C27" s="156"/>
       <c r="D27" s="204"/>
       <c r="E27" s="187"/>
-      <c r="F27" s="289" t="s">
-        <v>274</v>
-      </c>
+      <c r="F27" s="289"/>
       <c r="G27" s="205"/>
       <c r="H27" s="204"/>
       <c r="I27" s="156"/>
@@ -49467,9 +49563,7 @@
       <c r="C28" s="156"/>
       <c r="D28" s="204"/>
       <c r="E28" s="187"/>
-      <c r="F28" s="205" t="s">
-        <v>281</v>
-      </c>
+      <c r="F28" s="289"/>
       <c r="G28" s="205"/>
       <c r="H28" s="204"/>
       <c r="I28" s="156"/>
@@ -49494,9 +49588,7 @@
       <c r="C29" s="156"/>
       <c r="D29" s="204"/>
       <c r="E29" s="187"/>
-      <c r="F29" s="205" t="s">
-        <v>283</v>
-      </c>
+      <c r="F29" s="289"/>
       <c r="G29" s="205"/>
       <c r="H29" s="204"/>
       <c r="I29" s="156"/>
@@ -49521,9 +49613,7 @@
       <c r="C30" s="156"/>
       <c r="D30" s="204"/>
       <c r="E30" s="187"/>
-      <c r="F30" s="205" t="s">
-        <v>284</v>
-      </c>
+      <c r="F30" s="289"/>
       <c r="G30" s="205"/>
       <c r="H30" s="204"/>
       <c r="I30" s="156"/>
@@ -49548,7 +49638,9 @@
       <c r="C31" s="156"/>
       <c r="D31" s="204"/>
       <c r="E31" s="187"/>
-      <c r="F31" s="205"/>
+      <c r="F31" s="289" t="s">
+        <v>267</v>
+      </c>
       <c r="G31" s="205"/>
       <c r="H31" s="204"/>
       <c r="I31" s="156"/>
@@ -49573,7 +49665,9 @@
       <c r="C32" s="156"/>
       <c r="D32" s="204"/>
       <c r="E32" s="187"/>
-      <c r="F32" s="205"/>
+      <c r="F32" s="289" t="s">
+        <v>270</v>
+      </c>
       <c r="G32" s="205"/>
       <c r="H32" s="204"/>
       <c r="I32" s="156"/>
@@ -49598,7 +49692,9 @@
       <c r="C33" s="156"/>
       <c r="D33" s="204"/>
       <c r="E33" s="187"/>
-      <c r="F33" s="205"/>
+      <c r="F33" s="205" t="s">
+        <v>277</v>
+      </c>
       <c r="G33" s="205"/>
       <c r="H33" s="204"/>
       <c r="I33" s="156"/>
@@ -49623,7 +49719,9 @@
       <c r="C34" s="156"/>
       <c r="D34" s="204"/>
       <c r="E34" s="187"/>
-      <c r="F34" s="205"/>
+      <c r="F34" s="205" t="s">
+        <v>279</v>
+      </c>
       <c r="G34" s="205"/>
       <c r="H34" s="204"/>
       <c r="I34" s="156"/>
@@ -49648,7 +49746,9 @@
       <c r="C35" s="156"/>
       <c r="D35" s="204"/>
       <c r="E35" s="187"/>
-      <c r="F35" s="205"/>
+      <c r="F35" s="205" t="s">
+        <v>280</v>
+      </c>
       <c r="G35" s="205"/>
       <c r="H35" s="204"/>
       <c r="I35" s="156"/>
@@ -57515,7 +57615,7 @@
       <c r="D10" s="204"/>
       <c r="E10" s="187"/>
       <c r="F10" s="289" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G10" s="205"/>
       <c r="H10" s="204"/>
@@ -57555,7 +57655,7 @@
       <c r="D11" s="204"/>
       <c r="E11" s="187"/>
       <c r="F11" s="289" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G11" s="205"/>
       <c r="H11" s="204"/>
@@ -58050,10 +58150,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B3:E24"/>
+  <dimension ref="B3:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -58070,69 +58170,133 @@
     </row>
     <row r="6" spans="2:5">
       <c r="C6" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="C14" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="C17" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="C18" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="C19" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="C24" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="G27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <v>20181207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="G30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16">
+      <c r="G33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16">
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="7:16">
+      <c r="G35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16">
+      <c r="G37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="7:16">
+      <c r="G39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16">
+      <c r="P41" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="307">
   <si>
     <t>总额</t>
   </si>
@@ -1248,6 +1248,15 @@
   <si>
     <t>按照交易准则，执行，不要有任何妄念</t>
   </si>
+  <si>
+    <t>30万一次</t>
+  </si>
+  <si>
+    <t>1次</t>
+  </si>
+  <si>
+    <t>2次</t>
+  </si>
 </sst>
 </file>
 
@@ -1692,7 +1701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2209,11 +2218,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2869,11 +2889,44 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4079,10 +4132,10 @@
                   <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>100</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>100</c:v>
+                  <c:v>20.9</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>100</c:v>
@@ -4097,52 +4150,52 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>0</c:v>
@@ -4369,11 +4422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171559168"/>
-        <c:axId val="206442496"/>
+        <c:axId val="312758656"/>
+        <c:axId val="312760192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171559168"/>
+        <c:axId val="312758656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,14 +4436,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206442496"/>
+        <c:crossAx val="312760192"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206442496"/>
+        <c:axId val="312760192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4411,7 +4464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171559168"/>
+        <c:crossAx val="312758656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6666,7 +6719,7 @@
       </c>
       <c r="B117" s="20">
         <f>'10年计划-周'!I121</f>
-        <v>100</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6676,7 +6729,7 @@
       </c>
       <c r="B118" s="20">
         <f>'10年计划-周'!I122</f>
-        <v>100</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6726,7 +6779,7 @@
       </c>
       <c r="B123" s="20">
         <f>'10年计划-周'!I127</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -6736,7 +6789,7 @@
       </c>
       <c r="B124" s="20">
         <f>'10年计划-周'!I128</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6746,7 +6799,7 @@
       </c>
       <c r="B125" s="20">
         <f>'10年计划-周'!I129</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6756,7 +6809,7 @@
       </c>
       <c r="B126" s="20">
         <f>'10年计划-周'!I130</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6766,7 +6819,7 @@
       </c>
       <c r="B127" s="20">
         <f>'10年计划-周'!I131</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6776,7 +6829,7 @@
       </c>
       <c r="B128" s="20">
         <f>'10年计划-周'!I132</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6786,7 +6839,7 @@
       </c>
       <c r="B129" s="20">
         <f>'10年计划-周'!I133</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6796,7 +6849,7 @@
       </c>
       <c r="B130" s="20">
         <f>'10年计划-周'!I134</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6806,7 +6859,7 @@
       </c>
       <c r="B131" s="20">
         <f>'10年计划-周'!I135</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6816,7 +6869,7 @@
       </c>
       <c r="B132" s="20">
         <f>'10年计划-周'!I136</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6826,7 +6879,7 @@
       </c>
       <c r="B133" s="20">
         <f>'10年计划-周'!I137</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6836,7 +6889,7 @@
       </c>
       <c r="B134" s="20">
         <f>'10年计划-周'!I138</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -6846,7 +6899,7 @@
       </c>
       <c r="B135" s="20">
         <f>'10年计划-周'!I139</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -6856,7 +6909,7 @@
       </c>
       <c r="B136" s="20">
         <f>'10年计划-周'!I140</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6866,7 +6919,7 @@
       </c>
       <c r="B137" s="20">
         <f>'10年计划-周'!I141</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6876,7 +6929,7 @@
       </c>
       <c r="B138" s="20">
         <f>'10年计划-周'!I142</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -10910,12 +10963,12 @@
     <mergeCell ref="DO1:DT1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 FW7:XFD7 W7 AC7 AI7 AO7 AU7 BA7 BG7 BM7 BS7 BY7 CE7 CK7 CQ7 CW7 DC7 DI7 DO7 DU7 EA7 EG7 EM7 ES7 EY7 FE7 FK7 FQ7">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14508,12 +14561,12 @@
     <mergeCell ref="DO1:DT1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 CE7:XFD7 W7 AC7 AI7 AO7 AU7 BA7 BG7 BM7 BS7 BY7">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23084,23 +23137,23 @@
     <mergeCell ref="BU34:BZ34"/>
   </mergeCells>
   <conditionalFormatting sqref="A39:Q39 A40:XFD1048576 S39:XFD39 A1:XFD3 A4 C4:XFD6 C7:G7 CS7:XFD7 M7 S7 Y7 AE7 AK7 AQ7 AW7 BC7 BI7 BO7 A8:XFD8 A9 C9:XFD11 C12:G12 CS12:XFD12 M12 S12 Y12 AE12 AK12 AQ12 AW12 BC12 BI12 BO12 BU12 CA12 CG12 CM12 BU7 CG7 CA7 CM7 C17:G17 CS17:XFD17 M17 S17 Y17 AE17 AK17 AQ17 AW17 BC17 BI17 BO17 BU17 CA17 CG17 CM17 A13:XFD13 A14 C14:XFD16 A18:XFD18 A19 C19:XFD21 C22:G22 CS22:XFD22 M22 S22 Y22 AE22 AK22 AQ22 AW22 BC22 BI22 BO22 BU22 CA22 CG22 CM22 A23:XFD23 A24 C24:XFD26 C27:G27 CS27:XFD27 M27 S27 Y27 AE27 AK27 AQ27 AW27 BC27 BI27 BO27 BU27 CA27 CG27 CM27 A28:XFD28 A29 C29:XFD31 C32:G32 CS32:XFD32 M32 S32 Y32 AE32 AK32 AQ32 AW32 BC32 BI32 BO32 BU32 CA32 CG32 CM32 A38:XFD38 A33:XFD33 A34 C34:XFD36 C37:G37 CS37:XFD37 AQ37 M37 S37 AE37 Y37 AK37 BC37 BO37 CA37 CM37 AW37 BI37 BU37 CG37">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 C5:XFD6 C7:G7 CS7:XFD7 M7 S7 Y7 AE7 AK7 AQ7 AW7 BC7 BI7 BO7 A8:XFD8 A9 C9:XFD11 C12:G12 CS12:XFD12 M12 S12 Y12 AE12 AK12 AQ12 AW12 BC12 BI12 BO12 BU12 CA12 CG12 CM12 BU7 CG7 CA7 CM7 C17:G17 CS17:XFD17 M17 S17 Y17 AE17 AK17 AQ17 AW17 BC17 BI17 BO17 BU17 CA17 CG17 CM17 A13:XFD13 A14 C14:XFD16 A18:XFD18 A19 C19:XFD21 C22:G22 CS22:XFD22 M22 S22 Y22 AE22 AK22 AQ22 AW22 BC22 BI22 BO22 BU22 CA22 CG22 CM22 A23:XFD23 A24 C24:XFD26 C27:G27 CS27:XFD27 M27 S27 Y27 AE27 AK27 AQ27 AW27 BC27 BI27 BO27 BU27 CA27 CG27 CM27 A28:XFD28 A29 C29:XFD31 C32:G32 CS32:XFD32 M32 S32 Y32 AE32 AK32 AQ32 AW32 BC32 BI32 BO32 BU32 CA32 CG32 CM32 A33:XFD33 A34 C34:XFD36 C37:G37 CS37:XFD37 AQ37 M37 S37 AE37 Y37 AK37 BC37 BO37 CA37 CM37 AW37 BI37 BU37 CG37">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"下"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"上"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:XFD4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"下"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"上"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24073,10 +24126,10 @@
   <dimension ref="A1:AD212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y120" sqref="Y120"/>
+      <selection pane="bottomRight" activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24087,7 +24140,7 @@
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.77734375" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5546875" style="93" customWidth="1"/>
@@ -30112,6 +30165,9 @@
         <f t="shared" si="21"/>
         <v>27.15</v>
       </c>
+      <c r="S110" s="85" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="298"/>
@@ -30166,7 +30222,7 @@
         <v>27.175000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1">
+    <row r="113" spans="1:19" ht="15" thickBot="1">
       <c r="A113" s="299"/>
       <c r="B113" s="41">
         <v>5</v>
@@ -30189,7 +30245,7 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:19">
       <c r="A114" s="297" t="s">
         <v>2</v>
       </c>
@@ -30214,7 +30270,7 @@
         <v>26.725000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:19">
       <c r="A115" s="298"/>
       <c r="B115" s="41">
         <v>7</v>
@@ -30236,8 +30292,11 @@
         <f t="shared" si="23"/>
         <v>25.725000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="S115" s="85" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="298"/>
       <c r="B116" s="41">
         <v>8</v>
@@ -30260,7 +30319,7 @@
         <v>23.975000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1">
+    <row r="117" spans="1:19" ht="15" thickBot="1">
       <c r="A117" s="299"/>
       <c r="B117" s="41">
         <v>9</v>
@@ -30283,7 +30342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:19">
       <c r="A118" s="297" t="s">
         <v>3</v>
       </c>
@@ -30307,8 +30366,11 @@
         <f t="shared" si="23"/>
         <v>22.475000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="S118" s="85" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="298"/>
       <c r="B119" s="41">
         <v>11</v>
@@ -30331,7 +30393,7 @@
         <v>22.375</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:19">
       <c r="A120" s="298"/>
       <c r="B120" s="41">
         <v>12</v>
@@ -30354,7 +30416,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1">
+    <row r="121" spans="1:19" ht="15" thickBot="1">
       <c r="A121" s="299"/>
       <c r="B121" s="41">
         <v>13</v>
@@ -30366,18 +30428,21 @@
         <v>43555</v>
       </c>
       <c r="I121" s="53">
-        <v>100</v>
+        <v>23.5</v>
       </c>
       <c r="J121" s="54">
         <f t="shared" si="22"/>
-        <v>1.49</v>
+        <v>-0.04</v>
       </c>
       <c r="K121" s="96">
         <f t="shared" si="23"/>
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>23.975000000000001</v>
+      </c>
+      <c r="S121" s="85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="305" t="s">
         <v>4</v>
       </c>
@@ -30390,19 +30455,22 @@
       <c r="D122" s="3">
         <v>43562</v>
       </c>
-      <c r="I122" s="53">
-        <v>100</v>
+      <c r="H122">
+        <v>50</v>
+      </c>
+      <c r="I122" s="67">
+        <v>20.9</v>
       </c>
       <c r="J122" s="54">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-5.2000000000000025E-2</v>
       </c>
       <c r="K122" s="96">
         <f t="shared" si="23"/>
-        <v>62.2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>23.299999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="306"/>
       <c r="B123" s="131">
         <v>15</v>
@@ -30418,14 +30486,14 @@
       </c>
       <c r="J123" s="54">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.5819999999999999</v>
       </c>
       <c r="K123" s="96">
         <f t="shared" si="23"/>
-        <v>81.375</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>42.475000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="306"/>
       <c r="B124" s="131">
         <v>16</v>
@@ -30445,10 +30513,10 @@
       </c>
       <c r="K124" s="96">
         <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="306"/>
       <c r="B125" s="131">
         <v>17</v>
@@ -30468,10 +30536,10 @@
       </c>
       <c r="K125" s="96">
         <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1">
+        <v>80.224999999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="15" thickBot="1">
       <c r="A126" s="307"/>
       <c r="B126" s="131">
         <v>18</v>
@@ -30494,7 +30562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:19">
       <c r="A127" s="297" t="s">
         <v>5</v>
       </c>
@@ -30507,8 +30575,19 @@
       <c r="D127" s="3">
         <v>43597</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="I127" s="53">
+        <v>100</v>
+      </c>
+      <c r="J127" s="54">
+        <f t="shared" ref="J127:J130" si="24">(I127-I126)/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="96">
+        <f t="shared" ref="K127:K130" si="25">SUM(I124:I127)/4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="298"/>
       <c r="B128" s="41">
         <v>20</v>
@@ -30518,6 +30597,17 @@
       </c>
       <c r="D128" s="3">
         <v>43604</v>
+      </c>
+      <c r="I128" s="53">
+        <v>100</v>
+      </c>
+      <c r="J128" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="96">
+        <f t="shared" si="25"/>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -30531,6 +30621,17 @@
       <c r="D129" s="3">
         <v>43611</v>
       </c>
+      <c r="I129" s="53">
+        <v>100</v>
+      </c>
+      <c r="J129" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="96">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="130" spans="1:18" ht="15" thickBot="1">
       <c r="A130" s="299"/>
@@ -30543,9 +30644,23 @@
       <c r="D130" s="3">
         <v>43618</v>
       </c>
+      <c r="I130" s="53">
+        <v>100</v>
+      </c>
+      <c r="J130" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="96">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="131" spans="1:18">
-      <c r="B131" s="41">
+      <c r="A131" s="305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="131">
         <v>23</v>
       </c>
       <c r="C131" s="6">
@@ -30554,9 +30669,21 @@
       <c r="D131" s="3">
         <v>43625</v>
       </c>
+      <c r="I131" s="53">
+        <v>100</v>
+      </c>
+      <c r="J131" s="54">
+        <f t="shared" ref="J131:J142" si="26">(I131-I130)/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="96">
+        <f t="shared" ref="K131:K142" si="27">SUM(I128:I131)/4</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="132" spans="1:18">
-      <c r="B132" s="41">
+      <c r="A132" s="306"/>
+      <c r="B132" s="131">
         <v>24</v>
       </c>
       <c r="C132" s="6">
@@ -30565,9 +30692,21 @@
       <c r="D132" s="3">
         <v>43632</v>
       </c>
+      <c r="I132" s="53">
+        <v>100</v>
+      </c>
+      <c r="J132" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="133" spans="1:18">
-      <c r="B133" s="41">
+      <c r="A133" s="306"/>
+      <c r="B133" s="131">
         <v>25</v>
       </c>
       <c r="C133" s="6">
@@ -30576,9 +30715,21 @@
       <c r="D133" s="3">
         <v>43639</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
-      <c r="B134" s="41">
+      <c r="I133" s="53">
+        <v>100</v>
+      </c>
+      <c r="J133" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="15" thickBot="1">
+      <c r="A134" s="307"/>
+      <c r="B134" s="131">
         <v>26</v>
       </c>
       <c r="C134" s="6">
@@ -30587,9 +30738,23 @@
       <c r="D134" s="3">
         <v>43646</v>
       </c>
+      <c r="I134" s="53">
+        <v>100</v>
+      </c>
+      <c r="J134" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="135" spans="1:18">
-      <c r="B135" s="41">
+      <c r="A135" s="305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="131">
         <v>27</v>
       </c>
       <c r="C135" s="6">
@@ -30598,9 +30763,21 @@
       <c r="D135" s="3">
         <v>43653</v>
       </c>
+      <c r="I135" s="53">
+        <v>100</v>
+      </c>
+      <c r="J135" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="136" spans="1:18">
-      <c r="B136" s="41">
+      <c r="A136" s="306"/>
+      <c r="B136" s="131">
         <v>28</v>
       </c>
       <c r="C136" s="6">
@@ -30609,9 +30786,21 @@
       <c r="D136" s="3">
         <v>43660</v>
       </c>
+      <c r="I136" s="53">
+        <v>100</v>
+      </c>
+      <c r="J136" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="137" spans="1:18">
-      <c r="B137" s="41">
+      <c r="A137" s="306"/>
+      <c r="B137" s="131">
         <v>29</v>
       </c>
       <c r="C137" s="6">
@@ -30620,9 +30809,21 @@
       <c r="D137" s="3">
         <v>43667</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
-      <c r="B138" s="41">
+      <c r="I137" s="53">
+        <v>100</v>
+      </c>
+      <c r="J137" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="15" thickBot="1">
+      <c r="A138" s="307"/>
+      <c r="B138" s="131">
         <v>30</v>
       </c>
       <c r="C138" s="6">
@@ -30631,9 +30832,23 @@
       <c r="D138" s="3">
         <v>43674</v>
       </c>
+      <c r="I138" s="53">
+        <v>100</v>
+      </c>
+      <c r="J138" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="139" spans="1:18">
-      <c r="B139" s="41">
+      <c r="A139" s="305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="131">
         <v>31</v>
       </c>
       <c r="C139" s="6">
@@ -30642,9 +30857,21 @@
       <c r="D139" s="3">
         <v>43681</v>
       </c>
+      <c r="I139" s="53">
+        <v>100</v>
+      </c>
+      <c r="J139" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="140" spans="1:18">
-      <c r="B140" s="41">
+      <c r="A140" s="306"/>
+      <c r="B140" s="131">
         <v>32</v>
       </c>
       <c r="C140" s="6">
@@ -30653,9 +30880,21 @@
       <c r="D140" s="3">
         <v>43688</v>
       </c>
+      <c r="I140" s="53">
+        <v>100</v>
+      </c>
+      <c r="J140" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="141" spans="1:18">
-      <c r="B141" s="41">
+      <c r="A141" s="306"/>
+      <c r="B141" s="131">
         <v>33</v>
       </c>
       <c r="C141" s="6">
@@ -30664,9 +30903,21 @@
       <c r="D141" s="3">
         <v>43695</v>
       </c>
+      <c r="I141" s="53">
+        <v>100</v>
+      </c>
+      <c r="J141" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="142" spans="1:18" ht="15" thickBot="1">
-      <c r="B142" s="45">
+      <c r="A142" s="307"/>
+      <c r="B142" s="343">
         <v>34</v>
       </c>
       <c r="C142" s="6">
@@ -30674,6 +30925,17 @@
       </c>
       <c r="D142" s="3">
         <v>43702</v>
+      </c>
+      <c r="I142" s="53">
+        <v>100</v>
+      </c>
+      <c r="J142" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="96">
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -32011,7 +32273,10 @@
       <c r="R212" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="35">
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
     <mergeCell ref="A122:A126"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A109:A113"/>
@@ -32046,20 +32311,20 @@
     <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I56 I58:I59">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$I5&gt;$F5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J126">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="J5:J142">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$I72&gt;$F72</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34947,7 +35212,7 @@
     <mergeCell ref="HM4:HR4"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:XFD6">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38560,12 +38825,12 @@
     <mergeCell ref="AO5:AT5"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 HG7:XFD7 W7 AC7 AO7 BA7 BM7 BY7 CK7 CW7 DI7 DU7 EG7 ES7 FE7 FQ7 GC7 GO7 HA7 AI7 AU7 BG7 BS7 CE7 CQ7 DC7 DO7 EA7 EM7 EY7 FK7 FW7 GI7 GU7">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42268,12 +42533,12 @@
     <mergeCell ref="AU7:AZ7"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 EA7:XFD7 W7 AC7 AI7 AO7 AU7 BA7 BG7 BM7 BS7 BY7 CE7 CK7 CQ7 CW7 DC7 DI7 DO7 DU7">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45898,12 +46163,12 @@
     <mergeCell ref="EY4:FD4"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 EG7:XFD7 W7 AC7 AI7 AO7 AU7 BA7 BG7 BM7 BS7 BY7 CE7 CK7 CQ7 CW7 DC7 DI7 DO7 DU7 EA7">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54672,12 +54937,12 @@
     <mergeCell ref="DO1:DT1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 EY7:XFD7 W7 AC7 AI7 AO7 AU7 BA7 BG7 BM7 BS7 BY7 CE7 CK7 CQ7 CW7 DC7 DI7 DO7 DU7 EA7 EG7 EM7 ES7">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58051,12 +58316,12 @@
     <mergeCell ref="DO1:DT1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:XFD6 A7:Q7 EY7:XFD7 W7 AC7 AI7 AO7 AU7 BA7 BG7 BM7 BS7 BY7 CE7 CK7 CQ7 CW7 DC7 DI7 DO7 DU7 EA7 EG7 EM7 ES7">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"盘"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4401,11 +4401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145217024"/>
-        <c:axId val="145218560"/>
+        <c:axId val="206755328"/>
+        <c:axId val="206756864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="145217024"/>
+        <c:axId val="206755328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,14 +4415,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145218560"/>
+        <c:crossAx val="206756864"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145218560"/>
+        <c:axId val="206756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4443,7 +4443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145217024"/>
+        <c:crossAx val="206755328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -24108,7 +24108,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N130" sqref="N130"/>
+      <selection pane="bottomRight" activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30680,6 +30680,9 @@
       </c>
       <c r="D131" s="3">
         <v>43625</v>
+      </c>
+      <c r="H131">
+        <v>45.7</v>
       </c>
       <c r="I131" s="53">
         <v>20</v>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4401,11 +4401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164877824"/>
-        <c:axId val="164879360"/>
+        <c:axId val="208852480"/>
+        <c:axId val="208854016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164877824"/>
+        <c:axId val="208852480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,14 +4415,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164879360"/>
+        <c:crossAx val="208854016"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164879360"/>
+        <c:axId val="208854016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4443,7 +4443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164877824"/>
+        <c:crossAx val="208852480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -24108,7 +24108,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H137" sqref="H137"/>
+      <selection pane="bottomRight" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30813,6 +30813,9 @@
       <c r="D136" s="3">
         <v>43660</v>
       </c>
+      <c r="H136">
+        <v>43.9</v>
+      </c>
       <c r="I136" s="53">
         <v>20</v>
       </c>
@@ -30835,6 +30838,9 @@
       </c>
       <c r="D137" s="3">
         <v>43667</v>
+      </c>
+      <c r="H137">
+        <v>45</v>
       </c>
       <c r="I137" s="53">
         <v>20</v>

--- a/10年交易计划.xlsx
+++ b/10年交易计划.xlsx
@@ -4432,11 +4432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="261088768"/>
-        <c:axId val="261090304"/>
+        <c:axId val="277468672"/>
+        <c:axId val="277470208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="261088768"/>
+        <c:axId val="277468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,14 +4446,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261090304"/>
+        <c:crossAx val="277470208"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="261090304"/>
+        <c:axId val="277470208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4474,7 +4474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261088768"/>
+        <c:crossAx val="277468672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -24139,7 +24139,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N145" sqref="N145"/>
+      <selection pane="bottomRight" activeCell="V142" sqref="V142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31197,6 +31197,9 @@
       <c r="D149" s="3">
         <v>43751</v>
       </c>
+      <c r="H149" s="53">
+        <v>20.3</v>
+      </c>
       <c r="I149" s="53">
         <v>20</v>
       </c>
@@ -31211,6 +31214,9 @@
       </c>
       <c r="D150" s="3">
         <v>43758</v>
+      </c>
+      <c r="H150" s="53">
+        <v>19.600000000000001</v>
       </c>
       <c r="I150" s="53">
         <v>20</v>
